--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PROJECT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,14 @@
   <si>
     <t>15213872400788</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;현재의 내용은 저희 개발1팀에서 임의대로 작성한 내용입니다.&lt;/p&gt;_x000D_
+&lt;p&gt;해당 공연의 날짜와 맞지 않으니 참고해주세요.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;현재 테스트 게시글입니다.&lt;/p&gt;_x000D_
+&lt;p&gt;입금하지 않도록 주의해주세요.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -415,7 +423,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -462,10 +470,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>15213998388299</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>152140018016610</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>

--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28032" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,14 +61,14 @@
 &lt;p&gt;해당 공연의 날짜와 맞지 않으니 참고해주세요.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;현재 테스트 게시글입니다.&lt;/p&gt;_x000D_
-&lt;p&gt;입금하지 않도록 주의해주세요.&lt;/p&gt;</t>
+    <t>15213998388299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
@@ -129,6 +134,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -176,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,18 +431,18 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="52.375" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="52.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -453,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -461,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -469,32 +477,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>15213998388299</v>
+    <row r="5" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>152140018016610</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -504,7 +508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,7 +521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -1,107 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="CORNSALAD.PROJECT_CONTENT" r:id="rId3" sheetId="1"/>
-    <sheet name="SQL" r:id="rId4" sheetId="2"/>
+    <sheet name="CORNSALAD.PROJECT_CONTENT" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Dialog"/>
-      <sz val="11.0"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-  </cellXfs>
-</styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>PROJECT_ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>VIDEO_URL</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CONTENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>152144867971845</t>
-        </is>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;#Making Story&lt;/h2&gt;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>VIDEO_URL</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>152144867971845</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;#Making Story&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180319173948.jpeg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;/텀블벅과 함께 새로운 스토리몰드(8개 시리즈 총 76가지 모양)&lt;/strong&gt;&lt;/h2&gt;
@@ -154,19 +87,12 @@
 &lt;p&gt;곰의 친구들이 모여 있습니다. 북극의 상징인 북극곰과 아기곰, 펭귄, 섬세한 수염이 돋보이는 바다표범이 있으며 커다란 얼음 모양의 몰드는 다양한 동물을 돋보이게 만들 수 있는 특징을 가지고 있습니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180319174304.jpg" alt="" width="620" height="438" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>152145388031846</t>
-        </is>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t>152145388031846</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;# 안녕하세요&lt;/strong&gt;&lt;/h2&gt;
@@ -202,19 +128,12 @@
 &lt;blockquote&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;blockquote&gt;&lt;strong&gt;1. 섬유의 조성 또는 혼용률 - 코튼 90% / 스판덱스 5% / 폴리 5%&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;2. 제조자명 - 글로벌원&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;3. 제조국명 - 한국&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;4. 제조연월 - 2018.02&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;5. 치수 - 225mm~255mm까지 가능. 개인차있을수 있음&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            발바닥부분(발끝에서 뒷꿈치 절개선까지) 약 18.5cm &lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            발목부분(뒷꿈치 절개선에서 발목끝까지) 약 17cm&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            각 색상마다 수축율에 의해 기장이 다를수 있습니다&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;6. 취급상 주의사항 - 물세탁가능하며 세탁이나 탈수시 &lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;                            세탁망에 넣고 세탁하면 변형이나 늘어짐을 방지할수 있습니다.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;                            마찰에 의해 보풀이 일어날수 있습니다.&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;blockquote&gt;* 본 제품은 주문수량만큼 제작되기 때문에 환불이 불가능합니다.&lt;br /&gt;* 측정방법에 따라 혹은 원단의 신축성에 따라 발생할수 있는 &lt;br /&gt;  1-2cm 사이즈 오차는 불량으로 반품이 불가합니다.&lt;br /&gt;* 색상은 모니터 환경 또는 촬영시 조도에 따라 다소 달리 보일수 있습니다.&lt;/blockquote&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>152145778182347</t>
-        </is>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
+  </si>
+  <si>
+    <t>152145778182347</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
 &lt;p&gt;&lt;em&gt;모두 개개인의 아픔이 있습니다. 아픔의 크기는 다르지만 자신에게 고통이 있다는건 변하지 않지요. 그러나 가끔은 그런 아픔을 공유하고 이해받고 싶습니다. 아래의 책들은 모두 그런 고통과 공유에 대한 소망을 담은 책 입니다. 책들은 약에 대해, 정신병에 대해 그리고 있으나 분명 그 본질은 우리가 가진 말할 수 없는 고통입니다. &lt;/em&gt;&lt;/p&gt;
 &lt;h3&gt;때문에 이러한 감정들을 공유하고자,&lt;/h3&gt;
 &lt;h3&gt;욕심을 내서 최대한 &lt;strong&gt;고옵션&lt;/strong&gt;을 지향하나 &lt;strong&gt;원가에 가까운 가격&lt;/strong&gt;으로 찾아왔습니다! &lt;/h3&gt;
@@ -266,19 +185,12 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;유의사항&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;* 모든 선물의 가격은 [배송료 포함] 입니다. &lt;u&gt;산간지역도 배송료는 똑같이 책정&lt;/u&gt;합니다!&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>152145922056948</t>
-        </is>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
+  </si>
+  <si>
+    <t>152145922056948</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
 &lt;h3&gt;&lt;strong&gt;고양이 폰케이스 - 기종/디자인 서베이 필수 (미선택시 랜덤 배송합니다.)&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;&lt;strong&gt;**제작 가능 기종: 아이폰5/5S/SE, 6/6S, 6+/6S+, 7/8, 7+/8+, X, 갤럭시 S6, S6EDGE, S7, S7EDGE, S8, 노트5, 노트8 **&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -332,19 +244,12 @@
 &lt;p&gt;&lt;strong&gt;-  상품가격은 택배비 2,500원이 포함된 가격입니다.  제주산간지역의 경우 추가 배송료 3,000원을 밀어주기에 더해 입력해주세요.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;감사합니다.&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>152148536524733</t>
-        </is>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t>152148536524733</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
 &lt;p&gt;지구 온나화란 지구의 평균 기온이 점점 높아지는 현상이다.&lt;/p&gt;
 &lt;p&gt;지금 우리 지구는 이산화탄소의 농도가 높아지면서 평균기온이 상승하고 있다.&lt;/p&gt;
 &lt;p&gt;&lt;이상 기후의 원인, 지구온난화&gt;&lt;/p&gt;
@@ -385,19 +290,12 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;*뱃지가 홀로그램 도금인 만큼 단가가 비쌉니다. 후원자님들의 부담을 덜기 위해 준등기를 기본으로 하고 있지만, 올세트부터는 무게가 100g을 초과하여 택배배송을 하는 점 양해 바랍니다 &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>152148892479134</t>
-        </is>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t>152148892479134</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050839.jpg" alt="" width="620" height="1266" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050853.jpg" alt="" width="620" height="1138" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050910.jpg" alt="" width="620" height="1186" /&gt;&lt;/p&gt;
@@ -428,19 +326,12 @@
 &lt;h2&gt;&lt;strong&gt;*선물 구성&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;A.&lt;/strong&gt; 스티커 2매 + 배송비(일반우편)&lt;br /&gt;&lt;strong&gt;B.&lt;/strong&gt; 스티커 3매 + 포스트잇 1매 + 배송비(소포)&lt;br /&gt;&lt;strong&gt;C.&lt;/strong&gt; 스티커 4매 + 포스트잇 1매 + 세종냥이 뱃지 1개 + 배송비(소포)&lt;br /&gt;&lt;strong&gt;D.&lt;/strong&gt; 스티커 5매 + 포스트잇 1매 + 세종냥이 뱃지 1개 + 에코백 + 배송비(소포)&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;선물 A는 기본적으로 일반우편으로 배송됩니다.&lt;/strong&gt; &lt;br /&gt;배송방법을 변경하고 싶으신 후원자 분들 께서는 &lt;u&gt;기본 6000원에서 2500원 이상을 추가&lt;/u&gt;하여 후원해주시면 &lt;u&gt;등기우편&lt;/u&gt;으로 보내드리도록 하겠습니다.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>152149194727035</t>
-        </is>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
+  </si>
+  <si>
+    <t>152149194727035</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
 &lt;p&gt;3월이 되니, 날이 부쩍 따뜻해지고 봄이 한걸음 다가왔습니다. 아직 일교차가 커서 해가 지면 급격하게 추워지지만... 낮에는 따뜻한 햇살이 건물 사이사이를 비추고 있죠.&lt;br /&gt;푸른 새 잎이 나무에서 돋아나기도 전에, 매화는 누구보다 빨리 봄이 왔음을 알아채 꽃을 피우기 시작했답니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320054058.jpeg" alt="" width="620" height="412" /&gt;&lt;/p&gt;
 &lt;p&gt;3월 초, 매화중에서도 제일 먼저 꽃을 피우는 붉은 빛깔의 홍매화를 제가 제일 좋아하는 고래와 함께 뱃지에 담아봤어요! 이전에 했던 하얀고래 뱃지 프로젝트를 이어받아, 군청색의 혹등고래와 하얀색의 혹등고래를 함께 그려넣었습니다.&lt;/p&gt;
@@ -479,19 +370,12 @@
 &lt;p&gt;2)&amp;nbsp;커뮤니티&amp;nbsp;| 여러가지 질문사항이 있으신 후원자분들께서는 [커뮤니티]에 글을 남겨주셔도 됩니다. 하지만 [창작자에게 문의하기]탭을 이용하시는 것이 가장 빠릅니다!&lt;/p&gt;
 &lt;p&gt;3)&amp;nbsp;트위터&amp;nbsp;|&amp;nbsp;https://twitter.com/seastarlight&lt;br /&gt;&amp;nbsp; &amp;nbsp; 인스타&amp;nbsp;|&amp;nbsp;https://www.instagram.com/seastarlight_hyuneun&lt;/p&gt;
 &lt;p&gt;창작자에게 문의하기 탭으로 가장 빠르게 답변을 받아보실 수 있습니다! 가급적이면 1)을 이용해주세요~&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>152149361323936</t>
-        </is>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t>152149361323936</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;아...&lt;br /&gt;봄인데...&lt;br /&gt;벚꽃 뱃지도 갖고싶고,&lt;br /&gt;고양이 뱃지도 갖고싶다..&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -524,19 +408,12 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320061555.jpg" alt="" width="620" height="1181" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>152149475182637</t>
-        </is>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
+  </si>
+  <si>
+    <t>152149475182637</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
 &lt;p&gt;마비노기가 10살이 되던 2014년, 그 해 여름의 판타지 파티를 기억하시나요?&lt;br /&gt;유례 없던 유저 참여형 행사, 굿즈를 직접 선보일 수 있는 기회.&lt;br /&gt;게임만 하던 밀레시안 세 명이 용기내어 팀을 결성할 수 있었던 소중한 계기랍니다.&lt;br /&gt;&lt;sub&gt;팀 명은 말 그대로 캐릭터를 생성한 지 무척이나... 오래 되었기 때문입니다. 웃어주실 때마다 보람을 느낍니다.&lt;/sub&gt;&lt;/p&gt;
 &lt;p&gt;판타지 파티 -밀레시안의 아트전- 에서 일찍이 저희를 접하신 분들도 계실 거예요.&lt;br /&gt;그 다음은 넥슨 팬 파크에서, 네코제에서, 그리고 지금의 네코장까지.&lt;br /&gt;저희 부스를 찾아주신 분들 덕분에 이렇게 다시 한 번 도전할 수 있게 되었습니다.&lt;/p&gt;
 &lt;p&gt;이 페이지를 보고 계신 여러분께도 환영의 인사와 깊은 감사를 드리며, 새로이 제작하게 된 &lt;u&gt;스킬 뱃지&lt;/u&gt;와 앞서 제작되었던 &lt;u&gt;재능 뱃지&lt;/u&gt;를 소개해드릴게요.&lt;/p&gt;
@@ -556,19 +433,12 @@
 &lt;p&gt;완성될 뱃지의 모습이 궁금하다면, 위의 재능 뱃지를 참고해보시는 건 어떨까요?&lt;br /&gt;금도금된 베이스 위에 투명 레진으로 마감하여 볼록한 옆면을 갖게 된답니다.&lt;br /&gt;수지칠 뱃지와는 조금 다른 매력을 느끼실 수 있을 거예요.&lt;br /&gt;※마감 작업은 손수 진행하므로, 도포되는 레진의 양에 따라 아주 약간씩의 두께 차이가 발생합니다.&lt;/p&gt;
 &lt;p&gt;한 방에 쓰러트리던 몹들을 최대한 살살 때려보려다 역으로 얻어맞고, 평소엔 거들떠도 안 보던 티오즈 아머를 위해 시간에 쫓기며 망치를 두드리던 지난날.&lt;br /&gt;오랜 노력의 끝에 얻어낸 금색 테두리를 보며 느꼈던, 혹은 앞으로 느끼게 될 뿌듯함을 에린에서 현실로 전해드립니다. &lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320063503.jpg" alt="" width="620" height="1051" /&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>152149588003738</t>
-        </is>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t>152149588003738</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320065109.jpg" alt="" width="620" height="456" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&amp;diams;제작의도&lt;/strong&gt;&lt;/p&gt;
@@ -604,19 +474,12 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320065534.jpg" alt="" width="620" height="878" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;｢바람을 그리다 : 신윤복&amp;nbsp;&amp;bull;정선｣展&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;기간 : 2017년 11월 24일(금) ~ 2018년 5월 24일(목)&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;장소 : 동대문디자인플라자(DDP) 배움터 2층 디자인박물관&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주제 : 원작과 미디어아트가 함께하는 전시&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주요작품 : 혜원전신첩, 겸재정선 26점&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주최 : 간송미술문화재단, 서울디자인재단&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>152149749486339</t>
-        </is>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t>152149749486339</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320071553.png" alt="" width="620" height="417" /&gt;&lt;/p&gt;
 &lt;blockquote&gt;&lt;strong&gt;&amp;lt;디자인 시안&amp;gt;&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -649,19 +512,12 @@
 &lt;p&gt;size 15mm 사이즈의 세가지 디자인 구성이 한 세트입니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;+ 참고 사항 +&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;뱃지는 핸드메이드 제품으로 모든 제품이 똑같을 수 없으며 매끄럽지 않은 금형 부분나 약간의 흠집 또는 공정상 생길 수 있는 2mm이하의 미세한 기스와 기포, 먼지 그리고 약간의 칠이 넘친 것은 파본이 아닙니다.&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>152149818635040</t>
-        </is>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t>152149818635040</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;저는 가끔씩 예전의 폴더폰이 그리워질때가 있어요.&lt;br /&gt;폴더폰을 열고닫을때 딱 맞물리는 소리, 문자칠때의 자판 감촉, 한손에 쏙 들어오는 그립감 등이 생각나거든요.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320072444.jpg" alt="" width="620" height="411" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -680,30 +536,682 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;일정 안내&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;- 뱃지 제작기간은 펀딩 마감 후 2~3주가 걸립니다.&lt;/p&gt;</t>
-        </is>
+  </si>
+  <si>
+    <t>select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
+  </si>
+  <si>
+    <t>152154108741610</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;할머니의 요리책 개정판&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;2015년에 &amp;lt;할머니의 요리책&amp;gt;이 나온 후 할머니의 안부를 걱정해주시고, 저와 같은 마음으로 할머니의 요리책을 아껴주시고 응원해 주신 많은 분들 정말 고맙습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;책을 계속 찾아주시는 분들을 위해 3쇄 인쇄를 하려다가 &amp;lt;할머니의 요리책&amp;gt; 개정판을 만들게 되었습니다. &amp;lt;할머니의 요리책&amp;gt; 개정판에는 초판에 들어있던 20가지 할머니의 요리와 새로운 요리 10가지가 추가되어 총 30가지의 요리가 담겨있습니다. 아래는 새로운 10가지 요리입니다.&lt;/p&gt;
+&lt;p&gt;콩나물밥&lt;br /&gt;계란반숙&lt;br /&gt;콩비지찌개&lt;br /&gt;쑥떡&lt;br /&gt;장조림&lt;br /&gt;열무김치&lt;br /&gt;깍두기&lt;br /&gt;팥죽&lt;br /&gt;설날 떡국&lt;br /&gt;미역국&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152159737628112</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;현대인은 짐이 많습니다.&lt;br /&gt;하지만 짐이 가득 들어간 가방을 놓을 곳은 마땅치 않죠.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155326507_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155348614_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155358220_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155412724_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302214719301_32.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155430338_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155448614_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;일상의 사소한 편리함과 작은 배려&lt;/strong&gt;가 가져올&amp;nbsp;&lt;strong&gt;커다란 변화&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;링콘&lt;/strong&gt;으로 시작해 보세요.&lt;/p&gt;
+&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t>152159784017713</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;최근 들어 자주 발생하는 화재 사건&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;건조한 겨울 철이면 빈번히 발생하는 화재 사건. 최근, 우리는 3건의 가슴아픈 화재 사고를 겪었습니다. 뉴스를 통해 보여지는 위험한 화재 현장과 피해자들의 모습... 화재 사고가 마무리되고 나면 늘 '초기 대응이 미흡해 큰 화재로 이어졌다' 는 기사가 나오고, 개선방법에 대해 얘기를 하지만 또 금세 잊게 됩니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226231628604_81.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;우리는 매일 불과 함께 살고 있습니다.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226164148223_47.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;소방청 국가화재정보센터&lt;/h5&gt;
+&lt;h5&gt;&amp;nbsp; 연간 화재 건 수 38,621&lt;/h5&gt;
+&lt;h5&gt;&amp;nbsp; 자동차 화재 건 수 4394건&lt;/h5&gt;
+&lt;h5&gt;&amp;nbsp; 하루 평균 105건&lt;/h5&gt;
+&lt;p&gt;더 이상 남의 일이 아닙니다!&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;화재 발생 시 가장 적극적인 대처 방법은&lt;/p&gt;
+&lt;p&gt;초기 진압 시 소화용구의 사용&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0227/20180227001817481_81.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;화재발생 시&amp;nbsp;&lt;strong&gt;초기 10여 초의 시간&lt;/strong&gt;이 가장 중요합니다. 소방방재청에 따르면&amp;nbsp;&lt;strong&gt;화재 발생 후 5분이 지나면&lt;/strong&gt;&amp;nbsp;연소 확산 속도와 피해규모가 급격히 증가해 진화에 어려움이 있어 가장 많은 인명 피해가 발생한다고 합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;가까운 곳에 소화용구가 어디에 있는지&lt;/p&gt;
+&lt;p&gt;주변을 둘러보세요.&amp;nbsp;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;화재 사고의 초기 대응&lt;/strong&gt;이라 함은 소화용구의 사용을 말합니다.&lt;strong&gt;&lt;u&gt;&amp;nbsp;바로, 소화기&lt;/u&gt;&lt;/strong&gt;를 말합니다. 지금 우리 집, 사무실, 차 안에 소화기가 어디에 있는 지 둘러보세요. 보통 소화기는 미관상의 이유로 잘 보이지 않는 곳에 비치되어있으며, 적절한 관리를 하지 않은 채 오래 방치되어 쓸 수 없는 것이 대다수입니다.&lt;/p&gt;
+&lt;p&gt;국가에서도 현재 7인승 이상 탑승 차량에 필수적으로 소화용구를 비치해야한다는 법안을 5인승 이상 탑승 차량에 필수적으로 소화용구를 비치하도록 개정하려고 논의하고 있을 정도로&amp;nbsp;&lt;strong&gt;소화용구는 초기 화재 진압의 핵심&lt;/strong&gt;이라고 할 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226164227966_47.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;이지오프 소화용구는 간편하고 강력하며 디자인적인 부분까지 고려했습니다.&amp;nbsp;&lt;/u&gt;집안, 사무실, 차량 등 어디에나 쉽게 비치할 수 있고, 남녀노소 누구나 손쉽게 사용할 수 있습니다.&lt;/p&gt;
+&lt;h5&gt;&lt;strong&gt;여러분의 안전을 가장 가까운 곳에서 지켜줄 이지오프를 만나보세요.&lt;/strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226180745414_12.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;br /&gt;알루미늄 하이드로 가스 &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;알루미늄 케이스 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;/h5&gt;
+&lt;p&gt;이지오프 소화용구는&amp;nbsp;&lt;strong&gt;&lt;u&gt;국가검정에 승인받은 하이드로가스&lt;/u&gt;&lt;/strong&gt;를 사용합니다. 하이드로 계열의 친환경 가스를 사용하여&amp;nbsp;&lt;strong&gt;환경 파괴물질이 기준치 이하&lt;/strong&gt;로 낮으며, 화재 진압 시&lt;strong&gt;&amp;nbsp;냉각효과 진압으로 소화력&lt;/strong&gt;이 뛰어납니다. 일반화재는 물론&amp;nbsp;&lt;strong&gt;&lt;u&gt;유류화재, 전기화재 등 모든 화재 진압에 탁월한 효과를 발휘&lt;/u&gt;&lt;/strong&gt;합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0312/20180312133143628_72.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226225049539_81.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;이지오프 소화용구는&amp;nbsp;&lt;strong&gt;&lt;u&gt;전용&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;거치대&lt;/u&gt;&lt;/strong&gt;를 이용해&amp;nbsp;&lt;strong&gt;&lt;u&gt;차량이나 가정, 사무실 어디에도 간편하게 보관&lt;/u&gt;&lt;/strong&gt;할 수 있습니다. 소형으로 제작되었기 때문에 거치대 없이도 쉽게 보관할 수 있으며 승하차시에나 차량에 탑승해 있을때도 불편함이 전혀 없습니다. 차량이나 차량 주변에서 발생하는 화재에&amp;nbsp;&lt;strong&gt;신속하고 안전하게 대처&lt;/strong&gt;할 수 있습니다. 차종에 따라&amp;nbsp;&lt;strong&gt;다양한 방법&lt;/strong&gt;으로 거치할 수 있습니다.&lt;/p&gt;
+&lt;h5&gt;&lt;u&gt;&lt;strong&gt;단, 운적석에는 거치를 절대 금합니다.&lt;/strong&gt;&lt;/u&gt;&lt;/h5&gt;
+&lt;h5&gt;&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226235504373_81.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0226/20180226235511011_81.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;차량 내부 비치 예시&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310032534183_41.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310032548149_41.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;카페 내부 비치 예시&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310032630968_41.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310032646644_41.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;사무실 내부 비치 예시&lt;/h5&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;차량, 음식점, 카페, 사무실, 집&lt;/u&gt;&lt;/strong&gt;어디에든 잘 어울리는&amp;nbsp;&lt;strong&gt;디자인!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;소화기,&amp;nbsp;&lt;/strong&gt;이제&amp;nbsp;&lt;strong&gt;보이는 곳&lt;/strong&gt;에 비치하세요!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152159859912314</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="type-default"&gt;
+&lt;p&gt;선반&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;선반은 참 유용한 가구입니다.&lt;br /&gt;이차원 평면의 공간을 입체적으로 사용하기에뛰어난 실용성을 가지고 있으며개방된 4면을 통해 어떤 물건을 보관하고 있는지 한눈에 보여줍니다. 선반 위에 잘 배치된 물건들은 공간의 분위기를 다르게 만들어 주지요.&lt;/p&gt;
+&lt;p&gt;이렇게 유용한 선반은사무실을 오픈할때, 나만의 공간을 꾸밀때 등 새로운 공간에서 새로운 출발을 하면서 제일 먼저 구입하게 되는 가구입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;실생활에서 익숙하게 사용하는 선반 대부분의 선반은&amp;nbsp;&lt;strong&gt;철, &amp;nbsp;MDF&amp;nbsp;&lt;/strong&gt;등의 소재로 만들어집니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;조립식 선반은 무거워&lt;strong&gt;&amp;nbsp;추가 배송비&lt;/strong&gt;가 발생하며 번거로운 제작과정 때문에&amp;nbsp;&lt;strong&gt;조립비&lt;/strong&gt;를 내며 만들고 다시 이사할때는&amp;nbsp;&lt;strong&gt;폐기 비용&lt;/strong&gt;까지 지불하곤 합니다. &amp;nbsp;이렇게 폐기 된 선반은 재활용이 어려워 소각되거나 매립되어&amp;nbsp;&lt;strong&gt;공해를 유발&lt;/strong&gt;합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;다른 소재로 선반은 만들 수 없을까요?&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;종이&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;종이는 가벼우면서도 소재의 90% 이상이 재활용 가능한 소재입니다.&lt;br /&gt;우리는 이러한&amp;nbsp;&lt;strong&gt;'&lt;/strong&gt;&lt;strong&gt;올바른 소재'&lt;/strong&gt;를&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;'올바르게 활용'&amp;nbsp;&lt;/strong&gt;하면 열린 사용성을 가지며 다양한 환경을 수용하는 선반장을 만들 수 있을 거라고 생각했습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;종이 소재로 가구를 만들기 위해서는 &amp;nbsp;&lt;strong&gt;3가지 문제&lt;/strong&gt;를 해결해야 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;강도 / 조립 / 가격&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;어떻게 하면 종이 소재가 가진 장점을 살리고 한계를 극복하며&amp;nbsp;&lt;strong&gt;올바르게 선반장을 만들 수 있을까요?&lt;/strong&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;선반+ 종이 = 팀버(TIMBER)&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;TIMBER 선반장은 기본적인 골판지 소재와 가공기법을 디자이너의 시각으로 새롭게 해석해서 소재의 한계를 극복하며 실용적이고 합리적인 종이가구를 제안합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0218/20180218172438044_52.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;1. 독특한 구조와 두꺼운 종이&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;팀버 선반장은 종이로 만들어졌습니다. 일반적으로 종이 소재는 약할 것이라고 생각합니다. 우리는 구조에 주목했습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;팀버는 종이를 각목과 같은 형식으로 말아 'ㅁ' 형태를 만들어&amp;nbsp;&lt;strong&gt;소재가 가진 강도를 극한으로 올리는 구조&lt;/strong&gt;를 차용했습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;한 장의 종이는 약하지만 종이를 두 번 세 번 접어 말거나 여러장을 겹치면 더욱 강해지는 특성을 활용했으며 이미 이러한 방식으로 &amp;nbsp;가공된 형태의 종이 소재는 이미 산업 곳곳에서 사용되고 있습니다. 종이 파렛트는 300KG이 넘는 무게를 견디며 종이 보드는 합판 문짝, 합판 테이블에서 빈 공간을 채우기 위해 사용되고 있고 [시게루 반]이라는 건축가는 종이로 사람이 주거할 수 있는 집을 만들기도 했습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;종이를 말아 강도를 높이고 목재의 구조에서 영감을 받은 결합 구조&lt;/strong&gt;를 통해 속이 비어있으면서도 높은 강도를 가질 수 있도록 만들었습니다. 또한 일반적으로 박스에 사용되는 두께 3mm에 펄프 함량이 낮은 K 혹은 SK 원지 골판지 대비&amp;nbsp;&lt;strong&gt;두 배 이상 강한 강도&lt;/strong&gt;를 가지는&lt;strong&gt;&amp;nbsp;5mm의 골판지 소재&lt;/strong&gt;를 사용 했으며 &amp;nbsp;발수 코팅 및 부분적으로 OPP 라미네이팅을 진행해 물과 습기에 강합니다.&lt;br /&gt;&amp;nbsp;&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217161247823_83.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 공구가 필요 없는 조립&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;팀버는&lt;strong&gt;&amp;nbsp;목재 가구의 결합구조에서 영감을 받아 디자인&lt;/strong&gt;되었습니다.&lt;br /&gt;일반적인 종이 가구 조립은 종이접기 방식 혹은 접착제가 들어가게 돼서 만들기 힘듭니다.&lt;br /&gt;하지만 팀버는&lt;strong&gt;&amp;nbsp;팀버 전용으로 제작된 특수 연결부재&amp;nbsp;&lt;/strong&gt;와&amp;nbsp;&lt;strong&gt;많은 연구를 통해 완성한 12가지 골판지 모듈&lt;/strong&gt;로 구성되며, 각각의 모듈을&amp;nbsp;&lt;strong&gt;블록처럼 조합&lt;/strong&gt;해서 형태가 다른&amp;nbsp;&lt;strong&gt;46가지의 골판지 선반장&lt;/strong&gt;을 만들 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;이렇게 조립된 TIMBER는 목재의 짜임 연결 구조와 유사하여 공간 속 다른 가구들과도 조화롭게 어우러집니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217161356226_83.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3. 합리적인 가격 &amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;종이가구는 저렴할 것이라는 생각과는 달리 일반 가구보다 비싼 것이 대부분입니다. &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;KG 당 비용이 철보다 높을 때가 있을 정도로 종이 재료는 결코 저렴한 재료가 아닙니다.&lt;br /&gt;어떻게 하면 합리적인 가격에 종이 가구를 선보일 수 있을까요? 팀버를 만들기 위해 우리는&amp;nbsp;&lt;strong&gt;종이의 낭비를 최소화&lt;/strong&gt;했습니다. 그리고&amp;nbsp;&lt;strong&gt;모듈화&lt;/strong&gt;로&amp;nbsp;&lt;strong&gt;다른 모양이어도 부품을 공유&lt;/strong&gt;할 수 있도록 구성했습니다.&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217161702946_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;모든 낭비를 최소화해 만들어낸 종이 가구,&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;'팀버' 입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0220/20180220183410027_58.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;종이가구에 영감을 준 &amp;lsquo;목재(木材)&amp;rsquo;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0218/20180218175147832_93.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;목재를 뜻하는 TIMBER&amp;nbsp;&lt;/strong&gt;팀버는&amp;nbsp;&lt;strong&gt;목&lt;/strong&gt;&lt;strong&gt;재 가구의 결합구조에서 영감을 받아 디자인&lt;/strong&gt;되었습니다.&lt;/p&gt;
+&lt;p&gt;팀버에는 특수 제작한 연결부재와 연구를 통해 완성한&lt;strong&gt;12가지 골판지 모듈로 구성되며, 각각의 모듈을 블록처럼 조합해서 형태가 다른 46가지의 기본 골판지 선반장&lt;/strong&gt;을 만들 수 있습니다.&lt;/p&gt;
+&lt;p&gt;이렇게 조립된 TIMBER는 목재의 짜임 연결 구조와 유사하여 공간 속 다른 가구들과도 조화롭게 어우러집니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217161801428_83.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;사용자에 따라 다양하게 활용되는 선반은 인테리어에서 중요한 위치를 차지합니다.&lt;br /&gt;우리는&amp;nbsp;&lt;strong&gt;유용한 가구 중 선반을 선택해서 종이&lt;/strong&gt;로 만들었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;일반적으로 사용하는 골판지 한 장은 약합니다. 하지만 두 장 세 장이 겹쳐지면 사람이 올라갈 수 있을 정도로 튼튼합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;이렇게 만들어진 팀버는&amp;nbsp;&lt;strong&gt;동일무게의 목재 가구 대비 최대 1/10로 가벼워서&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;손쉽게 이동&lt;/strong&gt;할 수 있으며&amp;nbsp;&lt;strong&gt;소&lt;/strong&gt;&lt;strong&gt;재의 약 90%를 재활용&lt;/strong&gt;할 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217163734660_83.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;대부분의 원룸 거주자는 계약 기간&lt;strong&gt;&amp;nbsp;1~2년 동안 지낸 후 이사를 계획&lt;/strong&gt;하곤 합니다.&lt;br /&gt;여기서&amp;nbsp;&lt;strong&gt;버려지는 가구들이 연간 1천여 톤&lt;/strong&gt;에 이르고 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;대부분은&amp;nbsp;&lt;strong&gt;재활용도 안 되고, 생산과 폐기 시 많은 환경적 문제&lt;/strong&gt;가 발생합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;특히 저가형 MDF 합판을 사용한 제품은&amp;nbsp;&lt;strong&gt;포름알데히드와 같은 유해물질&lt;/strong&gt;이 사용 과정에서도 계속 방출되며,사용 후에도 재활용이 안 되고 소각되거나 매립되어 지속적으로 환경 오염을 일으키고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;가벼우면서도 견고하고, 재활용이 가능한 소재인 &amp;lsquo;골판지&amp;rsquo;는&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;일상생활 속에서도 멋&lt;/strong&gt;&lt;strong&gt;스럽게 활용될 수 있는 올바른 소재입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0218/20180218174719153_93.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;12개의 모듈&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217164312929_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;팀버는 모듈로 구성되어 있습니다.&lt;/strong&gt;&lt;br /&gt;상판 구조(7개), 받침 구조(2개), 다리 및 보조제 구조(3개)의 규격화된&amp;nbsp;&lt;strong&gt;12개&lt;/strong&gt;의 기본 모듈을 활용해서 만들 수 있는 팀버의 종류는&amp;nbsp;&lt;strong&gt;총 46가지&lt;/strong&gt;에 달합니다. &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;팀버를 해킹해보세요!&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217164427884_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;이번 크라우드 펀딩을 통해 구성한 팀버는&amp;nbsp;&lt;strong&gt;7종류,&amp;nbsp;&lt;/strong&gt;하지만 팀버는 여기서 끝이 아닙니다.&lt;br /&gt;팀버의 종류는 구성한 부품을 활용한 다양하게 조립을 통해 새로운 모양을 만들어 볼 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;팀버의 사용자는&amp;nbsp;&lt;strong&gt;공간에 알맞은 선반장 형태를 결정한 뒤 필요한 골판지 모듈 타입과 수량을 체크하여 원하는 선반장을 만들 수 있습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;모든 모듈은 탈착이 가능하도록&amp;nbsp;&lt;strong&gt;특&lt;/strong&gt;&lt;strong&gt;수제작된 리벳&lt;/strong&gt;으로 조립되기 때문에 잘못 구성했을 때는 손쉽게 분해해서 조립 전으로 되돌릴 수 있습니다. &amp;nbsp;팀버를 사용하지 않는 경우에는 다시 풀어서 보관 할 수 있어요.&lt;/p&gt;
+&lt;p&gt;골판지 모듈을 추가하거나 제거하여 새로운 형태의 선반장으로 재조립하는 즐거움 나만의 선반장을 만드는 즐거움을 찾아보세요.조합이 가능한 종류는 총 46여 가지에 달합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;나만의 팀버 만들기에 도전해보세요!&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;포인트를 주는 3가지의 컬러&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;팀버의 받침과 다리 구조는 골판지 그대로를 사용합니다.&lt;br /&gt;&amp;nbsp;크라프트 색의 무채색 느낌에 공간별로 포인트를 줄 수 있도록 상판 구조에만&amp;nbsp;&lt;strong&gt;레드 / 딥그린 /다크그레이 3가지 색상&lt;/strong&gt;으로 구성했습니다. 각기 다른 색상은 공간별로 개성 있는 포인트가 됩니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0217/20180217181418340_27.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;레드&amp;nbsp;&lt;/strong&gt;색상은 선반장만으로도 톡톡 튀며 위트있는 공간을 연출할 수 있으며&lt;br /&gt;&lt;strong&gt;딥그린&amp;nbsp;&lt;/strong&gt;색상은 공간 속에 부드럽고 편안한 인상을 심어줍니다.&lt;br /&gt;&lt;strong&gt;다크 그레이&lt;/strong&gt;&amp;nbsp;색상은 담백하고 모던한 공간을 완성해줍니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0221/20180221084128739_34.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;무겁고, 조립하기 힘들고, 이사할 때 폐기비용이 드는 DIY 선반의 대안은 없을까요?&lt;br /&gt;TIMBER는 그 대안이 될 수 있습니다.&lt;br /&gt;가볍게 조립하고 이사할 때는 재활용하세요. &amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0218/20180218172357805_52.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;어떤 물건을 보관하는지, 어떤 사용자가 사용하는지에 따라 분위기가 바뀌고 사용자에 따라서 편하게 만들어 사용하는 선반, 집안에 하나쯤 있으면 유용하게 사용되는 종이 가구 팀버 입니다.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -970,6 +970,72 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;안녕하세요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;-예쁜 우리 것을 일상으로!- 라는 마음아래 모인 프로젝트 그룹 연정(戀情)입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;한복을 착용했을 때뿐만 아니라 일상에서도 착용할 수 있는 스타일의 머리핀, 찾고 있지 않으셨나요?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;우리 전통의 아름다움을 가장 친숙하고도 세련된 방식으로 담아내기 위해 노력했습니다.&amp;nbsp;수차례 시행착오를 거친 끝에 가격에 대한 부담은 최대한 낮추고 고급스러움을 가득 담은 작품이 나왔습니다.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;좋은 원재료를 선별하여 담았고, 장식 하나하나 손수 작업했습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;특별한 날 그리고 일상으로 쓰일 수 있도록 무겁고 부담스러운 장식을 자제하고 원재료의 고급스러움이 포인트가 되어, 한복과 일상복 모두 어우러져 착용하시는 분의 아름다움이 더욱 돋보일 것입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;보면 볼수록 고급스럽고 착용했을 때 더 눈길이 가는 저희 제품을 소개합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;제품구성&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1.&amp;nbsp;적(赤)초롱 : 가로 60mm, 세로 10mm&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053731.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2.&amp;nbsp;청(靑)초롱 : 가로 60mm, 세로 10mm&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053746.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3.&amp;nbsp;밝을 랑(朗) :&amp;nbsp;가로 60mm, 세로 10mm&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053759.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;4.&amp;nbsp;어두운새벽 홀(㫚) :&amp;nbsp;가로 60mm, 세로 10mm&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053812.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;4개의 제품 모두 집게핀으로 제작되어 착용이 편리하며 섬세한 마감으로 머리카락이 걸려 불편하지 않도록 신경썼습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;**머리핀 2개 이상을 구매해 주시는 분들께는&amp;nbsp;&amp;lsquo;戀情&amp;rsquo;에서 자체 제작한 자개포인트 벨벳초커를 동봉하여 드립니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053845.jpg" alt="" width="620" height="827" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;strong&gt;따뜻한 관심과 후원 부탁드리며 저희 한복머리핀을 착용하시는 모든 분들께 우아한 아름다움이 함께하시길 바랍니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;戀 情&lt;/strong&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;#propio.36의 목표&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;반만년의 역사를 가지고 있는 우리나라는 저희도 모르는 많은 역사를 담고있습니다.&lt;br /&gt;그 역사들을 다 알지는 못하더라도 기억할 수 있도록&amp;nbsp;&lt;strong&gt;월간 케이스&lt;/strong&gt;&amp;nbsp;형식으로 달마다 있던 역사를 소재로 상품을 제작하고자 합니다.&lt;/p&gt;
+&lt;h4&gt;&amp;nbsp;저희 목표는 우리 선조들이 싸웠던 독립운동과 민주화를 이루기 위한 민주화 운동을 모두 담은 달력과 다이어리를 제작하는 것이 목표입니다.&lt;/h4&gt;
+&lt;p&gt;&amp;nbsp;그래서 후원해주신 후원금은 일회성의 기부금 형태로 기부되는것이 아닌, 독립운동가들을 더욱 알리고 찾을수 있도록 정기적인 월간 케이스의 발매와 10~11월에 우리나라의 역사를 담은 달력을 발매하는데 쓰이는 것이 좋겠다고 생각했습니다.&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;이번&lt;strong&gt;&amp;nbsp;잊혀진 이야기 : 1919년 -&amp;nbsp;월간 케이스&lt;/strong&gt;는&lt;/h2&gt;
+&lt;h2&gt;교과서 밖 3.1운동을 주제로한 그 첫번째 시작입니다.&lt;/h2&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -1,107 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CORNSALAD.PROJECT_CONTENT" r:id="rId3" sheetId="1"/>
-    <sheet name="SQL" r:id="rId4" sheetId="2"/>
+    <sheet name="CORNSALAD.PROJECT_CONTENT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SQL" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Dialog"/>
-      <sz val="11.0"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-  </cellXfs>
-</styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>PROJECT_ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>VIDEO_URL</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CONTENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>152144867971845</t>
-        </is>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;#Making Story&lt;/h2&gt;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">PROJECT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDEO_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152144867971845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;#Making Story&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180319173948.jpeg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;/텀블벅과 함께 새로운 스토리몰드(8개 시리즈 총 76가지 모양)&lt;/strong&gt;&lt;/h2&gt;
@@ -154,19 +88,12 @@
 &lt;p&gt;곰의 친구들이 모여 있습니다. 북극의 상징인 북극곰과 아기곰, 펭귄, 섬세한 수염이 돋보이는 바다표범이 있으며 커다란 얼음 모양의 몰드는 다양한 동물을 돋보이게 만들 수 있는 특징을 가지고 있습니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180319174304.jpg" alt="" width="620" height="438" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>152145388031846</t>
-        </is>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152145388031846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;# 안녕하세요&lt;/strong&gt;&lt;/h2&gt;
@@ -202,19 +129,12 @@
 &lt;blockquote&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;blockquote&gt;&lt;strong&gt;1. 섬유의 조성 또는 혼용률 - 코튼 90% / 스판덱스 5% / 폴리 5%&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;2. 제조자명 - 글로벌원&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;3. 제조국명 - 한국&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;4. 제조연월 - 2018.02&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;5. 치수 - 225mm~255mm까지 가능. 개인차있을수 있음&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            발바닥부분(발끝에서 뒷꿈치 절개선까지) 약 18.5cm &lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            발목부분(뒷꿈치 절개선에서 발목끝까지) 약 17cm&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;            각 색상마다 수축율에 의해 기장이 다를수 있습니다&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;6. 취급상 주의사항 - 물세탁가능하며 세탁이나 탈수시 &lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;                            세탁망에 넣고 세탁하면 변형이나 늘어짐을 방지할수 있습니다.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;                            마찰에 의해 보풀이 일어날수 있습니다.&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;blockquote&gt;* 본 제품은 주문수량만큼 제작되기 때문에 환불이 불가능합니다.&lt;br /&gt;* 측정방법에 따라 혹은 원단의 신축성에 따라 발생할수 있는 &lt;br /&gt;  1-2cm 사이즈 오차는 불량으로 반품이 불가합니다.&lt;br /&gt;* 색상은 모니터 환경 또는 촬영시 조도에 따라 다소 달리 보일수 있습니다.&lt;/blockquote&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>152145778182347</t>
-        </is>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152145778182347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
 &lt;p&gt;&lt;em&gt;모두 개개인의 아픔이 있습니다. 아픔의 크기는 다르지만 자신에게 고통이 있다는건 변하지 않지요. 그러나 가끔은 그런 아픔을 공유하고 이해받고 싶습니다. 아래의 책들은 모두 그런 고통과 공유에 대한 소망을 담은 책 입니다. 책들은 약에 대해, 정신병에 대해 그리고 있으나 분명 그 본질은 우리가 가진 말할 수 없는 고통입니다. &lt;/em&gt;&lt;/p&gt;
 &lt;h3&gt;때문에 이러한 감정들을 공유하고자,&lt;/h3&gt;
 &lt;h3&gt;욕심을 내서 최대한 &lt;strong&gt;고옵션&lt;/strong&gt;을 지향하나 &lt;strong&gt;원가에 가까운 가격&lt;/strong&gt;으로 찾아왔습니다! &lt;/h3&gt;
@@ -266,19 +186,12 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;유의사항&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;* 모든 선물의 가격은 [배송료 포함] 입니다. &lt;u&gt;산간지역도 배송료는 똑같이 책정&lt;/u&gt;합니다!&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>152145922056948</t>
-        </is>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152145922056948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
 &lt;h3&gt;&lt;strong&gt;고양이 폰케이스 - 기종/디자인 서베이 필수 (미선택시 랜덤 배송합니다.)&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;&lt;strong&gt;**제작 가능 기종: 아이폰5/5S/SE, 6/6S, 6+/6S+, 7/8, 7+/8+, X, 갤럭시 S6, S6EDGE, S7, S7EDGE, S8, 노트5, 노트8 **&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -332,19 +245,12 @@
 &lt;p&gt;&lt;strong&gt;-  상품가격은 택배비 2,500원이 포함된 가격입니다.  제주산간지역의 경우 추가 배송료 3,000원을 밀어주기에 더해 입력해주세요.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;감사합니다.&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>152148536524733</t>
-        </is>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152148536524733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
 &lt;p&gt;지구 온나화란 지구의 평균 기온이 점점 높아지는 현상이다.&lt;/p&gt;
 &lt;p&gt;지금 우리 지구는 이산화탄소의 농도가 높아지면서 평균기온이 상승하고 있다.&lt;/p&gt;
 &lt;p&gt;&lt;이상 기후의 원인, 지구온난화&gt;&lt;/p&gt;
@@ -385,19 +291,12 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;*뱃지가 홀로그램 도금인 만큼 단가가 비쌉니다. 후원자님들의 부담을 덜기 위해 준등기를 기본으로 하고 있지만, 올세트부터는 무게가 100g을 초과하여 택배배송을 하는 점 양해 바랍니다 &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>152148892479134</t>
-        </is>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152148892479134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050839.jpg" alt="" width="620" height="1266" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050853.jpg" alt="" width="620" height="1138" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050910.jpg" alt="" width="620" height="1186" /&gt;&lt;/p&gt;
@@ -428,19 +327,12 @@
 &lt;h2&gt;&lt;strong&gt;*선물 구성&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;A.&lt;/strong&gt; 스티커 2매 + 배송비(일반우편)&lt;br /&gt;&lt;strong&gt;B.&lt;/strong&gt; 스티커 3매 + 포스트잇 1매 + 배송비(소포)&lt;br /&gt;&lt;strong&gt;C.&lt;/strong&gt; 스티커 4매 + 포스트잇 1매 + 세종냥이 뱃지 1개 + 배송비(소포)&lt;br /&gt;&lt;strong&gt;D.&lt;/strong&gt; 스티커 5매 + 포스트잇 1매 + 세종냥이 뱃지 1개 + 에코백 + 배송비(소포)&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;선물 A는 기본적으로 일반우편으로 배송됩니다.&lt;/strong&gt; &lt;br /&gt;배송방법을 변경하고 싶으신 후원자 분들 께서는 &lt;u&gt;기본 6000원에서 2500원 이상을 추가&lt;/u&gt;하여 후원해주시면 &lt;u&gt;등기우편&lt;/u&gt;으로 보내드리도록 하겠습니다.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>152149194727035</t>
-        </is>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149194727035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
 &lt;p&gt;3월이 되니, 날이 부쩍 따뜻해지고 봄이 한걸음 다가왔습니다. 아직 일교차가 커서 해가 지면 급격하게 추워지지만... 낮에는 따뜻한 햇살이 건물 사이사이를 비추고 있죠.&lt;br /&gt;푸른 새 잎이 나무에서 돋아나기도 전에, 매화는 누구보다 빨리 봄이 왔음을 알아채 꽃을 피우기 시작했답니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320054058.jpeg" alt="" width="620" height="412" /&gt;&lt;/p&gt;
 &lt;p&gt;3월 초, 매화중에서도 제일 먼저 꽃을 피우는 붉은 빛깔의 홍매화를 제가 제일 좋아하는 고래와 함께 뱃지에 담아봤어요! 이전에 했던 하얀고래 뱃지 프로젝트를 이어받아, 군청색의 혹등고래와 하얀색의 혹등고래를 함께 그려넣었습니다.&lt;/p&gt;
@@ -479,19 +371,12 @@
 &lt;p&gt;2)&amp;nbsp;커뮤니티&amp;nbsp;| 여러가지 질문사항이 있으신 후원자분들께서는 [커뮤니티]에 글을 남겨주셔도 됩니다. 하지만 [창작자에게 문의하기]탭을 이용하시는 것이 가장 빠릅니다!&lt;/p&gt;
 &lt;p&gt;3)&amp;nbsp;트위터&amp;nbsp;|&amp;nbsp;https://twitter.com/seastarlight&lt;br /&gt;&amp;nbsp; &amp;nbsp; 인스타&amp;nbsp;|&amp;nbsp;https://www.instagram.com/seastarlight_hyuneun&lt;/p&gt;
 &lt;p&gt;창작자에게 문의하기 탭으로 가장 빠르게 답변을 받아보실 수 있습니다! 가급적이면 1)을 이용해주세요~&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>152149361323936</t>
-        </is>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149361323936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;아...&lt;br /&gt;봄인데...&lt;br /&gt;벚꽃 뱃지도 갖고싶고,&lt;br /&gt;고양이 뱃지도 갖고싶다..&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -524,19 +409,12 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320061555.jpg" alt="" width="620" height="1181" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>152149475182637</t>
-        </is>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149475182637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
 &lt;p&gt;마비노기가 10살이 되던 2014년, 그 해 여름의 판타지 파티를 기억하시나요?&lt;br /&gt;유례 없던 유저 참여형 행사, 굿즈를 직접 선보일 수 있는 기회.&lt;br /&gt;게임만 하던 밀레시안 세 명이 용기내어 팀을 결성할 수 있었던 소중한 계기랍니다.&lt;br /&gt;&lt;sub&gt;팀 명은 말 그대로 캐릭터를 생성한 지 무척이나... 오래 되었기 때문입니다. 웃어주실 때마다 보람을 느낍니다.&lt;/sub&gt;&lt;/p&gt;
 &lt;p&gt;판타지 파티 -밀레시안의 아트전- 에서 일찍이 저희를 접하신 분들도 계실 거예요.&lt;br /&gt;그 다음은 넥슨 팬 파크에서, 네코제에서, 그리고 지금의 네코장까지.&lt;br /&gt;저희 부스를 찾아주신 분들 덕분에 이렇게 다시 한 번 도전할 수 있게 되었습니다.&lt;/p&gt;
 &lt;p&gt;이 페이지를 보고 계신 여러분께도 환영의 인사와 깊은 감사를 드리며, 새로이 제작하게 된 &lt;u&gt;스킬 뱃지&lt;/u&gt;와 앞서 제작되었던 &lt;u&gt;재능 뱃지&lt;/u&gt;를 소개해드릴게요.&lt;/p&gt;
@@ -556,19 +434,12 @@
 &lt;p&gt;완성될 뱃지의 모습이 궁금하다면, 위의 재능 뱃지를 참고해보시는 건 어떨까요?&lt;br /&gt;금도금된 베이스 위에 투명 레진으로 마감하여 볼록한 옆면을 갖게 된답니다.&lt;br /&gt;수지칠 뱃지와는 조금 다른 매력을 느끼실 수 있을 거예요.&lt;br /&gt;※마감 작업은 손수 진행하므로, 도포되는 레진의 양에 따라 아주 약간씩의 두께 차이가 발생합니다.&lt;/p&gt;
 &lt;p&gt;한 방에 쓰러트리던 몹들을 최대한 살살 때려보려다 역으로 얻어맞고, 평소엔 거들떠도 안 보던 티오즈 아머를 위해 시간에 쫓기며 망치를 두드리던 지난날.&lt;br /&gt;오랜 노력의 끝에 얻어낸 금색 테두리를 보며 느꼈던, 혹은 앞으로 느끼게 될 뿌듯함을 에린에서 현실로 전해드립니다. &lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320063503.jpg" alt="" width="620" height="1051" /&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>152149588003738</t>
-        </is>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149588003738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320065109.jpg" alt="" width="620" height="456" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&amp;diams;제작의도&lt;/strong&gt;&lt;/p&gt;
@@ -604,19 +475,12 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320065534.jpg" alt="" width="620" height="878" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;｢바람을 그리다 : 신윤복&amp;nbsp;&amp;bull;정선｣展&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;기간 : 2017년 11월 24일(금) ~ 2018년 5월 24일(목)&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;장소 : 동대문디자인플라자(DDP) 배움터 2층 디자인박물관&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주제 : 원작과 미디어아트가 함께하는 전시&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주요작품 : 혜원전신첩, 겸재정선 26점&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주최 : 간송미술문화재단, 서울디자인재단&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>152149749486339</t>
-        </is>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149749486339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320071553.png" alt="" width="620" height="417" /&gt;&lt;/p&gt;
 &lt;blockquote&gt;&lt;strong&gt;&amp;lt;디자인 시안&amp;gt;&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -649,19 +513,12 @@
 &lt;p&gt;size 15mm 사이즈의 세가지 디자인 구성이 한 세트입니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;+ 참고 사항 +&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;뱃지는 핸드메이드 제품으로 모든 제품이 똑같을 수 없으며 매끄럽지 않은 금형 부분나 약간의 흠집 또는 공정상 생길 수 있는 2mm이하의 미세한 기스와 기포, 먼지 그리고 약간의 칠이 넘친 것은 파본이 아닙니다.&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>152149818635040</t>
-        </is>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152149818635040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;저는 가끔씩 예전의 폴더폰이 그리워질때가 있어요.&lt;br /&gt;폴더폰을 열고닫을때 딱 맞물리는 소리, 문자칠때의 자판 감촉, 한손에 쏙 들어오는 그립감 등이 생각나거든요.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320072444.jpg" alt="" width="620" height="411" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -680,35 +537,21 @@
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;일정 안내&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;- 뱃지 제작기간은 펀딩 마감 후 2~3주가 걸립니다.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>152154108741610</t>
-        </is>
-      </c>
-      <c r="B14"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;strong&gt;할머니의 요리책 개정판&lt;/strong&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152154108741610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;할머니의 요리책 개정판&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;2015년에 &amp;lt;할머니의 요리책&amp;gt;이 나온 후 할머니의 안부를 걱정해주시고, 저와 같은 마음으로 할머니의 요리책을 아껴주시고 응원해 주신 많은 분들 정말 고맙습니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;책을 계속 찾아주시는 분들을 위해 3쇄 인쇄를 하려다가 &amp;lt;할머니의 요리책&amp;gt; 개정판을 만들게 되었습니다. &amp;lt;할머니의 요리책&amp;gt; 개정판에는 초판에 들어있던 20가지 할머니의 요리와 새로운 요리 10가지가 추가되어 총 30가지의 요리가 담겨있습니다. 아래는 새로운 10가지 요리입니다.&lt;/p&gt;
 &lt;p&gt;콩나물밥&lt;br /&gt;계란반숙&lt;br /&gt;콩비지찌개&lt;br /&gt;쑥떡&lt;br /&gt;장조림&lt;br /&gt;열무김치&lt;br /&gt;깍두기&lt;br /&gt;팥죽&lt;br /&gt;설날 떡국&lt;br /&gt;미역국&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>152159737628112</t>
-        </is>
-      </c>
-      <c r="B15"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;현대인은 짐이 많습니다.&lt;br /&gt;하지만 짐이 가득 들어간 가방을 놓을 곳은 마땅치 않죠.&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152159737628112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;현대인은 짐이 많습니다.&lt;br /&gt;하지만 짐이 가득 들어간 가방을 놓을 곳은 마땅치 않죠.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155326507_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -728,19 +571,12 @@
 &lt;p&gt;&lt;strong&gt;일상의 사소한 편리함과 작은 배려&lt;/strong&gt;가 가져올&amp;nbsp;&lt;strong&gt;커다란 변화&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;링콘&lt;/strong&gt;으로 시작해 보세요.&lt;/p&gt;
 &lt;/blockquote&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>152159784017713</t>
-        </is>
-      </c>
-      <c r="B16"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>&lt;blockquote class="type-default"&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152159784017713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote class="type-default"&gt;
 &lt;p&gt;&lt;strong&gt;&lt;u&gt;최근 들어 자주 발생하는 화재 사건&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;/blockquote&gt;
 &lt;p&gt;건조한 겨울 철이면 빈번히 발생하는 화재 사건. 최근, 우리는 3건의 가슴아픈 화재 사고를 겪었습니다. 뉴스를 통해 보여지는 위험한 화재 현장과 피해자들의 모습... 화재 사고가 마무리되고 나면 늘 '초기 대응이 미흡해 큰 화재로 이어졌다' 는 기사가 나오고, 개선방법에 대해 얘기를 하지만 또 금세 잊게 됩니다.&amp;nbsp;&lt;/p&gt;
@@ -789,19 +625,12 @@
 &lt;h5&gt;사무실 내부 비치 예시&lt;/h5&gt;
 &lt;p&gt;&lt;strong&gt;&lt;u&gt;차량, 음식점, 카페, 사무실, 집&lt;/u&gt;&lt;/strong&gt;어디에든 잘 어울리는&amp;nbsp;&lt;strong&gt;디자인!&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;소화기,&amp;nbsp;&lt;/strong&gt;이제&amp;nbsp;&lt;strong&gt;보이는 곳&lt;/strong&gt;에 비치하세요!&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>152159859912314</t>
-        </is>
-      </c>
-      <c r="B17"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>&lt;blockquote class="type-default"&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152159859912314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote class="type-default"&gt;
 &lt;p&gt;선반&lt;/p&gt;
 &lt;/blockquote&gt;
 &lt;p&gt;선반은 참 유용한 가구입니다.&lt;br /&gt;이차원 평면의 공간을 입체적으로 사용하기에뛰어난 실용성을 가지고 있으며개방된 4면을 통해 어떤 물건을 보관하고 있는지 한눈에 보여줍니다. 선반 위에 잘 배치된 물건들은 공간의 분위기를 다르게 만들어 주지요.&lt;/p&gt;
@@ -881,65 +710,33 @@
 &lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0218/20180218172357805_52.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;어떤 물건을 보관하는지, 어떤 사용자가 사용하는지에 따라 분위기가 바뀌고 사용자에 따라서 편하게 만들어 사용하는 선반, 집안에 하나쯤 있으면 유용하게 사용되는 종이 가구 팀버 입니다.&amp;nbsp;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>152170410733749</t>
-        </is>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>152179058413150</t>
-        </is>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>152179558012551</t>
-        </is>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>152183749892742</t>
-        </is>
-      </c>
-      <c r="B21"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180324221607.jpg" alt="" width="700" height="2204" /&gt;&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152170410733749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152179058413150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152179558012551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152183749892742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180324221607.jpg" alt="" width="700" height="2204" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324221656.gif" alt="" width="630" height="540" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;우리의 생활과 뗄레야 뗄 수 없는 음악&lt;br /&gt;&lt;/strong&gt;많은 사람들이 다양한 방식으로 음악을 듣습니다. 더불어 음악을 듣는 도구인 이어폰은 우리 생활의 필수품입니다. 요즘에는 블루투스 방식의 이어폰도 많이 사용하지만 아직까지는 베터리나 음질 걱정 없는 쉽고 간편한 &lt;strong&gt;아날로그 방식&lt;/strong&gt;의 이어폰이 우리에겐 좀 더 친숙합니다.&lt;br /&gt;하지만 이어폰을 사용하다보면 여러 불편함을 겪게 됩니다.&lt;br /&gt;&lt;br /&gt; 이어폰의 와이어는 항상 꼬여있고 청취 중 이어폰을 잠시 귀에서 빼야할 상황이 발생하면 이어폰을 어디 둘데 없이 손에 들고 있거나 아래로 늘어 뜨리거나 합니다. 사소하지만 우리는 기분 전환을 위해 음악을 듣는 순간에도 항상 &lt;strong&gt;스트레스&lt;/strong&gt;를 받게 됩니다.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;이젠 음악이 주는 즐거움만 누리세요~&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221712.jpg" alt="" width="700" height="2136" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221722.jpg" alt="" width="700" height="1481" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221733.gif" alt="" width="630" height="425" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221741.jpg" alt="" width="700" height="1699" /&gt;&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>152189809208550</t>
-        </is>
-      </c>
-      <c r="B22"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152189809208550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324223250.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
@@ -967,19 +764,12 @@
 &lt;h2&gt;&lt;strong&gt;버건디[BURGUNDY]&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324223518.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324223523.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>152192366633051</t>
-        </is>
-      </c>
-      <c r="B23"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;안녕하세요!&lt;/p&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152192366633051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;안녕하세요!&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;-예쁜 우리 것을 일상으로!- 라는 마음아래 모인 프로젝트 그룹 연정(戀情)입니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;한복을 착용했을 때뿐만 아니라 일상에서도 착용할 수 있는 스타일의 머리핀, 찾고 있지 않으셨나요?&lt;/p&gt;
@@ -1015,48 +805,2772 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325053845.jpg" alt="" width="620" height="827" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;strong&gt;따뜻한 관심과 후원 부탁드리며 저희 한복머리핀을 착용하시는 모든 분들께 우아한 아름다움이 함께하시길 바랍니다.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&amp;nbsp;戀 情&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>152192435440652</t>
-        </is>
-      </c>
-      <c r="B24"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;#propio.36의 목표&lt;/h2&gt;
+  </si>
+  <si>
+    <t xml:space="preserve">152192435440652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;#propio.36의 목표&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;반만년의 역사를 가지고 있는 우리나라는 저희도 모르는 많은 역사를 담고있습니다.&lt;br /&gt;그 역사들을 다 알지는 못하더라도 기억할 수 있도록&amp;nbsp;&lt;strong&gt;월간 케이스&lt;/strong&gt;&amp;nbsp;형식으로 달마다 있던 역사를 소재로 상품을 제작하고자 합니다.&lt;/p&gt;
 &lt;h4&gt;&amp;nbsp;저희 목표는 우리 선조들이 싸웠던 독립운동과 민주화를 이루기 위한 민주화 운동을 모두 담은 달력과 다이어리를 제작하는 것이 목표입니다.&lt;/h4&gt;
 &lt;p&gt;&amp;nbsp;그래서 후원해주신 후원금은 일회성의 기부금 형태로 기부되는것이 아닌, 독립운동가들을 더욱 알리고 찾을수 있도록 정기적인 월간 케이스의 발매와 10~11월에 우리나라의 역사를 담은 달력을 발매하는데 쓰이는 것이 좋겠다고 생각했습니다.&lt;/p&gt;
 &lt;h2&gt;&amp;nbsp;이번&lt;strong&gt;&amp;nbsp;잊혀진 이야기 : 1919년 -&amp;nbsp;월간 케이스&lt;/strong&gt;는&lt;/h2&gt;
 &lt;h2&gt;교과서 밖 3.1운동을 주제로한 그 첫번째 시작입니다.&lt;/h2&gt;</t>
-        </is>
-      </c>
-    </row>
+  </si>
+  <si>
+    <t xml:space="preserve">152198044252511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/53d6efda-f926-4629-871c-5e352fbbd628.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=527bd661b33e61badc7d15446097ab38" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;안녕하세요, 저는&amp;nbsp;&lt;u&gt;1119&lt;/u&gt;에요.&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;전 미술교육을 정식으로 받아보거나, 전공을 하지는 않았어요.&lt;/p&gt;
+&lt;p&gt;하지만 한 때 힘겨운 일들을 겪는 도중에 진짜 제가 하고 싶은 일을 찾았죠.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;전&amp;nbsp;&lt;strong&gt;마음을 그리는 화가&lt;/strong&gt;로 다시 태어나고 싶어요.&lt;/p&gt;
+&lt;p&gt;그래서 이렇게 텀블벅을 찾아왔어요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;그 첫번째 시작으로 남모를 눈물, 외로운 길을 걸었던 경험을 표현해봤어요.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;&lt;em&gt;Comfort with tears, 눈물의 위로&lt;/em&gt;&lt;/u&gt;&lt;/strong&gt;를 소개할게요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/74ca6cfc-b0c9-4c9a-aef8-499ebcc3be05.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=f8b8491d17b7905bf00c8c05abae12cd" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/7890cd35-3f62-4024-9c0e-8531869b2293.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8229cedaeab08fbec78532fd485f7dff" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/6b9d0a05-8bbe-4961-8a85-bf7dd70343ca.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=62041a73a3dd1cb1b563db5332a0fcdd" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;한 때 삶을 송두리째 뒤흔드는 충격과&amp;nbsp;&lt;br /&gt;그치지 않는 비&lt;br /&gt;그리고 자욱한 안개로 앞이 보이지 않던 날들이 있었어요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/b8f6db33-3732-4feb-b61e-ae69e832cc5c.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=286345c05353665b7e9959720ef9252a" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;내가 누군지, 내가 어떤지도 모른채&lt;br /&gt;그저 하루하루 발버둥치던 그 날들은&lt;br /&gt;많이 슬펐고, 외로웠고...많이 아팠어요...&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/7540b19b3508affc6e3ca251c54c991107bdc016/7eca8d14443e28b8bc851a470cebcd49154205e0/4c056df9-4a4c-4f98-83d2-8c35ae7d45ee.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=01e2ad672d8dd3786f2d892e7cca9599" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;도저히 견딜 수 없는 날에는 그림을 그렸어요.&lt;/p&gt;
+&lt;p&gt;아무 생각도 없이, 그저 그 순간만큼은&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;아무 것도 마주하지 않기 위해.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/4f239569-5777-4598-8e10-e2d2c7429575.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=92f383e1fbd8f99eb44e0c2769dc6a7e" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;이&amp;nbsp;아픔을 표현할 수 있는 유일한 수단,&lt;/p&gt;
+&lt;p&gt;제게 그림은 힘들 때면 생각나는 그냥 그런 것이었어요.&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그렇게 모든 것이 무너져만 내리는 것 같았던 어느 날, 거울 속 나의 모습을 보았습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;눈물을 흘리는 눈동자 안&lt;/strong&gt;을 바라보았어요.&lt;/p&gt;
+&lt;p&gt;그 안에&amp;nbsp;&lt;strong&gt;어두운 시간을&amp;nbsp;&lt;u&gt;애처롭게 버티고, 힘겹게 애쓰고 있는 내 자신&lt;/u&gt;이 보였어요.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/6f79bfc0-4ea0-46f6-b90f-983015faed91.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=4d01c266e55d8930bcf8385e36734474" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;저는 한동안 거울 앞에 서서&amp;nbsp;&lt;u&gt;한참을 흘린 눈물&lt;/u&gt;로 가엾은 나를 위로해주었습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;이제는 어두운 동굴에서 나와 봄이 다가오는 이 때에&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;옛 시간동안&amp;nbsp;위로가 된 그림들&lt;/u&gt;을 세상에 보여주고 싶어요.&lt;/p&gt;
+&lt;p&gt;하나씩 꺼내고 하나씩 다듬어 꽁꽁 숨겨왔던 나를 꺼내어볼게요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그리고 아직 따뜻함이 필요한 그대에게 내가 흘렸던 눈물을 통해&lt;/p&gt;
+&lt;p&gt;작은 용기와 위로를 전하고자 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/fa115247-7fd1-4f10-af85-75f314f5c5a9.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=31bb5cfefafda8665f77b975bd8bb5a4" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/6c4d50b7-8c68-443b-8d90-2d776a00a288.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dd6b99cb6d3171f65c3dc1ef6cee171d" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/42c83217-7f1d-4a3a-83ed-4986b1e099e8.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=50166d3e4cb350073085b3edd53c24d3" /&gt;&lt;/p&gt;
+&lt;p&gt;저는&amp;nbsp;&lt;u&gt;&lt;strong&gt;"Comfort with tears, 눈물의 위로"&lt;/strong&gt;&lt;/u&gt;라는 주제로 여러 그림을 그렸어요.&lt;/p&gt;
+&lt;p&gt;그리고 이 그림을 상징화해서 마크로 콕 찝어냈고, 이걸 봄가을에 입을 수 있는 맨투맨으로 제작해보았답니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;힘들고 슬픈 일로 한참을 울고나면, 후련하고 좀 가벼운 기분이 들었던 적이 있지 않나요?&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;마음을 위로하는&amp;nbsp;&lt;u&gt;마크(Comfort)는&amp;nbsp;&lt;strong&gt;눈과 눈물을 상징&lt;/strong&gt;&lt;/u&gt;하지만&amp;nbsp;&lt;br /&gt;맨투맨 자체는&amp;nbsp;&lt;strong&gt;&lt;u&gt;가볍고 화사하게, 봄가을에 걸쳐&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;오래오래 입을 수 있도록 만들었어요:)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;눈물맨투맨을 입으면 언제나 포근하고 부드럽게 감싸안은 느낌을 받으시길 바랄게요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/34cb8a9a-d3fb-4e92-99e4-ed19d729589e.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a11d2b48903a85a864cb7e8b7ffc7e19" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/226d91a4-18af-4798-898b-0e8c8c20ae31.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=014b706702e5b1a33daef22ceaf9a334" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/0bcb268c-0bcf-48f3-954c-909c783a76d0.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=3366be6980919d073878f6209cc5b3c6" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;눈물의 위로, Comfort with tears 맨투맨 티셔츠&lt;/u&gt;의 자세한 내용입니다:)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/883e49a9-2fa5-45b0-b751-b2d5e0430c7f.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=42b083c7a4207635a3b378af49d00f93" /&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;1.&amp;nbsp; Tears의 선택 : 소재의 퀄리티(면100%)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;옷을 살 때 면 소재 함유량을 보고 옷을 고르시나요?&lt;/p&gt;
+&lt;p&gt;저는 옷을 고를 때 두 가지 기준이 있어요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;u&gt;좋은 소재&lt;/u&gt;와&lt;/strong&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;u&gt;합리적인 가격&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;유명브랜드나 소재가 좋은 옷을 보면 가격이 너무 사악해서 고민도 많이 되고,&amp;nbsp;&lt;br /&gt;한 번 사려면 큰 맘 먹고 사야하는 상황이 종종 있더라구요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;그래서 좋은 티를 사고 싶어도 좀 참게 되거나, 아예 보세가게 막 티를 사서 몇 번 입고 말기두 하구요...&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그래서 저는 오랜 시간이 지나도 늘어나거나 줄어드는 변형과 색빠짐이 없는&amp;nbsp;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;100% 면 소재&lt;/strong&gt;&lt;/u&gt;이면서도,&amp;nbsp;&lt;u&gt;&lt;strong&gt;좋은 가격&lt;/strong&gt;&lt;/u&gt;에 Comfort with tears 맨투맨을 만들어봤어요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;해드리고 싶은 설명은 정말 많지만, 글이 너무 길어지니까 좀 참아야 할 것 같아요.&amp;nbsp;&lt;br /&gt;일단 면 퀄리티가 너무 좋아서 오래오래 두고 입기 참 좋아요.&amp;nbsp;&lt;br /&gt;소재는 가성비 안따지고&amp;nbsp;&lt;u&gt;&lt;strong&gt;최고로 좋은 면&lt;/strong&gt;&lt;/u&gt;을 찾느라 노력했거든요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;아래 사진과 상세 설명을 확인해보세요:)&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/51412665-ca86-4a57-8299-14c5d1826825.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=b5d12805175e7bf53fc0124692910848" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/a9cc4f3a-ce2a-46bf-9ded-384c25016224.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=27251681e62712f6467d28312c691b20" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/15743b1c-d4cd-40f8-b50c-2d27964e1103.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d9c2b5530d4ae1c9aab9e52baa979d00" /&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;&lt;strong&gt;2. Tears의 꼼꼼함 : 섬세한 박음질&lt;/strong&gt;&lt;/h3&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;전 맨투맨 티를 좋아해서 여러 벌 사서 계속 입는데요,&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;맨투맨 티를 오래 입다보면 허리 밴딩 부분이 말려 올라가거나, 목과 허리부분이 힘이 없어지고 주름이 생겨서 옷의 폼새가 망가지더라구요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;그래서 허리와 목 밴딩 위, 아래 부분에 박음질을 한 번씩 더 해줘서 옷의 모양을 단단하게 잡아주었어요.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;총 3단의 박음질&lt;/u&gt;&lt;/strong&gt;을 했답니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/acf0d24d-5e3c-415a-9f62-d91a504a4aad.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=200cc0216dc19e7c6dd8515f8d6effd4" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/4a879045-7dfb-42cc-9e26-e8e4a8152e95.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=36a9d176393d65e993bb51fa1dc2aaed" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;꼼꼼히 신경 쓴 박음질로 오랜 시간이 지나도 처음 핏을 그대로 유지하고,&lt;/p&gt;
+&lt;p&gt;옷의 세월이 느껴지지 않게 예쁘게 입으실 수 있을 거에요!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/8a17f731-f508-43e0-b155-45cd66d7af06.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=afc214bfd32c09b479cc55b239392874" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;3. Tears의 감각 : 컬러선택(멜란지/네이비/연핑크/연퍼플)&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/9963f0ac-e9f4-4385-b434-5cf8856cfcff.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=54262f064487318817793a36af5cfaa3" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;-&amp;nbsp;&lt;strong&gt;멜란지/네이비&lt;/strong&gt;&amp;nbsp;:&amp;nbsp;&lt;strong&gt;&lt;u&gt;맨투맨 국민컬러&lt;/u&gt;&lt;/strong&gt;인&amp;nbsp;멜란지와 네이비&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;무난하고 부담없는 컬러라서 이런 기본색깔 맨투맨은 하나씩 가지고 있어야겠더라구요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;기본이라 사계절 내내 입어도 너무 좋구요,&amp;nbsp;&lt;br /&gt;특히 네이비는 고급스러운 느낌을 주는 색감으로 준비해보았습니다.&lt;/p&gt;
+&lt;p&gt;다른 고급 브랜드와 비교해봐도 손색없는 색깔로 가져왔어요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/66b1f999-1971-4061-b936-3f346bae25dc.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=f01d8ec7f9719aa4323630c8f32d6633" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/152bafad-f2bb-4b1b-822d-12d2d16d14c3.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8755b6508d318334e3135467346b1711" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/98fad8fc-2934-4a05-a1d8-1c901024ae0e.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a34a70c1bb356ba3e05b6d18671c32a0" /&gt;&lt;/p&gt;
+&lt;p&gt;-&amp;nbsp;&lt;strong&gt;연핑크, 연퍼플&lt;/strong&gt;&amp;nbsp;: 봄을 알리는 대표컬러죠.&amp;nbsp;&lt;br /&gt;&amp;nbsp;색채연구소 팬톤이 선정한&amp;nbsp;&lt;u&gt;&lt;strong&gt;2018년 올해의 컬러&lt;/strong&gt;&lt;/u&gt;가&amp;nbsp;&lt;strong&gt;'울트라 바이올렛'&lt;/strong&gt;이라고 하네요.&lt;/p&gt;
+&lt;p&gt;이국적이면서도 신비로운 올해의 컬러를 맨투맨으로 만나볼 수 있도록 연퍼플 색감을 고를 때 더 특별히 신경써서 준비했습니다.&lt;br /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/50ef002d-6d94-42b7-89a4-b3a79b16f40a.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=7b1dbfe3461e1adda38bb642b959005c" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/d5b8045b-94a9-47a0-bccc-bc3e382da728.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=61793858b1f3454be412fbe2c2af5107" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/1757b449-5c82-4de7-8f6f-8b7e064e68ac.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8eddaea6655349abce1a2cb5edfcfaf3" /&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;&amp;nbsp;4. Tears의 제안 : 무엇이든 어울리는 코디&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;br /&gt;&amp;nbsp;네가지 컬러 모두 너무 튀지않고, 부드럽게 뽑힌 색감이라 기본 청바지에 매치해도 발랄하고 깔끔해 보였어요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;특히&amp;nbsp;&lt;u&gt;따뜻한 분위기&lt;/u&gt;를 연출하고 싶을 땐 골지치마나 스웨이드 재질의 치마, 슬렉스를 매치해도 좋고, 밝고&amp;nbsp;&lt;u&gt;봄봄한 분위기&lt;/u&gt;를 연출하고 싶을 땐 청치마나 찢어진 청바지를 매칭해도 좋아요!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/ccf378cf-bbe9-4c44-9498-1a40501713f5.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=0bb43e1926577b34776d5f3f6b67f80b" /&gt;&lt;/p&gt;
+&lt;p&gt;트레이닝 바지 코디&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/52b3438e-b209-4fef-9d89-df589d14c684.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c41f057e18439163c4d9ff5d929a078d" /&gt;&lt;/p&gt;
+&lt;p&gt;청바지 코디&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/c8494376-d39e-4906-9b63-ce692eb66cc0.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=eb45b556ebfb6c41221e474c306dc4fa" /&gt;&lt;/p&gt;
+&lt;p&gt;청치마 코디와 커플룩 착용&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/48cf9038-4e4d-4a99-9e6b-dd44fe19dd4a.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=7de08fbfb437ee0306b7f1b856c0ca01" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;사이즈는&amp;nbsp;&lt;u&gt;&lt;strong&gt;남녀공용 M과 L사이즈&lt;/strong&gt;&lt;/u&gt;로 정했습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;보통 여자분들은 M사이즈, 남자분들은 L사이즈가 잘 맞아요:)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/3375a7a6-8705-4d7f-b226-a80d1a1e98cd.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5f2b9f46d3887c4f2dab1d89eaf998c6" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/593f5ab9-f482-4c82-8d0b-558be22290b4.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=7037fecc865d047006caebee7fae9997" /&gt;&lt;/p&gt;
+&lt;p&gt;멜란지, L사이즈(105)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/e19d0e14-6229-4d08-b749-89fc0fabf811.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=f0c380cad30b3c25964ce7e017dd241d" /&gt;&lt;/p&gt;
+&lt;p&gt;네이비, 여자 M사이즈(95)/남자&amp;nbsp;L사이즈(105)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/aebf259d-0529-416d-911f-c07386c7fe00.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=82a44383e968cfbda73206c1b962b459" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/b9219c7e-4e99-4c02-b9d3-6e73aacdbbc8.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=b66caf83e73fa3a2db16342102611409" /&gt;&lt;/p&gt;
+&lt;p&gt;연퍼플, M사이즈(95)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/eac2a22e-4b47-40c8-9e5d-8ea6d3be3a81.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e9ce92c5074e14423208ebf585a163c0" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;연핑크, M사이즈(95)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/562f989a-e982-42ed-aa77-d5b116b7ee41.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=7c0ca746fda0dd57806e162c49dc8d11" /&gt;&lt;/p&gt;
+&lt;p&gt;여자 연핑크 M사이즈(95)/남자 멜란지 L사이즈(105)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/301efa17-1ca0-4c3e-bb16-26a46fe1ff76.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=61cd8313e5141be66308f678b842466f" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/7ad2c8b1-1eb4-4ad6-be1e-0d56949d8c2a.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e2741ef1735825c992dc2dd7d62cf77d" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/acad4b9e-07e2-4085-bd92-2a61bff36513.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=9ad914786bea37279e41c3517ae94294" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;스티커/맨투맨/액자&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;&amp;nbsp;&lt;strong&gt;&lt;u&gt;모든 후원금액은 배송비가 포함&lt;/u&gt;&lt;/strong&gt;되어 있답니다.&lt;br /&gt;아래의 도안들을 스티커와 액자로 만들어서 보내드릴 거에요.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/9793adaa-94b1-4cbf-a575-2945095b2c5f.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d6f9c83da2c0107c86ae8902497a6519" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/6331d2e8-389c-41f2-b8ee-8b1caf136163.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=66f6a6a2e462750e71e8c01959cfd213" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;컨버스 액자 도안은 실제로 제작도 해보았어요!&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/009bb84b-c0d3-43ae-a095-b8e4786d34c6.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5fbf025bba82f00e7674f62df69dcc44" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/34d1135d-4d00-4635-942f-71c54f5ae71e.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=274210689567814e14a6b357fffe3c79" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/42e83da576d85dee8b6c686a82d10300342954b7/87cd3cd2e14a4c62691536e39055908995d4b1d4/f85dc9c9-a236-487c-94d3-d7d4f36bc6c2.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6cd06fd5926ccaf19fe4bca4853ff0b1" /&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;추가안내&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;[예상전달일]&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;"&lt;strong&gt;&lt;u&gt;눈물맨투맨&lt;/u&gt;&lt;/strong&gt;"&amp;nbsp;&lt;strong&gt;후원마감일은 3월31일&lt;/strong&gt;이에요.&amp;nbsp;&lt;strong&gt;예상전달일은 7일 후, 즉 4월 7일&lt;/strong&gt;입니다.&lt;br /&gt;그러나 맨투맨의 계절성을 고려하여&amp;nbsp;&lt;strong&gt;프로젝트 마감일 다음 날부터 결제 성공된 분들부터 먼저 순차 배송&lt;/strong&gt;해드릴게요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[컬러 및 사이즈 선택]&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;"눈물맨투맨"은&amp;nbsp;&lt;strong&gt;사이즈(M/L)&lt;/strong&gt;&amp;nbsp;및&amp;nbsp;&lt;strong&gt;컬러(멜란지(회색)/네이비/연퍼플/연핑크)&lt;/strong&gt;&amp;nbsp;선택이 필요합니다. 후원하신 후 사이즈 및 컬러를 서베이요청을 통해 알려주시면 선택 색상과 사이즈로 보내드려요(고르지 않을 시 기본M사이즈/멜란지(회색)로 배송해드릴 예정입니다). 서베이 이후 주문된 수량만큼 제작되어 사이즈 및 컬러 수정이 불가한 점 양해부탁드려요:)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198115206412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/16527bac-a287-419e-a9e4-b339fc78d482.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6c7ffb09ef632d3c2d4e6ff776508e8f" /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/923d7341-443d-4e00-a011-9ce210d91560.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d59c4fa5d063fccff3ac6ca4c4ef3270" /&gt;&lt;/strong&gt;&lt;strong&gt;&lt;em&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/4905d609-a2aa-439a-9a86-7d421d03d927.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8c69b22f7db9246dd4e3c98a9f29db74" /&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;em&gt;&lt;sub&gt;&lt;sup&gt;남자 모델(좌) 180cm 65kg&amp;nbsp; /&amp;nbsp; 여자 모델(우) 164cm 50kg&lt;/sup&gt;&amp;nbsp;&lt;/sub&gt;&lt;/em&gt;&lt;strong&gt;&lt;em&gt;&lt;br /&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/7ceec368-811e-489f-903b-0d4fa2487419.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=bfaebbe263ee3954d5d34e4b06282485" /&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;em&gt;#안녕하세요. 十 差 九 입니다.&amp;nbsp;&lt;/em&gt;&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;십 빼기 구, 텐 마이너스 나인.&amp;nbsp;뭐든 편하게 부르시면 돼요. 중요하지 않은 아홉 가지를 빼고 가장 중요한 한 가지만 남기자는 의미에서 이 이름을 사용해요. 예를 들면, 부담스러운 장식이나 필요 없는 가격 거품, 시각적 부담 등을 빼는 게 저희가 하는 일이죠.&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;em&gt;#팀소개&lt;/em&gt;&lt;br /&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;의류 디자이너와 사용자 경험 디자이너로 이뤄진 팀입니다.&lt;br /&gt;의류에 필요한 심미적 디테일 / 옷을 입을 때의 총체적 경험&lt;br /&gt;두 부분으로 세분화하여 작업합니다. 이제 슬슬 본론으로 들어갈까요?&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;em&gt;&lt;br /&gt;#왜타쿠&lt;/em&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/a3a2438c-83eb-4162-ba5d-0295e8325ae1.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6e1aac2b1042bc02f89b5f49333d8a01" /&gt;&lt;br /&gt;&lt;br /&gt;저희는 자칭 왜타쿠에요. '왜' 라는 단어는 저희보다 중요하게 생각하는 사람들은 없을 거예요! 간단한 단어지만 저희는 모든 창작에 앞서 이것에 대한 정확한 답에 대해 집착합니다. '왜'라는 단어가 그 물건의 존재 이유를 명확하게 해주기 때문이죠. 예를 들면,&lt;br /&gt;&lt;br /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/0297e962-4e43-4966-99ba-afc658572076.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a07f6497bb3c5213d6dc9289bfa83690" /&gt;&lt;br /&gt;흔히 떡볶이 코트라고 부르는 더플코트의&amp;nbsp;&lt;strong&gt;떡볶이 단추&lt;/strong&gt;는 북유럽 어부들이 추운 갑판 위에서&amp;nbsp;장갑을 끼고도 단추를 쉽게 채우기 위해 만들어졌습니다.&lt;br /&gt;&lt;br /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/4fa9e1a4-c08d-4061-8b93-08fedd744edf.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=1dc8777a4e8455f8d1104568514dcfc4" /&gt;&lt;br /&gt;&lt;strong&gt;무스탕&lt;/strong&gt;은 파일럿들의 조종간이 노출되어있던 특성으로 인해 상공에서도 혹한의 기후를 견딜 수 있게 고안되었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;br /&gt;이처럼 모든 디자인에는 그 이유가 근본적으로 따라왔습니다.&lt;s&gt;(설명충)&lt;/s&gt;&lt;br /&gt;좋은 제품이 나오려면 왜라는 물음이 충족 되어야하죠.&amp;nbsp;&lt;br /&gt;그럼 이제 저희에게 물어봐 주세요.&lt;/p&gt;
+&lt;h2&gt;&lt;em&gt;&lt;strong&gt;#에브리웨어가 필요한 이유가 뭐야?&lt;/strong&gt;&lt;/em&gt;&amp;nbsp;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/a29b1ec0-892e-4e15-9430-be1a967778ca.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=427cca73377cac68972ecd4279f6357a" /&gt;&lt;strong&gt;&lt;br /&gt;&lt;u&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;우리는 하루에도 수없이 많은 공간을 이동합니다.&lt;br /&gt;&lt;/u&gt;&lt;/strong&gt;집, 버스, 지하철, 카페, 회사, 은행 등등 셀 수 없이 많고, 그 공간과 계절에 따라 온도는 급격하게 달라집니다. 그런 변화에 맞춰 쉽게 입고 벗으며, 쉽게 여밀 수 있는 옷이 필요합니다. (여름에도 회사나 카페는 춥잖아요)&lt;br /&gt;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;매일 아침 옷을 선택해야 하는 스트레스가 우리의 삶의 질을 높여줄 리 없습니다.&lt;/strong&gt;&amp;nbsp;&lt;/u&gt;&lt;br /&gt;단순하고 직관적인 형태로 만들었어요. 그 때문에 오래 입어도 쉽게 질리지 않고,&lt;br /&gt;다른 의상들과 매치가 쉽습니다.&lt;br /&gt;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;항상 움직임이 있는 우리에게 맞는 옷이 필요했습니다.&lt;/strong&gt;&amp;nbsp;&lt;/u&gt;&lt;br /&gt;산책 하고, 일을 하고, 작업 하는 우리입니다.&lt;br /&gt;핏을 살린다는 명목으로 주머니를 없애고 타이트하게 만들어진 옷들은&lt;br /&gt;우리에게 좋은 경험을 주지 못하죠. 넉넉한 주머니, 움직임이 편한 트임,&amp;nbsp;&lt;br /&gt;여유로운 품은 우리의 생활에 알맞게 작용합니다.&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;&amp;nbsp;&lt;em&gt;#오래 기다리셨습니다. 이제 에브리웨어의 모양새와 컬러를 보시죠!&lt;/em&gt;&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;/h2&gt;
+&lt;h4&gt;1.네이비&lt;br /&gt;2.로즈 레드&lt;br /&gt;3.블랙&lt;/h4&gt;
+&lt;p style="text-align: center;"&gt;&lt;strong&gt;&lt;br /&gt;(촬영 당시 장소에 따라 빛의 영향을 다르게 받아 원단 색에 맞게 보정 작업을 거쳤습니다.)&lt;br /&gt;&lt;/strong&gt;&amp;nbsp;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;# 네이비(navy)&lt;br /&gt;&lt;/strong&gt;&lt;/u&gt;데일리로 입기에 적당한 컬러 네이비입니다.&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/273e8e0a-0d39-4774-8e59-3048bdef0822.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=af88de8b505734427a1ffecacfecfa49" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/2c37037b-1937-4472-9c08-b6b0327aa2a8.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=bf2ee17a4081dc9289cc452e7d971d5d" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/35dda62b-febe-4fb1-9ebf-03f339c374f8.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e5f0cecdcb52ead8fa0098b7655256e9" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/68b634d6-2da6-4e9b-af6a-cb59009dcc8a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d4312b299da4d72db0d6b9e1211d0c05" /&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&amp;nbsp;&lt;u&gt;&lt;strong&gt;&lt;br /&gt;#로즈 레드(rose red)&lt;br /&gt;&lt;/strong&gt;&lt;/u&gt;포인트로 입기 좋은 로즈레드입니다.&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/421f557a-b4bb-49d5-bbe4-429b65fcb76b.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6eb3a1e42763ebc648e3f7e770eec98d" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/473d1637-4851-4275-8b37-d94460d28259.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e8e6ba4672e02504d66881187a4443e2" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/d6fa8a4a-4c21-411e-bb63-4069c791b0f1.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ee8756af70a1ad4711187754cb514ee8" /&gt;&lt;br /&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/68aa3d03-9e20-47e1-b461-cba19cf0c2ab.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e9fedf725e421bc3b88c2cc656f98e86" /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;u&gt;&lt;strong&gt;#블랙(black)&lt;br /&gt;&lt;/strong&gt;&lt;/u&gt;시크한 블랙은 언제나 진리에요.&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/04fd7af7-9cd5-44a7-94f0-0aed1ded46b4.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5c6c51f44c1fce22174bb16a9994da08" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/fb2a873e-4ff8-4c41-a7a4-5aac333c658a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dff5440e12c9aa759f3f231f0390fcab" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/49d29241-7b4c-4fa1-92fa-6a82b497e91a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8051d53613c914b82edea76a9c78cd4f" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/d5bb6a51-b497-49a6-8d8d-17c56ea7304a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=4d0b3083506215d27dca79f78db0171a" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2 style="text-align: center;"&gt;&lt;em&gt;&lt;strong&gt;#디테일&amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/h2&gt;
+&lt;p style="text-align: center;"&gt;&lt;strong&gt;&lt;br /&gt;형태&lt;br /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/85382bc8-04b8-4924-8021-b17bdd5ec5c0.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=285c4cf0d91e1014f8bde1e0d998fc27" /&gt;&lt;br /&gt;&lt;/strong&gt;동양적인 형태를&amp;nbsp;차용하였습니다.&amp;nbsp;간결하고, 품이 넉넉하여 포근하게 몸을 감싸주고. 옷깃 부분은 부드럽게 곡선으로 처리하여, 목의 불편함을 최소화했습니다. / 원단은 면(cotton) 100%를 사용했어요. 가장 기본적이면서 좋은 원단이죠. 면의 특성상 가볍고, 내구력과 통기성이 뛰어나서 좋은 착용감을 선물할거에요.&lt;br /&gt;&lt;strong&gt;&lt;br /&gt;여밈&lt;/strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/87744de9-81fe-4d97-b9d8-74b42f5b5b51.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=427390183b5f060f4e8db17aa10006f8" /&gt;&lt;br /&gt;'가볍게 걸친다' 라는 컨셉에 벗어나지 않기 위해 단추보다는 끈으로 여미는 방식을 선택했습니다. 또한 여밈 방식을 통해 원하는 정도의 조임을 조절할 수 있어 다양한 방식으로 연출이 가능합니다.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;포켓&lt;br /&gt;&lt;/strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/94168aa7-2a66-4dc2-92b5-43d5067748a9.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=235eeb0abc290472a70a40db4af03397" /&gt;&lt;br /&gt;툭 튀어나온 직선 포켓을 대신해 사선 포켓을 사용했습니다. 특히 주머니 사이즈에 신경을 많이 썼어요.핸드폰, 지갑, 담배, 화장품 파우치 등 물건들의 크기를 하나하나 재고, 넣어가며 사이즈를 정했습니다. 또한 사선 포켓은 이런 장점들이 있습니다.&lt;/p&gt;
+&lt;h4&gt;&lt;u&gt;-허리를 숙이거나 뜀 걸음 중에도 소지품이 쉽게 이탈하지 않아 안전합니다.&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;-손을 무심하게 푹 꽂아 넣고 있을 땐 직선보다 사선이 더욱 편합니다.(사람의 손은 밖에서 안으로 향하기 때문이죠.) 손목의 불편함을 최대한 줄이기 위해 주머니의 각도까지도 신경을 썼으며, 그만큼 견고하게 제작하였습니다.&lt;/u&gt;&lt;/h4&gt;
+&lt;h4 style="text-align: center;"&gt;&lt;strong&gt;&lt;br /&gt;소매&lt;/strong&gt;&lt;/h4&gt;
+&lt;p&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/4703b72a-3bcf-4b11-b3c9-d493b45289a3.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=4d7178f5765646d8204d05eab18acfcc" /&gt;&lt;br /&gt;소매의 디자인은 셔츠에서 착안했어요. 손목이 조이지 않아 편안하며, 오래 입어도 늘어나지 않습니다. 넉넉한 트임과 소맷단은 상황에 따라 한두 번 툭툭 말아 올릴 수 있어서 당신의 행동에 효율성을 더합니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2 style="text-align: center;"&gt;&lt;strong&gt;&lt;br /&gt;&amp;nbsp;&lt;em&gt;#디자인 가이드&lt;/em&gt;&lt;br /&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p style="text-align: center;"&gt;&lt;strong&gt;사이즈&lt;br /&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/21dc5265-8d62-49b1-8721-7d81a6c41ffb.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=4910831ceabe2724e7c088f291a76301" /&gt;&lt;/strong&gt;제품의 특성상 크게 입는 옷이다 보니 단일 사이즈인 프리사이즈로 제작되었어요. 품이 넉넉하여 180cm / 65kg 인 남자 모델 또한 같은 사이즈로 입어도 옷이 작지 않았습니다.&lt;/p&gt;
+&lt;h2 style="text-align: center;"&gt;&lt;strong&gt;&lt;em&gt;#안전성검사&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/f3332f6b-04ea-4c8a-9516-e38da7dcc6c1.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=830bc7e7952455bd6aff1cbf2ebed5ea" /&gt;&lt;br /&gt;&lt;/em&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;우리가 꾸준히 입을 수 있는 옷이 되려면 당연히 당신에게 유해해선 안 된다고 생각해요. 사실 이 글을 작성하고 있는 저도 피부가 예민한 편이라, 이런 부분에선 더욱 철저하게 확인했어요. 피부에 양보는 못 하더라도, 나쁜 건 주지 말아야죠. 이 서류는 한국의류시험연구원에 안전성검사를 맡겨 나온 결과입니다.&lt;/p&gt;
+&lt;h2 style="text-align: center;"&gt;&lt;em&gt;&lt;strong&gt;#가격책정&lt;/strong&gt;&lt;br /&gt;&lt;/em&gt;&lt;/h2&gt;
+&lt;p&gt;합리적인 가격은 좋은 제품이 되기 위해 꼭 필요한 조건이라고 생각합니다. 과도한 패키지와 재고, 임대료등을 제외하여 소비자들의 부담을 최대한 줄이기 위해애썻습니다. 결론적으로, 저희의 가격은 이렇게 구성되어있습니다.&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="resources/uploadImages/20180325214019.blob" width="327" height="367" /&gt;&lt;br /&gt;&lt;br /&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h1 style="text-align: center;"&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;&lt;em&gt;#글을 마치며&lt;/em&gt;&lt;/strong&gt;&lt;/h1&gt;
+&lt;h2&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/6a71405998eb977aace215965ba88068e05c7f91/718798e37e75c64e241b10d1db8689bea33c72eb/8767af6f-c24c-4349-b53d-3cb298008ae7.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ff11f5d80ab37bc6ce5230a47a330426" /&gt;&lt;/h2&gt;
+&lt;p&gt;안녕하세요. &amp;lt; 십 빼기 구 &amp;gt;창작자입니다. 우선 여기까지 읽어주셔서 감사합니다.&lt;br /&gt;드리고 싶은 말이 많다 보니 자연스럽게 글이 길어졌네요. 너무 지루하셨을 것 같아 걱정입니다. 펀딩이 성공적으로 마무리되면, 모금된 금액은 에브리웨어 제작에 사용됩니다. 그리고 아직 시작에 불과한 저희를 믿어주신 후원자분들께 보답하기 위해 더욱 좋은 제작물을 만들어 나가는 데 사용됩니다. 배송은 결제가 성공되신 분들부터 순차적으로 진행되며, 앞으로의 진행 상황은 텀블벅에 꾸준히 업로드 하겠습니다. 페북이나 인스타그램에서도 확인이 가능합니다. 또한 페이스북 페이지에서 좀 더 자유로운 분위기에서 저희에 대한 이야기를 이어나가려 합니다.&lt;/p&gt;
+&lt;h3&gt;찬찬히 읽어 보시고 펀딩에 참여해주세요.&amp;nbsp;&lt;br /&gt;저희는 계속 '왜'라는 물음에 집착하고 이유를 찾으며 그 답을 만들어가겠습니다.&lt;br /&gt;행복한 하루 보내세요 :)&lt;br /&gt;&lt;br /&gt;&lt;/h3&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;em&gt;&lt;strong&gt;#문의를 위한 채널&lt;/strong&gt;&lt;/em&gt;&lt;/h2&gt;
+&lt;p&gt;질문이나 피드백 등 모두 감사한 마음으로 받고 있습니다 :)&lt;br /&gt;텀블벅 내에 있는 창작자에게 문의하기 이외에도 이러한 채널들을 운영 중이니&lt;br /&gt;시간이 되실 때 한 번씩 들려주세요. 감사합니다!&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;카카오톡 오픈채팅 :&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;&lt;a href="https://open.kakao.com/o/sZRgVoI"&gt;https://open.kakao.com/o/sZRgVoI&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&lt;br /&gt;인스타그램 :&amp;nbsp;&lt;a href="https://www.instagram.com/ten_minus_nine/"&gt;https://www.instagram.com/ten_minus_nine/&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&lt;br /&gt;페이스북 :&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;&lt;a href="https://www.facebook.com/tenminusnine.kr/"&gt;https://www.facebook.com/tenminusnine.kr/&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198168666113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;1950~60년대 스웨덴, 벨기에 군인들이&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;운동을 즐기기 위해 신었던 활동화를 다시 만들다.&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&lt;u&gt;CATCH BALL ― 캐치볼&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;/브러셔 소개&lt;/h2&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/3cb56bed-230d-41a1-b326-68e34ffc048b.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=584ba16a23c7bc4456815cbe0db817d2" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;안녕하세요.&lt;br /&gt;브러셔는 2014년도에 창업한 신발제조 브랜드로 브리티쉬 컨츄리(British Country)스타일의 다양한 신발 및 악세서리를 생산, 판매하는 기업입니다.&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/80e86754-1ec9-4a88-9c30-bd5f24ef902f.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=3a8b991c0ec7e31d38be27ff94e8a28a" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;'Rush towards the original', '오리지날을 향한 발걸음' 이라는 슬로건으로 과거의 역사와 재밌는 이야기를 바탕으로 제품을 만들고 있고, 과거, 현재, 미래 언제나 사랑받을 수 있는 제품을 만드는 것이 목표입니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h4&gt;1. 첫 번째, 2014년에 시작한 프로젝트는&lt;br /&gt;&amp;nbsp; &amp;nbsp;브로탄(Brotann)입니다.&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/35b43380-82c7-4663-99b0-a77988bbc74a.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=9d21934fe9bf7d99bf1739458e65c445" width="700" /&gt;&lt;/h4&gt;
+&lt;p&gt;18세기&amp;nbsp;&lt;strong&gt;영국 신사들의 신발&lt;/strong&gt;을 고민하여 탄생한 브로탄은 자동차 타이어 밑창을 구두에 적용하여 편안한 걸음과 미끄럼 방지 기능을 가진 수제 구두입니다.&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;2. 두 번째, 2016년에 선보인 프로젝트는&lt;br /&gt;&amp;nbsp; &amp;nbsp; 15:0(Fifteen Love) 입니다.&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/c3ceab91-ea60-40aa-bd6f-9f4f5f086506.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ca1aa2bd84ead9e0f6601522a444c7e4" width="700" /&gt;&lt;/h4&gt;
+&lt;p&gt;1877년 윔블던 시대가 부흥하던 시절&amp;nbsp;&lt;strong&gt;테니스 선수들이 신던 테니스화&lt;/strong&gt;를 다시 만든 스니커즈 브랜드로, 오리지널 스타일을 유지하며 현대기술과 소재를 적용한 제품을 만듭니다.&lt;/p&gt;
+&lt;h4&gt;3. 세 번째, 2017년에 선보인 프로젝트는&lt;br /&gt;&amp;nbsp; &amp;nbsp; 브라운스컬(BrownSkull)입니다.&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/509e359a-9d78-4524-be9b-c540a57a13fe.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e9ccabe87ffa65b01882a0f31b058a1b" width="700" /&gt;&lt;/h4&gt;
+&lt;p&gt;'자연에서 자연으로'라는 슬로건하에&amp;nbsp;&lt;strong&gt;자연에 대한 경외심과 존경의 마음가짐&lt;/strong&gt;을 담은 오래된 토테미즘을 바탕으로 한 캠핑 슈즈 브랜드입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h4&gt;&amp;nbsp;&lt;/h4&gt;
+&lt;h4&gt;4. 네 번째로,&amp;nbsp;2018년 텀블벅을 통해 새롭게 선보일 프로젝트는&lt;/h4&gt;
+&lt;h2&gt;&amp;nbsp; &amp;nbsp;&lt;strong&gt;캐치볼(CATCH BALL)입니다.&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/2894705e-d08e-4756-9dd5-09b511b2d375.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=74b374cdcb89d57f1e6cc5112eb124d0" width="700" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/b65514c5-d503-43c2-b132-6c2af3b4948c.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=20aa244a33b1c1649f2082bdad439665" width="700" /&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;CATCH BALL은 1950년대 스웨덴, 벨기에 군인들이 운동을 즐기기 위해 신던 튼튼하고 질긴 활동화를 모티브로 만든 캔버스 화 브랜드입니다.&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;이번 네 번째 프로젝트는&amp;nbsp;&lt;strong&gt;남성 편집 매장 샌프란시스코마켓과 브러셔가 함께 협업(Collaboration)&lt;/strong&gt;으로 진행되어 더욱 가치 있는 프로젝트가 되었습니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;/프로젝트 배경 소개&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/783e3a71-3782-4027-8be9-619a39feecf9.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=50fecf9602069bb73eee383ddf501d75" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;― 협업의 계기&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; 2018년. 네 번째 프로젝트를 구상하던 브러셔는, 브러셔의 브랜딩 및 디자인 자문을 맡고 있는 &amp;lsquo;캘리브랜드&amp;rsquo;를 통해 샌프란시스코 마켓 한태민 대표를 소개받게 되었고, 한태민 대표가 가진 이야기를 바탕으로 협업을 진행하게 되었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/3fb3aeb6-1562-411c-a6b1-3de6e00d2ae1.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=52f73a37d266e2e58c7fe90d72674de4" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;― 캐치볼의 디자인을 담당한 샌프란시스코 마켓의 한태민 대표&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; 샌프란시스코마켓은 이탈리아에서 다년간 패션 디자이너로 활동한 한태민 대표가 2005년 오픈한 셀렉트숍으로, 아메리칸 감성을 담은 이탈리안 스타일을 모토로 아직 한국에 알려지지 않은 세계 각국의 브랜드와 제품을 소개하고 판매하는 한국의 대표 남성 편집숍입니다. 샌프란시스코 마켓의 한태민 대표가 추구하는 이탈리안 밀리터리 웨어의 느낌과 스토리를 바탕으로 협업하여 Catch ball이라는 브랜드를 만들게 되었습니다.&lt;/p&gt;
+&lt;h2&gt;/1950년대 유럽 군인들의 활동화&lt;/h2&gt;
+&lt;blockquote&gt;
+&lt;p&gt;&amp;nbsp;'어떠한 물건은 그 시대의 상황을 반영합니다.'&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/9b23bf6b-812d-4881-9eca-ea7dfe08a166.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ca7a1e87947fd5550c0b8fa6a5711800" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그 당시 1950~60년대 군인들은 자신들이 즐기던 과격한 스포츠에도 쉽게 찢어지거나 닳지 않는 튼튼하고 편한 신발을 원하였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그래서, 군인들의 활동화는 쉽게 찢어지지 않도록 아주 질기고 두껍게 방직된 캔버스를 사용하였고, 고무로 여러 번 덧댄 신발의 앞부분은 쉽게 닳지 않고 오랫동안 사용할 수 있도록 만들어졌었습니다.&lt;br /&gt;&amp;nbsp; 브러셔와 한태민 대표는 그 시대 군인들이 원했던 튼튼하면서도 편하고 오랫동안 사용할 수 있는 신발을 모티브로 하여 복각하는데 초점을 맞췄습니다.&amp;nbsp;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;/소재에 대한 고민 - 오카야마(岡山) 캔버스&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp; 1950년대 활동화를 다시 만들기 위하여 준비한 첫 번째 시도는,  튼튼하고 아름답기로 유명한 일본의 오카야마 캔버스를 이용 하는 것에서 출발합니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/e6d67dc0-0760-4b65-8050-104226c98bb0.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dbde8499099860188010544db4c14985" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;오래 전부터 방적 산업이 번성했던 일본의 오카야마현(岡山県)에서는 데님과 캔버스로 만든 제품들이 유명했습니다.&amp;nbsp;&lt;strong&gt;오카야마 캔버스는 단단하고 튼튼하며, 물이 새지 않고, 공기가 잘 통하는 특징&lt;/strong&gt;으로 인해 선반용 돛, 학생들의 가방 등을 만드는 데 사용되었습니다.&lt;br /&gt;이런 오카야마에는 오랜 세월 전해진 캔버스에 대한 노하우가 쌓여있고, 더욱 더 튼튼하고 품질 좋은 제품을 만들기 위해 노력하는 장인들이 모여있는 장인의 도시라 부를 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/396e1ece-2210-4f3b-ab10-c79044adfb78.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=29545e1e9548c493d5d4c875941df468" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;strong&gt;가장 큰 특징은 대부분의 제조공정이 기계가 아닌 사람의 손으로 만들어진다는 점입니다.&lt;/strong&gt;&amp;nbsp;이런 이유로 1호에서 11호까지 다양한 두께의 캔버스를 생산할 수 있고, 의류나 보자기에 쓰이는 아주 얇고 고풍스러운 캔버스부터, 컨베이어 벨트, 스모 선수의 샅바, 체육관 매트와 같은 아주 튼튼한 캔버스까지 다양한 제품을 생산할 수 있는 장점이 있습니다. CATCH BALL은 비교적 두껍고 단단한 6호 캔버스를 이용하여 만들어졌습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/9b21e5a5-11a6-4602-9663-e06ecb6be050.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ab86947cdbaf686490797c7d00aff87b" width="700" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/d985dcb5-2c70-42d7-ab6e-38148612bf2e.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5a4784221a67106af17db6d50dc92713" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;― CATCHBALL에 사용된 Amiacalva의 오리지널 오카야마 캔버스&lt;br /&gt;&lt;/strong&gt;&amp;nbsp;CATCH BALL의 제품은 오카야마현에서 만들어진 여러 우수한 캔버스 중에서도  가장 독창적이며 고품질을 자랑하는 아미아칼바(Amiacalva)의 오리지널 코마사 캔버스 (Original combed yarn canvas)를 사용합니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/5c6d29a3-521e-4a5d-90f0-102143b22abf.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dd3ecd8e5e57786ce31ba3b6767e85b0" alt="700" width="620" height="331" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;아미아칼바(Amiacalva)의 코마사 캔버스는 방적 공정 외에 별도의 코밍(combing)이라는 공정을 거칩니다. 코밍을 통해 캔버스의 짧은 섬유나 잡물을 세밀히 제거하고 남은 아름다운 긴 섬유를 선별해 캔버스를 만드는 데 사용합니다. 그리고, 기계가 아닌 사람이 손수 구식 셔틀 직기를 이용하여 방적하며, 옷감이 흔들리지 않도록 한 땀 한 땀 정교하게 짜내려가며 밀도와 강도를 높힙니다.&lt;br /&gt;&amp;nbsp;&amp;nbsp;&lt;strong&gt;이런 과정을 거친 코마사 캔버스는 아주 튼튼하고, 아름답게 빛나는 캔버스로 만들어집니다&lt;/strong&gt;. 그리고, 마지막으로 파라핀 왁스에 캔버스를 담가내면 튼튼하면서도 방수성이 좋고 아주 부드러운 촉감을 가진&lt;br /&gt;&lt;strong&gt;Amiacalva Original Combed yarn canvas&lt;/strong&gt;가 완성됩니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/89b0afdb-7064-4cac-9a1a-1576a1a74350.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c5620e0d2316b1aec35834f992c56a7c" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;이런 Amiacalva의 캔버스로 만들어진 물건은 아주 질기고 튼튼하며, 방수성과 통기성이 매우 우수하고,&lt;br /&gt;&lt;strong&gt;Keeps beauty through years of use.&lt;/strong&gt;&amp;nbsp;즉 오랜 세월 동안 사용하면 할수록 아름다움을 유지하는 그런 가치 있는 물건으로 탄생하게 됩니다.&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/365be9ef-4ef1-4c09-95cb-ec1419ffdfa4.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=66e527c68dcbb4beb6f8062f683029d4" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;브러셔는 아미아칼바(Amiacalva)의 제품을 수입하던 한태민 대표의 소개로 아미아칼바의 캔버스를 제공받을 수 있었으며, 이렇게 좋은 소재로 제품을 만들어 볼 수 있는 기회를 마련해준 한태민 대표에게 감사의 말씀을 전하고 싶습니다.&lt;br /&gt;&amp;nbsp; 오랜 세월 사용해도 그 아름다움을 유지하는 아미아칼바의 오카야마 캔버스. &lt;br /&gt;이 좋은 소재를 통해 튼튼한 운동화를 원했던 1950~60년대 군인들의 마음을 다시 한번 담아내고자 합니다.&lt;/p&gt;
+&lt;h2&gt;/요약하자면&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/04bd1eef-f95a-44f5-b08c-77bd0c763483.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=bb89b99a029c1972bd7e4a5114bc4ffe" width="700" /&gt;&lt;/h2&gt;
+&lt;h2&gt;/CATCH BALL 제품소개&lt;/h2&gt;
+&lt;p&gt;OKAYAMA&amp;nbsp;&lt;u&gt;WHITE&lt;/u&gt;&amp;nbsp;CANVAS SHOES&lt;br /&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/e0697fb5-f76a-4efa-8dc6-adc945f230a4.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=2865669509773a101d4b411749ed57d4" width="700" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/564fa9c4-5b50-4a2b-a884-6aaeb59273c2.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=68dc2934d46843bdf6540b8b38f5c5ed" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;OKAYAMA&amp;nbsp;&lt;u&gt;BLACK&lt;/u&gt;&amp;nbsp;CANVAS SHOES&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/1471b404-41de-41db-8b4e-98555df258af.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5c54d67640a8f8cfaf7344d1030f43b6" width="700" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/746581f5-b58c-4dc6-ab86-3bdeaa2fc1eb.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6761c23a8127d753db932201c42b1bd9" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h4&gt;&amp;nbsp;&lt;/h4&gt;
+&lt;h4&gt;&lt;strong&gt;― WHITE IMAGE&lt;/strong&gt;&lt;/h4&gt;
+&lt;h4&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/fbec1403-2668-4601-a7fc-8e9233bc6e3b.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dd80d617fd471d6eb210f03dc3310610" width="700" /&gt;&lt;/h4&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/2175da17-e329-44fa-a772-52c755f687e4.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=80dc88fd6f9d15c876616411da0239b0" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;― BLACK IMAGE&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/375c4f4d-0b06-43c5-b8f9-b25ab7f2056c.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e7bafcc7d3d839bf08da52c11a085144" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;/제품 디테일&lt;/h2&gt;
+&lt;blockquote&gt;
+&lt;p&gt;얇고, 잘 찢어지고, 발이 아픈 기성 캔버스 화가 아닌,&lt;br /&gt;1950년대 군인들의 활동화처럼 견고하고 편안한 신발을 목표로 하는 것이 CATCHBALL 캔버스 화의 핵심입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/5e1da2ef-07db-4296-aa67-8976ce06d95f.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=73088af0087d5e9ba2b31a835605b391" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;―&lt;strong&gt;튼튼하고, 방수성이 좋은 오카야마 6호 캔버스&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; 캔버스 화는 잘 찢어지고, 잘 젖고, 저렴하면서 반 일회용이라는 인식이 강한 제품군입니다. 캐치볼은 이러한 인식과 단점을 좋은 소재를 통해 극복하고, 고품질의 캔버스 화를 지향하고자 합니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/feccd659-abd4-49eb-bdbc-68b1381c1bf3.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d50e5a92bba268c175db71defafbbd3e" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―밑창(Insole)에 사용된 오솔라이트(Ortholite)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; 일반 캔버스 화는 기능성 솔 자체가 들어가지 않아, 오래 신으면 발이 고통스러워 하는 경우가 많습니다. 고기능성 밑창인 오솔라이트가 적용된 CATCHBALL은 일반 캔버스 화와 비교하여 매우 편안한 착화감을 느낄 수 있으며, 일반 운동화에 들어가는 EVA 인솔보다 더 뛰어난 쿠셔닝을 제공합니다. 또  뛰어난 통기성과 습기조절기능으로 향균 및 발냄세 억제에 도움을 줍니다.&lt;br /&gt;&lt;sub&gt;오솔라이트는 미국기업에서 만든 독자적인 Open-Cell foam기술로 만든 소재로 주로 아웃도어 브랜드의 운동화, 런닝화, 트렉킹화 등에 많이 사용되는 기능성 인솔에 사용되는 소재입니다.&lt;/sub&gt;&lt;/p&gt;
+&lt;h2&gt;/디자인 디테일&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/e7847bf6-385f-4584-ae3a-e4fec8385610.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=9662367b3383c1cc70b1a9551876f507" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―브러셔 캘리그래피 로고타입을 닮은 바늘땀(Stitch)라인&lt;br /&gt;&lt;/strong&gt;바늘땀 라인이 매력적인 캐치볼은 브러셔의 캘리그래피로고에 사용된 선의 느낌을 고안하여 디자인되었습니다. 시원하고 율동감 있게 빠지는 라인이 발의 모양을 날렵하게 보여주며 디자인적 완성도를 높혀줍니다.&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/00503afb-4a64-4053-b75f-e4a3f7fbeef1.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=202ac6ef49d10b5570ffec1642ec0d54" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―세 줄의 바늘땀(Stitch)과 세 개의 아일렛(eyelet)&lt;br /&gt;&lt;/strong&gt;&amp;nbsp;한태민 대표가 고안한 디자인 특징인 세 줄의 바늘땀(Stitch)은 발가락 부분에 생기는 고질적인 터짐 현상을 보완해주고 캐치볼만의 매력을 주며, 바람구멍이라 흔히 불리는 아일렛 또한 세 개로 디자인되어 디자인 통일성과 기능성을 고려하였습니다.  작지만 사려 깊은 디테일을 만드는 것이 캐치볼의 소박한 바람입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/78943027-7b8a-4523-b8b2-829e9e9181d1.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a2f356d1d2b6cc706aaa41033057d4fd" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―조개껍데기 모양의 토캡(Toe Cap)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; &amp;lsquo;신발의 코&amp;rsquo;라고도 불리는 토캡은 원래 신발의 앞부분이 닳아 해지는 것을 보강하기 위해 사용되었지만, 현재는 디자인적인 역할이 더 강한 부분입니다. 1950년대에 활동화를 튼튼하게 만들기 위해 두껍게 덧대었던 조개껍데기 형태의 토캡을 동일하게 적용하고 당시의 활동화처럼 길게 빠진 토캡으로 디자인되었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/c1fa4442-30be-4b7f-8c63-63664a38449a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=778e35d5899d13dab3da628a2624c295" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;그리고, 캐치볼의 조개껍데기 토캡은 일반적인 캔버스 화의 토캡과 다른 점이 있습니다. 왼쪽 이미지와 같이 캔버스와 캔버스가 만나는 지점까지 높게 감싸주는 토캡이 캔버스가 벌어지며&amp;nbsp;너덜너덜해지는 것을 꽉 잡아주고, 오래 신어도 발 모양을 가늘고 이쁘게 잡아주며, 발가락에 의해 캔버스가 찢어지는 것을 방지해줍니다. 한 번 더 손이 가는 쉽지 않은 공정이지만, 캐치볼만의 매력을 위해 고군분투하였습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/b38176b9-ee6c-4d1b-ab90-23e23f9c77fa.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d44ccc704dfbba23d529a7b26af54e52" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―V형 모양으로 재봉된 신발 뒷부분(Hill top)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;V형의 신발 뒷부분은 발목에 닿는 면적이 넓게 디자인 되어 부드럽게 발목을 감싸며, 발목을 이쁘게 보여주는 역할을 하고, 발목 뒷부분의 변형이 적도록 도와줍니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/d6368805-b2a2-47b0-87af-2832bdec040c.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=db58a5dd67effbd2511de8e63a11d8c3" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―의류 라벨을 닮은 설포(tongue)의 로고라벨&lt;/strong&gt;&lt;br /&gt;캐치볼의 가장 뚜렷한 특징인 설포(tongue)의 로고는 마치 의류에 붙어있는 라벨과 같이 직조라벨로 봉제되어 있습니다. 샌프란시스코 마켓 이라는 의류업체와의 협업을 표현하기 위해, 의류에 주로 사용되는 라벨 봉제 방식으로 마감하였습니다.&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/3d55b050-3ba7-4495-833a-92c4b3b3a102.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6dc3f3ad3c5571189ba534cde3d4f186" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;설포의 안쪽에는 브러셔와 한태민대표가 협업하게 된 이야기가 간략하게 스크린으로 새겨져 있습니다.&lt;br /&gt;잘 완성된 그림 또는 건축물에는 그것을 기념하는 싸인 또는 비석이 세겨져 있습니다. 마치 그런 기념비와 같이 잘 만들어진 제품을 기념하고, 오랜 세월이 지나도  이 이야기가 잊혀지지 않도록 기록하자는 의미를 담았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;/패키지 구성&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/5a35e77a-44f1-4fbf-a0c5-3dd0785c10d6.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=988f3fc58c403ce07697b84b832af871" width="700" /&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;―군용 탄피박스 또는 보급상자를 참고한 패키지박스&lt;br /&gt;&lt;/strong&gt;군용 활동화를 다시 만든 것 처럼, 패키지 박스 또한 실제 탄피박스 또는 보급박스의 그래픽 매뉴얼 자료를 바탕으로  디자인되었습니다. 캐치볼 로고가 그려져있는 형광주황색의  스티커가 취급주의 마크처럼 임의로 부착되어 있는것이 캐치볼 박스의 매력입니다.&lt;br /&gt;&lt;sub&gt;(캐치볼 패키지의 디테일 및 구성사항은 추가적인 개발을 통해 더 나은 방향으로 변경될 수 있습니다.)&lt;/sub&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/e0867570-9961-4e2d-bd1b-5c3a82e1e6c3.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=555c068500090721db842e068b4bfd3d" width="700" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/6e5de316-67c5-4fa2-8aa2-0983e67e455f.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ea8d8bd166d37fe8cebb7313fd7eb5fc" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/c8a719b3-2008-4eb4-9e27-e50c3c423141.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=fa594d5f4d61f67884c7d0d2d0567a92" width="700" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;/리워드 및 사이즈 안내&lt;/h2&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/4ab5b9fb-e5e4-4d62-86dd-ef67f3292ed0.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ef25b2a139a1c09e8b16c4bec6ec29d6" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;/주문 안내&lt;/h2&gt;
+&lt;h4&gt;―서베이를 통해 사이즈 선택&lt;/h4&gt;
+&lt;h2&gt;&lt;u&gt;&lt;strong&gt;!!후원 해주신 다음, 우측 상단에 위치한 '나의 후원 현황'에서 사이즈를 선택할 수 있는 '서베이'목록을 통하여 꼭 사이즈 선택 응답을 부탁드립니다.&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;사이즈와 수량이 정해져 있는 제품 특성상 원활한 재고 파악을 통해 원하는 제품을 받아보실 수 있도록 꼭 사이즈 선택 부탁드리겠습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;―사이즈 주문&lt;/strong&gt;&lt;br /&gt;신어보지 못하고 선주문 하셔야 하는 부분을 위하여 사이즈 안내를 해드립니다.&lt;br /&gt;사이즈가 10미리 단위로 구성이 되어 있습니다. (230, 240, 250, 260, 270, 280)&lt;br /&gt;&lt;strong&gt;미국의 CONVERSE 제품과 동일하게 사이즈를 주문하시면 도움이 됩니다.&lt;/strong&gt;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;남성분들은 정사이즈 주문&lt;/strong&gt;&lt;/u&gt;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;여성분들은 한치수 작게 주문해주세요.&lt;/strong&gt;&lt;/u&gt;&lt;br /&gt;(예시: 남성분 운동화 265 기준 -&amp;gt; 270, 여성분 운동화 240 기준 -&amp;gt; 230 주문)&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/010974f9-9d92-4da0-8a2a-3d22286ea637.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a89a9109846d94f087f0079174522b87" /&gt;&lt;/p&gt;
+&lt;h2&gt;/프로젝트 진행일정 및 배송 안내&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/b73b48bf-5cbe-447f-b10d-083aac95613b.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=34f7fe0355c41ca84bccf801651b7a98" /&gt;&lt;/h2&gt;
+&lt;p&gt;리워드가 시작됨과 동시에 제품은 생산이 시작됩니다.&lt;br /&gt;2018년 4월 첫째주에 엄격한 절차를 통해 일일이 검수하여 합격된 제품에 한해서&amp;nbsp;&lt;br /&gt;&lt;strong&gt;4월 16일(월)&lt;/strong&gt;&amp;nbsp;일괄 배송을 목표로 하고 있습니다.&lt;br /&gt;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;CATCH BALL 색상과 수량을 선택하신 분들은 꼭 후원 이후 사이즈에 응답해 주세요.&amp;nbsp;&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1. 섬유의 조성 또는 혼용률&lt;br /&gt;- 겉감 : 오카야마 캔버스&lt;br /&gt;- 안감 : 캔버스&lt;/p&gt;
+&lt;p&gt;2. 제조자명 또는 수입자명&amp;nbsp; : (주)케이맥스&lt;br /&gt;3. 제조국명 : 대한민국, 부산&lt;br /&gt;4. 제조연월 : 2018년 4월&lt;br /&gt;5. 치수 : 상단 표시&lt;br /&gt;6. 취급상 주의사항&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;/펀딩 결제/ 취소/ 변경에 대한 안내&lt;/h2&gt;
+&lt;p&gt;결제 정보 변경은 결제가 진행되고 난 이후엔 어렵습니다. 정보의 변경은 결제가 되는 펀딩 종료날짜 이전에 부탁드립니다.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;―후원 및 기타문의&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;1) 카카오톡 플러스 친구(@브러셔)&lt;br /&gt;2) 브러셔 내선 번호 (070-8879-1023)&lt;br /&gt;3) 브러셔 방문 (대구시 중구 경상감영길 179)&amp;nbsp;&lt;br /&gt;4) 브러셔 사이트 Q&amp;amp;A (&lt;a href="http://www.brusher.co.kr/" target="_blank" rel="noopener noreferrer"&gt;www.brusher.co.kr&lt;/a&gt;)&lt;br /&gt;로 문의 주시길 바랍니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/b0a9da84-138c-4ac8-9fd9-f2265c6a9c64.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5477a1d4eacd3c8f79d72d4431d3cd24" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;―마지막으로 드리는 말씀&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;2016년부터 마음속으로만 준비해오던 프로젝트가 드디어 결실을 보는 순간이 다가오고 있습니다.&lt;br /&gt;펀딩에서는 미숙한 부분이 많기에 부족한 점 너그러이 이해 부탁드리며 다소 긴 글 끝까지 읽어주셔서 정말 감사합니다.&amp;nbsp;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;캐치볼 출시를 위해 도움을 주신&lt;/strong&gt;&lt;br /&gt;샌프란시스코마켓_한태민 대표님,&lt;br /&gt;캘리브랜드_한영진 소장님, 노승환 디자이너님,&lt;br /&gt;일본의 Amiacalva, 부산의 K-max 등등&lt;br /&gt;조언해주신 수 많은 모두에게 감사의 말씀을 드리고 싶습니다.&lt;br /&gt;감사합니다.&lt;/p&gt;
+&lt;p&gt;-브러셔 일동&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/ebbcb2bc-39c4-44af-8413-8fe8d9d63015.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=93b171f8f8a25cbc78e7d12900276419" width="700" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198245139114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote&gt;&lt;strong&gt;FAKE LEATHER로 만든 세련되고 모던한,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;프로퍼 새들백(PROPER SADDLE BAG)&lt;/strong&gt;&lt;/blockquote&gt;
+&lt;blockquote&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/854b557b-712d-4af0-a460-f7021c339420.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=76feaf15e93bfb0a1843a93c072b8324" /&gt;&lt;hr /&gt;&lt;/blockquote&gt;
+&lt;hr /&gt;
+&lt;p&gt;안녕하세요,&amp;nbsp;&lt;br /&gt;동물 착취 없는 지속가능한 삶에 대한 고민으로부터 시작된 비건 패션 프로젝트&amp;nbsp;&lt;strong&gt;낫아워스(Not ours)&lt;/strong&gt;입니다.&lt;a href="https://tumblbug.com/fakefurcoat" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/478a4d69-03ed-4cd8-b1d4-d45b250f02d7.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a39a65fb21bc2279cecb1820f17d0171" /&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;낫아워스(Not ours)라는 이름에는&amp;nbsp;&lt;strong&gt;&amp;lsquo;우리의 것이 아닌 것들'&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;&amp;lsquo;우리의 털이 아닌 동물의 털&amp;rsquo;&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;&amp;lsquo;우리의 자원이 아닌 미래 세대의 자원&amp;rsquo;&lt;/strong&gt;에 대한 고민을 담았습니다. 또한&amp;nbsp;&lt;strong&gt;Ours(욱스)&lt;/strong&gt;는&amp;nbsp;&lt;strong&gt;프랑스어로 곰&lt;/strong&gt;이라는 뜻을 가지고 있어, &amp;lsquo;곰이 아닌&amp;rsquo;, 즉 '동물의 가죽이나 털로 만든 것이 아닌&amp;rsquo;이라는 말장난의 의미도 가지고 있습니다. 무심한 표정의 욱스(Ours)가 낫아워스(Not ours)를 대표하는 캐릭터&amp;nbsp;입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;낫아워스(Not ours)는 동물성 소재가 고급스럽다는 기존의 편견을 깨고&amp;nbsp;&lt;strong&gt;퀄리티 좋은 비동물성 소재를 사용&lt;/strong&gt;하여&amp;nbsp;&lt;strong&gt;디자인적으로 세련되고 퀄리티 높은 패션 아이템&lt;/strong&gt;을 선보입니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;2017년 11월,&amp;nbsp;&lt;strong&gt;비건 패션 아이템의 다양성 부재에서부터 시작, 기획된 낫아워스(Not ours) 프로젝트&lt;/strong&gt;는&amp;nbsp; 많은 분들의 응원과 후원으로 두 번의 프로젝트 모두 성공할 수 있었습니다.&lt;/p&gt;
+&lt;p&gt;이 기회를 통해&amp;nbsp;&lt;strong&gt;동물 착취 없는 패션에 대한 관심&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;저희가 추구하는 가치와 철학에 공감해주시는 분&lt;/strong&gt;들이 많다는 것을 알게 되었습니다. 낫아워스(Not ours)프로젝트에 관심가져주시는 모든분들께 다시 한번 감사 드립니다!&lt;/p&gt;
+&lt;p&gt;- 낫아워스 첫 번째 프로젝트 :&amp;nbsp;&lt;strong&gt;&lt;a href="https://tumblbug.com/fakefurcoat" target="_blank" rel="noopener noreferrer"&gt;비건의 완벽한 겨울 아우터, '페이크 퍼 하프 코트'&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;- 낫아워스 두 번째 프로젝트 :&amp;nbsp;&lt;strong&gt;&lt;a href="https://tumblbug.com/notourssweatshirts" target="_blank" rel="noopener noreferrer"&gt;낫아워스 스웻셔츠: &amp;lsquo;동물은 누구의 것도 아니다&amp;rsquo;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h4&gt;&lt;strong&gt;그리고 세 번째 프로젝트 :&lt;br /&gt;&lt;/strong&gt;&lt;/h4&gt;
+&lt;h2&gt;This Is Real Fake Leather,&amp;nbsp;&lt;br /&gt;&lt;u&gt;&lt;strong&gt;프로퍼&amp;nbsp;새들백(PROPER SADDLE BAG)&lt;/strong&gt;&lt;/u&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/1bed91bd-c9e5-4420-b286-2bb54fdcd935.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ef56faa1215a1fbb2ad8a0c7550f5b52" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/8a11bc70-b5bd-4458-ac49-2afd9fbc944b.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5b18e2ed1a9110e44938f0ff2ca56936" /&gt;&lt;/h2&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&amp;laquo; WHAT IS REAL and FAKE? &amp;raquo;&lt;br /&gt;동물의 가죽, 모피 등을 우리는 진짜 가죽, 모피라고 합니다.&lt;/h2&gt;
+&lt;p&gt;그런데 가죽을 얻기 위해 동물의 희생이 꼭 필요할까요?&lt;/p&gt;
+&lt;blockquote&gt;&amp;ldquo;본격적으로 일을 시작하면서 단순히 패션을 위해 한 해 5,000만 마리의 동물이 희생당한다는 걸 알게 됐다. 또 그들을 기르기 위해 물과 곡물과 화학물질이 쓰인다는 것도, 폐해가 만만치 않을텐데 패션사업이 여기에 책임감을 지녀야 한다.&amp;rdquo; (2015년&amp;nbsp;스텔라 맥카트니 인터뷰 내용 중 발췌)&lt;/blockquote&gt;
+&lt;p&gt;흔히들 가죽은 육식 산업의 부산물로 얻어지는 것으로 알고 있지만,&amp;nbsp;&lt;strong&gt;보통은 식용육이 가죽 산업의 부산물로 얻어집니다.&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;가죽은 패션 업계로 판매될 때 냉동할 필요도 없어 간편하고 식용육보다 마진율이 높기 때문&lt;/strong&gt;입니다. 특히 소는 면적이 넓어 가죽 산업에서 가장 많이 이용되고 있으며, 타조, 도마뱀, 악어, 뱀, 상어 등의 희귀한 동물들은 고가에 거래되기 때문에 오직 가죽 채취를 위해 사육되고 사냥된다고 합니다.&lt;/p&gt;
+&lt;p&gt;패션 업계에서 가장 많이 사용되는 소가죽의 대부분은&amp;nbsp;인도나 중국 등, 동물법이 존재하지 않거나 강화되지 않은 나라에서 만들어집니다.&lt;/p&gt;
+&lt;p&gt;가죽은 '천연' 상태로는 소재로 사용할 수 없습니다.&amp;nbsp;&lt;strong&gt;가죽을 소재로 사용하기 위해서는 부패를 막기 위해 독성이 강한 화학 공정&lt;/strong&gt;인&amp;nbsp;&lt;strong&gt;무두질(Tanning)&lt;/strong&gt;을 거쳐야합니다. 이로 인해 노동자들과 공장 주변은&amp;nbsp;&lt;strong&gt;고농도 화학물질에 노출되어 신체적, 정신적으로 심각한 피해&lt;/strong&gt;를 입습니다. 이렇듯&amp;nbsp;&lt;strong&gt;동물에 대한 착취는 환경 문제와 우리의 삶에도 밀접한 관계&lt;/strong&gt;가 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;이제 동물성 소재가 고급 소재라는 인식은 바뀌어야 합니다.&lt;/strong&gt;&lt;/u&gt;&amp;nbsp;예전에는 동물의 가죽이나 모피 등이 희소성 때문에 귀하게 여겨졌지만, 지금은 동물성 소재가 지나치게 흔하고 '진짜' 가죽, '진짜' 모피라고 퀄리티가 좋은 것도 아닙니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;최근엔 동물성 소재를 대체할만한 친환경적인 소재들이 계속 개발&lt;/strong&gt;되고 있습니다.&amp;nbsp;&lt;br /&gt;제품의 퀄리티는 진짜 가죽이냐 가짜 가죽이냐가 아니라,&amp;nbsp;&lt;strong&gt;좋은 소재와 디자인, 정성스러운 공정으로 결정되며, 어떻게 관리하느냐가 가장 중요&lt;/strong&gt;합니다. '가짜' 가죽도 잘 관리한다면 '진짜' 가죽 못지않게 오래 사용할 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;p&gt;&lt;strong&gt;동물은 생산성으로 가치를 매기는 것이 아닌, 생명으로서 존중받아야 하는 존재입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;&lt;/blockquote&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;|&amp;nbsp;프로퍼&amp;nbsp;새들백(PROPER SADDLE BAG) 소개&lt;br /&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;h3&gt;&lt;strong&gt;1. 디자인&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/204dc008-10e1-4d96-9d0f-0854a9e8487d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=abb5dd4229e3d4a1efa25b6fd2107c6a" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/896fcb0d-e681-4e5d-add9-509409e5432e.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=cad7ece8a9251fe1b891c1aad6348a84" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;캐쥬얼한 스타일&lt;/strong&gt;에도,&amp;nbsp;&lt;strong&gt;포멀한 스타일&lt;/strong&gt;에도 어울리는&amp;nbsp;&lt;strong&gt;미니멀한 디자인의 데일리 크로스백&lt;/strong&gt;&amp;nbsp;입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;단단한 보강재를 넣어 구조를 완성&lt;/strong&gt;시켰고, 넉넉하게 덮이는&amp;nbsp;&lt;strong&gt;플랩&lt;/strong&gt;&amp;nbsp;가운데&amp;nbsp;&lt;strong&gt;와이드한 벨트와 벨트 루프로 장식&lt;/strong&gt;을 하고&amp;nbsp;&lt;strong&gt;투스티치(Two stitch)로 클래식한 느낌&lt;/strong&gt;을 주었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;컬러&lt;/strong&gt;는&amp;nbsp;&lt;strong&gt;오트밀과 워시드 블랙 두 가지&lt;/strong&gt;이며,&amp;nbsp;&lt;strong&gt;금속 부자재&lt;/strong&gt;는 모두&amp;nbsp;&lt;strong&gt;고급 흑니켈 도금&lt;/strong&gt;을 하여&amp;nbsp;&lt;strong&gt;무채색의 세련된 컬러로 간결한 디자인을 완성&lt;/strong&gt;시켰습니다.&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;2.구성&lt;/strong&gt;&lt;/h3&gt;
+&lt;h3&gt;&lt;strong&gt;&amp;nbsp;&amp;bull; 본체&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/20410fa6-c12b-4e43-8658-49d07757c58d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=1879c46fa962c45ea7d3ff67fab7c599" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/90d6d2be-f622-4556-b3a6-e6dbc799f0a3.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a3b675a4e7f261dc891fdce1713bf981" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/6b9f8638-23c2-40a1-8f98-df23a0864551.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=07f4a6923e9ddb972b7719c1a6466734" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/2fdb07ff-ac5f-468a-b16d-2cddb5a3bb68.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=ed0180ffc96aef715746e2d802ea4e1e" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/27c2dae6-7576-4b25-a5a9-6be25087649e.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=1d26afbc29dfcf5302f6a692eb877e33" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/1404f665-d726-43d3-ba74-8e972d62faea.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=1260b068e23ca229eb1e2996d77e46fd" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/69aedd78-e46c-4dbb-91e3-bb74c3d94da6.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=e9b3ffdc0f29af88fe5fcecbc81b45a0" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/4439b5d9-7ad5-4323-bdc0-5ab23126dec6.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=71f9843c81bd715000cde26605c763e3" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/9ce8f034-6dad-41bc-8bf1-4ad3133b702e.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=be0ee35260106f7177b55ef9f31c018a" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/2f1239bd-5666-4863-87ce-9c5460de9774.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=3abc849cc877042d1fe3c88a5ba64471" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A5&lt;/strong&gt;&amp;nbsp;정도의 일반적인&amp;nbsp;&lt;strong&gt;사이즈의 책&lt;/strong&gt;과 지갑, 핸드폰, 파우치 등의&amp;nbsp;&lt;strong&gt;소지품이 들어갈 정도로 넉넉한 크기&lt;/strong&gt;입니다.&amp;nbsp;&lt;strong&gt;뒷면은 전체 포켓&lt;/strong&gt;으로 되어있고,&amp;nbsp;&lt;strong&gt;내부&lt;/strong&gt;에는 수납할 수 있는&amp;nbsp;&lt;strong&gt;세 개의 보조 포켓&lt;/strong&gt;이 있습니다.&amp;nbsp;&lt;strong&gt;오프닝&lt;/strong&gt;은&amp;nbsp;&lt;strong&gt;히든 자석으로 마감하여 심플하고 고급&lt;/strong&gt;스럽습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;&amp;bull; 스트랩&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/131fbfbe-48b2-4102-9699-5b7c8c59c6e7.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=1946a175550d197625edafff812d3bc6" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/38db25a8-0e44-4494-930d-31ad1a801843.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=4ab4ae7175c0f8947704e0cd4af75e18" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;길이 조절과 탈부착이 가능한 두 개의 스트랩으로 각각 다른 분위기를 연출&lt;/strong&gt;할 수 있습니다.&amp;nbsp;&lt;br /&gt;-&amp;nbsp;&lt;strong&gt;스트라이프 웨빙 스트랩&lt;/strong&gt;은&amp;nbsp;&lt;strong&gt;스포티하고 캐쥬얼한 느낌&lt;/strong&gt;으로,&lt;strong&gt;&amp;nbsp;욱스와 낫아워스 로고&lt;/strong&gt;를 넣어&amp;nbsp;완성도를 높였습니다.&amp;nbsp;&lt;br /&gt;-&amp;nbsp;&lt;strong&gt;페이크 레더 스트랩&lt;/strong&gt;은 바디와 같은 원단으로 만들어&amp;nbsp;&lt;strong&gt;심플하고 클래식한 느낌&lt;/strong&gt;으로,&amp;nbsp;&lt;strong&gt;낫아워스 텍스트 로고&lt;/strong&gt;를&amp;nbsp;추가하였습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;&amp;bull; THIS IS REAL FAKE LEATHER 카드 택&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/3713566e-9aaa-475a-a8c9-54f8c1b965a0.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=f49d4297678079ed67e49a3159a948a4" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/8d0c7475-9764-44a4-8825-b7fbae70695d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=2365f3de5348399e3759f65fe1225575" /&gt;&lt;/p&gt;
+&lt;p&gt;벨트 악세서리로&amp;nbsp;&lt;strong&gt;탈부착이 가능한 택 안쪽에는 교통 카드 등을 넣을 수 있도록&amp;nbsp;기능을 추가&lt;/strong&gt;하였습니다. 특히&amp;nbsp;이번 제품의 슬로건인 &amp;ldquo;&lt;strong&gt;THIS IS REAL FAKE LEATHER&lt;/strong&gt;&amp;rdquo;라는 문구를 넣어 진짜 가죽으로 오해받을 수 있는 상황에 대처할 수 있도록 디자인 하였습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/90e938fa-2de3-407e-9295-503fff7a92cd.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d6124fa98447063f72b2453c511e0bf9" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/b10dae04-d64e-43a9-9ea4-12cb41ff03fc.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=29c4369a0082f83d929f783591f1c2ca" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/98c9ac33-485f-4384-af2f-7e8c180c1b44.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c91f31f76c7720a39b576002b49d2646" /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/0f00121a-98c3-476a-b1a7-a8a1b1e969ea.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=fabd2ccfdc69d577dd37a3d62454f970" /&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;3. 소재&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;겉감&lt;/strong&gt;은&amp;nbsp;&lt;strong&gt;폴리우레탄(Polyurethane, PU)&lt;/strong&gt;으로, 그 중에서도&amp;nbsp;&lt;strong&gt;긁힘이나 찍힘에 특별히 강하며 강도가 좋은 원단&lt;/strong&gt;을 선택하였습니다. 샘플실에서도 인정할 정도로 소재의 퀄리티가 매우 뛰어난 편입니다.&amp;nbsp;&lt;strong&gt;안감&lt;/strong&gt;은 면 100%의&amp;nbsp;&lt;strong&gt;튼튼한 트윌 소재&lt;/strong&gt;로 고급스러운 느낌입니다.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;&lt;strong&gt;본체(Body)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; - 겉감(Shell): 폴리우레탄(PU)&lt;br /&gt;&amp;nbsp; - 안감(Lining): 면(Cotton 100%)&lt;br /&gt;&lt;strong&gt;&amp;bull; 끈(Strap)&lt;/strong&gt;&lt;br /&gt;&amp;nbsp; - 페이크 레더 스트랩: 폴리우레탄(PU)&lt;br /&gt;&amp;nbsp; - 웨빙 스트랩: 폴리에스터(Polyester 100%)&lt;/p&gt;
+&lt;p&gt;일반적으로 가장 많이 사용되는 페이크 레더 소재는 PU와 PVC입니다.&amp;nbsp;&lt;br /&gt;&lt;strong&gt;낫아워스(Not ours)는&lt;/strong&gt;&amp;nbsp;비건이라 하더라도&amp;nbsp;&lt;strong&gt;절대 사용하지 않기로한 소재&lt;/strong&gt;가 있는데, 그건 바로&amp;nbsp;&lt;strong&gt;PVC (Polyvinyl chloride, 폴리염화비닐)&lt;/strong&gt;입니다.&amp;nbsp;&lt;strong&gt;PVC는 유럽과 미국 일부 지역에서 사용 제한/금지&lt;/strong&gt;될 정도로&amp;nbsp;&lt;strong&gt;생산에서 폐기에 이르는 모든 단계에서 사람과 환경 모두에게 가장 해로운 최악의 플라스틱 물질&lt;/strong&gt;이기 때문입니다. (&lt;strong&gt;&lt;a href="https://brunch.co.kr/@wikifadi/27" target="_blank" rel="noopener noreferrer"&gt;낫아워스가 PVC를 사용하지 않는 이유&lt;/a&gt;&lt;/strong&gt;&amp;nbsp;읽어보기)&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;4. 색상&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/d5d57efb-f2a4-4094-a335-5a1f11fc9bd3.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c654cd74dbd6f7c1d0d3ba2aa5e9b2a7" /&gt;&lt;/p&gt;
+&lt;p&gt;컬러는&amp;nbsp;&lt;strong&gt;오트밀(Oatmeal)&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;워시드 블랙(Washed Black)&lt;/strong&gt;&amp;nbsp;두 가지입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;오트밀(Oatmeal)&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;세련되고 미니멀한 느낌의 오트밀 컬러&lt;/strong&gt;입니다. 살짝 회색빛이 도는 세련된 컬러로, 어떤 스타일에 매치해도 돋보이는 컬러 입니다.&amp;nbsp;&lt;strong&gt;안감은 베이지로 배색&lt;/strong&gt;하였습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;워시드 블랙(Washed Black)&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;살짝 물 빠진듯한 블랙&lt;/strong&gt;으로, 어디에나 착용하기 좋은 기본 컬러 입니다.&amp;nbsp;&lt;strong&gt;안감은 네이비로 배색&lt;/strong&gt;하였습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;5. 제품 퀄리티&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;낫아워스의 '프로퍼 새들백(Proper Saddle Bag)'을 제작하게 될 공장은&amp;nbsp;&lt;strong&gt;국내외 유명 브랜드들의 가방을 전문적으로 제작하는 공장&lt;/strong&gt;입니다. 이미 여러번 협업했던 업체로, 퀄리티에 대해서는 믿고 맡길 수 있는 업체입니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;6. 사이즈&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/93cce532-70a5-4bf8-a4d9-ed2715048355.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=5565ab903bce85dad65b14b932aac7d8" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;bull; 사이즈는 단면으로 기재하였습니다.&lt;br /&gt;&amp;bull; 재는 방법에 따라 약간의 차이가 있을 수 있습니다.&lt;br /&gt;&amp;bull; 상세컷과 사이즈표를 참고하셔서 신중히 선택해 주시길 바랍니다.&lt;br /&gt;&amp;bull; 모니터의 해상도와 밝기에 따라 실제 제품의 색상과 차이가 있을 수 있습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;7. 가격&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;낫아워스(Not ours)는 &amp;lsquo;저렴한 가격의 아이템을 여러개 구입하기 보다는&amp;nbsp;&lt;strong&gt;좋은 아이템을 하나 사서 오래 사용하자&amp;rsquo;라는 철학&lt;/strong&gt;을 가지고 있습니다. 트렌디하고 저렴한 일회용 패션들은 지나치게 유행을 타거나 내구성이 떨어지는 탓에 오래 사용하기 어렵기 때문에 환경적으로도 부정적인 영향을 끼칩니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;따라서 디자인과 내구성을 위해&amp;nbsp;단가가 높은&amp;nbsp;&lt;strong&gt;하이 퀄리티 페이크 레더와 부자재를 사용&lt;/strong&gt;하였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그리고 무엇보다&amp;nbsp;&lt;strong&gt;노동의 가치를 중요하게 여겨 무리하게 단가를 낮추려고 하지 않았습니다&lt;/strong&gt;. 오히려 하이 퀄리티의 제품임에도 불구하고 저렴하게 가격을 책정할 수 있는 이유는, 2인이 운영하는 소규모 프로젝트로 사무실과 같은 공간 임대료 등이 빠져있고, 텀블벅이라는 플랫폼을 택하여 유통 과정에서 발생하는 수수료 등을 최소화 할 수 있기 때문입니다. 대신 제품의 완성도에 많은 노력을 기울여 패턴과 샘플 등 개발에는 비용을 아끼지 않았습니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/bd5b11d5-ac8b-464f-accb-bb1b8fee1e0c.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=b6b18b1d9a0d99e7b05b48fedd7ff0a9" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/2fc599bb-2a16-45b4-816d-8eef41e2c5e9.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=97b37636ad545f8ff53c336a233897fd" /&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;| 후원 안내&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;이번&amp;nbsp;&amp;lt;&lt;strong&gt;페이크 레더로 완성된 고급스러움: 낫아워스 프로퍼 새들백&lt;/strong&gt;&amp;gt; 프로젝트 성공 시,&amp;nbsp;&amp;lsquo;&lt;strong&gt;동물자유연대&lt;/strong&gt;&amp;rsquo;에&amp;nbsp;&lt;strong&gt;최종 모금액의 3%를 기부할 예정&lt;/strong&gt;입니다.&amp;nbsp;&lt;strong&gt;펀딩 성공 후 모금액이 확정되면 바로 기부가 진행&lt;/strong&gt;되고,&amp;nbsp;&lt;strong&gt;기부 내역은 투명하게 공개&lt;/strong&gt;됩니다.&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/3a4ec931-c281-4900-bd8f-cef381d19d3c.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a1b6bf35f2d982ff00a78a1ac9d72b87" /&gt;&lt;br /&gt;'&lt;strong&gt;동물자유연대&lt;/strong&gt;'는 인간과 동물이 생태적 &amp;middot; 윤리적 조화를 이루며 살아가는 것을 목표로 활동하는&amp;nbsp;동물보호단체입니다. 바람직한 반려동물 문화 조성, 동물학대 사건대응, 피학대 동물 구조 및 보호, 유기동물재입양, 개식용금지, 길고양이와 공존 등 다양한 분야에 대한 제도 정비 및 인식 개선 캠페인을 진행하고 있습니다. 더 자세한 사항/후원 정보는&amp;nbsp;&lt;a href="http://www.animals.or.kr/" target="_blank" rel="noopener noreferrer"&gt;동물자유연대 홈페이지&lt;/a&gt;에서 확인할 수 있습니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;| 리워드 구성 안내&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/63d7b8ab-1148-4af2-a580-cda5512fca45.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=d22649a870ff5928133d25fbdac4e5a7" /&gt;&lt;br /&gt;*&amp;nbsp;&lt;strong&gt;&amp;lt;프로퍼 새들백&amp;gt;&amp;nbsp;3개 이상 구매를 원하시거나&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;해외 배송 관련 문의&lt;/strong&gt;는&amp;nbsp;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;나&amp;nbsp;&lt;strong&gt;이메일(&lt;a href="mailto:notoursteam@gmail.com" target="_blank" rel="noopener noreferrer"&gt;notoursteam@gmail.com&lt;/a&gt;)&lt;/strong&gt;로 연락주세요!&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;| 후원 시 주의사항&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;펀딩 마감 후 바로 제작에 들어가는 제품&lt;/strong&gt;으로,&amp;nbsp;&lt;strong&gt;펀딩 마감 후에는 색상 교환 및 환불이 불가&lt;/strong&gt;합니다. 따라서&amp;nbsp;신중하게 고민해보시고 후원 부탁드립니다.&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;| 리워드 및 배송 일정 안내&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;리워드 기간 : 2018년 3월 22일 ~&amp;nbsp;&lt;strong&gt;4월 30일&lt;/strong&gt;까지&lt;br /&gt;&amp;bull; 생산 기간 : 2018년 5월 1일 ~ 5월 30일까지 (30일 간)&amp;nbsp;&lt;br /&gt;&amp;bull; 배송 일정 :&amp;nbsp;&lt;strong&gt;2018년 5월 31일부터&lt;/strong&gt;&amp;nbsp;일괄 배송을 목표로 하고 있습니다. 배송 관련해서 변동 사항 있으면 바로 공지 드리도록 하겠습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;| 환불/교환 정책&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;대표 이미지 아래 환불 및 교환 정책 탭 확인 부탁드립니다.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;| 프로젝트 기타 문의&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;나&amp;nbsp;&lt;strong&gt;이메일(&lt;a href="mailto:notoursteam@gmail.com" target="_blank" rel="noopener noreferrer"&gt;notoursteam@gmail.com&lt;/a&gt;)&lt;/strong&gt;로 연락주시면, 빠르게 답변하도록 하겠습니다!&lt;/p&gt;
+&lt;p&gt;※&amp;nbsp;&lt;strong&gt;낫아워스의 새로운 소식&lt;/strong&gt;은&amp;nbsp;&lt;strong&gt;트위터&lt;/strong&gt;와&amp;nbsp;&lt;strong&gt;인스타그램&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;페이스북 계정&lt;/strong&gt;을 통해 업데이트 됩니다!&lt;br /&gt;&amp;bull; 낫아워스 트위터 :&amp;nbsp;&lt;a href="https://tumblbug.com/instagram.com/notoursteam" target="_blank" rel="noopener noreferrer"&gt;twitter.com/notoursteam&lt;/a&gt;&lt;br /&gt;&amp;bull; 낫아워스 인스타그램 :&amp;nbsp;&lt;a href="https://tumblbug.com/instagram.com/notoursteam" target="_blank" rel="noopener noreferrer"&gt;instagram.com/notoursteam&lt;/a&gt;&lt;br /&gt;&amp;bull; 낫아워스 페이스북 :&amp;nbsp;&lt;a href="https://tumblbug.com/facebook.com/notoursteam" target="_blank" rel="noopener noreferrer"&gt;facebook.com/notoursteam&lt;/a&gt;&lt;br /&gt;&amp;bull; 낫아워스 브런치 :&amp;nbsp;&lt;a href="https://tumblbug.com/brunch.co.kr/magazine/notours" target="_blank" rel="noopener noreferrer"&gt;brunch.co.kr/magazine/notours&lt;/a&gt;&amp;nbsp;(브런치에서는 비건 패션과 패션에서 착취당하고 있는 동물들에 대한 이야기 등 좀 더 심도깊은 내용을 담아냅니다.)&lt;/p&gt;
+&lt;p&gt;** 사진 : 포토그래퍼 GARA님(&lt;a href="https://tumblbug.com/instagram.com/gara_docu" target="_blank" rel="noopener noreferrer"&gt;instagram.com/gara_docu&lt;/a&gt;)&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/f608cd4f-cc5f-421b-8392-191f81a52905.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=441808c3ff61a30683f9336ad4ed0158" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;| 세번째 프로젝트 소개를 마치며&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;페이크퍼 하프코트, 낫아워스 스웻셔츠에 이어 세 번째 낫아워스 프로젝트를 진행하게 되었습니다. 앞선 프로젝트들이 다행히 성공해서 이번 프로젝트도 이어갈 수 있었습니다. 저희 응원해주시고 후원해 주시는 모든 분들께 다시 한번 감사드립니다!&lt;/p&gt;
+&lt;p&gt;낫아워스(Not ours)는 리워드 구성이 비교적 단순한 편입니다. 그 이유는 제품 생산이 가능한 최소 수량에 맞추어 목표 금액을 정하기 때문에 후원이 분산되면 제작이 무산되기 때문입니다. 또한 프로젝트를 풍성하게 보이기 위한 용도로 불필요한 제작을 하는 것보다는 그 비용을 제품의 퀄리티를 높이는데 사용하는 것이 낫다고 생각하기 때문입니다.&lt;/p&gt;
+&lt;p&gt;프로젝트를 거듭할수록 비건 패션에 대해 관심을 가지고, 저희가 하는 작업을 눈여겨보시는 분들이 많아지고 있습니다. 오랫동안 비건으로 살았던 디자이너는 과거와의 온도차를 많이 느끼고 있다고 합니다.ʕ&amp;bull;ᴥ&amp;bull;ʔ 저희는 앞으로도 비건 소재로 제품을 만드는 것뿐 아니라, 하나의 제품이 세상에 나오고 폐기되기까지의 과정에 연결된 모든 것들에 최대한 관심을 가지고 고민하면서 제품을 만들고자 합니다.&lt;/p&gt;
+&lt;p&gt;이번 프로젝트도 성공하길 바라며, 동물성이 포함되지 않은 좋은 제품을 &amp;lsquo;잘&amp;rsquo; 만들어서 오래 사용하자는 낫아워스(Not ours)의 가치를 함께 나누실 분들 모두를 환영합니다. \ʕ&amp;middot;ᴥ&amp;middot; \ʔ ʕ/ &amp;middot;ᴥ&amp;middot;ʔ/&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198281860115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/6c418cfb-2ee1-44f7-9a29-3450fb52ab47.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dc208024c76c803b61607d0e3221b6e7" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uni.J는 &amp;lsquo;Modern&amp;amp;Unique&amp;rsquo;의 공존이라는 건축학적 의미를 주얼리의 시각에서 바라보고 다양성과 공감이라는 주제로 시대적 트렌드를 표현.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;연예인, 잡지, 광고 등 다양한 분야에서 오랫동안 스타일링을 해온 패션 스타일 리스트와 H&amp;amp;M, Forever21등 많은 spa브랜드 디자인을 해온 디자이너가 함께 분석, 계획, 설계하여 한국 트렌드에 맞는 하지만 조금은 특별하고 어디에도 찾아볼 수 없는 디자인을 개발하는데 방향성을 두고 진행하고 있다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/a5931061-00ff-413e-b57d-4443988db0e8.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=da8895e79d6c7b31450843404017f785" width="700" height="9" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;디자인 (JE-1)&amp;nbsp;&lt;br /&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;라운드 안에서 표현된 럭셔리.&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;일상과 이벤트를 모두 담아내다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/7cdad8d8-52c3-4b70-a18d-15c821db2565.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=082767debe27d013dc711caeb8d1dece" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/14001f42-7ff9-45eb-903a-f4fecf6738b6.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dacddb31ea646d54a350e4023c873157" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/2d0c7403-1ff2-494c-9b8c-a202daa0ed3d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=3a0543aa378d855d8c3f3083ebb9e0e4" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;소재-&lt;/strong&gt;&lt;strong&gt;BRASS[18kGOLD,SLIVER(rhodium)도금], 티타늄 침&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;디자인 (JE-2)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;사각 플레임.&amp;nbsp;&lt;br /&gt;심플함 속에 고급스러움을 표현했다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/a11ed59e-6899-480d-b8d3-a6a030e28326.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=afb067396a74640cffc42007db4249f3" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/04dc1856-a11c-4c99-87c4-046311e7a351.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=0171703368e1272b35e4fe46937be7e3" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/bc20b196-1430-4368-bcaf-3fb8a46b628d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c9196c1e62b93c729ed70c104f14ba55" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;소재-BRASS[18kGOLD,SLIVER(rhodium)도금], 티타늄 침&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uni.J는 다양한 연출이 가능하다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/c92935b2-0c26-4e18-8b03-0ed8d0482d4f.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=0a4214606982182ce15376df4b40e671" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;모든 제품에 기본 포스트가 포함되어 있어 기존의 스타일 외에도 그날에 스타일과 분위기에 맞게 연출이 가능.&lt;br /&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;[주의사항]&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;- 은(silver)이나 도금된 액세서리는 물이나 기름에 오래 방치할 경우, 변질될 수 있으니 착&amp;nbsp; &amp;nbsp; 용 후에는 마른 천 등 으로 청결히 해주시고, 보관에 유의해주세요.&lt;/strong&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;- 핸드메이드 귀걸이라서 제작 특성상, 컬러, 위치, 패턴 등이 약간의 차이가 있을 수 있습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;- 펀딩종료시, 취소가 불가능하기 때문에 &amp;nbsp; &amp;nbsp;신중하게 후원해 주시길 부탁드립니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;- 티타늄 침을 사용해 알레르기에 최소화 하였지만, 알레르기가 심하신 분들은 체질을 고려해후원 해주세요.&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[배송관련 및 펀딩일정]&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;펀딩 마감: 04월 08일&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;결산 집계일 4월 15일 이후로 부터 1차/2차로 나뉘어 순차배송&amp;nbsp;되며&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;5월 15일까지는 모두 받아보실수 있도록 배송하겠습니다.&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;배송비는 무료로 진행됩니다.&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;다만, 도서산간 및 제주도&lt;/strong&gt;&lt;strong&gt;의 경우 후원금액에 배송비 3,000원을 더하여 후원해주세요.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;br /&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;1. 사용연령 : 14세 이상&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;2. 제조연월 : 2018. 03 ~&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;3. 제조자명 : Uin.J&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;4. 주소 : 수원시 장안구&amp;nbsp;&lt;br /&gt;5&lt;/strong&gt;&lt;strong&gt;. 제조국명 : 미정&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198314524316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/9d8dec57-cc2f-4364-bcd5-f87e10806d46.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=57bc2998ebcfd1437dbd0cdfee669c2f" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;#안녕하세요 오월의 카탈로그입니다.&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;&lt;u&gt;손위의 작은 반짝임, 활짝 피어난 꽃, 고즈넉한 오후&lt;/u&gt;&lt;br /&gt;이런것을 사랑하고 그 마음을 공유하고 싶어&amp;nbsp;&lt;br /&gt;쥬얼리를 판매하고 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#진주와 원석&lt;/h2&gt;
+&lt;p&gt;&lt;u&gt;&lt;br /&gt;&lt;/u&gt;시대가 지나고 많은 시간이 흘러도&amp;nbsp;&lt;br /&gt;나이에 상관없이 꾸준히 사랑받고, 특유의 고급스러움을 주는 진주와&lt;br /&gt;어렸을때 해변에 가면 반짝반짝 빛나던 유리조각이&lt;br /&gt;마치 보석처럼 느껴져서 가져오곤 했던.&lt;br /&gt;그런 마음을 담은듯한 원석.&lt;br /&gt;손목위에서 언제나 ,&amp;nbsp;&lt;u&gt;항상 작은 반짝임을 주는 팔찌&lt;/u&gt;를 소개합니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/49a8346e-376d-41ff-ba6b-63d306d3cd22.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=575697bc740561ca1bb06f65bd0e06ba" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#화려하지 않기때문에 매일 할수있는 쥬얼리&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;팔찌와 목걸이 모두 얇은 체인을 사용하였고,&lt;br /&gt;심플한 느낌을 주고자 노력했습니다.&lt;br /&gt;원석이나 진주에 중점을 두고자 다른 디테일은 추가하지 않았고&lt;br /&gt;그럼에도 원석이 주는 아름다움이 더욱 빛나게 해줄꺼예요&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;멋내지 않은듯 멋을 냈을때 가장 멋져보이는것처럼&lt;/u&gt;요.&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;#심플한 디자인&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;사실 진주와 원석은 많이 판매되고 있지만&lt;br /&gt;대부분 진주나 원석이 그저 체인줄에 끼워져 달려있는 디자인이라&lt;br /&gt;원석이 깨지거나, 손상이 많이 가곤해요.&lt;br /&gt;그래서 원석을 보호하기 위해 감싸안는 디자인을 만들게 되었습니다.&lt;br /&gt;그 주변으로 얇은 체인을 이어 심플하고 특별한 디자인이 되었어요.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/2c95c35d-3926-49e2-9756-87fbb559575a.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=11e3abd7c582a6fde9cac6af8854a227" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/66c576de-8e78-4ce3-b0ba-0db402bb89c1.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=321a628101302e3521e9a1bf6383a308" width="700" height="1065" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#가장 기본의 실버&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;원석을 제외한 모든부분은 925실버로 만들었으며&lt;br /&gt;골드도금이 되어있습니다.&lt;br /&gt;처음엔 골드색상이 강하게 느껴지지만&lt;br /&gt;착용할수록 도금의 빛이 바라면서 은은해지는&lt;br /&gt;골드색상이 예쁘답니다&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/d84badfa-412d-488f-bfc0-7f52fae8e5bc.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=bd39c7aee3e907d80b8b01bbcd11b195" width="700" /&gt;&lt;br /&gt;&lt;u&gt;이 쥬얼리들은 팔위에서 은은하게 빛나고&lt;/u&gt;&lt;br /&gt;&lt;u&gt;항상 똑같은 일상과 무료함이 느껴지는 순간에&lt;/u&gt;&lt;br /&gt;&lt;u&gt;작은 기쁨을 줍니다.&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 반짝반짝 각기 다른뜻을 담은 원석&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/e179c878-812e-42b7-b60b-5dca374f3099.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c487cd1044ebe27301013cdf75501b24" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;담수진주&lt;/strong&gt;&lt;br /&gt;민물에서 사는 조갯살에서 나온&amp;nbsp;&lt;u&gt;담수진주&lt;/u&gt;.&lt;br /&gt;울퉁불퉁 못나고 모양도 제각각에 광택이 적은편이지만&lt;br /&gt;그중에서 가장 타원형태의 고르고 색이 예쁜&lt;br /&gt;진주들을 골라 만들었어요&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;원석&lt;/strong&gt;&lt;br /&gt;원석은 3가지를 준비했어요&lt;br /&gt;부와 번영을 뜻하고 자신감을 주는&amp;nbsp;&lt;u&gt;시트린&lt;/u&gt;&lt;br /&gt;사랑과 애정,감수성을 강화하는&amp;nbsp;&lt;u&gt;장미석&lt;/u&gt;&lt;br /&gt;복잡하고 부정적인 에너지를 막아주는&amp;nbsp;&lt;u&gt;라브라도&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;사실 원석의 에너지는 눈으로 보이는게 아니지만&lt;br /&gt;전 세가지 원석을 기분에 따라 바꿔가며&amp;nbsp;&lt;br /&gt;손목위나 넥라인에서 찰랑거리는 원석을 보며&lt;br /&gt;그 마음을 생각하곤해요.&lt;br /&gt;그러면 작지만 제 마음안에서 약간의 변화가 일어나는걸&amp;nbsp;&lt;br /&gt;느끼곤 한답니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. 라브라도&lt;/strong&gt;&lt;br /&gt;보는 각도에 따라 색이 변하는 오묘한 느낌의 라브라도&lt;br /&gt;라브라도는 사진에서도 느껴지듯이 보는각도나 빛을 받는정도에 따라&lt;br /&gt;색이 다른 볼수록 신기한 원석이예요.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/a954212c-a91a-4507-a1d9-a8a41bf7f30e.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=f8e576ec7dd478abea44671bffa9ad3b" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/6acecdcd-36c3-432e-84c1-81b5f0be576f.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=0cb60abbeedae6139e5df354795cd040" width="700" /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 장미석&lt;/strong&gt;&lt;br /&gt;시트린보다 살짝 핑크빛이 도는 은은한 핑크빛이 예쁜 장미석&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/91b2bb0d-0818-4993-a884-1d8166e9204c.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=9453e8b9773bcb460c9d462e7cb5e24c" width="700" /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/0ca0ecd1-e1b5-465a-b90b-af193502b3a7.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=abb156d4a97081cc70163a6816bb7374" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3. 시트린&lt;/strong&gt;&lt;br /&gt;은은한 노란빛의 투명하고 깨끗하게 반짝이는 빛이 아름다운 시트린&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/6d1c5f0e-f94a-415a-beb8-1378b3d1062d.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=73781a3fee0a3dbdf6da98e4ffa2f679" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/34902246-ee81-41c5-8883-2cea7008e115.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6b2eb23a37f31a9fdd0ce564b3a86363" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;4. 담수진주&lt;/strong&gt;&lt;br /&gt;영롱한 빛을 내는 우아한 느낌의 담수진주&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/5a9eda4e-b219-4b23-b188-b48b97e6d422.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=6cfd1ec158ae2d4960dcf8685205099f" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/999d2df4-c886-4b8a-b13e-b7d6cb311b1b.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=2a7be1b480717a20d9ea41bd10a17d5a" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;추가 구성품&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#얇고 심플한 14K 링반지&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;깔끔하게 착용하실 수 있는 반지예요&lt;br /&gt;전체적으로 군더더기 없이 깔끔하고 얇은 두께감으로&lt;br /&gt;부담없이 착용하시기 좋구요 데일리용으로 간편하게&amp;nbsp;&lt;br /&gt;착용하실 수 있는 활용도 높은 아이템이예요&lt;br /&gt;작고 얇은 크기이지만 골드컬러로 나와 빛의방향에 따라&lt;br /&gt;은은하게 반짝이면서 더욱 고급스러운 느낌으로 연출해주어요&amp;nbsp;&lt;br /&gt;원하시는 스타일에 맞춰 한손에 나눠껴서 연출해주셔도 좋구요&amp;nbsp;&lt;br /&gt;다른 반지와 함께 양손에 나누어 착용하기에도 좋습니다.&lt;br /&gt;무엇보다 14K제품이라 오랜기간 착용하실수 있습니다.&lt;br /&gt;&lt;br /&gt;골드색상과 로즈골드 두가지컬러로 진행되며 사이즈는 9-13호까지 선택가능합니다&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/ae407c44-d862-4c01-9de3-eaab836160f0.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a57f74cc5c9a64896c771d37a5cafce5" width="700" /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/6cbf1321-28df-4659-a506-741044f1f3b7.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=8dc49ff96dc7872ec465ff9c5ce0644e" width="700" /&gt;&lt;br /&gt;*로즈골드컬러*&lt;br /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/5427b81a-f629-4d63-a76b-269f40d75e15.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=19429ee7c22ee0131e37115b1345de58" width="700" /&gt;&lt;br /&gt;*골드컬러*&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#쥬얼리를 위한 파우치&lt;/h2&gt;
+&lt;p&gt;후원하시는 모든 쥬얼리는&amp;nbsp;&lt;u&gt;직접 제작한 쥬얼리파우치에 담겨져 배송&lt;/u&gt;됩니다.&lt;br /&gt;쥬얼리 파우치는 거즈면으로 제작되어 부드럽고, 고급스러우며 끈 구멍까지 촘촘히 박음질하여 신경써서 만든 제품이예요.&lt;br /&gt;고급스럽고 심플하여 선물하기에도 좋고 평소 자주하는 귀걸이나 반지들을 넣어서 가방안에 넣고 다니기에도 좋으실거예요.&amp;nbsp;&lt;br /&gt;&lt;br /&gt;저는 아침에 정신없이 나오느라 반지나 팔찌를 하지못해 아쉬울때가 많았는데&amp;nbsp;&lt;br /&gt;파우치안에 제가 좋아하는 쥬얼리들을 넣고 다니면서 기분에 따라 쥬얼리를 하기에도 좋고, 빼서 보관하기에도 좋았어요.&lt;br /&gt;부드러운 거즈면이라 쥬얼리가 손상되지않고 가방안에 반지나 팔찌가 어디있는지 헤매지 않아도 되서 편리해요!&amp;nbsp;&lt;br /&gt;예쁜건 당연하구요 :)&lt;br /&gt;여행갈때도 매우 유용하답니다&amp;nbsp;&lt;br /&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/25556eed-5422-412f-9292-5dcd367b2387.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=925c8e8561c5e9db54c2ee0d4e792fb0" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/319fe2fe-22c1-4ced-9486-8c25cfc29c77.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=3d56cabe4d4b2d5c59a4343660386524" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/223cbbcd-c95f-45d6-a8c2-3e05d049e1dc.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=c713dba89ddcae0fdb9c634c13f68378" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#꼼꼼한 포장&lt;/h2&gt;
+&lt;p&gt;쥬얼리는 손상되지않도록 쥬얼리파우치에 담은뒤 에어캡과 지퍼백에 포장한뒤 박스포장되어 배송됩니다. 꼼꼼히 정성스럽게 포장하여 받으실수 있도록 하겠습니다&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;#펀딩일정&lt;/h2&gt;
+&lt;p&gt;프로젝트는 2017년 4월 10일 마감됩니다.&lt;br /&gt;후원마감 일주일전부터 일부수량 제작, 그리고 프로젝트 마감과 동시에 나머지수량을 제작하며 8일뒤인 4월 18일 상품발송이 이루어집니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#주의사항&lt;/h2&gt;
+&lt;p&gt;원석과 진주 모두 실제 원석이나 진주를 사용하여 만드는 제품으로 약간의 스크래치나, 옅은 파임, 혹은 원석의 색이 균일하지 않을수 있습니다.&lt;br /&gt;이것은 자연원석이기때문에 가능한 부분으로 양해부탁드립니다.&lt;br /&gt;팔찌는 925실버위에 골드도금이 된 제품으로 보관방법이나 착용환경에 따라 도금이 벗겨지는 기간은 차이가 날수 있습니다. 물과의 접촉을 최대로 피해주세요.&lt;br /&gt;반지는 14k골드제품으로 부드러운 천으로 가끔 닦아주며 관리해주세요&lt;br /&gt;로즈골드컬러는 옐로우골드에 로즈골드가 도금됩니다.&lt;br /&gt;도금되는제품이 벗겨지는건 갑자기 떨어져나가거나 하는경우는 없습니다.&lt;br /&gt;모두 자연스럽게 서서히 옅어지기때문에 벗겨지는 과정은 거의 느끼지 못한답니다.&lt;br /&gt;&lt;br /&gt;배송지를 잘못 입력하시거나 기타 후원자의 과실로 추후 재발송이 되는 경우,&lt;br /&gt;배송비가 발생할 수 있습니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;#창작자 문의&lt;/h2&gt;
+&lt;p&gt;오월의 카탈로그에 궁금하신점이나 상품관련문의가 있으실경우엔&amp;nbsp;&lt;a href="mailto:themayhome@naver.com%EC%9D%B4%EB%82%98" target="_blank" rel="noopener noreferrer"&gt;themayhome@naver.com&amp;nbsp;&lt;/a&gt;&amp;nbsp;인스타그램 lillyonthetable 로 문의주세요&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;/h2&gt;
+&lt;p&gt;1. 사용연령 : 14세 이상&lt;br /&gt;2. 제조연월 : 2018년 3월&lt;br /&gt;3. 제조자명 : 오월의카탈로그&lt;br /&gt;4. 주소 : 서울시 종로구&lt;br /&gt;5. 제조국명 : 대한민국&lt;br /&gt;6. 사이즈 :&amp;nbsp;팬던트지름 약 0.5cmx0.8cm&amp;nbsp; &amp;nbsp;채인-폭:0.1cm / 길이:16.5cm&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198424478217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322104120141_49.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153137659_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142748426_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142736186_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153209756_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142639833_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://www.youtube.com/embed/ah7rw4zigWU?wmode=opaque" width="640" height="360" frameborder="0" allowfullscreen="allowfullscreen"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153217089_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174839542_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174854905_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320175925369_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174909160_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0321/20180321103152849_28.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153256358_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198466132818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;맑은 공기와 상쾌한 바람이 부는 깊은 숲속... 향긋한 허브들이 가득한 정원에 들어선 기분을 느끼게 해줍니다. &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;조향사의 향료 처방에 따라 만드는 안전한 드레스 퍼퓸입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;봄기운에 노곤노곤, 리프레쉬가 필요한 요즘!&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;날씨가 따뜻해지나 싶더니.. 자꾸만 자꾸만 침대와 한몸이 되려고 합니다.&lt;/p&gt;
+&lt;p&gt;가벼운 봄옷을 입고 여기저기 다니고 싶지만 마음과 다르게 지치는것 같기도...&lt;br /&gt;왠지~ 이렇게&amp;nbsp;&lt;strong&gt;&lt;u&gt;봄인가 아닌가 하다 곧 여름이 와버릴 것만 같은 기분&lt;/u&gt;&lt;/strong&gt;이 드네요. ㅎㅎ&lt;/p&gt;
+&lt;p&gt;이럴때는 또&amp;nbsp;&lt;u&gt;&lt;strong&gt;아로마틱한 천연 오일들의 프레쉬하고 시원~ 알싸한 향기가 딱&lt;/strong&gt;&lt;/u&gt;입니다!&lt;br /&gt;하지만,&amp;nbsp;&lt;strong&gt;&lt;u&gt;천연 오일들의 경우 특유의 아로마 테라피 효과와 체질에 따른 주의가 필요&lt;/u&gt;&lt;/strong&gt;하기 때문에 무작정 마음에 드는 향기라 해서 사용하기에는 어려운 점이 있습니다. 물론 향기의 지속력이나 블랜딩에 있어서도 살짝 아쉬운 점이 있는 것도 사실이구요, (비용도.....^^;;;)&lt;/p&gt;
+&lt;p&gt;처음에는 남자를 위한 향기를 하나 만들어 볼까 하고 시작한 프로젝트지만, 남자들만 허벌, 아로마틱한 향기를 좋아하는 것도 아니고, 사람의 기호란 성별에 구애 없이 다양한 것인지라,&amp;nbsp;&lt;strong&gt;&lt;u&gt;최대한 숲속에 가득한 허브 향기를 살리면서 가볍고 상쾌하게 사용할 수 있는 향기&lt;/u&gt;&lt;/strong&gt;를 만들어보려고 합니다. 그리고 이를 공개할 플랫폼을 물색하던 중 대부분 프로젝트의 성격이 모던하고 특정 성별에 구애받지 않는 등 특색이 뚜렷한 와디즈를 선택하게 되었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0302/20180302232849144_77.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;멀티 타입, 드레스 퍼퓸 = 리빙퍼퓸미스트&lt;/h2&gt;
+&lt;p&gt;제가 주로 만드는 드레스 퍼퓸의 정확한 모델명은 리빙퍼퓸미스트입니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;방향제(스프레이)타입&lt;/strong&gt;&lt;/u&gt;으로 분류가 되지만,&amp;nbsp;&lt;strong&gt;&lt;u&gt;제작자가 조향사인 관계로 제작 과정은 향수를 만드는 것과 같고, 직접 베이스 향료를 이용해 향기를 만들고, 그 향기를 효율적으로 부각시키기 위해서 여러 가지 성분이 가미된 용매를 사용&lt;/u&gt;&lt;/strong&gt;합니다. 탈취를 목적으로 하는 탈취제는 아니지만, 그에 효과가 있는 성분들로 인해 있는 그대로 향료 본연의 향기를 느낄 수 있습니다.&lt;br /&gt;&lt;br /&gt;기본적인 성분 구성에 대해서는 아래에서 좀 더 자세하게 살펴 보겠습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[ 드레스 퍼퓸의 기본 구성 ]&lt;/strong&gt;&lt;br /&gt;&lt;u&gt;= 정제수 + 천연발효 에탄올 + 수용성의 소취 성분 + 미생물 억제 및 보존제 + 가용화제 + 향료&lt;/u&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;정제수&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 다양한 수용성 성분들이 녹아들게 하고, &amp;nbsp;에탄올에 사용에 따른 특이취의 완화 및 휘발 속도 조절에 꼭 필요합니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;천연 발효 에탄올&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 변성제가 사용되지 않은 곡물 발효 에탄올이 사용됩니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;수용성의 소취 성분&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 감잎 추출물 및 고령토 추출물, 후라보노이드 등 천연 물질이 사용됩니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;미생물 억제 및 보존제&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 1.2-헥산디올을 사용하며, 천연화장품에서 보습제, 방부제로써 사용되는 원료로, 우수한 항균력에 비해 자극이 거의 없어 스킨딮스코어도 "1" (0-2: 낮은 위험도)으로 안전합니다.&amp;nbsp;&lt;a href="https://www.ewg.org/skindeep/search.php?query=1%2C2-hexanediol&amp;amp;h=Search#.Wpf572rFKCo" target="_blank" rel="noopener noreferrer"&gt;(스킨딮 링크 확인)&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;가용화제&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 정제수 및 수용성 성분들에 향료가 잘 섞이도록 피마자유를 사용합니다.&lt;br /&gt;100% 천연의 피마자유로 적은 양이 사용되기 때문에 분사시 섬유에 미끌거리는 감촉을 남기거나 하지 않습니다.&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;향료&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 메인이 되는 향료 중 아래와 같이&amp;nbsp;&lt;strong&gt;&lt;u&gt;D-리모넨과 리날로올&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;2가지를 포함하고 있으나&amp;nbsp;&lt;strong&gt;(환경부고시제2017-76호) 유독물질 및 제한물질&amp;middot;금지물질의 지정 일부개정&lt;/strong&gt;&amp;nbsp;내용중&amp;nbsp;&lt;strong&gt;&lt;u&gt;제한 함유량을 25%로 기준&lt;/u&gt;&lt;/strong&gt;하고 있어 아래와 같이 극소량이 함유된 경우는 위험하지 않습니다.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;D-리모넨(D-LIMONENE)&amp;nbsp;&lt;u&gt;0.4%&lt;/u&gt;&amp;nbsp;, 리날로올&amp;nbsp;&lt;u&gt;0.2%&lt;/u&gt;&lt;/strong&gt;, 라벤더(eo), 로즈마리(eo), 파인(eo)&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;천연 오일에도 많이 함유되어 있는 2가지 성분들이어서 의아해 하시는 분들도 있겠으나 천연오일 사용시에 주의 사항으로 작용하기 때문에 정확한 기준을 확인하는 것이 중요합니다.&lt;br /&gt;&lt;br /&gt;조향사는 이 모든 것들을 염두에 두고 향료의 포뮬러(처방)를 완성해 나간답니다^^&lt;br /&gt;&lt;br /&gt;이렇게 엄선된 성분들로 만들어진 드레스 퍼퓸은 사실&amp;nbsp;&lt;strong&gt;&lt;u&gt;실내공기와 섬유에 공통적으로 사용&lt;/u&gt;&lt;/strong&gt;할 수 있도록 자가검사를 받았고,&amp;nbsp;&lt;strong&gt;&lt;u&gt;스프레이 타입의 경우 기타 고체나 액체형 등 일반 방향제보다 더욱 엄격한 기준하에 검사가 진행되며 모든 항목에서 불검출 결과를 얻어 합격&lt;/u&gt;&lt;/strong&gt;한 제품입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0302/20180302151357776_125.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0302/20180302154605930_125.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;위 기준치는 위해우려제품의 자가검사를 담당하는 KCL에서 배포한 [별표2]위해우려제품의 품목별 안전 표시기준 문서에서 발췌하였습니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;드레스 퍼퓸, 리빙퍼퓸미스트... 퍼퓸이라는 것은 향기를 말합니다. 기분 좋은 향기를 느끼기 위해서는 그&amp;nbsp;&lt;strong&gt;&lt;u&gt;기능에 알맞는 성분들로 구성이 되었을 때 가장 효율적&lt;/u&gt;&lt;/strong&gt;이라는 것을 잊지 말아야 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;저는 드레스 퍼퓸으로 사용함에 있어서&amp;nbsp;&lt;u&gt;&lt;strong&gt;향기의 지속력과 분사 시 에탄올 특이취에 방해 받지 않고 본연의 향기를 잘 느낄 수 있도록&lt;/strong&gt;&lt;/u&gt;&amp;nbsp;하는데 중점을 두고 제작하겠습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;포레스트 허브가든... A Forest Herb Garden!&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;기본 성분 구성에 대해서는 앞에서 말씀드린 바와 같고 거기에 메인이 되는 향료의 이미지와 구성에 대해서 말씀드리겠습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[주요 향료의 이미지]&lt;/strong&gt;&lt;br /&gt;일부 천연 오일을 사용하기도 하지만 아래와 같은 이미지를 느낄 수 있도록 다양한 물질을 사용해 조향을 합니다. 향기를 이미지화 하는데 참고로 보아 주세요^^&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;라벤더(Lavender) : Fresh, Relax, Clean 대표적인 허브향기로 Fougere 타입 향수에 쓰임&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;u&gt;&lt;strong&gt;로즈마리(Rosemary) : Fresh, Sharp, Herbaceous 남성향수에 쓰이며 신선한 느낌&lt;/strong&gt;&lt;/u&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;파인(Pine) : Fresh, Balsamic, Earthy 상쾌하면서도 스윗한 침엽수림의 느낌&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0302/20180302140144686_73.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;* 이외에도 향기의 조화를 위해 각 노트별로 향료가 첨가되며 개별 향료들간의 밸런스가 안정되는 기간을 거쳐 리워드 제작에 들어가게 되오니 이점 참고 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[용기 및 용량]&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&lt;u&gt;투명한 직사각형의 모서리가 라운딩 처리된 무게감 있는 글래스 용기. 용량은 100ml.&lt;/u&gt;&lt;/strong&gt;&lt;br /&gt;일반 향수 용기보다 분사량이 많아 넓은 면적에도 고르게 분사할 수 있으며&amp;nbsp;&lt;strong&gt;&lt;u&gt;블랙&amp;amp;화이트 조합의 깔끔하고 모던한 디자인&lt;/u&gt;&lt;/strong&gt;으로 어떤 곳에도 잘 어울립니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0303/20180303001657949_40.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0303/20180303001712721_40.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;단,&amp;nbsp;&lt;strong&gt;&lt;u&gt;500ml 리필은 pe 재질의 캡용기&lt;/u&gt;&lt;/strong&gt;에 담아 보내드립니다. &amp;lt;하단 이미지 참조&amp;gt;&lt;br /&gt;(pe 재질의 용기는 내화학 성질을 가져 향 제품을 보관하는데 적합합니다.)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[패키지 및 추가 구성품]&lt;/strong&gt;&lt;br /&gt;글래스 용기 특성상 파손에 취약하므로&amp;nbsp;&lt;strong&gt;&lt;u&gt;1차 더스트 백으로 감싸고 2차 패키징을 한 후 3차 뽁뽁이로 완충하여 안전하게 발송&lt;/u&gt;&lt;/strong&gt;해 드립니다. 추가 구성품인 미니 스프레이 공병(8ml) 역시 글래스용기로 파손 없도록 2중 포장하여 보내드릴 예정입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0303/20180303003314425_81.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0303/20180303141108569_75.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;목표 금액 및 후원금 사용 계획&lt;/h2&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;목표 금액 : 500,000원&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;후원금 사용 계획&lt;/strong&gt;&lt;br /&gt;올 하반기부터&amp;nbsp;&lt;strong&gt;&lt;u&gt;경력 단절 여성들을 위한 무료 원데이 클래스&lt;/u&gt;&lt;/strong&gt;를 진행하기 위해 준비중입니다. 후원금의 일부는 클래스에 사용되는&amp;nbsp;&lt;strong&gt;&lt;u&gt;재료와 강의실 대여료&lt;/u&gt;&lt;/strong&gt;로 사용할 예정이며 나머지는&amp;nbsp;&lt;strong&gt;&lt;u&gt;본 프로젝트와 자사 신규 향기 개발에 필요한 향료 구입&lt;/u&gt;&lt;/strong&gt;에 사용할 계획입니다.&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h2&gt;서포터 분들을 위한 리워드 안내&lt;/h2&gt;
+&lt;p&gt;리워드는 총 4종으로 아래와 같이 구성됩니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;[23,000원 펀딩] 30개 한정&lt;/u&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;[얼리버드]&lt;/strong&gt;&lt;strong&gt;&amp;nbsp;포레스트 허브 가든 드레스 퍼퓸 100ml 1개 Set&lt;/strong&gt;&lt;br /&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 1개 + 휴대용 미니 스프레이 용기 1개&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;[25,000원 펀딩] 100개 한정&lt;/u&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 1개 Set&lt;/strong&gt;&lt;br /&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 1개 + 휴대용 미니 스프레이 용기 1개&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;[45,000원 펀딩] 50개 한정&lt;/u&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 2개 Set&lt;/strong&gt;&lt;br /&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 2개 + 휴대용 미니 스프레이 용기 2개&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;[75,000원 펀딩] 30개 한정&lt;/strong&gt;&lt;/u&gt;&lt;br /&gt;&lt;strong&gt;포레스트 허브 가든 드레스 퍼퓸 100ml + 500ml 리필 Set&lt;/strong&gt;&lt;br /&gt;포레스트 허브 가든 드레스 퍼퓸 100ml 1개 + 포레스트 허브 가든 드레스 퍼퓸 500ml 리필 1개 + 휴대용 미니 스프레이 용기 1개&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;화학물질의 등록 및 평가 등에 관한 법률에 의한 위해우려제품 안전기준에 적합함&lt;/strong&gt;&lt;br /&gt;[자가검사 번호 : C-A09B-A842001-A160]&lt;br /&gt;[품명] : 일반생활화학제품(방향제)&lt;br /&gt;[종류] : 실내 공기용, 의류 섬유용, 스프레이형(분무형), 에틸 알콜&lt;br /&gt;[모델명] : 리빙퍼퓸미스트&lt;br /&gt;[생산년월] : 2018년 4월 말 (후원 마감 후 제작 예정)&lt;br /&gt;[생산회사명 및 주소, 전화번호]&lt;br /&gt;: 루이스네프, 서울시 서초구 주흥길 41-2, 304호, 010-2976-9117&lt;br /&gt;[생산국명, 생산회사명] : 대한민국 , 루이스네프&lt;br /&gt;[성분(기능)] :정제수, 천연발효(곡물)에탄올, 감잎 추출물, 고령토 추출물, 후라보노이드, 미생물 억제제(1,2-hexandiol), 피마자유, 향료&lt;br /&gt;[중량 또는 용량] : 100ml&lt;br /&gt;[사용상 주의 사항]&lt;br /&gt;* 불꽃, 열기 등 화기를 향해 분사 하지 마시고, 개봉 후 1년이내 사용해 주세요.&lt;br /&gt;* 어린이와 반려동물의 손이 닿지 않게 보관하시고 먹거나 흡입하지 마세요.&lt;br /&gt;* 흰색 섬유의 경우 변색될 수 있으니 보이지 않는 부분에 테스트 후 사용하세요.&lt;/p&gt;
+&lt;h2&gt;프로젝트 및 리워드 제작 일정&lt;/h2&gt;
+&lt;p&gt;아래와 같은 일정으로 진행 예정이며, 리워드 제작 및 발송은 2~3일 정도 차이가 날 수 있습니다. 정확한 일정에 대해서는 리워드 제작 및 발송 시 별도로 업데이트하여 안내해드리겠습니다.&lt;/p&gt;
+&lt;p&gt;리워드는&lt;strong&gt;&lt;u&gt;&amp;nbsp;2월 28일&lt;/u&gt;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;&amp;nbsp;샘플 제작이 완료&lt;/u&gt;&lt;/strong&gt;된 상태이며 프로젝트 마감 이후 리워드 제작을 위한 향료 제작을 시작으로&amp;nbsp;&lt;u&gt;&lt;strong&gt;4월 말부터 본격적인 리워드 제작&lt;/strong&gt;&lt;/u&gt;에 들어갑니다.&lt;/p&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td class="bold head-cell"&gt;프로젝트 시작&lt;/td&gt;
+&lt;td class="bold  head-cell"&gt;프로젝트 마감&lt;/td&gt;
+&lt;td class="bold  head-cell"&gt;리워드 제작&lt;/td&gt;
+&lt;td class="bold head-cell"&gt;리워드 발송&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;현재&lt;/td&gt;
+&lt;td&gt;2018.04.15&lt;/td&gt;
+&lt;td&gt;2018. 04 말경&lt;/td&gt;
+&lt;td&gt;2018. 05. 04 (예정)&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;h2&gt;리워드 발송 안내&lt;/h2&gt;
+&lt;p&gt;발송일(5월 초) 이후 영업일 기준 2-3일 정도 소요되며 모든 리워드는 무료로 배송됩니다.&lt;br /&gt;(단, 제주도를 비롯 도서산간 지역의 경우 3,000원을 더한 금액을 펀딩해 주셔야 합니다.)&lt;/p&gt;
+&lt;p&gt;배송 관련 문의는 imsunya@naver.com으로 연락주시고, &amp;nbsp;결제 관련 문의는 와디즈 고객센터/1661-9056으로 주시면 됩니다. (택배 발송 업체 : 로젠택배 1588-9988)&lt;/p&gt;
+&lt;h2&gt;안전한 향기를 만드는 조향사, 루이스네프&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0304/20180304192620952_58.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;안녕하세요, 조향사 루이스네프입니다.&lt;/p&gt;
+&lt;p&gt;저는 루이스네프 퍼퓨머리 대표 겸 퍼퓸 디렉터로 일하고 있으며, 퍼퓸디자이너 등 조향사 실무 교육 및 기업 이벤트 등 콜라보 행사에 참여하고 있습니다.&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0304/20180304192700994_58.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;(좌 : 제약회사 TFT 향수 제작, 우 : 서초 아이파크 오픈 이벤트, 향수 제작 체험)&lt;/p&gt;
+&lt;p&gt;2~3년 전에 비해 일상생활에서 다양한 향기 제품을 사용하고, 또 직접 만들어 쓰시는 분들도 꽤 많아진 것 같습니다. 그와 함께 향기 제품에 대한 규제도 나날이 강화되는 추세지만, 이미 만들어진 기성 향료를 사용하는 경우가 대부분이어서 그 향료에 사용된 물질들을 정확하게 알기는 쉬운일이 아닙니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;조향사는 향기를 구성함에 있어서 합성 및 천연 향료에 이르기까지 모든 향기 물질을 사용하며 IFRA(국제 향료 협회)의 지침에 따라 주의가 필요한 물질들의 제한 사항을 준수합니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;단지,&amp;nbsp;&lt;u&gt;&lt;strong&gt;화학 물질이라는 이유만으로 모든 합성 향료가 다 유해한 것처럼 오해를 받거나, 천연 향료는 무조건 안전한 것처럼 남용되는 일이 없이, 누구나 마음 놓고 즐길 수 있는 향기&lt;/strong&gt;&lt;/u&gt;를 만들어가는데 최선을 다하겠습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;FAQ&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Q1. 본 리워드는 향수인가요?&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;A1. 향수는 아닙니다. 방향제(스프레이형)으로 분류되며, 소취성분이 함유된 드레스 퍼퓸입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Q2. 향기는 얼마나 지속이 되나요?&lt;/strong&gt;&lt;br /&gt;A2. 각 노트별로 향료가 휘발되는 속도는 다르지만 평균 3시간 가량 지속이 됩니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Q3. 화학 물질이 들어가 있다는데 천연 오일보다 안전한가요?&lt;/strong&gt;&lt;br /&gt;A3. 알러지를 유발하는 물질에 대해서는 사용 금지 또는 제한된 양만 사용하므로 제품의 용도에 맞게 사용한다면 아무런 문제가 없습니다. 일부 화학 물질들은 천연오일에서 특정 물질만 추출해서 만들기도 하며, 그러한 물질을 화학 반응을 통해 생성한 것들도 포함이 된답니다^^&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Q4. 프로젝트가 마감된 후에도 구입이 가능한가요?&lt;/strong&gt;&lt;br /&gt;A4. 본 리워드는 와디즈 이외의 곳에서는 만나보시기 어렵습니다. 와디즈를 이용하시는 서포터분들의 응원에 힘입어 만드는 제품으로 오직 와디즈에서만 만나 보실 수 있습니다.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198765880314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;.." 한여름방의 냉수매트" 입니다.&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;항상 더위를 많이 타는 체질로 &amp;nbsp;여름에는 열대야에 잠을 잘수가 없어 누구보다도 &amp;nbsp;더위의 지끗 지끗함을 &amp;nbsp;잘 &amp;nbsp;알고 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; 그리고 이번 여름...&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; 겨울이 추우면 여름도 무더위가 기승을 부리는 것을 알기에 이번 년도는 굉장히 더울것이라고 예상됩니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; 나를 닮은 딸들과 조금이라도 시원하게 잘수 없을까?.....&lt;br /&gt;&amp;nbsp; 시원한곳을 &amp;nbsp;찾는 것이 아닌, &amp;nbsp;집안에서 &amp;nbsp;잘때만이라도 시원하게 잠을 잘수 없을까?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; 그래서 개발하게 &amp;nbsp;된 제품이 안전하고 전기료 걱정까지 잡을수 있는 아이스매트 입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. 순환 되는 물의 &amp;nbsp;시원함&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; - 우리나라 고유의 온돌에서 착안하였습니다.&lt;br /&gt;&amp;nbsp; &amp;nbsp;따뜻한 물만 돌수 있나?....차가운 물이 돌면 시원함을 유지할 수 있을 것 같은데?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp;아이스 매트는 간단한 생각의 전환에서 &amp;nbsp;시작하였습니다.&lt;br /&gt;&amp;nbsp; &amp;nbsp;온수 매트는 있는데 왜?.... 냉수매트는?.. 시원한 물이 지속적으로 흐르면 시원함을 &amp;nbsp;유지할수 있지 않을까?&lt;br /&gt;&amp;nbsp;&lt;strong&gt;&amp;nbsp;그래서 만들었습니다.... 시원한 물이 흐르는 매트 아이스 매트를!!!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325231828.jpg" alt="" width="933" height="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 최대 8시간까지 시원함을 유지 하기 위한 기술력&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;-. &amp;nbsp;시원함을 유지하기 위해 꼭 필요한, 냉수를 만드는 &amp;nbsp;방식을 냉매통으로 설정하였습니다.&lt;br /&gt;&amp;nbsp;-. &amp;nbsp;외부의 열대야로 인한 냉매의 녹는 속도 조절을 &amp;nbsp;하기 위하여 냉매통의 &amp;nbsp;구조를 고민 하였습니다.&lt;br /&gt;&amp;nbsp;-. &amp;nbsp;냉매 의 녹는 속도를 조절하기 위하여 물의 흐름을 &amp;nbsp;고민하여 &amp;nbsp; 최대 8시간의 유지 시간을 만들었습니다.&lt;br /&gt;-. &amp;nbsp;가장 적은물로 가장 효율적인 냉기를 유지하기 위해 &amp;nbsp;최적의 물용량과 &amp;nbsp;냉매통의 사이즈를 맞추었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3. 여름철 전기료 걱정 뚝!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;-. &amp;nbsp;여름철은 에어컨, 냉장고, 선풍기등 &amp;nbsp;여러가지 가전제품들로 인한 전기사용에 대한 &amp;nbsp;걱정이 많은 계절입니다.&lt;/p&gt;
+&lt;p&gt;-. &amp;nbsp;아무리 더워도 걱정되는 전기료 10w를 넘기지 &amp;nbsp; 말자에서 &amp;nbsp;시작하여 최저 W(와트수)로 &amp;nbsp;맞추려고 &amp;nbsp;노력하였습니다.&lt;/p&gt;
+&lt;p&gt;-. 교류전류을 직접 쓰면 편리하나, 전기료문제를 &amp;nbsp;개선하고자 , &amp;nbsp;전류는 dc를 활용하는 방안으로 설정하고 만들기 &amp;nbsp;시작하였습니다.&lt;/p&gt;
+&lt;p&gt;-.&amp;nbsp;&lt;strong&gt;사용전력은 &amp;nbsp;10W&amp;nbsp;&lt;/strong&gt;(약 LED전구 1개의 전력량) 으로 사용하실수 있도록 만들었습니다. &amp;nbsp; 하루 8시간 사용시 &amp;nbsp;한달 약 3,670원의 사용요금으로 사용하실수 있습니다&lt;/p&gt;
+&lt;p&gt;.&amp;nbsp;&lt;img style="background-color: #ffffff; color: #626262;" src="resources/uploadImages/20180325231914.jpg" width="700" height="315" /&gt;&lt;/p&gt;
+&lt;h2&gt;# QnA&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;1. 침대에서 사용이 가능하나요?..&lt;br /&gt;&amp;nbsp; -. 이층침대를 제외하고, 모든 침대에서 사용이 가능.&lt;br /&gt;&amp;nbsp; -. 본체를 침대 높이 까지 올리지 않고 바닥에 놓고 사용이 가능합니다.&lt;/p&gt;
+&lt;p&gt;2. 정말 시원한가요?.&lt;br /&gt;&amp;nbsp;-. 쿨젤 매트나 다양한 매트들은 몸의 제온에 의해 &amp;nbsp;매트의 열이 올라가서 &amp;nbsp; 5분이 지나면 &amp;nbsp;더워집니다. 저희 제품은 시원한 물이 지속적으로 흐르면서 &amp;nbsp;매트의 온도를 일정하게 유지하여 시원하게 &amp;nbsp;주무실수가 있습니다.&lt;/p&gt;
+&lt;p&gt;3. 매트위에 다른 패드를 깔아서 사용을 해야 하나요?&lt;br /&gt;-. 사용자의 체온에 따라 시원함을 강하게 느끼시려면 &amp;nbsp;그냥 저희 매트만 사용하시기를 권장합니다.&lt;br /&gt;-. 저희 제품은 냉매통을 얼려서 사용을 하는 제품으로 처음부터 &amp;nbsp;좀더 시원하게 사용을 &amp;nbsp;하실려면 냉매통과 함께 넣는 물도 찬 냉수를 사용하시면 &amp;nbsp;더욱 시원하게 사용이 가능하십니다.&lt;br /&gt;-. 너무 찬것이 싫으실 경우 얇은 패드를 같이 사용하시면 &amp;nbsp;최적의 상태를 만들어 &amp;nbsp;사용이가능하십니다.&lt;/p&gt;
+&lt;p&gt;4. 매트에 물방울이 생길수 있나요?&lt;br /&gt;-. 여름철은 습도가 굉장히 높은 계절입니다.&lt;br /&gt;&amp;nbsp; 주위의 습도가 시원한 매트를 만나서 물방울로 &amp;nbsp;맺힐수는 &amp;nbsp;있으나 처음부터 냉수를 &amp;nbsp;사용하시지 &amp;nbsp;않으면 약 22 ℃ 정도의 상태를 유지 하기 때문에 &amp;nbsp;방지 할수 있습니다. &amp;nbsp; &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;5. 냉매는 어떻게 사용을 해야 하나요?&lt;br /&gt;-. 저희 제품은 배송시 냉매통을 2개 지급합니다.( 1일 사용 1일 냉동으로 번갈아 사용) &amp;nbsp;냉매통에 물을 눈금선까지 물을 채우고 냉매통을 &amp;nbsp; 번갈아 가면서 얼려서 사용하시면 &amp;nbsp; 간단히 사용이 가능하십니다.&lt;/p&gt;
+&lt;p&gt;6. 사이즈는 한사이즈 인가요?&lt;br /&gt;-. 예.&lt;br /&gt;&amp;nbsp; 저희 제품은 한사이즈로 1450*950mm 사이즈로 싱글 침대 사이즈 입니다. 냉수매트는 온수매트와 다르게 시원함을 가장 많이 느끼는 부분이&amp;nbsp;&lt;strong&gt;어깨부분부터 엉덩이 부분까지&lt;/strong&gt;이기 때문에..... &amp;nbsp;1인용으로는 전신용으로 길게, &amp;nbsp; 2인용으로는 &amp;nbsp;옆으로 두명이 누우실수 있어 &amp;nbsp; 넉넉하게 사용이 가능하십니다.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198793048115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;타 일&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;집이라는 공간, 카페라는 공간, 직장이라는 공간 누구에게나 특별한 의미를 가지는 공간이 있습니다. &amp;nbsp;누군가에게 소중한 의미를 가지는 공간을 &amp;nbsp;아름답게 꾸미고 따뜻함을 전달하는 일 그것을 위해 저희가 선택한 길은 타일입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;타일 시공은 전문적인 지식과 기술이 필요하기에 일반인이 쉽게 다가가기 어려운 분야입니다. 그래서 저희는 생각했습니다. 보다 쉽게 소비자에게 다가갈 수 있는 방법은 없을까?   그래서 개발된 제품이 디자인 타일 '오울루'입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. 간단한 조립&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325233036.gif" alt="" width="600" height="359" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325233045.jpg" alt="" width="700" height="431" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 단열 효과 &amp;amp; 충격 흡수 &amp;amp; 층간 소음 방지&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325233108.jpg" width="700" height="492" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3.다양한 인테리어 요소로 활용이 가능합니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325233130.jpg" alt="" width="700" height="459" /&gt;&lt;/strong&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198833648716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;&lt;u&gt;올팝은 캐릭터 중복없이 1개씩 총 7개의 제품+기프트팩+무료배송의 옵션&lt;/u&gt;입니다. 간혹 캐릭터를 중복해서 작성해주시는 경우가 있어 드리는 공지이오니 참고해주세요!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;+ 펀딩에 참여를 희망하시는 해외거주자분들께서는 메이커 연락처(페북, 인스타, 메일, 전화 등)로 연락주시면 안내드립니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;매일 똑같이 반복되는 일상에 소소한 일탈이 필요하다 생각되지 않나요?&lt;br /&gt;어제도, 그리고 오늘도 무언가 가슴 설레는 두근거림이 필요해요. 그럼 이런 건 어떨까요?&lt;/p&gt;
+&lt;p&gt;퇴근길 차 문을 열자 퍼지는 향기와 안에 울리는 라디오 음악,&lt;br /&gt;그리고 대시보드 위 반짝거리는 램프... &amp;nbsp;&lt;br /&gt;하루의 끝, 당신의 고단함을 씻어줄 향기 가득한 욕실,&lt;br /&gt;어둠 속 영롱하게 퍼지는 빛과 따뜻한 목욕물...&lt;br /&gt;&lt;br /&gt;값비싼 인테리어나 호화로운 호텔 스위트룸이 아니어도&lt;br /&gt;&lt;strong&gt;&lt;u&gt;당신의 오늘이 좀 더 특별해질 수 있답니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;그것도 조금 많이 귀엽게 말이에요 :)&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325233853.jpg" alt="" width="633" height="1014" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325234005.jpg" alt="" width="633" height="998" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325234012.jpg" alt="" width="633" height="489" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325234021.jpg" alt="" width="633" height="525" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325234030.jpg" alt="" width="633" height="1350" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180325234037.jpg" alt="" width="633" height="1115" /&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198909819917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;주인공 '권'이가 노비에서 전설의 장수로 다시 태어나는 짜릿한 여정을 그린,&amp;nbsp;김철현 작가님의 Daum&amp;nbsp;인기 웹툰 -무장- 의 주인공 '권'이가 드디어 캐릭터 피규어로 태어났습니다! 권이를 피규어로 만날수 있는 유일한 기회! 국내 웹툰과 피규어 산업에 새로운 방향을 제시해 줄&amp;nbsp;이번&amp;nbsp;프로젝트에 많은 성원과 관심&amp;nbsp;부탁드립니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;그럼, 여러분께 무장 '권' 피규어를 자세히 소개합니다!&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p align=C5"left"&gt;&lt;strong&gt;원작&amp;nbsp;: Daum 웹툰&amp;nbsp;무장&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;작가 : 김철현&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;제품 명 : 무장 '권'&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;재질 : 폴리 레진&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;원산지 : 중국 OEM&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;사이즈 : 베이스 포함 26cm&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;strong&gt;제작 : 태륜피규어&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;img src="resources/uploadImages/20180325234701.jpg" alt="" width="700" height="1105" /&gt;&lt;/p&gt;
+&lt;p align="left"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;img src="resources/uploadImages/20180325234736.jpg" alt="" width="700" height="1105" /&gt;&lt;/p&gt;
+&lt;p align="left"&gt;&lt;img src="resources/uploadImages/20180325234743.jpg" width="700" height="1105" /&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152198946904918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;사람과 환경의 조화를 꿈꾸는 소셜 프로젝트,카라루즈입니다.&lt;/h2&gt;
+&lt;p&gt;카라루즈는 소중한을 뜻하는 라틴어 Cara와 포르투갈어로 빛을 뜻하는 Luz가 합쳐져 만들어진 이름입니다. 저희는 카라루즈라는 이름처럼 소중하고 따뜻한 빛을 여러분들께 전달하고 싶습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326000119.jpg" alt="" width="600" height="920" /&gt;&lt;/p&gt;
+&lt;h2&gt;# 우아한 와인병의 불편한 진실&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326000150.jpg" alt="" width="700" height="530" /&gt;&lt;/p&gt;
+&lt;p&gt;공병 보증금 제도로 높은 재사용률을 보이는 국산 공병과는 달리, 수입 와인병은 재사용률이 매우 낮습니다. 크기와 모양이 저마다 다르기 때문에 재활용조차 되지 않습니다. 매년 국내로 들어오는 약 5000만 개의 수입 와인병 중 무려 54%는 그대로 땅에 묻히게 됩니다. 이렇게 땅에 매립된 유리가 완전히 썩는데 무려 100만년이나 걸린다는 사실, 알고 계신가요?&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그래서 카라루즈는 고민했습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lsquo;일회적으로 사용되고 버려지는 와인병을 새 가치를 불어넣을 순 없을까?'&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;오랜 고민 끝에 저희가 얻은 답은 바로&lt;strong&gt;&amp;nbsp;&amp;lsquo;&lt;u&gt;업사이클링 조명&amp;rsquo;&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;이었습니다. 카라루즈는 업사이클링의 부정적인 인식을 개선하고 와인병 매립으로 인한 환경적 비용을 줄이는 목표를 가지고 있습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;u&gt;하루의 끝에 당신을 따뜻하게 감싸주는 빛&lt;/u&gt;&lt;/h3&gt;
+&lt;h3&gt;&lt;u&gt;어두운 밤마다 포근한 빛을 건네줍니다.&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;img src="resources/uploadImages/20180326000242.jpg" alt="" width="700" height="399" /&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;img src="resources/uploadImages/20180326000252.png" alt="" width="694" height="355" /&gt;&lt;/u&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152199024030219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;꿈을 현실로&lt;/h2&gt;
+&lt;p&gt;'이해앤다다'는 '꿈과 현실은 다르지 않다'는 개념하에 작품 활동을 하고 있습니다. 이는 실제로 이해가 매일밤 꾸는 꿈으로부터 시작되었습니다. 이해앤다다의 작품과 그 작품으로 제작된 베딩 제품들을 실제로 만나볼 수 있는 전시를 기획하고자 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326000610.jpg" alt="" width="700" height="2587" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;매일 만나는 침구도 아름다울 수 있다&lt;/h2&gt;
+&lt;p&gt;지친 하루의 끝에서 당신을 위로하며 꿈과 현실을 잇는 포근한 침구. 어떤 기준으로 고르셨나요? 소재, 재질, 컬러 등 침구를 고르는 여러가지 기준이 있지만 심미적인 디자인까지 갖춘 아름다운 침구는 쉽게 만날 수 없죠. 오롯이, 침구 하나만으로도 당신의 공간에 엣지를 더해 품격을 높여줄, 이해앤다다의 침구 컬렉션을 지금 만나보세요. 그리고 그 안에서 행복한 사유를 경험해 보세요!&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326000624.jpg" alt="" width="700" height="1448" /&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152199094280920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326001834.jpg" alt="" width="630" height="484" /&gt;&lt;img src="resources/uploadImages/20180326001841.jpg" alt="" width="630" height="996" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326001852.jpg" alt="" width="630" height="745" /&gt;&lt;img src="resources/uploadImages/20180326001925.jpg" alt="" width="630" height="880" /&gt;&lt;img src="resources/uploadImages/20180326001915.jpg" width="591" height="825" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326001938.jpg" alt="" width="630" height="978" /&gt;&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15219678335241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;[첫번째 업데이트] 2시간만에 100% 달성, 후원자들에게 드리는 특별한 선물!&lt;/h3&gt;
+&lt;p&gt;런칭&amp;nbsp;&lt;u&gt;2시간만에 목표 금액의 100%를 달성, 24시간만에 300%를 달성&lt;/u&gt;하였습니다! 감사의 의미로 모든 후원자들과 작년에 발매한&amp;nbsp;&lt;strong&gt;라스트콜 8집 'The Traditional' 음원 다운로드 링크를 공유&lt;/strong&gt;할 예정입니다! (링크는 펀딩 마감 후에 이메일로 공유됩니다.) 앞으로도 많은 관심과 응원 부탁드리겠습니다~ 다시 한번 감사드립니다!!&lt;/p&gt;
+&lt;h3&gt;[두번째 업데이트] 500% 달성! 프리미엄 아티잔 맥주&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;&lt;/h3&gt;
+&lt;p&gt;목표 금액 5배를 달성한 기념으로 콘서트의 흥을 더 돋기 위하여 라스트콜이 대한민국 프리미엄 아티잔 맥주&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;와 손잡아&amp;nbsp;&lt;strong&gt;공연에 오시는 모든 분들께 (20세 미만 제외)&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;&amp;nbsp;생맥주 한컵을 제공&lt;/strong&gt;할 예정입니다!&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;만의 산뜻하고 깔끔한 맛 기대해주세요!&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0325/20180325112650258_59.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0313/20180313194446601_72.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;코넬 대학교에서 온 아카펠라 그룹&lt;strong&gt;&amp;nbsp;Last Call (라스트콜)&lt;/strong&gt;&amp;nbsp;입니다. &amp;nbsp;단순히 노래만 부르는것이 아닌&amp;nbsp;&lt;strong&gt;관객이 원하는 신선하고 화끈한 무대를 선보이고 싶다&lt;/strong&gt;는 이념 아래 대학 친구들끼리 시작한 아카펠라 그룹 Last Call은 1993년부터 오늘날까지 뉴욕 코넬 대학교에서 시작해 디즈니랜드,&amp;nbsp;&lt;a href="https://www.youtube.com/watch?v=xGkAleK8Gjc" target="_blank" rel="noopener noreferrer"&gt;NBC 투데이쇼&lt;/a&gt;,&amp;nbsp;&lt;a href="http://fox8.com/2015/10/12/fox-8-jukebox-cornell-universitys-men-of-last-call/" target="_blank" rel="noopener noreferrer"&gt;Fox 뉴스&lt;/a&gt;, 링컨센터 등등 매해 3000명이 넘는 관객에게 공연을 하고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0314/20180314061516135_93.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0313/20180313194459814_72.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;p&gt;아카펠라 (A Cappella)는&amp;nbsp;&lt;strong&gt;사람의 목소리로만 음악을 표현&lt;/strong&gt;하는 방식을 말합니다. 사람의 목소리가, 가장 아름다운 악기라고 하죠. 베이스부터 드럼까지! 모든 소리를 목소리로 연주합니다. 음 위에 음을 쌓아, 목소리 하나 만으로 흥을 돋구고, 여러분의 마음을 훔칠거예요!&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;어떤 음악인지 궁금하시다구요?&lt;/strong&gt;&lt;/u&gt;&lt;u&gt;&lt;strong&gt;&amp;nbsp;&amp;darr;&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;2017년에 발매한 라스트콜 8집 'The Traditional'의 수록곡&amp;nbsp;&lt;strong&gt;Radar&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://w.soundcloud.com/player/?url=https%3A//api.soundcloud.com/tracks/292004365&amp;amp;color=%2317ffd1&amp;amp;auto_play=false&amp;amp;hide_related=false&amp;amp;show_comments=true&amp;amp;show_user=true&amp;amp;show_reposts=false&amp;amp;show_teaser=true&amp;amp;visual=true" width="100%" height="450" frameborder="no" scrolling="no" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;/u&gt;라스트콜이 색다르게 부르는 레이디가가의&lt;strong&gt;&amp;nbsp;Bad Romance&lt;/strong&gt;도 들어보세요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;라스트콜이 부른 보컬장인 샘 스미스의&lt;strong&gt;&amp;nbsp;Latch&lt;/strong&gt;!&lt;/p&gt;
+&lt;p&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://w.soundcloud.com/player/?url=https%3A//api.soundcloud.com/tracks/287196418&amp;amp;color=%2317ffd1&amp;amp;auto_play=false&amp;amp;hide_related=false&amp;amp;show_comments=true&amp;amp;show_user=true&amp;amp;show_reposts=false&amp;amp;show_teaser=true&amp;amp;visual=true" width="100%" height="450" frameborder="no" scrolling="no" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0313/20180313194518192_72.jpg/wadiz/format/jpg/quality/95/optimize" width="733" height="159" /&gt;&lt;/h2&gt;
+&lt;p&gt;오는 4월 라스트콜은 창립 25년만에 처음으로 바다를 건너&amp;nbsp;&lt;strong&gt;아시아에서 공연을 기획&lt;/strong&gt;하고 있습니다. 그 첫번째 목적지인&amp;nbsp;&lt;strong&gt;서울에서의 콘서트&lt;/strong&gt;로 여러분을 초대합니다!&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;봄 기운이 거리와 캠퍼스를 가득 채울 4월! 친구와, 연인과, 가족들과 함께 Last Call의 흥 넘치고 음악 가득한 서울 콘서트에서 함께 즐겨요~&lt;/p&gt;
+&lt;/blockquote&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220381836964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="campaign-summary"&gt;이 프로젝트는 장애문화예술의 발전과 장애인과 비장애인이 함께하는 세상을 만들기 위한 프로젝트입니다. 극단'휠'의 12월 정기공연 [헬로, 오즈]에 여러분을 초대합니다!&lt;/div&gt;
+&lt;div class="wd-ui-campaign-content"&gt;
+&lt;div class="wd-ui-cont"&gt;&lt;br /&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;p&gt;&lt;strong&gt;목표 금액&lt;/strong&gt;&amp;nbsp;1,500,000원 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;strong&gt;펀딩기간&lt;/strong&gt;&amp;nbsp;2016.11.04-2016.12.04&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;100% 모이지 않아도 리워드가 제공되는 프로젝트&lt;/strong&gt;&lt;br /&gt;이 프로젝트는 펀딩 마감일까지 목표 금액이 100% 모이지 않아도 리워드가 제공되며, 결제가 진행됩니다.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;p&gt;&lt;strong&gt;펀딩 결제/취소/변경에 대한 안내&lt;/strong&gt;&lt;br /&gt;펀딩 결제는 예약 상태로 유지되다가, 펀딩 마감일 다음 영업일&amp;nbsp;&lt;strong&gt;2016.12.05 17시&lt;/strong&gt;에 모두 함께 진행됩니다. 결제 정보 변경은 결제가 진행되기 전까지 언제나 가능합니다. 참여한 펀딩 정보 변경은&amp;nbsp;&lt;a href="https://www.wadiz.kr/web/wmypage/myfunding/fundinglist"&gt;나의 펀딩현황&lt;/a&gt;에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은&amp;nbsp;&lt;strong&gt;2016.12.04&lt;/strong&gt;&amp;nbsp;이후로는 불가합니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;리워드 발송 안내&lt;/strong&gt;&lt;br /&gt;메이커가 약속한 가장 빠른 리워드 발송은&amp;nbsp;2016.12.12이며,&amp;nbsp;리워드마다 발송 시작일이 다를 수 있으니 펀딩 전, 꼭 확인해 주세요.&lt;br /&gt;리워드를 제작하고 생산하는 과정에서 예상치 못한 상황으로 리워드 발송이 메이커가 약속한 날짜보다 지연 또는 불가할 수 있으며, 관련한 환불 및 교환은 메이커가 정한 규정에 따릅니다. 스토리 하단의 리워드 발송 예상 변동 기간 및 교환 / 환불 / AS 정책을 참고 해주세요.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;br /&gt;&lt;br /&gt;
+&lt;div id="introdetails" class="story"&gt;
+&lt;div class="inner-contents fr-view"&gt;
+&lt;p&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114180740108.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184112613.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184152463.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184209158.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184226495.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184600638.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184656875.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184718305.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184737651.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184752694.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184810303.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184828562.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184851540.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184917317.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184939356.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114184954773.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/210893/20161114185016655.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220362261523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/XLLvhQqJnnw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="campaign-summary"&gt;아프리카tv에서 보이는 라디오 '힐링라디오'를 진행하는 bj힐디오의 시청자 및 팬 감사 콘서트입니다 :)&lt;/div&gt;
+&lt;div class="wd-ui-campaign-content"&gt;
+&lt;div class="wd-ui-cont"&gt;&lt;br /&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;p&gt;&lt;strong&gt;목표 금액&lt;/strong&gt;&amp;nbsp;400,000원 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;strong&gt;펀딩기간&lt;/strong&gt;&amp;nbsp;2016.01.04-2016.01.11&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;100% 이상 모이면 리워드가 제공되는 프로젝트&lt;/strong&gt;&lt;br /&gt;이 프로젝트는 펀딩 마감일까지 목표 금액이 100% 모이지 않으면 리워드가 제공되지 않으며, 결제 또한 진행되지 않습니다.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;p&gt;&lt;strong&gt;펀딩 결제/취소/변경에 대한 안내&lt;/strong&gt;&lt;br /&gt;펀딩 결제는 예약 상태로 유지되다가, 펀딩 마감일 다음 영업일&amp;nbsp;&lt;strong&gt;2016.11.01 17시&lt;/strong&gt;에 모두 함께 진행됩니다. 결제 정보 변경은 결제가 진행되기 전까지 언제나 가능합니다. 참여한 펀딩 정보 변경은&amp;nbsp;&lt;a href="https://www.wadiz.kr/web/wmypage/myfunding/fundinglist"&gt;나의 펀딩현황&lt;/a&gt;에서 진행해주세요. 마감일 이후에는 펀딩에 대한 리워드 제작 및 배송이 시작되어, 취소와 더불어 배송지 및 리워드 옵션 변경은&amp;nbsp;&lt;strong&gt;2016.01.11&lt;/strong&gt;&amp;nbsp;이후로는 불가합니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;리워드 발송 안내&lt;/strong&gt;&lt;br /&gt;메이커가 약속한 가장 빠른 리워드 발송은&amp;nbsp;2016.01.16이며,&amp;nbsp;리워드마다 발송 시작일이 다를 수 있으니 펀딩 전, 꼭 확인해 주세요.&lt;br /&gt;리워드를 제작하고 생산하는 과정에서 예상치 못한 상황으로 리워드 발송이 메이커가 약속한 날짜보다 지연 또는 불가할 수 있으며, 관련한 환불 및 교환은 메이커가 정한 규정에 따릅니다. 스토리 하단의 리워드 발송 예상 변동 기간 및 교환 / 환불 / AS 정책을 참고 해주세요.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;br /&gt;&lt;br /&gt;
+&lt;div id="introdetails" class="story"&gt;
+&lt;div class="inner-contents fr-view"&gt;
+&lt;p&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103037673.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103104417.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103228442.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103244949.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103300035.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103323526.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103337589.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103355664.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103407334.jpg" alt="" /&gt;&lt;img src="http://www3.wadiz.kr/images/uploads/8644/20160106103419144.jpg" alt="" /&gt;&lt;a href="http://cafe.naver.com/healdio"&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/8644/20160104174508828.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="http://facebook.com/healdio"&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/8644/20160104174554074.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220388989719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/kYr31KM_Sq8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;지난 11년간 전 세계인의 꾸준한 사랑을 받아온 상큼한 로맨틱 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt; 좀 더 많은 관객을 만나기 위한 저희의 노력에 서포터분들의 많은 관심과 참여 부탁드립니다&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326133822.png" alt="" width="700" height="827" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;안녕하세요. 지난 2016년 겨울,&amp;nbsp;&lt;a href="https://www.wadiz.kr/web/campaign/detail/11120?_refer_section_st=reward_card_0_%EB%8C%80%EC%A4%91%EC%98%88%EC%88%A0" target="_blank" rel="noopener noreferrer"&gt;뮤지컬 &amp;lt;미드나잇&amp;gt; 크라우드펀딩&lt;/a&gt;으로 처음 인사드렸던 ㈜모먼트메이커(Moment Makers)입니다. &amp;lsquo;실력파 배우, 스탭들과 함께 재미있고 완성도 높은 작품을 만들어보자&amp;rsquo;는 마음으로 야심차게 준비했던&amp;nbsp;&lt;strong&gt;㈜모먼트메이커의 첫 작품, 뮤지컬 &amp;lt;미드나잇&amp;gt;은 서포터 여러분의 적극적인 참여와 지지에 힘입어 성황리에 공연을 마칠 수 있었습니다. 다시 한 번 깊이 감사드립니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;뮤지컬 &amp;lt;미드나잇&amp;gt;을 마친 저희는 지난 4월, 투 피아노 뮤지컬 콘서트 &amp;lt;히즈피아노 온 브로드웨이&amp;gt; 세 번째 공연도 성공리에 마쳤습니다. 그리고 5월 30일부터 6월 25일까지 단 4주간 대학로 드림아트센터 1관에서 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;을 무대에 올리게 되었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326133928.png" alt="" width="700" height="187" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;재치와 신선함 그리고 현실감에 당신은 깜짝 놀랄 것이다.&lt;br /&gt;진심으로 감동적, 반드시 봐야 한다!&lt;/strong&gt;&lt;br /&gt;◦ Chris Jones, the Chicago Tribune&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;뛰어난 구성, 솜씨 좋은 관찰과 암시, 현실에 대한 폭로가 담겨있다.&lt;br /&gt;투모로우 모닝은 불안, 깨져버린 환상, 후회 그리고 용서가 뒤섞인 달콤 쌉싸름한 사랑에 대한 이야기이자 실제로 있을 법한 감동적인 스토리다. 강하게 추천하는 바이다.&lt;/strong&gt;&lt;br /&gt;◦ Hedy Weiss, Chicago Sun-Times&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;로렌스 마크 위스(Laurence Mark Wythe)의 기교와 재치가 넘치는 대본, 음악과 가사.&lt;br /&gt;그리고 연출이자 안무가인 톰 뮬렌(Tom Mullen)의 깔끔한 무대 연출&lt;/strong&gt;&lt;br /&gt;◦ Scott Morgan, Windy City Times&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;㈜모먼트메이커는 &amp;lsquo;재미있으면서도 완성도 높은 뮤지컬을 관객 여러분들과 함께 즐기고 싶다&amp;rsquo;는 마음으로 한 작품, 한 작품 공들여 만들고 있습니다. 작품을 만들다 보면 어렵고 힘든 일도 많지만 여러 배우, 스탭들과 열심히 만든 작품이 무대에 무사히 올라가고 관객 여러분의 환호를 받을 때 이제까지의 고생은 눈 녹듯 사라지고 더 좋은 작품을 만들어야겠다는 다짐을 하게 됩니다.&lt;/p&gt;
+&lt;p&gt;하지만 새로운 도전은 언제나 쉽지 않습니다. 다양한 장르와 신선한 소재의 새로운 작품을 여러분께 선보이고 싶지만, 더 유명한 작품, 더 유명한 스타와 함께 보다 안정적이고 쉬운 길을 가는 것이 낫지 않겠냐는 주변의 우려, 흥행성이 담보되지 않은 작품이라는 편견 그리고 기존 투자자들의 외면은 현실의 벽을 실감하게 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;그럼에도 불구하고&amp;nbsp;&lt;u&gt;&lt;strong&gt;좋은 작품은 관객 여러분께서 알아봐주실 거라는&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;믿음&lt;/strong&gt;&lt;/u&gt;이 있습니다.&lt;br /&gt;뮤지컬 &amp;lt;투모로우 모닝&amp;gt;은 작품성과 흥행성을 인정받으며 지난 11년간 전 세계에서 꾸준히 공연되어온 사랑스러운 브리티쉬 로맨틱 뮤지컬입니다.&lt;strong&gt;&amp;nbsp;비록 단 4주간의 짧은 공연이지만 여러분의 지지와 후원이 있다면 &amp;lt;투모로우 모닝&amp;gt;을 더 오래, 더 자주 만날 수 있게 되지 않을까요?&lt;/strong&gt;&amp;nbsp;4주 후가 과연 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;의 끝일지, 시작일지 여러분께서 직접 봐주시고, 응원해주시고 더 나은 작품이 될 수 있도록 조언해주세요.&amp;nbsp;&lt;u&gt;&lt;strong&gt;여러분의 관심과 응원이 있다면 머지않아 더 나아진 &amp;lt;투모로우 모닝&amp;gt;을 다시 만날 수 있게 되리라 믿습니다. 뮤지컬 &amp;lt;투모로우 모닝&amp;gt; 많이 관람해주시고, 관객과의 대화를 통해 여러분의 소중한 의견을 들려주세요.&amp;nbsp;&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529211914293_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/strong&gt;결혼과 이혼, 시작과 끝을 하루 앞둔 두 커플, 설렘과 불안이 교차하는 그 밤, 뜻밖의 사건이 이들의 &amp;lsquo;결심&amp;rsquo;을 시험한다.&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;모든게 지긋지긋하고 지칠 대로 지친 결혼 10년 차, 잭과 캐서린&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;"그래, 잘 생각했어. 이혼이 최선이야." 이 마음만은 확고하다고 생각했는데, 법정 가기 전날 밤, 이 감정은 뭘까. 나 정말 ... 잘하는 걸까?&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;결혼을 하루 앞둔 커플, 존과 캣&amp;nbsp;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;네가 좋아. 하지만 정말 이 사람이 내 운명일까? 이게 최선일까? 설렘과 불안이 교차하는 결혼식 전날 밤, 결국 생각지도 못한 사건이 벌어지고...과연 이 둘은 무사히 결혼할 수 있을까..?&lt;/p&gt;
+&lt;p&gt;일생일대의 '선택'앞에 기대와 걱정, 설렘과 두려움으로 애태우는 그들에게 뜻밖의 사건이 일어난다. 과연 이들은 이 '난관'을 극복하고 각각 결혼식장과 법원에 무사히 갈 수 있을까?&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215347773_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215230108_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215817747_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;잭 / 김보강&amp;nbsp;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;30대 남자. 광고 카피라이터. 한때는 패기 넘쳤지만 결혼과 동시에 꿈을 접은지 십 년..&lt;br /&gt;성공한 아내에 대한 열등의식과 삶의 매너리즘에 빠진 가장&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;[뮤지컬] &amp;lt;비스티&amp;gt; &amp;lt;더 언더독&amp;gt; &amp;lt;고래고래&amp;gt; &amp;lt;빈센트 반 고흐&amp;gt; &amp;lt;빨래&amp;gt;&lt;br /&gt;[연극] &amp;nbsp;&amp;lt;우먼인블랙&amp;gt; &amp;lt;나쁜자석&amp;gt; 외&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215842464_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;캐서린/김경선&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;30대 여자. 편집장. 자신의 일에 눈부신 성취를 이룬, 아름답고 당당하지만 마음의 허전함을 숨길 수 없는 커리어우먼&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;[뮤지컬] &amp;lt;시카고&amp;gt; &amp;lt;바람과함께사라지다&amp;gt; &amp;lt;브로드웨이42번가&amp;gt; &amp;lt;요셉어메이징&amp;gt; &amp;lt;브루클린&amp;gt;&lt;br /&gt;&amp;lt;달고나&amp;gt; &amp;lt;렌트&amp;gt; &amp;lt;금발이너무해&amp;gt; &amp;lt;헤어스프레이&amp;gt; &amp;lt;아이러브유&amp;gt;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215542103_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529215912456_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;존/송유택&amp;nbsp;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;20대 남자. 영화감독 지망생. 꿈에 대한 열정과 위트와 매력이 넘치지만 이제는 한 여자에게 정착해야 하는 유쾌한 새신랑&lt;/p&gt;
+&lt;p&gt;[뮤지컬] &amp;lt;비스티&amp;gt; &amp;lt;킹키부츠&amp;gt; &amp;lt;난쟁이들&amp;gt; &amp;lt;젊음의행진&amp;gt; &amp;lt;여신님이보고계셔&amp;gt; &amp;lt;날아라박씨&amp;gt; &amp;lt;스페셜레터&amp;gt; 외&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529220002056_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;캣/양지원&amp;nbsp;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;20대 여자. 출판사 어시스턴트. 하고 싶은 일도 많고, 낭만적인 사랑에 대한 기대감으로 가득 찬 결혼 전 날의 사랑스러운 새 신부&lt;/p&gt;
+&lt;p&gt;[뮤지컬] 담배가게 아가씨&lt;br /&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0529/20170529222458271_74.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;뮤지컬 &amp;lt;투모로우 모닝&amp;gt;은 배우뿐만이 아니라 너무도 많은 사람들의 사랑과 정성으로 만들어진 공연입니다. '최고의 호흡을 자랑한' 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;의 크리에이티브팀을 여러분께 소개합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;특히 이번 공연은 누구나 한 번쯤 겪을 수 있는 사랑과 이별이라는 보편적인 감정을 진지하지만 유쾌하게 풀어내 많은 이들의 공감을 얻기 위해 많은 노력을 기울였습니다&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152203986584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0301/CRTFWIPMEWHV.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0311/EMYRGDQIXATD.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0312/ARDQOLGLIDFT.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152204017238819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;진주같은영화제란?&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://cdn.wadiz.kr/images/uploads/59142/DSCAYWBLXMFY.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;2015년 9/15(화)~19(토) 기간동안&amp;nbsp;열리는&amp;nbsp;진주같은영화제는 모두가 즐길 수 있는 지역영화축제입니다! 누구나 감독이 될 수 있고 누구나 관객이 될 수 있어요. 시민들의 참여로 만들어지는 진주같은영화제에서 함께 놀아봐요~&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;일시:&amp;nbsp;9월 15일 (화) ~ 19일 (토)&lt;br /&gt;&amp;bull;&amp;nbsp;장소: 진주시민미디어센터 (경남 진주시 진주대로 506-1 (가좌동) 3층)&amp;nbsp;&amp;nbsp;및 인근 일대&lt;br /&gt;&amp;bull;&amp;nbsp;경남/부산/울산 지역에서 제작된 단편/장편 영화상영, 장편독립영화 초청작 상영, 개막식(야외공연 및 야외상영), 관객과의 대화, 심야상영, 기념품 판매, 자동차 극장 체험, 폐막 파티 등&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;진주같은영화제&amp;nbsp;100%&amp;nbsp;즐기기!&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;ins&gt;&lt;strong&gt;#1.경남/부산/울산 지역에서 제작된 단편, 장편 영화 상영 !&lt;/strong&gt;&lt;/ins&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://cdn.wadiz.kr/images/uploads/59142/WETPGEZHCKKW.JPG/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;가까운 지역에서 만든 단편, 장편 독립영화들을 상영합니다. 우리 동네에서 있었던 일, 우리 지역에서 찍은 이야기, 경남 인근 지역의 영화 감독님, 영화학과 학생이 만든&amp;nbsp;다양한 이야기들을 만나봐요!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;제 8회 진주같은영화제 지역부문 상영작 안내&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;지역장편&amp;nbsp;1&lt;/strong&gt;&amp;nbsp;&amp;lt;오래된 희망&amp;gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;지역단편 1&lt;/strong&gt;&amp;nbsp;&amp;lt;현우는알고싶어요&amp;gt;&amp;nbsp;&amp;lt;아버지의 콘돔&amp;gt;&amp;nbsp;&amp;lt;위장&amp;gt; &amp;lt;부자&amp;gt; &amp;lt;누이에게&amp;gt;&amp;nbsp;&lt;strong&gt;GV&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;지역단편 2&lt;/strong&gt;&amp;nbsp;&amp;lt;부등식&amp;gt; &amp;lt;탈&amp;gt; &amp;lt;그자리&amp;gt;&amp;nbsp;&amp;lt;도미노 레이디&amp;gt;&amp;nbsp;&amp;lt;그 곳엔 아무도 없다&amp;gt; &amp;lt;김밥&amp;gt;&amp;nbsp;&lt;strong&gt;GV&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;* GV (Guest Visit) 관객과의 대화 : 영화의 감독, 배우들과 만나는 시간&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;ins&gt;&lt;strong&gt;#2. 올해를 빛낸&amp;nbsp;진주같은 독립영화 상영&lt;/strong&gt;&lt;/ins&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="http://cdn.wadiz.kr/images/uploads/59142/NBBPREJVVVWA.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;br /&gt;&lt;sub&gt;▲ 2015년 제 8회 진주같은영화제 초청작&lt;/sub&gt;&lt;/p&gt;
+&lt;p&gt;올 한 해 많은 사랑을 받았던 장편독립영화 앵콜 상영, 그리고 앞으로 주목받게 될 보석같은 독립장편영화들을 만나보는 시간을 가져요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;제 8회 진주같은영화제 초청작 안내&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;개막작&lt;/strong&gt;&amp;nbsp;&amp;lt;러덜리스&amp;gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;초청작&lt;/strong&gt;&amp;nbsp;&amp;lt;비비안 마이어를 찾아서&amp;gt; &amp;lt;리틀 포레스트: 여름과 가을&amp;gt; &amp;lt;파티 51&amp;gt; &amp;lt;위로공단&amp;gt; &amp;lt;오늘영화&amp;gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;심야상영&lt;/strong&gt;&amp;nbsp;&amp;lt;한여름의 판타지아&amp;gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;bull;&amp;nbsp;폐막작&lt;/strong&gt;&amp;nbsp;&amp;lt;내일을 위한 시간&amp;gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;ins&gt;&lt;strong&gt;# 3. 얘들아, 자동차 극장&amp;nbsp;가자! 자동차 극장 만들기 체험&lt;/strong&gt;&lt;/ins&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://cdn.wadiz.kr/images/uploads/59142/20150828200714291.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
+&lt;p&gt;아이들이 주인공이 되어 박스로 자동차를 만들고 그 안에 앉아 영화를 보는 자동차 극장 만들기 체험이 진행됩니다. 참가할 아이들 모두 다 여기 붙어라~&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152203975804215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote&gt;
+&lt;h2&gt;&lt;strong&gt;MUSICAL 비커밍맘 프로젝트 &amp;nbsp;&amp;lt; 엄마가 되다 &amp;gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;사회적기업 &amp;lt;세일링드림&amp;gt;의 쉼없는 도전! &amp;nbsp;순수창작뮤지컬로 아름다운 가족 완성하기~&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;온 가족이 함께하는 성장뮤지컬 &amp;lt;비커밍맘&amp;gt;을 완성해주세요.!!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;세일링드림 &amp;lt;비커밍맘&amp;gt; 이 오는 &amp;nbsp;11월 4일~5일 백암아트홀에서 업그레이드 된 비커밍맘 뮤지컬을 준비하고 있습니다. Becoming MOM 이란 단어 뜻대로 결혼, 임신, 출산을 통해 진짜 엄마가 되는 과정을 상세히 그렸습니다. 아내가, 딸이, 진짜 엄마가 되어 가는 동안 남편, 친정부모 그리고 형제까지 함께 가족을 그리며 완성해가는 따뜻한 이야기입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/0815/20170815215505669_114.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;좌충우돌 힘겹지만, 아름다운 가족을 완성해가는 우리 모두가 봐야할 공감뮤지컬로 재 탄생했습니다. 연인에서 부부가 되고, 부부가 엄마, 아빠로 성장하는 과정의 무대에 우리들의 아이들과 주변의 가족분들에게 감동을 선물할 작품입니다. 생애 처음 엄마가 되어가고 그 안에서 함께 가족이 되어가는 과정을 그린 가족공감힐링뮤지컬 &amp;lt;비커밍맘&amp;gt;과 함께 아름다운 가족을 완성해보세요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;◎ 극중이벤트 개최&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;550,000원(VIP티켓 4장) / 토요일 3시, 6시, 일요일 3시&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;*공연 시 한 커플에게 예비아빠가 예비엄마에게 주는 출산이벤트를 열어드립니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;p&gt;&lt;strong&gt;공연 정보 (일시, 시간, 장소)&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;공연티켓: 60,000원 / 40,000원&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;런닝타임 : 100분 (5세이상 관람가)&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&amp;nbsp;공연장소: 백암아트홀 (삼성역)&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/0824/20170824025049032_76.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/0814/20170814170630269_31.blob/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15219999193621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;1. 공연개요&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;극작: 공동창작&lt;br /&gt;출연: 김다훈, 김성웅, 박지훈, 백성현, 송민혁, 신예은, 이원준, 이혜진, 최성임, 황찬주&lt;br /&gt;공연 일시: 2018. 4. 24(화) - 2018. 4. 28(토) (예정)&lt;br /&gt;공연장: 한동대학교 학관 104호 / 경북 포항시 북구 흥해읍 한동로 558&lt;br /&gt;문의: 010-5633-7528 (기획대표 김나연)&lt;br /&gt;&lt;br /&gt;&amp;lt;Creative Staff&amp;gt;&lt;br /&gt;연출: 정인혁&lt;br /&gt;연출부: 김효진&lt;br /&gt;무대감독: 강하리&amp;nbsp;&lt;br /&gt;기획대표: 김나연&lt;br /&gt;작곡: 김민하&lt;br /&gt;기획: 남하진, 김민정&lt;br /&gt;노래지도: 양한나&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 공연 소개&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;저희가 이번에 준비하는 공연은 &amp;lt;Just Alice&amp;gt;입니다.&amp;nbsp;&lt;br /&gt;전 세계적으로 많이 읽는 소설인 &amp;lt;이상한 나라의 앨리스&amp;gt;를 모티브로 하여 극작부터 안무, 음악 등 공연에 필요한 모든 부분을 새롭게 구성하여 창작한 작품입니다.&amp;nbsp;&lt;br /&gt;&amp;lt;Just Alice&amp;gt;는 &amp;lt;이상한 나라의 앨리스&amp;gt;의 앨리스가 세상의 많은 요구들 속에서 성장해나가는 과정을 그린 이야기 입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326025358.jpeg" alt="" width="700" height="525" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;3. 시놉시스&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;ldquo;다 너를 위해서&amp;rdquo;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;ldquo;아름쁜한 꽃이 흩날리는 기분을 느낄 수 있을거야.&amp;rdquo;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;ldquo;내 기분은 내가 정해&amp;rdquo;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;앨리스를 사랑한다는 이유로 자신이 제시한 방향대로 성장하길 바라는 엄마.&lt;br /&gt;아름뿐한 꽃잎 이야기를 들려주며 앨리스에게 자유로움에 대해 말하는 소설가 루이스 캐럴.&lt;br /&gt;일상을 벗어나 새로운 세상을 원하던 앨리스.&lt;br /&gt;&lt;br /&gt;길냥이 다이너를 따라간 앨리스는 새로운 세상에 도착하게 된다. 행복할거라 생각했던 새로운 세상에서의 여행은 뜻대로 풀리지않고 토끼둘과 애벌레, 모자장수 등의 간섭이 점점 심해진다. 앨리스는 새로운 세상과 현실에서의 많은 요구들 속에 어떤 선택을 하게될까?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;4. 연습 일정 및 진행&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326025435.jpeg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;현재까지&lt;br /&gt;- 루이스 캐럴의 &amp;lt;이상한 나라의 앨리스&amp;gt;를 모티브로 하여 대본작업을 완료했으며, 2월1일 이후 약 한달간 대본수정과 리딩을 진행한 상태입니다.&lt;br /&gt;- 음악은 전체 분량의 70퍼센트 이상이 확정되었습니다.&lt;/p&gt;
+&lt;p&gt;앞으로의 일정&lt;br /&gt;&amp;nbsp; 2월 25일 &amp;rarr; 전체 리딩과 블락킹 시작.&lt;br /&gt;&amp;nbsp; 2월 26일 &amp;rarr; 소품 준비 시작.&lt;br /&gt;&amp;nbsp; 3월 3일 &amp;rarr; 무대 제작 시작.&lt;br /&gt;&amp;nbsp; 3월 7일 &amp;rarr; 포스터 확정.&lt;br /&gt;&amp;nbsp; 3월 19~30일 &amp;rarr; 사전예매 기간.&lt;br /&gt;&amp;nbsp; 3월 20일 &amp;rarr; 음향/조명 초안 정리.&lt;br /&gt;&amp;nbsp; 4월 1일 &amp;rarr; 음향/조명 큐시트 디자인 확정.&lt;br /&gt;&amp;nbsp; 4월 4일&amp;nbsp; &amp;rarr; 정식 티켓 오픈&amp;nbsp;&lt;br /&gt;&amp;nbsp; 4월 17 ~ 23일 &amp;rarr; 셋업. 리허설 예정.&lt;br /&gt;&amp;nbsp; 4월 24 ~ 28일 &amp;rarr; 총 7회 공연.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp; 후원자분들께서 후원해 주시는 후원금은 위의 일정을 진행하는 과정에서 소품, 무대 제작, 의상, 홍보 등에 사용될 예정입니다. 프로젝트 특성상 티켓과 포스터는 현장수령을 원칙으로 합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;5. 문의&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;연습 사진 등은 아래의 계정에 수시로 업데이트될 예정입니다.&lt;br /&gt;문의사항이 있으시면 [창작자에게 문의하기]탭을 통해&amp;nbsp;문의해주세요.&lt;br /&gt;&lt;br /&gt;기획대표 김나연 010-5633-7528&lt;br /&gt;https://www.facebook.com/theatre.in.handong/&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220006437222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;예술단체 &amp;lt;BEMUSE&amp;gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;첫번째 프로젝트,&amp;nbsp;&lt;em&gt;뮤지컬 'Les Miserables'&lt;/em&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326030312.jpg" alt="" width="700" height="934" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;raquo;&amp;nbsp;공연일시 2018.04.21(토) - 2018.04.22(일)&lt;br /&gt;&amp;nbsp;&amp;raquo; 공연장소 서울시 서대문문화회관 대극장&lt;br /&gt;&lt;strong&gt;&amp;nbsp;&amp;raquo; 이번 공연은 이탈리아문화예술협회, kartalia 컴퍼니 주관, BEMUSE 주최, 영진 TM에서 협력하는 믿을 수 있는 공연입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326030408.jpg" alt="" width="700" height="702" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;예술단체, &amp;lt;BEMUSE&amp;gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;blockquote&gt;
+&lt;p&gt;BEMUSE란?&lt;br /&gt;Bemuse, '어리벙벙하게 하다' + Be muse '영감이 되다'&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;lt;BEMUSE&amp;gt;는 관객들을 작품에 빠져들어 어리벙벙하게 만들자 ! 관객들에게 영감을 주는 배우가 되자 ! 라는 당찬 포부로 만들어진 예술단체입니다.&lt;br /&gt;예술단체 &amp;lt;BEMUSE&amp;gt;에는 이제 갓 사회에 진출하게 된 배우들이 모여 있습니다. 사회에 첫 발자국을 내딛는 작품으로 &amp;lt;BEMUSE&amp;gt;의 첫 번째 작품 'Les Miserables'을 함께 하게 되었습니다. 우리는 이번 작품을 시작으로 매년, 매 순간, 관객들에게 좋은 영감을 선물하기 위해 찾아 올 것입니다.&lt;/p&gt;
+&lt;h3&gt;&amp;nbsp;&lt;strong&gt;&amp;ldquo;너는 듣고 있는가?&amp;nbsp;Les Miserables&amp;bdquo;&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;시놉시스&lt;br /&gt;&lt;/strong&gt;기구한 운명의 청년 장 발장은 빵을 훔친 죄로 19년을 감옥에서 지내고 가석방되지만 전과자의 세상으로부터의 배척과 멸시에서 벗어나지 못한다. 딘뉴 주교의 고귀한 사랑으로 새 사람이 되고, 시장으로까지 출세하게 된 그는 어려운 이들에게 자상하게 온정을 베풀어 시민들의 사랑과 존경을 받게 된다.&lt;br /&gt;&lt;br /&gt;딸의 양육비를 벌기 위해 거리에서 몸을 파는 여인 판틴을 어려움에서 구해 돌보게 되지만, 법과 제도를 맹신하는 자베르 경감에게 다시 쫓기는 신세가 되고 만다. 불행에 빠진 판틴의 딸 코제트를 구해 수도원으로 잠적하고, 다시 10년의 세월이 흐른다.&lt;br /&gt;&lt;br /&gt;아름다운 숙녀로 성장한 코제트는 마리우스라는 학생 혁명가를 알게 되고 그와 사랑에 빠진다. 평등한 사회를 꿈꾸는 혁명운동의 현장에서 장 발장의 숭고한 인간애와 끝없는 사랑은 죽을 위험에 처한 마리우스의 목숨을 구하게 되고, 위기에 빠진 자베르 경감마저 변화시킨다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;연출의도&lt;br /&gt;&lt;/strong&gt;레미제라블이라는 작품은 셀 수도 없이 많은 각색을 거쳤고, 많은 공연이 올려진 작품입니다. 그만큼 많은 사람들이 잘 알고 있고, 4대 뮤지컬이라 불릴 만큼 유명한 공연이기도 합니다. 이번 BEMUSE 레미제라블은 이전과는 다른 새로운 연출과 합창, 안무, 그리고 무대, 조명 등을 다양하게 이용하여 예술로 표현하고자 했습니다.&lt;br /&gt;'레 미제라블', '불쌍한 사람들'이 꿈을 이루기 위해 어떻게 삶을 살아나가는지 보실 수 있을 것입니다. 배역, 앙상블 모두가 무대 위에서 살아있는 공연을 보여드리겠습니다.&lt;br /&gt;별이 빛나는 이유는 두 가지 입니다. 별이 스스로 반짝이는 것과 하늘이 어두워 더욱 더 빛남. 이번 공연에서 별이 빛나는 것을 보여드리겠습니다. 이기적인 예술이 아닌 이상적인 예술을 보여드리겠습니다. 그것이 이번 공연의 제 목표입니다.&lt;br /&gt;우리가 처음 에술을 시작했을 때, 돈이 목적이 아닌 열정과 즐거움을 찾았던 초심으로 돌아가서.. 보여드리겠습니다 !&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;배우&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326030507.jpg" alt="" width="700" height="1819" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;Iota; 장발장 役&amp;nbsp;&lt;/strong&gt;김한건 고세움&lt;br /&gt;&lt;strong&gt;&amp;Iota; 자베르&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;최태안 김경태&lt;br /&gt;&lt;strong&gt;&amp;Iota; 판틴&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;유혜선 김신애&lt;br /&gt;&lt;strong&gt;&amp;Iota; 마리우스&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;박완수&lt;br /&gt;&lt;strong&gt;&amp;Iota; 앙졸라&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;진규민 김승은&lt;br /&gt;&lt;strong&gt;&amp;Iota; 코제트&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;박새롬 오지원&lt;br /&gt;&lt;strong&gt;&amp;Iota; 에포닌&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;황희상 이은혜&lt;br /&gt;&lt;strong&gt;&amp;Iota; 떼나르디에&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;양종호&lt;br /&gt;&lt;strong&gt;&amp;Iota; 마담 떼나르디에&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;고은비&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 그랑테르&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;신우성&lt;br /&gt;&lt;strong&gt;&amp;Iota; 퓨이&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;김성학&lt;br /&gt;&lt;strong&gt;&amp;Iota; 쿠페락&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;문지환&lt;br /&gt;&lt;strong&gt;&amp;Iota; 콤페어&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;정민규&lt;br /&gt;&lt;strong&gt;&amp;Iota; 졸리&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;유정민&lt;br /&gt;&lt;strong&gt;&amp;Iota; 킴&amp;nbsp;役&lt;/strong&gt;&amp;nbsp;안지수&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;제작진&amp;nbsp;&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 연출&lt;/strong&gt;&amp;nbsp;강민승&amp;nbsp;&lt;strong&gt;조연출&lt;/strong&gt;&amp;nbsp;신우성&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 기획&lt;/strong&gt;&amp;nbsp;최태안&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 음악감독&lt;/strong&gt;&amp;nbsp;황희상&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 안무감독&lt;/strong&gt;&amp;nbsp;유혜선 안지수&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 앙상블장&lt;/strong&gt;&amp;nbsp;고은비 박완수&lt;br /&gt;&lt;strong&gt;&amp;Iota; 무대감독&lt;/strong&gt;&amp;nbsp;문지환&amp;nbsp;&lt;br /&gt;&lt;strong&gt;&amp;Iota; 조명감독&lt;/strong&gt;&amp;nbsp;정민규&lt;br /&gt;&lt;strong&gt;&amp;Iota; 홍보/의상&lt;/strong&gt;&amp;nbsp;이은혜 박새롬&lt;br /&gt;&lt;strong&gt;&amp;Iota; 음향&lt;/strong&gt;&amp;nbsp;김경태&lt;br /&gt;&lt;strong&gt;&amp;Iota; 소품&lt;/strong&gt;&amp;nbsp;김승은&lt;br /&gt;&lt;strong&gt;&amp;Iota; 분장&lt;/strong&gt;&amp;nbsp;김명진 외 11명 (서경대학교 미용예술학과)&lt;br /&gt;&lt;strong&gt;&amp;Iota; 프로필촬영&lt;/strong&gt;&amp;nbsp;박태민 (서울예술대학교 사진과)&lt;br /&gt;&lt;strong&gt;&amp;Iota; 디자인&lt;/strong&gt;&amp;nbsp;고은지&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;후원금 사용목적&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;'텀블벅'으로 후원받는 후원금은&lt;br /&gt;&lt;strong&gt;극장대여 (50%) + 무대제작 (30%) + 의상, 소품구입 (20%)&lt;/strong&gt;&amp;nbsp;로 사용될 예정입니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;&lt;strong&gt;연습현장&lt;br /&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;sub&gt;&lt;strong&gt;프로필촬영준비 및 연습현장&lt;/strong&gt;&lt;/sub&gt;&lt;/p&gt;
+&lt;p&gt;&lt;sub&gt;&lt;img src="resources/uploadImages/20180326030548.jpg" alt="" width="700" height="454" /&gt;&lt;/sub&gt;&lt;/p&gt;
+&lt;p&gt;&lt;sub&gt;&lt;img src="resources/uploadImages/20180326030617.jpg" alt="" width="700" height="423" /&gt;&lt;/sub&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;공연 준비&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;저희 팀은 현재 배우들이 직접 스텝 일을 도맡아 진행하고 있습니다. 의상 준비부터 소품, 무대, 기획, 홍보까지 직접 회의하고 계획하여 준비 중입니다. 전문가 보다는 완벽하지 못하겠지만 저희는 관객들에게 더 좋은 공연, 보다 더 좋은 무대를 선보이기 위해 최선을 다해 노력하고 있습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326030640.jpg" alt="" width="700" height="466" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;hearts; 좋은자리 티켓 안내&lt;br /&gt;&lt;/strong&gt;- 좋은자리 티켓은 네이버에서 예매 가능한 티켓과는 달리 좋은자리 우선으로 후원자분들에게 제공하는 것이므로 꼭 서베이를 통해 응답해주시기 바랍니다.&lt;br /&gt;- 예매 확정 및 공연 관람안내 문자는 후원자님에게 공연 전 따로 발송할 예정입니다.&lt;br /&gt;- 티켓은 공연관람일, 공연장 현장에서 발부 가능하며 공연시작시간 2시간부터 오픈 후, 30분 전부터 현장판매로 돌려지므로 미리 도착해 티켓 발부해 주시기 바랍니다.&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;hearts; 기념티셔츠&lt;br /&gt;&lt;/strong&gt;티셔츠 색상은 검정색이며 반팔입니다.&lt;br /&gt;&lt;strong&gt;20수 순면이며 KC인증완료된 안전한 의류입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326030704.jpg" alt="" width="700" height="436" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;br /&gt;&lt;/strong&gt;1. 섬유의 조성 또는 혼용률 : 면 100%&lt;br /&gt;2. 제조자명 또는 수입자명 : 단짱&lt;br /&gt;3. 제조국명 : Made in korea&lt;br /&gt;4. 제조연월 : 2018.3.4&lt;br /&gt;5. 치수&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&lt;em&gt;사이즈&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 총장&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 어깨너비&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;가슴둘레&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 소매길이&lt;br /&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;S&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;58.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 42.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 48&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 15&lt;br /&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; M&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;62.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 43&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 50&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 18&lt;br /&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; L&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;66.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 45.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;52&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 20&lt;/em&gt;&lt;em&gt;&lt;br /&gt;&amp;nbsp;&amp;nbsp; XL&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 69.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 48&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 54&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 20.5&lt;br /&gt;&amp;nbsp;&amp;nbsp;2XL&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;72.5&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 50&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 57&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;22&amp;nbsp;&lt;/em&gt;&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;6. 취급상 주의사항&lt;br /&gt;&amp;nbsp;- 모든 상품은 첫 세탁시 드라이크리닝을 권장합니다.&amp;nbsp;&lt;br /&gt;&amp;nbsp;- 손세탁을 하실 경우 중성세제를 사용하여 손세탁을 해주세요.&lt;br /&gt;&amp;nbsp;- 기계세탁을 하실 경우 세탁망을 사용하여 세탁해주세요.&lt;br /&gt;&amp;nbsp;- 건조시 기계건조가 아닌 자연건조를 권장합니다.&amp;nbsp;&lt;br /&gt;&amp;nbsp;- 인쇄가 있으신 상품은 뒤집어서 손세탁을 해주시거나 세탁망을 사용하여 세탁해주세요.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;hearts; 기념팔찌&lt;br /&gt;&lt;/strong&gt;레미제라블 로고가 그려져있는 고무팔찌입니다.&lt;br /&gt;시안이 나오는 대로 업로드하겠습니다.&lt;/p&gt;
+&lt;p&gt;&amp;hearts;&amp;nbsp;&lt;strong&gt;프로그램북&lt;br /&gt;&lt;/strong&gt;배우들의 개인 프로필 사진과 단체사진,&amp;nbsp;레미제라블 공연에 대한 다양한 정보, 연습 과정 &amp;nbsp;등을 자세하게 공개하고 있습니다. 특히 배우들의 개인 프로필 사진이 위에 게시된 사진과는 또 다른 느낌의 사진이니 많은 기대 부탁드립니다!^^&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326030730.jpg" alt="" width="700" height="790" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;서베&lt;/strong&gt;&lt;strong&gt;이 응답 방법&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;1.&amp;nbsp;&lt;strong&gt;프로필 사진&lt;/strong&gt;을 클릭합니다.&lt;br /&gt;2.&lt;strong&gt;&amp;nbsp;[내 후원 현황]&lt;/strong&gt;을 들어가면&amp;nbsp;&lt;strong&gt;내가 후원한 내용&lt;/strong&gt;과&lt;strong&gt;&amp;nbsp;응답하지 않은 서베이&lt;/strong&gt;를 확인 가능합니다.&lt;br /&gt;3. 서베이에서&lt;strong&gt;&amp;nbsp;원하시는 공연의 회차를 선택&lt;/strong&gt;&amp;nbsp;해 주시면 됩니다.&lt;br /&gt;4. 티켓별로 관람을 원하는 날짜가 다를 경우&amp;nbsp;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;로 알려주시기 바랍니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;후원자명 표기&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;후원자 이름 기재는 별다른 요청이 없으실 경우 후원자의 이름이 기재되며, 후원자분께서 다른 이름으로 기재하고 싶으신 경우,&amp;nbsp;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;로 알려주시기 바랍니다.&lt;br /&gt;후원자명 기재는&amp;nbsp;&lt;strong&gt;BEMUSE 제작 Les Miserables 팜플렛&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;공연장 현장에 후원자 명단&lt;/strong&gt;을 따로 만들어 전시할 예정입니다.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220013858693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326031330.jpg" alt="" width="700" height="978" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;진행자/진행 팀 소개&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031356.jpg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;창작예술집단 보광극장은 예술을 사랑하는 젊은 청년들(寶, 보배 보)이 하나의 촛불이 큰 빛(光, 빛날 광)이 되 듯, 시작되었습니다. 우리는 연극, 영화, 전시 등 장르를 불문하고 우리의 이야기를 관객들에게 전할 수 있는 모든 예술을 지향하는 단체입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2017년 우리들의 연습실을 직접 완공하고 7월, &amp;lt;사랑해 라고 부름에 대한&amp;gt; 워크샵을 시작으로 12월, 제 1회 정기공연 창작극 &amp;lt;눈사탕&amp;gt;을 성황리에 마무리하고 현재 창작극 &amp;lt;2018 파우스트&amp;gt;에 몰두 중입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;우리는 주변의 이웃부터 크게는 시민들이 공감할 수 있는 풍부한 창작 작품을 통해 그들과&amp;nbsp; 함께 호흡하며 동고동락하기를 목표로 하고 있습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;이를 발판삼아 지치고 힘든 사회에 살아가는 모든 시민들에게 위로와 용기를 주고 그들과&amp;nbsp;&amp;nbsp; 소통하여 문화예술의 발전에 기여하고자 합니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;창작 동기&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031425.jpg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;우리는 살아가면서 많은 욕망을 채워가면서 살아갑니다. 그리고 그 욕망이 채워진다면 행복할 것 이라고 이야기합니다. 과연 욕망을 채우면 우리는 행복해 질 수 있는 것인가에 대한 물음을 던져봤습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031444.jpg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;국내의 유명 에세이 &amp;lsquo;무소유&amp;rsquo;에서 법정스님은 말씀하십니다. "인간은 소유하지 않았을 때 비로소 모든 것을 소유하게 된다."&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;CAST &amp;amp; 줄거리&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031511.jpg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;한국소비자연구센터의 지원을 받아 &amp;lsquo;모든 인간은 욕망을 충족시켜야 행복해진다&amp;rsquo;라는 이론을 믿고 20년간 극비실험을 진행 중인 파우스트. 어느 날, 3일 안에 인간을 대상으로 한 실험을 성공시키지 못하면 더 이상 지원해 줄 수 없다는 연구센터의 통보를 받는다. 파우스트는 곧&amp;nbsp; 동물실험에 성공하고, 조력자 메피스토펠레스의 도움으로 인간 실험체를 구하게 되는데...&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;날짜 - 2017년 4월 6일(금) ~ 4월 8일(일)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;시간 &amp;ndash; 4월6일(금)8시 4월7,8일(토,일)2시/6시&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;장소 - 서완소극장&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;공연시간 - 90분&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;공연문의 - 010-7406-0830&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;공연등급 - 12세 관람가&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;홈페이지 - 블로그&amp;nbsp;&lt;a href="http://blog.naver.com/bktheater/" target="_blank" rel="noopener noreferrer"&gt;http://blog.naver.com/bktheater/&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;인스타그램&amp;nbsp;&lt;a href="http://instagram.com/bk_theater/" target="_blank" rel="noopener noreferrer"&gt;http://instagram.com/bk_theater/&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031545.jpg" alt="" width="700" height="495" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031558.jpg" alt="" width="700" height="495" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;펀딩 목적&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;극장 및 연습실대관 비용 , 기획˙홍보 비용, 소품,의상 및 무대제작비용&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220018939184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326032250.jpg" alt="" width="700" height="467" /&gt;&lt;/p&gt;
+&lt;h2&gt;창작집단&amp;nbsp;&lt;strong&gt;'농담'&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;창작집단&amp;nbsp;&lt;strong&gt;'농담'&lt;/strong&gt;은 2014년 창단 되어 농밀한 이야기를 농담처럼 이라는 모토로 현재까지 총 8편의 작품을 만들었습니다. 농담은 무대 뿐만 아니라 영상, 음악, 퍼포먼스 등 다양한 매체를 이용한 창작활동을 이어 나가고 있는 예술 집단입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;창작집단 '농담' 공연 연혁&lt;br /&gt;&amp;nbsp;- 2015, 적의 화장법&lt;br /&gt;&amp;nbsp;- 2015, 아마도 오이디푸스&lt;br /&gt;&amp;nbsp;- 2016, 환도와 리스&lt;br /&gt;&amp;nbsp;- 2016, #나&lt;br /&gt;&amp;nbsp;- 2017, 아이디얼-&lt;br /&gt;&amp;nbsp;- 2017, 적의 화장법&lt;br /&gt;&amp;nbsp;- 2017, 듣는 글, 늦게 온 여름&lt;br /&gt;&amp;nbsp;- 2018, X 그 광기에 대하여&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;후원자 여러분들께&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;저희 창작집단 '농담'을 후원, 응원해주셔서 감사합니다! 저희 '농담'은 올해 4월 연극공연 'X 그 광기에 대하여'를 여러분들에게 선보이는 것을 목표로 공연 제작에 몰두 하고 있습니다. 그 과정에서 무대, 대도구 제작, 극장 대여, 기획 비용 등으로 지출이 발생할 예정입니다. 후원자 분들의 후원들은 모두 이러한 지출에 사용되며 공연제작비 이외로는 일체 사용되지 않습니다! 저희 '농담'의 공연이 더 나은 방향으로 나아갈 수 있도록 큰 도움이 되주셔서 감사합니다!&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032318.jpg" alt="" width="700" height="1026" /&gt;&lt;/p&gt;
+&lt;h2&gt;연극&amp;nbsp;&lt;strong&gt;'X- 그 광기에 대하여'&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;strong&gt;'X- 그 광기에 대하여'&lt;/strong&gt;는 극 중 세계를 끊임없이 현실과 연결시키려는 다양한 시도를 하였다. 그 중 연극 무대위에 영상 매체를 사용해 무대 위의 가상과 관객들의 현실을 유려하게 이었으며, 또한 영상 예술의 폭 넓은 표현력을 이용해 관객들에게 새로운 감각적 경험을 주고자 하였다.&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;시놉시스&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;3년 전, 현대 미술의 유망주로 떠올랐던 엑스는 그의 연인 나타샤가 죽은 후 작품 활동을 하지 못하고 있다. 엑스의 부인은 그의 복귀를 위해 갤러리 Q에서의 전시를 강행하고, 정신과 상담의인 자하에게 엑스의 진료를 맡기는 등 안간힘을 쓰지만 그는 그림을 그려야 한다는 중압감에 점점 뒤틀려 갈뿐이다. 그런 그에게 어느 날 정신병동에서 온 아이가 찾아온다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032345.jpg" alt="" width="700" height="210" /&gt;&lt;/p&gt;
+&lt;h2&gt;작가의 말&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&amp;lsquo;이러다 정말 미쳐버릴 것 같다.&amp;rsquo;라는 생각이 들어서, 고개를 들고 당신을 보면 당신도 나와 같은 표정이다. 당신도 나처럼 견디기 어려운 걸까 생각하니 이상하게 웃음이 나왔다. 놀라서 입을 막았는데, 그 순간 서로 웃음이 터져버려서, 아주 잠깐, 우리가 정말 미쳐버린게 아닐까. 그런 생각을 했다. &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032414.jpg" alt="" width="700" height="210" /&gt;&lt;/p&gt;
+&lt;h2&gt;연출의 말&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;안녕하세요. 저는 신지인이라고 합니다.&lt;br /&gt;7살 때부터, 동네에서 미술 천재로 불리며 그림을 그려왔는데, 별안간 연극을 해야겠다며 &amp;lsquo;나의 천직이다&amp;rsquo;라고 부모님 속을 뒤집고 연극을 시작한지 벌써 9년이 지났습니다. 9년 동안 수많은 작품과 만나며 오로지 칭찬 받기 위해서, 사랑받기 위해서 안간힘을 써왔습니다. 어느 날 부터인가 이런 저에게 &amp;ldquo;어때? 충분해?&amp;rdquo;라는 질문이 생기기 시작했고, 망상 속에서 수없이 사경을 헤매다가 특별할 것 없는 인생이나마 나누고 싶다는 욕심이 생겨 작품을 쓰고 좋은 팀원들을 만나 용기를 가지고 연출을 맡게 되었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;lsquo;광기에 대하여&amp;rsquo;는 미치기 일보 직전의 인물들이 주인공입니다. 가만히 들여다보면 어느 하나 정상인 사람이 없습니다. 심히 맹목적이고, 심히 무기력하며 불현 듯 돌변하는 기분들을 보다보면 난장파티가 따로 없는 작품입니다. 그런 등장인물들을 특별하게만 받아들일 수 없는 것은 이들의 이런 &amp;lsquo;광기&amp;rsquo;가 나와 혹은 나의 어머니, 혹은 나의 연인과 꼭 같은 모습이기 때문입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;그들을 위로하고 싶습니다. 견디기 어려운 순간에 나도 모르게 터져나온 울화도 괜찮다, 그것 역시 당신의 인생이다 위로하고 싶습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;무거운 주제지만 즐겁게 임하고 있습니다. 조건 없이 도와주는 친구들, 그리고 사랑으로 지켜봐주시는 여러분들이 있기 때문이라는 것을 너무 잘 알고 있습니다. 여러분들께서 후원해주시는 후원금은 전액 연극 &amp;lsquo;광기에 대하여&amp;rsquo;를 위해서 쓰일 것을 약속합니다. 인연이 된 여러분께 더 좋은 작품으로 보답하겠습니다. 감사합니다!!&lt;/p&gt;
+&lt;h2&gt;제작진&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032440.jpg" alt="" width="700" height="326" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032501.jpg" alt="" width="700" height="326" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032514.jpg" alt="" width="700" height="414" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032553.jpg" alt="" width="700" height="414" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032609.jpg" alt="" width="700" height="414" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;작, 연출 - 신지인&lt;br /&gt;&amp;nbsp;예술감독 - 강예은&lt;br /&gt;&amp;nbsp;영상감독 - 정형석&lt;br /&gt;&amp;nbsp;조명감독 - 강우빈&lt;br /&gt;&amp;nbsp;무대감독 - 이준희&lt;br /&gt;&lt;br /&gt;&amp;nbsp;배우 - 김빈, 노재노, 문수영, 안소진, 조새연, 현지선, 황진성&lt;/p&gt;
+&lt;h2&gt;후원자 선물 안내&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326032635.jpg" alt="" width="700" height="205" /&gt;&lt;/p&gt;
+&lt;h2&gt;공연 정보&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;공연장소 : 서울 종로구 창경궁로 259&amp;nbsp;&lt;strong&gt;극장 '동국'&lt;br /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326032659.jpg" alt="" width="698" height="414" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;공연일시 : 4월 17일 ~ 29일 저녁 8시&lt;br /&gt;&amp;nbsp;창작집단 '농담'의 이야기가 궁금하시다면 INSTAGRAM @NONGDAM0401 로 방문해주세요!&lt;/p&gt;
+&lt;p&gt;문의는&amp;nbsp;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;를 이용해주세요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220024738805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;em&gt;그저 평범하고 싶었던 &amp;lsquo;다영&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;단독 연주회를 앞두고 추락사 한 &amp;lsquo;지민&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lsquo;지민&amp;rsquo;에게 남다른 감정을 가진 &amp;lsquo;수현&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;속내를 알 수 없는 전학생 &amp;lsquo;찬희&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lsquo;다영&amp;rsquo;의 손을 끌어당기는 &amp;lsquo;유성&amp;rsquo;.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;복잡하게 얽힌 이들의 관계 속에서, &amp;lsquo;다영&amp;rsquo;은 진실을 포착할 수 있을까?&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;안녕하세요&lt;/p&gt;
+&lt;p&gt;극단&lt;strong&gt;&amp;nbsp;&amp;lsquo;뒷광대&amp;rsquo;&lt;/strong&gt;입니다&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326033439.jpg" alt="" width="700" height="431" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;극단 '뒷광대'는 공연예술창작집단으로서, 무대 전공생과 무대 예술에 열정을 가진 대학생 스태프 위주로 꾸려진 단체입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;극단 이름의 의미는 배우를&amp;nbsp;&lt;u&gt;무대 위의 광대&lt;/u&gt;라고 표현할 수 있다면, 무대 위에서 빛나진 않지만 그 뒤에서 배우를&amp;nbsp;비춰주는 스태프들은&amp;nbsp;&lt;u&gt;무대 뒤의&amp;nbsp;광대&lt;/u&gt;라고 생각하여&amp;nbsp;&lt;strong&gt;&amp;lsquo;뒷광대&amp;rsquo;&lt;/strong&gt;라고 명명 하였습니다.&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&lt;/p&gt;
+&lt;p&gt;2016년, 첫 번째 프로젝트인 &amp;lt;필로우맨&amp;gt;을 성공적으로 무대에 올린 이후, 2019년 &amp;lt;백일몽&amp;gt;이라는 창작극으로 새로운 프로젝트를 준비하고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;그리고 공연에 앞서 극 내용과 관련된&lt;u&gt;&amp;nbsp;또 하나의 프로젝트&lt;/u&gt;를 진행하려 합니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&lt;img src="resources/uploadImages/20180326033500.jpg" alt="" width="700" height="222" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;창작극&amp;lt;백일몽&amp;gt;은 학교에서 일어난 한 사건을 계기로 평소에는 드러나지 않았던 숨은 비밀들이 하나씩 꺼내지는&amp;nbsp;&lt;u&gt;추리, 미스터리 극&lt;/u&gt;입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;극의 주인공 &amp;lsquo;다영&amp;rsquo;은 연주회를 앞두고 추락사 한 &amp;lsquo;지민&amp;rsquo;의 사건에 알 수 없는 의문을 품고 주변인들을 관찰해나가기 시작합니다.&lt;/p&gt;
+&lt;p&gt;그런 주인공의 시선으로 써 내려간 일기를 일러스트를 통해 표현해보았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;u&gt;극의 내용&lt;/u&gt;과&amp;nbsp;&lt;u&gt;인물의 심리상태&lt;/u&gt;를 표현한 일러스트 엽서와 &amp;lsquo;학교&amp;rsquo;라는 무대에서 이루어지는 극인 만큼 신학기를 앞두고 필요한&amp;nbsp;&lt;u&gt;메모지&lt;/u&gt;와&amp;nbsp;&lt;u&gt;노트 세트&lt;/u&gt;를 만들어보았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;공연과는 별개로 젊은 창작자들이 모여 만든 &amp;lsquo;뒷광대&amp;rsquo;라는 극단에도 관심을 주셨으면 하는 마음으로 시작한 프로젝트에 많은 관심 부탁 드립니다. &amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;1. 엽서 세트 (6장)&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326033533.jpg" alt="" width="700" height="466" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;blockquote&gt;&lt;strong&gt;사이즈 17*11.2(cm)&amp;nbsp;&lt;/strong&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;em&gt;관찰일기 : 대낮의 꿈&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;나의 우주 - 관찰자&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033559.jpg" alt="" width="700" height="455" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;아이는 언제나 꿈을 꾸었다. 눈두덩이에 내려 앉는 빛에 등을 돌린 채, 조각으로 남은 기억들을 한아름 주워 담아 아무도 볼 수 없도록 끌어 안았다. 그리고는 비어버린 눈으로 하염없이 응시할 뿐이었다. 품 안의 조각들이 덩치를 이기지 못하고 흘러 넘쳐버릴 때까지&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;음악이 되어버린 아이 - 음악실&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033625.jpg" alt="" width="700" height="455" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;건반 위, 춤추듯 흐르는 손이 그려내는 선율은 눈이 부시도록 아름다워, 그것을 사랑할 수밖에 없었다. 모호한 사랑의 방향과, 거울에 비친 제 얼굴이 불러오는 위화감을 견딜 수 없게 되었을 즈음, 아이는 스스로 음악이 되기로 마음 먹었다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;하울링 - 하교&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033643.jpg" alt="" width="700" height="456" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;짙은 홍색의 노을이 늑대의 머리 위를 뒤덮는다. 몰려오기 시작하는 어둠으로부터 몸을 숨길 곳을 찾지 못한 늑대는, 푸석한 털을 흩날리며 하늘을 향해 소리쳤다. 이미 사라져버린 아이의 귓가에 작은 한숨이나마 남길 수 있을까, 얼굴의 털이 젖어갔다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;인어의 바다 - 운동장&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033712.jpg" alt="" width="700" height="1079" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;그 아이는 항상 누구도 알 길 없는 바다를 유유히 헤엄쳤다. 질주하는 정어리의 무리를 비웃듯, 작은 물방울만을 남기며 느리게 움직였다. 우리는 인어의 바다를 알 수 없었고, 인어는 우리의 바다를 알려 들지 않았다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;눈물로 피워낸 꽃 - 화단&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033734.jpg" alt="" width="700" height="1082" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;학교 뒤편 화단에 뿌려진 물줄기의 멍울은, 어느 날부터 저와 닮은 꽃들을 피워냈다. 그것이 누구에게 깃들어 있었는지는 알 수 없다. 어쩌면 혹자들 모두의 마음이었을 지도 모른다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;lt;사각지대 - 그림자&amp;gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;img src="resources/uploadImages/20180326033753.jpg" alt="" width="700" height="456" /&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;따라 붙는 시선의 경계엔 연기와 같은 매캐함 만이 남았다. 싸한 공기를 가르며 목을 조이는 손을 뿌리치려는 노력은 헛수고로 남을 뿐이었다. 서슬퍼런 눈동자에는 작은 움직임마저 일그러진 형체로 반사되고 있었다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;2. 메모세트 (노트 2권+떡메모지,To do list)&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;신학기를 위한 노트와 떡메모지 세트입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326033813.jpg" alt="" width="700" height="505" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326033844.jpg" alt="" width="700" height="461" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;&lt;strong&gt;떡메모지는 각각 총 100매, 사이즈 108*82(mm) 입니다.&lt;/strong&gt;&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;문의&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;[창작자에게 문의하기]&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;페이스북 페이지&amp;nbsp;&lt;a href="https://www.facebook.com/veiledclown" target="_blank" rel="noopener noreferrer"&gt;https://www.facebook.com/veiledclown&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;인스타&amp;nbsp;&lt;a href="https://www.instagram.com/veiled_clown/" target="_blank" rel="noopener noreferrer"&gt;https://www.instagram.com/veiled_clown/&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;트위터&amp;nbsp;&lt;a href="https://twitter.com/veiled_Clown" target="_blank" rel="noopener noreferrer"&gt;https://twitter.com/veiled_Clown&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220031712136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&amp;nbsp;&amp;lsquo;용서&amp;rsquo; 한적 있나요?&lt;/h2&gt;
+&lt;h3&gt;우리는 어떻게 하면 누군가를&amp;nbsp;&lt;u&gt;온전히&lt;/u&gt;&amp;nbsp;용서할 수 있을까요?&lt;br /&gt;연극&amp;lt;용서 받은 시간&amp;gt;은 한 가족이 &amp;lsquo;&lt;u&gt;시간&lt;/u&gt;&amp;rsquo;을 통해 서로를 용서해 가는 과정을 그리고 있습니다.&lt;/h3&gt;
+&lt;h2&gt;[인물 소개]&lt;/h2&gt;
+&lt;h2&gt;&amp;bull; 아버지 때문에 벙어리가 된 아들 &amp;lsquo;&lt;strong&gt;&lt;u&gt;현수&lt;/u&gt;'&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326034629.jpg" alt="" width="700" height="1026" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;현수는 어린 시절 술주정하는 아버지 &amp;lsquo;갑석&amp;rsquo;에게 밀쳐진 충격으로 벙어리가 됩니다.&lt;br /&gt;원망에 사로잡혀 세상과 단절된 채 아버지에게 분노를 표출하는 삶을 살던 현수는 동생 &amp;lsquo;인수&amp;rsquo;가 대학갈 나이가 되었다는 것을 알게 됩니다.&lt;/p&gt;
+&lt;blockquote&gt;&amp;lsquo;내가 겪은 그 고통의 시간들을 아버지도 겪기를 바랬다.&lt;br /&gt;내가 침묵한 그 날의 공포를 아버지도 느끼길 원했다.&amp;rsquo;&lt;br /&gt;-현수의 편지 내용 中&lt;/blockquote&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;bull; 용서 받는 시간을 스스로 살아가는 아버지 &amp;lsquo;&lt;u&gt;&lt;strong&gt;갑석&lt;/strong&gt;&lt;/u&gt;&amp;rsquo;&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034700.jpg" alt="" width="700" height="1026" /&gt;&lt;/p&gt;
+&lt;p&gt;갑석은 젊은 시절 보증을 잘못 서 빚 방석에 앉게 되었고, 자신의 술주정 때문에 아내도 떠나버려 두 아들에게 돌이킬 수 없는 큰 잘못을 저질렀다고 생각합니다. 자신을 아버지로 대하지도 않는 &amp;lsquo;현수&amp;rsquo;와 하루도 쉬지 않고 일을 하는 자신을 걱정하는 막내 &amp;lsquo;인수&amp;rsquo;를 위해 힘든 노년을 보냅니다.&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;bull; 자신의 앞길을 망쳐 버린 형을 원망하는 동생 &amp;lsquo;&lt;u&gt;&lt;strong&gt;인수&lt;/strong&gt;&lt;/u&gt;&amp;rsquo;&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034733.jpg" alt="" width="700" height="1026" /&gt;&lt;/p&gt;
+&lt;p&gt;고3 소설가 지망생인 막내아들 인수. 불우한 가정환경 속에서도 우수한 성적을 내며 담임 선생님의 기대를 받았습니다. 가족 때문에 대학을 포기하고 선택한 길마저 방해하는 형 &amp;lsquo;현수&amp;rsquo;에게 분노하게 됩니다.&lt;/p&gt;
+&lt;blockquote&gt;&amp;lsquo;인생에 허비되는 가장 아까운 시간이 오해를 푸는 시간이에요. 그리고 인생에서 타인에게 가장 많이 할애해야 되는 시간 또한 오해를 풀고 이해를 시켜야 하는 시간들이지요. &amp;middot;&amp;middot;&amp;middot;누군가에게 오해를 푸는 것만큼 힘들고 고통스러운 일이 없지요. 그건 말을 할 수 있는 사람에게도 무척이나 고통스러운 일이에요. 하물며 말을 못하는 사람에게는 오해를 푸는 일이 얼마나 고통스러운 일일까요?&amp;rsquo;&lt;br /&gt;-소설가 김탁의 대사 中&lt;/blockquote&gt;
+&lt;p&gt;말 못하는 형에 대한 오해를 풀기까지, 긴 시간에 걸쳐 &amp;lsquo;인수&amp;rsquo;는 형 &amp;lsquo;현수&amp;rsquo;를 용서해보려 합니다.&lt;/p&gt;
+&lt;h3&gt;당신은 누군가에게 용서를 받기 위한 시간을 살고 있을 수도 있고, 누군가를 용서하지 못하고 있을 수도 있습니다. 모두에게 용서할 '의무'는 없습니다. 다만, 연극 &amp;lt;용서 받은 시간&amp;gt;을 통해&amp;nbsp;&lt;u&gt;한 가족이&amp;nbsp;온전히 용서 받고, 용서 하는 시간을 느껴보시길 바랍니다.&lt;/u&gt;&lt;/h3&gt;
+&lt;h2&gt;&lt;br /&gt;[연출 소개]&lt;/h2&gt;
+&lt;h2&gt;&amp;bull; 박정우&lt;/h2&gt;
+&lt;p&gt;아트레볼루션 대표.&lt;br /&gt;연극 &amp;lt;천벌&amp;gt; &amp;lt;용서받은 시간&amp;gt; 제작, 극작, 연출.&lt;br /&gt;뮤지컬 &amp;lt;구름위를 걷는자&amp;gt; &amp;lt;나에게만 들리는 목소리&amp;gt; &amp;lt;복순이 할배&amp;gt; 제작, 극작, 작사, 작곡, 연출.&lt;/p&gt;
+&lt;h2&gt;[연출의 말]&lt;/h2&gt;
+&lt;p&gt;우리는 때때로 누군가에게 너무 쉽게 실망하고 쉽게 화를 낼 때가 있습니다. 그 상대가 더 없이 소중하고 가까운 사람일 때도 말이죠. 그가 나에게 실망을 주고 싶은 마음이 아니었다는 걸 충분히 알면서도 우리는 가혹하게 마음을 닫고 외면하곤 합니다.&lt;br /&gt;&amp;lt;용서받은 시간&amp;gt;은 젊은 시절 친구의 빚보증을 잘못 서며 삶이 나락으로 떨어진 한 가장의 이야기로 시작합니다. 세상에 받은 상처를 술로 달래며 가족에게 풀었던 그는 가족들에게 돌이킬 수 없는 상처를 남기고 나서야 정신을 차리게 됩니다. 무거운 삶의 무게에 짓눌려 굳게 닫힌 입은 자식들에게 미안하단 말 한마디도 전하지 못하고, 세월은 속절없이 후회와 함께 흘러갑니다.&lt;br /&gt;극은 치열하고 고독한 아버지와 상처받고 외롭게 홀로 커가는 아들의 이야기입니다.&lt;br /&gt;남자, 아버지. 유명한 노래의 가사처럼 서로 사랑하고 미워도 하던 그 시절을 지나고 나서야 왜 아버지는 그렇게 말이 없으셨는지, 그런 그를 나는 왜 그리 원망했는지 생각 해 봅니다. 연극 &amp;lt;용서받은 시간&amp;gt;을 통해 많은 분들이 용서하지 못한 것들을 용서하는 시간이 되시길 바래봅니다.&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;[등장인물 별 캐스팅]&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034800.png" alt="" width="700" height="786" /&gt;&lt;/p&gt;
+&lt;h2&gt;[극단 아트레볼루션 소개]&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034821.jpg" alt="" width="700" height="525" /&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&amp;bull; &amp;ldquo;&lt;u&gt;Perform For A Full House&lt;/u&gt;&amp;rdquo; &amp;lsquo;가득 찬 객석&amp;rsquo;에 최고의 가치를 두는 아트레볼루션.&lt;/h3&gt;
+&lt;p&gt;저희는 극을 만들 때, &amp;lsquo;잊고 사는 소중한 가치&amp;rsquo;들에 대해 이야기하면서도 관객들이 &amp;lsquo;충분히 공감하고 재미있게&amp;rsquo; 볼 수 있도록 만드는 것에 중점을 두고 있습니다. 현대의 세상은 가끔 우리들이 감당하기 힘들 정도로 빠르게 변해가며 흘러갑니다. 잠깐 멈춰서 돌아보고 둘러보고 기억할 수 있는 순간들을 공연을 통해 관객들에게 선사하고 싶습니다. 아트레볼루션의 대표작 &amp;lt;복순이할배&amp;gt;는 남녀노소 전 연령층이 공감할 수 있는 사랑이야기로, 시즌 10회가 넘게 많은 사랑을 받아 오고 있습니다. 이후 &amp;lt;나에게만 들리는 목소리&amp;gt;외 &amp;lt;구름 위를 걷는자&amp;gt;, &amp;lt;뮤지컬 갈라쇼 클라이막스&amp;gt;, 연극 &amp;lt;용서 받은 시간&amp;gt; 등 2012년 창단 이후 관객만을 바라보며 창작극을 끊임없이 만들어 오고 있습니다. 앞으로도 관객들과 공감대를 형성하는 좋은 작품을 만들어 나가는 것이 목표입니다.&lt;/p&gt;
+&lt;h3&gt;&amp;bull;&amp;nbsp;&lt;u&gt;부산&lt;/u&gt;&amp;nbsp;특유의 무뚝뚝하지만 따뜻한 정서와 너그러운 이해관을 무대에 녹이는 아트레볼루션.&lt;/h3&gt;
+&lt;p&gt;저희 아트레볼루션은 16명의 단원들로 이루어 져 있고, 단원들 모두가 부산 사람입니다. 연극 &amp;lt;용서 받은 시간&amp;gt; 을 포함한 저희의 작품들 대부분은 부산만의 개성과 지역 색을 담고 있습니다. 지역에서 활동을 지속한다는 것이 쉬운 일은 아니지만 저희는 이 동네가 좋고, 이 도시를 떠나고 싶지 않습니다. 저희가 부산에서 지역의 고유한 멋을 담은 작품을 계속 만들어나갈 수 있게 아낌없는 응원을 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;공식 페이스북&amp;nbsp;&lt;a href="https://www.facebook.com/ArtRevolutionTheater/" target="_blank" rel="noopener noreferrer"&gt;https://www.facebook.com/ArtRevolutionTheater/&lt;/a&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;[펀딩 목적]&lt;/h2&gt;
+&lt;p&gt;아트레볼루션은 2012년 창단 이후 감사하게도 많은 분들이 꾸준히 찾아주신 덕에 별도의 지원금 없이 공연 수익만으로 운영해 온 단체입니다. 하지만, 창작극을 보러 공연장을 찾는 관객들이 점점 줄어들게 되면서 특히 &amp;lt;용서 받은 시간&amp;gt;과 같은 신작 연극의 경우 제작비를 티켓수익만으로 충당하는 것이 거의 불가능한 상황입니다. 단원들의 노고로 탄생 된 소중한 창작극을 브랜딩하고 지속하는 것에 추진력을 얻기 위해 펀딩으로 일부의 제작비를 마련 해보려합니다.&amp;nbsp;&lt;u&gt;후원금은 &amp;lsquo;리워드 제작&amp;rsquo;과 &amp;lsquo;대관료&amp;rsquo;에 100% 사용됩니다. (대관료 60%, 리워드 제작 40%)&lt;/u&gt;&lt;/p&gt;
+&lt;h2&gt;[리워드 소개]&lt;/h2&gt;
+&lt;h3&gt;&amp;lt;&lt;u&gt;소설가가 된 인수로부터 도착한 소포&lt;/u&gt;&amp;gt;&lt;/h3&gt;
+&lt;h3&gt;인수는 극중에서 소설가 지망생이지만, 저희는 인수가 소설가의 꿈을 이루었다고 상상해보았습니다. 소설가의 꿈을 이룬 인수가 정성스레 준비한 소포를 받아보세요.&lt;/h3&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034912.jpg" alt="" width="700" height="440" /&gt;&lt;/p&gt;
+&lt;h2&gt;[공연정보]&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;1)날짜&lt;/strong&gt;: 2018.04.06.(금)~2018.04.15.(일) (9일간, 월요일-4월9일은 공연 없음)&lt;br /&gt;&lt;strong&gt;2)시간&lt;/strong&gt;: 평일 8시 / 토요일 4시, 7시 / 일요일 4시&lt;br /&gt;&lt;strong&gt;3)장소&lt;/strong&gt;: 청춘 나비 아트홀 (부산광역시 광안1동 1078-16 동원 빌딩 지하)&lt;/p&gt;
+&lt;p&gt;&amp;bull; 공연은 약 90분간 진행됩니다.&lt;br /&gt;&amp;bull; 공연 20분 전부터 입장 가능하며, 공연 시작 후에는 입장이 불가합니다.&lt;br /&gt;&amp;bull; 포토존은 1시간 전부터 이용 가능합니다. (입장 시작 후에는 이용을 제한합니다.)&lt;br /&gt;&lt;u&gt;&amp;bull; 예약하신 공연 당일, 후원자님의 성함과 휴대폰번호 확인을 통해 직접 수령으로 티켓과 리워드를 전달합니다.&lt;/u&gt;&lt;br /&gt;&lt;u&gt;&amp;bull; 24,000원 미만 후원자 분들의 경우 주소를 통해 우편으로 보낼 예정입니다.&amp;nbsp;&lt;/u&gt;(프로젝트 마감일인 3월30일 다음 날부터, 결제 성공된 분들부터 순차 배송합니다. 배송비는 저희가 부담합니다.)&lt;u&gt;&lt;br /&gt;&amp;bull; 24,000원 이상 후원자 분들 중 개인적인 사정으로 공연을 보러 오시지 못할 경우, 리워드를 택배로 발송해드립니다. (택배비는 후원자 부담입니다)&lt;/u&gt;&lt;u&gt;&lt;br /&gt;&lt;/u&gt;&amp;bull; 좌석은 80석 규모로, 공연 당일 현장 도착 선착순으로 배치 됩니다.&lt;br /&gt;&amp;bull; 본 공연의 관람 가능 연령은 12세 이상 입니다.&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;[후원 후, 꼭 서베이에 응해주세요!!!]&lt;/h2&gt;
+&lt;p&gt;&amp;bull; 후원을 해주신 이후 공연 날짜와 시간을 꼭 선택해주세요.&lt;br /&gt;&amp;bull; 프로필 사진 클릭 후 [나의 후원 현황]에서 [서베이] 목록에서 공연 관람 날짜와 시간을 꼭 응답해주시기 바랍니다.&lt;br /&gt;&amp;bull; 원하시는 일정에 맞춘 관람을 위해, 서둘러 응답(예약)해주세요. 예약 회차 매진 시, 따로 안내해드리겠습니다.&lt;/p&gt;
+&lt;h2&gt;[해운대 문화회관에서 3일간 공연했던 &amp;lt;용서 받은 시간&amp;gt;의 관객 후기]&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326034952.png" alt="" width="700" height="1376" /&gt;&lt;/p&gt;
+&lt;h2&gt;[문의 및 업데이트]&lt;/h2&gt;
+&lt;p&gt;아트레볼루션 페이스북 페이지와 인스타그램을 팔로우해주세요!&lt;br /&gt;공지사항은 텀블벅 사이트 및 아래 SNS에 업데이트될 예정입니다.&lt;br /&gt;기타 문의사항은 아래 사이트로 문의주시면 감사하겠습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;bull; 페이스북 페이지 :&amp;nbsp;&lt;a href="http://www.facebook.com/ArtRevolutionTheater" target="_blank" rel="noopener noreferrer"&gt;www.facebook.com/ArtRevolutionTheater&lt;/a&gt;&lt;br /&gt;&amp;bull; 인스타그램 : @artrevolution__&lt;br /&gt;&amp;bull; 이메일 :&amp;nbsp;&lt;a href="mailto:artrev@naver.com" target="_blank" rel="noopener noreferrer"&gt;artrev@naver.com&lt;/a&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220465990497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326154848.png" alt="" width="700" height="700" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;안녕하세요. 달보드레 공방 감독 박성진입니다.&lt;br /&gt;"우리들의 이야기"를 만들어가고 싶은 사람들이 모여 만든 웹드라마 창작집단 달보드레 공방이 이번 봄, 새로운 작품을 들고 여러분의 곁을 찾아가려고 합니다.&lt;br /&gt;저희와 함께 우리의 이야기를 만들어갔으면 좋겠습니다.&lt;/blockquote&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;기획의도&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;우리는 모두 &amp;lsquo;이야기꾼&amp;rsquo;이 될 수 있습니다. 이야기를 들어줄 사람이 있다면 누구든지.&lt;/blockquote&gt;
+&lt;p&gt;가족, 연인, 친구 등 내 말을 들어줄 사람들은 많습니다. 그들은 나와 함께 오랜 시간을 보냈고, 나에 대해 누구보다 잘 알며, 앞으로도 많은 것을 나와 함께 할 것입니다. 하지만 그렇기 때문에 할 수 없는 이야기가 있습니다. 그들만은 몰라야 할 이야기. 말할 수 없는 비밀. 그러나 말 하고 싶은 이야기. 차라리 네가 날 몰랐으면 더 좋았을 텐데, 라고 생각한 적 있다면 이 &amp;lsquo;컵&amp;rsquo;을 보세요. 컵 가득 그리움을 채우고 마셔보세요. 컵이 비워지면, 당신이 그리워한 이가 눈앞에 나타납니다. 단, 그 사람은 당신을 알지 못합니다. 그 때 비로소 시작되는 누군가의 낯선 이야기. 늘 준비되어 있는 단 하나의 컵. 그 안에 담길 이야기는 무엇일까요?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;시놉시스&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;&amp;ldquo;나는 절대로 너를 다 알지 못한다.&amp;rdquo;&lt;/blockquote&gt;
+&lt;p&gt;어스름한 새벽, 낮게 울리는 부엌, 그 가운데에 빈 유리컵을 들고 서 있으면 고독과 함께 그리운 누군가가 떠오른다. 보고 싶은 그 사람이 즐겨 마시던, 혹은 함께 자주 마시던 무엇으로 컵을 가득 채운 후 마신다. 잔이 완전히 비워지면 보고 싶던 그 사람이 눈앞에 나타난다. 그녀가 기억하고 있는 그 모습, 성격, 말투까지 똑같다. 한 가지 다른 점이 있다면, 그 사람은 그녀를 전혀 모른다는 것이다. 그들에게 그녀는 그저 자신의 이야기를 털어놓기 좋은 낯선 이일뿐이다.&amp;nbsp;&lt;br /&gt;그녀는 그들의 이야기를 듣기 위해 기꺼이 낯선 이가 된다. 그리고 지금도 어디에서 헤매고 있을지 모르는 그들에게 넌지시 질문을 한다. 질문에 돌아오는 대답은 늘 새롭다. 여태껏 자기가 알고 있던 사람이 맞는지 의구심이 들 정도로, 그들은 서로를 잘 알지 못했다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;EP.1 유자차 한 잔.&lt;/h4&gt;
+&lt;p&gt;서투른 아버지와 꿈 많던 딸. 부녀간의 갈등이 불러온 현실의 모습이 담긴 이야기 &amp;ldquo;입에 쓴 건 몸에 좋으니까.&amp;rdquo;&lt;/p&gt;
+&lt;h4&gt;EP.2 커피 한 잔&lt;/h4&gt;
+&lt;p&gt;어느 동화 속 왕자님과, 현실에 치이는 대학생의 이야기. &amp;ldquo;동화 속 왕자님이 꿈꾸던 해피엔딩을 나는 믿지 않았으니까.&amp;rdquo;&lt;/p&gt;
+&lt;h4&gt;EP.3 맥주 한 잔&lt;/h4&gt;
+&lt;p&gt;꿈과 현실. 그 속에서 방황하는 청춘들이 꿈꾸는 미래를 그리는 이야기. &amp;ldquo;이제 얼마든지 떨어져도 되는 시기는 지났으니까.&amp;rdquo;&lt;/p&gt;
+&lt;h4&gt;EP.4 물 한 잔&lt;/h4&gt;
+&lt;p&gt;누나의 그늘 밑에서 자란 남동생. 태양 아래로 나오기 위한 노력을 그리는 이야기. &amp;ldquo;누나는 우리 집의 희망이었다.&amp;rdquo;&lt;/p&gt;
+&lt;h4&gt;EP.5 초코우유 한 잔&lt;/h4&gt;
+&lt;p&gt;누군가에게 하고 싶었던 이야기. 그러나 나 밖에 들을 수 없던 혼잣말. &amp;ldquo;생일 축하해&amp;rdquo;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;제작진&lt;/h2&gt;
+&lt;h2&gt;"우리들의 이야기"를 만들어가는 웹드라마 창작 집단 [달보드레 공방]&lt;/h2&gt;
+&lt;p&gt;감독 : 박성진&lt;br /&gt;조감독 : 박은영&lt;br /&gt;시나리오 : 김시온&lt;br /&gt;제작프로듀서 : 송효림&lt;br /&gt;스크립터 : 최휘은, 이희수&lt;br /&gt;촬영팀 :&amp;nbsp;&amp;nbsp;임형준(촬영감독),&amp;nbsp;전용훈&lt;br /&gt;동시녹음팀 :&amp;nbsp;이송은(음향감독), 이효길(붐오퍼레이터)&lt;br /&gt;조명감독 : 신혁&lt;br /&gt;의상팀 : 오예슬&lt;br /&gt;소품팀 : 최수민&lt;br /&gt;분장팀 : 서채영&lt;br /&gt;CG : 한다솔&lt;br /&gt;캐스팅디렉터 : 강정희&lt;/p&gt;
+&lt;h4&gt;연혁 -&lt;/h4&gt;
+&lt;p&gt;2017. 09 : 웹드라마 &amp;ldquo;안녕, 여름&amp;rdquo;(&lt;a href="https://www.youtube.com/playlist?list=PLWa8O6lztKbtLgevMku50dW5s1tfW6RV7" target="_blank" rel="noopener noreferrer"&gt;https://www.youtube.com/playlist?list=PLWa8O6lztKbtLgevMku50dW5s1tfW6RV7&lt;/a&gt;)&lt;br /&gt;2017. 11 ~ 2017.12 : 웹드라마 &amp;ldquo;달보드레 단편 시리즈&amp;rdquo;(&lt;a href="https://www.youtube.com/playlist?list=PLWa8O6lztKbux2e2sS4f_2gjs4Tr8Cu_m" target="_blank" rel="noopener noreferrer"&gt;https://www.youtube.com/playlist?list=PLWa8O6lztKbux2e2sS4f_2gjs4Tr8Cu_m&lt;/a&gt;)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;OST 제작 -&amp;nbsp;&lt;/h4&gt;
+&lt;p&gt;HOUNDTOOTH(&lt;a href="https://www.facebook.com/houndtooth2471/" target="_blank" rel="noopener noreferrer"&gt;https://www.facebook.com/houndtooth2471/&lt;/a&gt;)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;배우&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326154933.jpg" alt="" width="700" height="1049" /&gt;&lt;/p&gt;
+&lt;h2&gt;김해양 / 서현役&lt;/h2&gt;
+&lt;p&gt;엔젤리너스 멤버쉽 카드 CF&lt;br /&gt;대한민국 경찰청 화보&lt;br /&gt;팀버랜드 의류 화보&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155011.jpeg" alt="" width="700" height="1050" /&gt;&lt;/p&gt;
+&lt;h2&gt;정기성 / 도현役&lt;/h2&gt;
+&lt;p&gt;상업영화 &amp;lt;피 끓는 청춘&amp;gt; 중길반 역&lt;br /&gt;단편영화 &amp;lt;밤 막걸리&amp;gt; 현서 역&lt;br /&gt;단편영화 &amp;lt;born this way&amp;gt; 민준 역&lt;br /&gt;단편영화 &amp;lt;짝지의 확률&amp;gt; 정훈 역&lt;br /&gt;단편영화 &amp;lt;오직 하나뿐인 사랑&amp;gt; 장남 역&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155030.jpg" alt="" width="700" height="874" /&gt;&lt;/p&gt;
+&lt;h2&gt;이영아 / 수정役&lt;/h2&gt;
+&lt;p&gt;단편영화 &amp;lt;신데렐라&amp;gt; 그녀역&lt;br /&gt;단편영화 &amp;lt;달팽이&amp;gt; 여주인공 민자영역&lt;br /&gt;단편영화 &amp;lt;노이로제&amp;gt; 오지민역&lt;br /&gt;단편영화 &amp;lt;너희&amp;gt; 수빈역&lt;br /&gt;단편영화 &amp;lt;담&amp;gt; 조수역&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155052.jpg" alt="" width="700" height="509" /&gt;&lt;/p&gt;
+&lt;h2&gt;박민성 / 태호役&lt;/h2&gt;
+&lt;p&gt;광대도깨비 18기 연극단 부단장&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155113.jpg" alt="" width="700" height="1050" /&gt;&lt;/p&gt;
+&lt;h2&gt;송가현 / 어린 서현役&lt;/h2&gt;
+&lt;p&gt;연극 &amp;lt;못&amp;gt; 은희역&lt;br /&gt;단편영화 &amp;lt;선행&amp;gt; 여학생역&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;제작 일정&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;프리프로덕션&lt;/strong&gt;&lt;br /&gt;2017. 10. 4 ~ 2017. 01. 28&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;프로덕션&lt;/strong&gt;&lt;br /&gt;2018. 01. 29 ~ 2018. 02. 20 : 촬영(총 15회차)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;포스트프로덕션(진행중)&lt;/strong&gt;&lt;br /&gt;2018. 02. 21 ~ : 후반작업 및 리워드 제작&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;방영&lt;/strong&gt;&lt;br /&gt;2018. 04(예정)&lt;/p&gt;
+&lt;h2&gt;리워드&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155154.jpg" alt="" width="700" height="996" /&gt;&lt;/p&gt;
+&lt;h2&gt;제작지원&lt;/h2&gt;
+&lt;p&gt;신한대학교(장소대여)&lt;br /&gt;미스터꼬치(장소대여)&lt;br /&gt;안송안송(장소대여)&lt;br /&gt;원도봉산 칼국수(장소대여)&lt;br /&gt;의정부영상미디어센터(장소대여)&lt;br /&gt;에어비앤비(장소대여)&lt;br /&gt;한아름아파트(장소대여)&lt;br /&gt;장난감할인마트 의정부장암점(장소대여)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;문의&lt;/h2&gt;
+&lt;p&gt;문의는 창작자에게 문의하기로 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;달보드레 공방 페이스북 :&amp;nbsp;&lt;a href="https://www.facebook.com/dalbodeure2017/" target="_blank" rel="noopener noreferrer"&gt;https://www.facebook.com/dalbodeure2017/&lt;/a&gt;&lt;br /&gt;달보드레 공방 유튜브 :&amp;nbsp;&lt;a href="https://www.youtube.com/channel/UC3n7RnQjyABQCXUjrPwflBw" target="_blank" rel="noopener noreferrer"&gt;https://www.youtube.com/channel/UC3n7RnQjyABQCXUjrPwflBw&lt;/a&gt;&lt;br /&gt;달보드레 공방 인스타그램 :&amp;nbsp;&lt;a href="https://www.instagram.com/dal_bodeure_/" target="_blank" rel="noopener noreferrer"&gt;https://www.instagram.com/dal_bodeure_/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220472298458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;핵쓰레기 너머, 나비 날다 &amp;ndash; 2018 탈핵 퍼레이드&lt;/h2&gt;
+&lt;h4&gt;후쿠시마 사고 7주기를 맞아 광화문 광장에서 탈핵 퍼레이드가 열립니다. 3월 10일 토요일, 함께 해요.&lt;/h4&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155650.jpg" alt="" width="700" height="991" /&gt;&lt;/p&gt;
+&lt;h3&gt;창작자 소개&lt;/h3&gt;
+&lt;p&gt;2018 탈핵 퍼레이드 준비팀은 탈핵을 염원하는 시민들이 자발적으로 모여 만들어진 그룹입니다. 탈핵 퍼레이드 준비팀에서는 탈핵 문화학교를 열어 퍼레이드에 필요한 소품들을 시민들과 함께 제작하기도 했습니다. 다양한 연령대, 다양한 성별을 가지고 있고, 다양한 분야에서 활동하는 사람들로 구성되어 있습니다.&amp;nbsp;&lt;br /&gt;311 탈핵퍼레이드 페이스북 페이지&amp;nbsp;&lt;a href="https://www.facebook.com/311fukushimaparade/"&gt;https://www.facebook.com/311fukushimaparade/&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155722.jpg" alt="" width="700" height="525" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;2017년에 열린 탈핵 퍼레이드 사진&lt;/em&gt;&lt;/p&gt;
+&lt;h3&gt;311, 후쿠시마&lt;/h3&gt;
+&lt;p&gt;일본 북동쪽에 위치한 후쿠시마는 배와 복숭아가 유명한 작은 도시였습니다. 논과 과수원, 온천이 있었지요. 사람들은 공장에서 일하거나 과수원을 가꾸며 살아갔습니다. 복사꽃이 고개를 들고 일어나던 어느 봄날, 이 평화로운 도시에서 끔찍한 핵발전소 폭발 사고가 일어나게 됩니다. 지진으로 인해 발생된 쓰나미로 노후한 핵발전소가 냉각 기능을 할 수 없게 된 탓이었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155740.jpg" alt="" width="700" height="394" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;본 이미지는 후쿠시마 사고와 관련이 없습니다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;뜨거운 핵발전소를 식히기 위해 사용된 냉각수는 바다로, 폭발과 함께 밖으로 나온 방사능 물질은 바람을 타고 퍼져 나가게 되었습니다. 재난 상황에서 정부는 대피를 지시했지만 대피할 수 없었던 어린 아이들과 노인, 장애인들은 특히 더 큰 피해를 입었습니다. 재난의 공포는 누구에게나 공통적이지만 피난의 시스템은 그렇지 못 합니다. 불평등한 사회구조는 재난 상황 속에서 더욱 더 적나라하게 드러납니다.&lt;/p&gt;
+&lt;blockquote&gt;&lt;em&gt;그렇다면 여기, 한국은 과연 안전할까요?&lt;/em&gt;&lt;/blockquote&gt;
+&lt;h3&gt;912, 한국&lt;/h3&gt;
+&lt;p&gt;2016년 12월에 개봉한 영화 &amp;lt;판도라&amp;gt;를 아시나요? 판도라는 국내 원전 사고를 소재로 한 재난 영화입니다. 당시 9월 경주 지진 직후에 개봉되어 많은 사람들이 진지하게 원전 사고에 대해 생각해 볼 수 있는 계기가 되었지요.&lt;br /&gt;2016년 9월 12일, 경주 지진을 기억하실 겁니다. 한국은 지진으로부터 안전하다는 신화가 무색하게 5.8도라는 이례적인 규모로 일어났습니다. 많은 사람들이 집을 잃었고 또 공포에 떨어야 했습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155759.jpg" alt="" width="700" height="466" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;갈라진 땅(본 사진은 경주 지진과는 관련이 없습니다/freeqration)&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;이 지진의 진앙지였던 경주에는 한국에서 두 번째로 오래된 핵발전소인 월성 핵발전소와 중, 저준위 방폐장이 있습니다. 하지만 정부는 지진에도 아랑곳 않고 월성 핵발전소의 수명연장을 강행하고 있죠. 신월성 핵발전소 1, 2호기도 추가로 건설되었습니다.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;고준위핵폐기물관리 기본 계획 백지화를 외치고 있는 시민들/탈핵신문&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;경주 지진 이후에 여진은 계속해서 일어나고 있습니다. 한국은 더 이상 지진 안전 지대가 아닙니다. 판도라의 상자를 열지, 말지는 우리의 선택에 달려 있습니다.&lt;/p&gt;
+&lt;h3&gt;어디에나 있다 &amp;ndash; 핵쓰레기&lt;/h3&gt;
+&lt;p&gt;핵발전소는 방사선을 내뿜는 우라늄을 연료로 전기를 만듭니다. 이 우라늄 연료의 수명이 다 하면 다른 연료로 교체해야 하는데, 현재 한국은 수명을 다 한 연료봉을 보관할 곳을 아직 마련하지 못했습니다. 지금은 임시로 발전소 안에 있는 간이 수조에 보관하고 있지만 향후 몇 년 안에 한국에 있는 핵발전소의 임시 저장소 대부분이 포화되게 됩니다.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;월성핵발전소 내 사용 후 핵연료 임시 저장공간/한국수력원자력&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;핀란드에서는 탈핵을 결정한 이후 영구적으로 사용 후 핵연료를 보관할 수 있도록 다양한 방법을 고민했고, 사용 후 핵연료를 저장할 수 있는 공간을 땅 속 깊은 곳에다가 만들기로 결정했습니다. 하지만 지대가 변할 수 있다는 가능성, 아주 먼 미래의 인류가 이 공간을 열어볼 수도 있다는 가능성은 아무도 담보해주지 못하지요. 결국 핵발전은 미래세대에게 유예시키는 방식으로만 작동합니다.&lt;/p&gt;
+&lt;p&gt;'사용 후 핵연료를 제외한 중, 저준위 핵폐기물은 우리 주변에서 쉽게 볼 수 있는 것들입니다. 필통, 옷가지, 안경 따위가 위험천만한 핵쓰레기로 변하는 것이지요. 우리 주변에 있는 익숙한 물건들이 만져서도 보아서도 안되는 위험한 물건이 된다는 것, 핵의 위험이 바로 그것입니다.&lt;/p&gt;
+&lt;h3&gt;310, 서울&lt;/h3&gt;
+&lt;p&gt;핵과 재난의 시대에 맞서기로 한 이들이 있습니다. 후쿠시마 사고 이후 매년 서울광장, 신촌, 마로니에공원 등에 모여 탈핵을 외치는 사람들이 있습니다. 올해도 후쿠시마 사고 7주기를 맞아 광화문 광장에서 핵쓰레기를 주제로 탈핵 퍼레이드를 진행합니다. 누군가는 우리가 만들어낸 수많은 핵폐기물들을 짊어지고, 또 누군가는 희망의 나비가 되어 광화문 거리를 함께 채워보려고 합니다. 핵 쓰레기 너머로 나비가 다시 날아들 수 있을까요?&lt;/p&gt;
+&lt;p&gt;이번 문화제를 운영하는 데 드는 비용을 마련하고자 합니다. 많은 분들이 조금씩만 품을 내어 뜻을 함께 해주신다면 더욱 더 즐겁고 의미 있는 행사가 될 것 같아요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;리워드 안내&lt;/h3&gt;
+&lt;h4&gt;&amp;nbsp;&lt;/h4&gt;
+&lt;h4&gt;1. NO-NUKE 뱃지&lt;/h4&gt;
+&lt;p&gt;우리 마음에 지고 가야 할 핵폐기물. 탈핵의 염원을 담아 뱃지를 달아봐요. 2.5mmx1.8mm로 부담스럽지 않은 사이즈입니다. 재질은 니켈, 흑도금을 했습니다. 5개 이하 개별구매하시는 경우, 등기 우편으로 발송되며, 5개 이상 구매를 원하시면 문의 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326155937.jpg" alt="" width="700" height="525" /&gt;&lt;/p&gt;
+&lt;h4&gt;2. 마스킹테이프&lt;/h4&gt;
+&lt;p&gt;작년 탈핵퍼레이드의 풍경을 개성있는 일러스트로 그렸습니다. 소중한 이에게 주는 선물, 스티커 등으로 마스킹테이프를 활용해 보세요. 폭 25mm, 총 길이는 10m로 넉넉한 사이즈입니다. 사진에 보이는 빨간 점선은 인쇄시 삭제됩니다.&lt;/p&gt;
+&lt;h4&gt;3. 에코백&lt;/h4&gt;
+&lt;p&gt;&lt;em&gt;새로운 디자인의 에코백이 추가 입고되었습니다. 결제 이전 서베이를 통해 에코백 디자인을 선택할 수 있도록 할 예정입니다. 많은 관심 부탁드립니다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;1) 'Nukes are everywhere' 에코백&lt;br /&gt;단단한 캔버스 소재의 에코백입니다. &amp;lsquo;Nukes are everywhere&amp;rsquo;. 핵문제는 특정한 도시만의 문제, 특정한 사람들만의 문제가 아닙니다. 전류가 전깃줄을 타고 흐르듯, 핵문제도 우리 삶 곳곳에 파고 들어가 있습니다. 핵으로 인해 피해를 입은 이들을 타자화하지 말자는 바람을 가져봅니다.&amp;nbsp;&lt;br /&gt;패브릭 소재, 가로 35cm, 세로 45cm로 노트북도 수납 가능한 베이직한 사이즈입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180326160003.jpg" alt="" width="700" height="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;4. 코스터 (컵받침)&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;작년 퍼레이드 풍경을 일러스트로 그리고 컵받침으로 제작했습니다. 100% 순면 소재로 따뜻한 느낌을 줍니다. 두 겹 제작으로 도톰하고 튼튼한 소재입니다. 컵받침 뿐 아니라 인테리어, 데코레이팅에도 활용 가능합니다.&lt;/p&gt;
+&lt;h3&gt;배송 안내&lt;/h3&gt;
+&lt;p&gt;발송은 마감일로부터 10일~15일 이내에 시작됩니다. 마감일 이후, 단순 변심에 의한 교환과 환불은 불가합니다. 파손, 불량품 배송시 배송일로부터 30일 이내에 무료 교환을 약속합니다. 교환시 발생되는 배송비는 창작자가 부담합니다. 배송 예정일로부터 7일 이상 발송이 지연되면 수수료 제외 후 환불 가능 합니다. 후원자의 배송지 기재 오류, 후원자가 진행자에게 사전 고지 없이 배송지를 수정해 배송사고가 발생할 경우 진행자는 1번까지 재발송 해드립니다. 배송비 부담은 후원자에게 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220142780433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;피로와 피부의 핵심 영양소 비타민! 제대로 드시고 계신가요? 합성비타민 때문에 과잉비타민 섭취가 당연시 되는 요즘, 앞으론 천연비타민으로 피로와 피부는 물론 건강까지 챙기세요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;&lt;strong&gt;우리는 과연 비타민을 잘 섭취하고 있을까요?&lt;/strong&gt;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;과일,야채의 섭취를 통해 하루 권장량의 비타민을 섭취하기는 점점 어려워지고,&lt;br /&gt;외식문화의 발달로 점차 비타민의 공급을 건강보조식품에 기대고 있지 않으신가요?&lt;/p&gt;
+&lt;p&gt;저도 그랬습니다. 1일 1회 1정으로 하루 권장섭취량의 비타민C는 물론 수많은 비타민이 충족되다보니 출근 전 한 알 먹으면 그날 하루는 내 몸에게 덜 미안했죠.&lt;/p&gt;
+&lt;h3&gt;여기서 우리는 놓치는게 하나 있습니다.&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;성공한 다이어터 10명중 9명은 항상 하는 말이 있습니다.&lt;br /&gt;"&lt;u&gt;조금씩 자주 먹었어요&lt;/u&gt;.", "하루 3끼를 간식포함해서 6끼로 나눠 먹었어요."&lt;/p&gt;
+&lt;p&gt;인체 구성의 3대 영양소는 탄수화물, 단백질, 지방이 있습니다.&lt;br /&gt;성인남성 1일 권장섭취열량이 2500Kcal, 성인여성 1일 권장섭취열량이 2000Kcal 입니다.&lt;br /&gt;건강한 사람은 권장섭취열량 내에서 시간을 분배하여 식사를 통해 칼로리를 섭취하고,&lt;br /&gt;대체로 비만한 사람들은 과식, 폭식 등의 식습관을 볼 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;비타민 또한 예외는 아닙니다.&lt;/u&gt;&lt;br /&gt;비타민을 먹은 다음 화장실을 가면 소변이 노랗게 나오는 현상은 당연한게 아닙니다.&lt;br /&gt;그 시간대에 필요한 비타민 이외에는 모두 몸 밖으로 배출이 되는 것이죠.&lt;br /&gt;이제는&amp;nbsp;&lt;u&gt;비타민도&amp;nbsp;&lt;strong&gt;똑똑&lt;/strong&gt;하게&amp;nbsp;&lt;strong&gt;챙겨&lt;/strong&gt;먹어야 합니다&lt;/u&gt;.&amp;nbsp;&lt;u&gt;필요량을&amp;nbsp;&lt;strong&gt;조금씩 자주&amp;nbsp;&lt;/strong&gt;말이죠&lt;/u&gt;&lt;u&gt;.&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;어떻게 비타민 섭취를 해야 할까?&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;단순하지만 중요한 호기심 이였습니다.&lt;br /&gt;물론, 가장 좋은 방법은 야채나 과일의 꾸준한 섭취로 얻는것인데 결코 쉽지 않더라구요.&lt;br /&gt;&lt;strong&gt;어떤것이 합성비타민보다 좋은 대체품일까?&amp;nbsp;&lt;/strong&gt;끝없이 많은 책과 논문을 보다 찾게된게&lt;br /&gt;바로,&amp;nbsp;&lt;strong&gt;&lt;u&gt;"비타민열매분말"&lt;/u&gt;&lt;/strong&gt;&amp;nbsp; 이였습니다.&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;여기서 두번째 고민이 시작됩니다.&lt;br /&gt;&lt;strong&gt;티베트의 환경&lt;/strong&gt;에서 자란 비타민분말이 효과가 가장 좋다고하여 시장조사를 했습니다.&lt;br /&gt;100개의 제품중 약 97% 이상의 제품은 대용량의 분말을 단순포장하여 유통되고 있고,&lt;br /&gt;3% 정도는 분말을 소량으로 스틱포장하거나 엑기스로 내어 판매하더라구요.&lt;br /&gt;비타민의 신맛은 건강을 생각해서 참고 먹는다 해도 한두번 이였습니다.&lt;br /&gt;또한, 분말의 특성상 습기에 약하여 분말을 일반통에 보관하였더니 딱딱히 굳었습니다.&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;언제, 어디서든, 편하게, 조금씩, 자주, 섭취 할 수 있는 방법&lt;/strong&gt;은 없을까?&lt;br /&gt;식품은 찾았고, 그에 맞는 제형을 고민하던 끝에 찾아낸게&lt;strong&gt;&lt;u&gt;&amp;nbsp;"캡슐"&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;이였습니다. &amp;nbsp;&amp;nbsp;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib fr-bordered" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201133705286_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;&amp;nbsp;시중 유통되는 비타민분말 &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 상온의 습기로 인해 변한 비타민분말&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;Vitamin tree 누구냐 넌?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;과거&amp;nbsp;&lt;strong&gt;징기즈칸과 몽골귀족들의&amp;nbsp;&lt;u&gt;자양강장제&lt;/u&gt;&lt;/strong&gt;로 사용 되었습니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;비타민 A, C, E 등 무려&amp;nbsp;&lt;u&gt;16종류의 비타민이 함유&lt;/u&gt;&lt;/strong&gt;되어 있습니다.&lt;/li&gt;
+&lt;li&gt;그 외에도&amp;nbsp;&lt;strong&gt;&lt;u&gt;필수 아미노산과 오메가3&lt;/u&gt;등 무려&amp;nbsp;&lt;u&gt;190여 가지의 영양소&lt;/u&gt;&lt;/strong&gt;가 들어있습니다.&lt;/li&gt;
+&lt;li&gt;이중&amp;nbsp;&lt;strong&gt;비타민C(레몬의 15배), 비타민E와 사포닌 성분이 풍부&lt;/strong&gt;하게 들어있는데,&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민C&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 수용성 비타민으로 혈액을 통해 온 몸을 다니면서&amp;nbsp;&lt;strong&gt;활성 산소를 제거&lt;/strong&gt;하는 역할&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민E&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 지용성 비타민으로&amp;nbsp;&lt;strong&gt;염증으로 손상된 폐 조직을 보호&lt;/strong&gt;하는데 도움&lt;br /&gt;&lt;strong&gt;&lt;u&gt;사 포 닌&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 폐와 기관지가 마르지 않게 해줘&amp;nbsp;&lt;strong&gt;호흡기와 폐 건강&lt;/strong&gt;에 도움 및&amp;nbsp;&lt;strong&gt;운동 능력 개선&lt;/strong&gt;&amp;nbsp;도움&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;캡슐을 선택한 이유?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;비타민분말은 수분을 좋아해서&amp;nbsp;&lt;strong&gt;제형변화&lt;/strong&gt;는 물론&amp;nbsp;&lt;strong&gt;&lt;u&gt;손에 끈적하게 잘 묻는다&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;분말 섭취 소비자의 대부분은&amp;nbsp;&lt;strong&gt;&lt;u&gt;적정복용량 섭취가 불가능.&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;비타민분말의&amp;nbsp;&lt;strong&gt;신맛&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;당질로 인한 치아점착&lt;/strong&gt;의&amp;nbsp;&lt;strong&gt;&lt;u&gt;단점개선의 필요성&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;100%젤라틴 투명캡슐&lt;/u&gt;&lt;/strong&gt;로&amp;nbsp;&lt;strong&gt;인체에 부담없고&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;내용물 확인을 통한&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;신뢰성 제고&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;휴대의 편리성, 복용량의 조절, 복용의 간편함&lt;/u&gt;&lt;/strong&gt;을 통해&lt;strong&gt;&amp;nbsp;그뤠잇한 리얼비타민 섭취!!&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142055686_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;리얼비타민 탄생하다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;비타민을 똑똑하게 섭취하고 싶었을 뿐이다.&lt;/h3&gt;
+&lt;p&gt;처음 합성비타민의 오류를 깨닫고, The건강 하게 비타민 섭취를 하기위해 공부했습니다.&lt;/p&gt;
+&lt;h3&gt;더 많은 사람들이 깨닫게 하고 싶었다.&lt;/h3&gt;
+&lt;p&gt;합성비타민의 오류를, 그리고 천연비타민 섭취의 필요성을 더 많이 공유하고 싶었습니다.&lt;/p&gt;
+&lt;h3&gt;The건강 해지기 위해 먹는것이기 때문에 더 신중하게.&lt;/h3&gt;
+&lt;p&gt;시중 비타민분말의 대부분은 색소를 첨가하여 보기 좋은 색을 내는 경우가 대부분 입니다.&lt;br /&gt;분말제품에는 덱스트린이라는 첨가물을 많이 넣습니다.&lt;br /&gt;이번에 제품화한 캡슐제형의 리얼비타민은 엄격하고, 철저한 선별을 거쳤습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;No 덱스트린, 無색소, 無방부제, 無첨가물, 無착향료&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;정직함만 담았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142151671_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;Q &amp;amp; A&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;Q : 복용법이 어떻게 되나요?&lt;br /&gt;A : 캡슐 1정에 0.5g이 담겨있습니다. 하루 권장량은 3g~12g으로 하루 최대 24캡슐 이내로 휴대하시면서 틈틈히 충분한 물과 함께 드시면 됩니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 부작용은 없나요?&lt;br /&gt;A : 농산물로 별다른 부작용은 보고 된바 없으나, 비타민 특성상 빈속에 섭취하면 속쓰림을 유발 할 수 있습니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 보관방법 및 유통기한은 어떻게 되나요?&lt;br /&gt;A : 보관은 가급적 건냉암소 한 곳에서 해주시고, 유통기한은 2020년 02월 10일 까지 입니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 영양정보가 궁금해요.&lt;br /&gt;A : 하단의 비타민나무열매 영양정보를 참고하시면 도움이 됩니다.&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227120255990_7.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142203014_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;h2&gt;프리미엄 비타민 [The:건강 리얼비타민]&lt;br /&gt;내일의 나를 위한 현명한 선택 입니다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;좋은 아이디어도 세상밖에 나올땐 알아봐 줄 사람이 필요합니다.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;와디즈 크라우드펀딩에 프로젝트를 개설한 이유는 알아봐 줄 사람을 찾기 위해서 입니다.&lt;/p&gt;
+&lt;p&gt;좋은것을 나누고 싶다는 생각으로 시작했는데, 이 진면목을 어디서 알아봐줄까 고민했습니다.&lt;/p&gt;
+&lt;p&gt;와디즈는 리얼비타민이 세상에 나와 활동하는데 큰 도움이 될 것이라는 확신이 있었습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;한걸음, 한걸음 와디즈로 비롯하여...&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;리얼비타민을 만들어야겠다고 생각했지만, 문제는 비타민 섭취에 대한 이해였습니다.&lt;/p&gt;
+&lt;p&gt;더 많은 소비자가 건강한 비타민 섭취에 대해 인지 할 수 있도록 후원금은 소비자를 주제로한 올바른 비타민 섭취 및 건강에 대한 이야기로 교육을 진행하는데 사용할 예정입니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;봄볕에 방심하지 않도록, 춘곤증에 지지 않도록.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;배송은 펀딩이 종료되고, 7일이내 로젠택배 사를 통해 일괄 배송 할 예정입니다.&lt;/p&gt;
+&lt;p&gt;꽃피는 춘삼월 봄볕에 방심하여 피부가 상하지 않도록, 날이 좋아 찾아오는 춘곤증에 무기력해지지 않도록 로켓배송을 통해 리얼비타민을 전달해 드리겠습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;청춘의 뜨거운 열기, 진실한 마음을 담아서&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227102920251_36.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;충북 영동(농업), 충북 청주(회사), 경기 의정부(직영 공판장)을 25년째 불철주야 일 하시는 부모님의 가업을 이어 1차가공으로만 유통되던 식품을 이제는 2차가공을 거쳐 제품생산을 통한 소비층확대, 다양한 제형개발을 하여 변화되는 패러다임에 한걸음 앞서 갈 수 있도록 뜨거운 열기와 진실한 마음을 지닌 청년의 꿈을 지지해주세요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220150985065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;오늘도 피곤한 하루 링티 한 잔으로 충전해보는 건 어떠세요?&lt;/p&gt;
+&lt;p class="partner-name"&gt;&lt;a href="https://www.wadiz.kr/crowd/kstartup2017"&gt;도전K스타트업2017 파트너&lt;/a&gt;와 함께합니다.&lt;/p&gt;
+&lt;p class="partner-name"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1106/20171106150846836_62.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;하루 종일 피곤한 우리,&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;오늘도 버티기만 하셨나요?&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1105/20171105102218157_53.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;피곤하고, 기운도 없고, 이럴 때&amp;nbsp;&lt;strong&gt;링거 한 방&lt;/strong&gt;이면..피곤이 싹~ 사라질 텐데!&lt;br /&gt;&lt;strong&gt;하지만,&lt;/strong&gt;&amp;nbsp;피곤한 몸을 이끌고 가기엔&amp;nbsp;&lt;strong&gt;멀고 먼 병원&lt;/strong&gt;, 부담되는 가격에 매번 참았다고요?&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1105/20171105095840906_53.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;그렇다면&amp;nbsp;&lt;strong&gt;병원에 가지 않고 빠르게, 주사의 무서움 없이&lt;/strong&gt;&amp;nbsp;맛있게 피곤함을 회복할 수 있는 그런&amp;nbsp;&lt;strong&gt;피로회복&amp;nbsp;&lt;/strong&gt;방법이 있다면 어떨까요?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;링티 프로젝트는 2016년 10월,&lt;br /&gt;&lt;u&gt;3명의 군의관&lt;/u&gt;으로부터 시작되었습니다.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1103/20171103183315013_113.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;저희는&amp;nbsp;&lt;strong&gt;군의관&lt;/strong&gt;입니다. 병사들과 가까이서 호흡하며 이들의&amp;nbsp;&lt;strong&gt;건강을 보살피는 역할&lt;/strong&gt;을 하고 있죠.&amp;nbsp;&lt;strong&gt;크고 작은 상처부터 질병까지&lt;/strong&gt;&amp;nbsp;모두 우리들이 관리하고 책임지고 있습니다. 여느 때와 다름없이 훈련을 하던 날, 우리는&amp;nbsp;&lt;strong&gt;몇 가지 충격적인 이야기&lt;/strong&gt;를 접했습니다.&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;"특전사 대원 300여명 가운데 6명이 탈진해 쓰러지고 1명이 실종됐으며, 20여명이 다쳤습니다."&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;"산악훈련 중 탈진한 박모(27) 중위와 김모(22) 일병 등 열사병 및 의식장애 환자 병원이송."&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;"장비가 매우 무겁고(20~30kg), 열배출이 거의 안되기 때문에 쉽게 탈진한다."&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;남자라면 누구나 가야 하는 군대... 하지만 건장한 청년들도 감당하기&lt;strong&gt;&amp;nbsp;힘든 환경에 아파하는&lt;/strong&gt;&amp;nbsp;병사들을 옆에서&amp;nbsp;&lt;strong&gt;직접 지켜봐야만 했습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;우리의 안전을 지켜주는 분들이&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;위험에 노출되어 있었습니다.&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1030/20171030112152267_58.png/wadiz/format/jpg/quality/95/optimize" /&gt;강도 높은 훈련과 작업 활동으로&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;탈진과 열사병 등 위급한 상황이&amp;nbsp;&lt;strong&gt;매년 반복하여 발생&lt;/strong&gt;하는 것을 목격했습니다.&lt;/p&gt;
+&lt;p&gt;이럴 때&amp;nbsp;&lt;strong&gt;신속하게 수액&lt;/strong&gt;&lt;strong&gt;&amp;nbsp;처치&lt;/strong&gt;&lt;strong&gt;를 해야 하지만,&lt;/strong&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;작전 중에 수액을 맞고 있을 수 없는&amp;nbsp;&lt;strong&gt;시공간적 제약&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;병사는 200명인데, 수액을 놓을 군의관은 1명뿐이라는&lt;strong&gt;&amp;nbsp;인력 부족의 문제&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;칫솔 손잡이도 잘라내고, 입은 속옷과 양말도 몰래 버리며 훈련을 받는 판에&amp;nbsp;&lt;strong&gt;수&lt;/strong&gt;&lt;strong&gt;액 세트는 무겁고 부담스럽다는 문제&lt;/strong&gt;&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;strong&gt;수액 주사의 문제점&lt;/strong&gt;이 날이 갈수록 눈에 보이기 시작했죠.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;문제가 있어?&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;그럼 우리가 바꿔보자!&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1106/20171106142256338_62.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;조금 더 쉽고, 부담되지 않으면서, 간편한 방법&lt;/strong&gt;으로 힘든 병사들을 도울 수 있는 방법은 없을까? 3명의 군의관은 기존의 수액이 지닌 단점을&amp;nbsp;&lt;strong&gt;근본적으로 극복할 수 있는&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;특별한 무언가를&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;연구하기 시작했습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;여러 방법을 고민하면서 결국&amp;nbsp;&lt;strong&gt;의료인이 없어도 혼자서 빠르고 쉽게&lt;/strong&gt;&amp;nbsp;에너지를 보충할 수 있도록&amp;nbsp;&lt;strong&gt;"입으로 직접 마시는 링거"&lt;/strong&gt;를 만드는데 우리의 전문성을 집중하여 몰두하였습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;검증까지 꼼꼼하게,&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;우리 병사들이 먹는 것이니까.&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1107/20171107215632974_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1107/20171107215641991_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;더욱&amp;nbsp;&lt;strong&gt;꼼꼼히&lt;/strong&gt;&lt;strong&gt;&amp;nbsp;검증&lt;/strong&gt;하였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;ol&gt;
+&lt;li&gt;혈액 검사로&amp;nbsp;&lt;strong&gt;혈장 보충 효과 비교&lt;/strong&gt;뿐만 아니라, 섭취 후&amp;nbsp;&lt;strong&gt;소변 배출로 소실되는 양&lt;/strong&gt;까지 점검했고&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;장거리 육상선수, 특전사&lt;/strong&gt;&amp;nbsp;자원자를 대상으로&amp;nbsp;&lt;strong&gt;사용성 평가&lt;/strong&gt;를 하였고&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;5km 달리기&lt;/strong&gt;&amp;nbsp;기록을 측정했을 때 평소 기록보다&amp;nbsp;&lt;strong&gt;1분이나 단축되는 효과&lt;/strong&gt;도 확인했습니다.&lt;/li&gt;
+&lt;/ol&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;마침내 언제 어디서나 3천 원이면, 가볍고 신속하게 섭취할 수 있는&amp;nbsp;&lt;strong&gt;&lt;u&gt;&amp;lt;링티&amp;gt;를 세상에 내놓게 되었습니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1106/20171106151121935_62.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;국내외가 인정한&lt;br /&gt;링티입니다.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;이러한 획기적인 결과로, '국방 스타트업 챌린지'에서&amp;nbsp;&lt;strong&gt;&lt;u&gt;육군 참모총장상&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;수상하였고, 대규모 대회를 통한 입증과 함께&amp;nbsp;&lt;strong&gt;&lt;u&gt;국내특허 1건, 국제특허(PCT) 1건을 출원&lt;/u&gt;&lt;/strong&gt;했습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1108/20171108110207002_116.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1121/20171121174303704_101.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;끝은 또 다른&amp;nbsp;&lt;br /&gt;시작이기에, 멈추지 않겠습니다.&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1030/20171030114112617_58.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;링거워터 프로젝트는 여기서 멈추지 않았습니다.&amp;nbsp;&lt;strong&gt;링티가 필요한 사람이 과연 "군인뿐일까"&lt;/strong&gt;라는 생각 때문이었죠.&amp;nbsp;&lt;strong&gt;링티를&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;더욱 많은 분들께 소개하고 싶은 마음&lt;/strong&gt;이 들었습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;링티, 조금 더&lt;br /&gt;자세히 살펴보겠습니다.&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1108/20171108184706839_102.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;병원에 가지 않고, 빠르게, 적은 비용으로&amp;nbsp;&lt;strong&gt;링거를 맞으며 피로를 회복하던 효과&lt;/strong&gt;를&lt;strong&gt;&amp;nbsp;링티 한 잔&lt;/strong&gt;으로 누릴 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1107/20171107115201132_50.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;불필요한&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;카페인, 색소, 첨가물을 넣지 않았습니다.&lt;/strong&gt;&amp;nbsp;카페인을 넣는다면 각성되는 효과가 강해질 것이고, 색소를 넣으면 좀 더 예뻐 보일 것이고, 첨가물을 넣는다면 좀 더 달콤한 음료가 될 수 있겠죠. 그러나&amp;nbsp;&lt;strong&gt;우리는&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;걱정 없이 마실 수 있는 제품을&lt;/strong&gt;&lt;strong&gt;&amp;nbsp;만들고 싶었습니다.&lt;/strong&gt;&amp;nbsp;뿐만 아니라,&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;혈액 검사를 통한 혈장 보충량 평가&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;소변 배출량을 통한 수분소실 평가&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;5,000m 달리기 지구력 평가&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;사용자 시음 및 피로회복도 평가&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;실제 수행한 연구결과를 바탕으로 만들어 더욱 안심할 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1107/20171107115104095_50.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;가장 신속하게 활용되는 에너지원인&amp;nbsp;&lt;strong&gt;포도당&lt;/strong&gt;, 이온음료보다 3배 이상 풍부한&amp;nbsp;&lt;strong&gt;전해질&lt;/strong&gt;, 500mg의&amp;nbsp;&lt;strong&gt;비타민C&lt;/strong&gt;, 1g의&amp;nbsp;&lt;strong&gt;타우린&lt;/strong&gt;을 비롯하여&amp;nbsp;&lt;strong&gt;총 8가지 성분&lt;/strong&gt;을 아낌없이 담았습니다. 어디에서도 찾을 수 없는 링거워터 링티를 와디즈에서 처음으로 경험해보시기 바랍니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;섭취 방법&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;뜯고 붓고 마시고, 3초면 끝. 쉽고 빠른 링티 섭취방법을&amp;nbsp;&lt;strong&gt;&lt;u&gt;아래&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;영상으로 확인&lt;/u&gt;&lt;/strong&gt;하세요!&amp;nbsp;&lt;/p&gt;
+&lt;h5&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://www.youtube.com/embed/Z4gcxT1KYms?wmode=opaque" width="640" height="360" frameborder="0" allowfullscreen="allowfullscreen" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1108/20171108145801084_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;1) 링티 스틱의 'easy cut' 부위를 잡아당겨&amp;nbsp;&lt;strong&gt;500ml 물에 넣고 3초간 흔들어&lt;/strong&gt;주세요~!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;2) 인도네시아의 천연 레몬향으로 만든&amp;nbsp;&lt;strong&gt;맛있는 레모네이드 맛을 느껴보세요.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;3)&amp;nbsp;&lt;strong&gt;끝!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;&lt;strong&gt;섭취시 주의사항&lt;/strong&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;strong&gt;꼭 500ml 물&lt;/strong&gt;에 맞춰 드시기 바랍니다! 적은 물에 타시면 흡수 효과가 떨어지고, 많은 물에 타면 농도가 묽어집니다.&amp;nbsp;&lt;strong&gt;500ml&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;생수 한 병만 있다면 쉽게&lt;/strong&gt;&amp;nbsp;탈 수 있어요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;h3&gt;링거워터 프로젝트 수익금은&lt;br /&gt;어떻게 쓰이나요?&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1030/20171030115140976_58.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;백령도와 같은 도서 지방, 휴전선의 최전방 경계초소, 잠수함 등&amp;nbsp;&lt;strong&gt;군의관이 없거나 진료 환경이 열악한 부대의 국군장병들,&lt;/strong&gt;&amp;nbsp;그리고 화재반, 구조반으로 근무하시면서&amp;nbsp;&lt;strong&gt;화염 속에서도 구조활동을 하느라 극심한 탈수 환경에 노출되어 있는 소방관 분들이&lt;/strong&gt;&amp;nbsp;가장 위험한 환경 속에 노출되어 있습니다. 링티를 구비해두고 활용하실 수 있도록 후원하여&amp;nbsp;&lt;strong&gt;우리의 안전을 지켜주는 분들이 스스로의 안전도 지킬 수 있도록 돕고자 합니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1106/20171106154919912_67.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;리워드 안내&lt;/h2&gt;
+&lt;p&gt;와디즈&amp;nbsp;&lt;strong&gt;펀딩에 한정&lt;/strong&gt;하여&amp;nbsp;&lt;strong&gt;출시 예정 가격보다&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;훨씬 저렴하게 공급하기로 결정&lt;/strong&gt;하였습니다. 1회의 펀딩으로 끝나는 만큼&amp;nbsp;&lt;strong&gt;넉넉히 구비&lt;/strong&gt;해두실 수 있도록&amp;nbsp;&lt;strong&gt;2+1, 5+3 구성도 준비&lt;/strong&gt;했습니다.&amp;nbsp;&lt;strong&gt;5+3 나눔 패키지&lt;/strong&gt;에는 특별히 준비한&amp;nbsp;&lt;strong&gt;500ml 예쁜 사각 링티 보틀&lt;/strong&gt;을 넣어드립니다. 수량을 한정적으로 준비할 수 있었던 점 양해 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1110/20171110153707075_55.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;사은품 이벤트 소개&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1108/20171108130016606_109.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;링티를 주변 분들께 많이 알려주실&lt;/u&gt;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;&amp;nbsp;고마운 서포터님들께&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;소중한 선물을 드리고자 합니다. 링티처럼 특별한 것을 찾던 끝에&amp;nbsp;&lt;strong&gt;&lt;u&gt;노트처럼 슬림하게 가방 속에 쏙 들어가는 예쁜 500ml 보틀&lt;/u&gt;&lt;/strong&gt;을 준비했습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1107/20171107222603764_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1) 나눔패키지에 펀딩&lt;/strong&gt;해주시거나,&amp;nbsp;&lt;strong&gt;&lt;u&gt;2) 지인 분들의 펀딩 결정 (3명)&lt;/u&gt;&lt;/strong&gt;을&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;도와주시면&lt;strong&gt;&amp;nbsp;'고급스러운 500ml 사각형 슬림 보틀 1병'&lt;/strong&gt;을 배송 시 함께 넣어드립니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;펀딩 참여를 완료한 지인분들의 와디즈 아이디 3개를 저희 이메일(lingerwater@naver.com)로 적어 보내주세요.&lt;/strong&gt;&lt;/u&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;펀딩 종료 후 펀딩 참여 확인을 하여 사은품 배송 여부를 알려드립니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1108/20171108142043318_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220157018216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;국내 최초 액상형(RTD, Ready To Drink) 식사, 밀스 드링크! 또 한 번의 혁신으로 식사의 새로운 패러다임을 만들어 갑니다.&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;국내 최초 RTD(액상형) 식사, 밀스 드링크&lt;/h2&gt;
+&lt;p&gt;2015년 9월 국내 최초의 미래식사를 출시한 인테이크가 또 한 번의 혁신을 일으킵니다.&amp;nbsp;&lt;strong&gt;간편함을 극대화한&amp;nbsp;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;RTD(Ready To Drink, 액상형) 식사, 밀스 드링크&lt;/strong&gt;&lt;/u&gt;&lt;strong&gt;!&lt;/strong&gt;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;국내 최초 액상형(RTD, Ready To Drink) 대체식&lt;br /&gt;마시는 식사, 밀스 드링크!&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133413037_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;진화하는 밀스 프로젝트&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306144300944_90.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;인테이크는 2015년&amp;nbsp;&lt;u&gt;&lt;strong&gt;국내 최초의 미래형 식사인 '밀스'&lt;/strong&gt;&lt;/u&gt;를 개발하며&amp;nbsp;&lt;strong&gt;&lt;u&gt;식사의 새로운 패러다임&lt;/u&gt;&lt;/strong&gt;을 만들어 가고 있습니다. 밀스 1.0부터 시작하여&amp;nbsp;&lt;strong&gt;분말형 대용식&lt;/strong&gt;&amp;nbsp;시장을 열었고, 이후 수많은 개선과 업그레이드를 통해 NEW밀스까지 다다르게 되었습니다. 또한 밀스칩, 밀스 브레드 등&amp;nbsp;&lt;strong&gt;다양한 형태의 밀스&lt;/strong&gt;도 개발해오고 있습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;식사의 혁신을 위한 Special Collaboration&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133532691_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;간편식 연구소 인테이크는 식사의 더 큰 혁신을 위해&amp;nbsp;&lt;strong&gt;&lt;u&gt;프리미엄 우유 브랜드, 덴마크와 특별한 콜라보레이션&lt;/u&gt;&lt;/strong&gt;을 이뤄냈습니다.&amp;nbsp;&lt;strong&gt;밀레니얼 세대의 라이프스타일과 식습관을 연구하는 인테이크&lt;/strong&gt;와 1985년부터&amp;nbsp;&lt;strong&gt;프리미엄 유제품을 개발해온 덴마크의 노하우&lt;/strong&gt;가 만나 밀스 드링크라는 또 한 번의 혁신을 일으킵니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;우리는 딱 하나의 제품이나 제형에 얽매이는 것이 아니라, 상황과 기호에 맞게 다양한 선택권을 가져야 합니다.&amp;nbsp;&lt;strong&gt;밀스는 항상 서포터 분들의 행복한 식사를 위해 분말형/칩형/빵형 등 다양한 선택권을 제안하고 있습니다&lt;/strong&gt;. 그리고 덴마크와의 콜라보레이션을 통해 출시된 밀스 드링크는,&amp;nbsp;&lt;strong&gt;&lt;u&gt;단언컨대 국내에서 가장 간편한 궁극의 식사입니다&lt;/u&gt;&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;당신의 식사를 책임지겠습니다&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133542823_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;식사를 즐기는 것은 큰 행복이지만,&amp;nbsp;&lt;strong&gt;우리는 전통적인 '식사'라는 프레임에 얽매여 오히려 행복을 놓칠 때가 많습니다&lt;/strong&gt;. 하루 세 번 행복한 식사 시간을 즐기는 것이 아니라, 식사를 하지 못해서 혹은 식사를 억지로 하느라 소중한 기회비용을 상실하는 일이 빈번하게 일어나고 있습니다.&lt;/p&gt;
+&lt;p&gt;우리는 식사에 얽매여서는 안 됩니다. 식사를 내 라이프스타일에 맞게, 그리고 내 상황과 가치관, 기호에 맞게 자유롭게 컨트롤할 수 있어야 합니다.&amp;nbsp;&lt;strong&gt;&lt;u&gt;이제 밀스 드링크가 당신의 식사를 책임지겠습니다&lt;/u&gt;&lt;/strong&gt;.&amp;nbsp;&lt;strong&gt;식사를 하기 어려운 상황에서도, 식사가 귀찮을 때도, 식사의 기회비용이 아까울 때도&lt;/strong&gt;&amp;nbsp;언제든 밀스 드링크로 간편히 식사를 즐기세요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133602465_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;RTD(액상형) 식사, 밀스 드링크&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133616205_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;밀스 드링크는&amp;nbsp;&lt;strong&gt;&lt;u&gt;컵형 패키지에 액상이 들어있는 RTD(Ready To Drink)형 식사&lt;/u&gt;&lt;/strong&gt;로, 궁극의 간편함을 구현했습니다. 이제 물/우유를 따로 준비할 필요 없이 빨대만 꽂아서 간편하게 마시세요!&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306145317684_90.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;균형 잡힌 영양 밸런스&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133636283_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;밀스 드링크로&amp;nbsp;&lt;strong&gt;&lt;u&gt;1일 영양성분 권장량의 1/3&lt;/u&gt;&lt;/strong&gt;을 섭취하실 수 있습니다.(단백질, 식이섬유, 8종 비타민, 3종 미네랄 기준)&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0307/20180307165239670_57.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;&lt;em&gt;(** 1일 권장량 = 1일 영양소 기준치)&lt;/em&gt;&lt;/h5&gt;
+&lt;p&gt;밀스 드링크&amp;nbsp;&lt;strong&gt;&lt;u&gt;한 병(300ml)에 265kcal&lt;/u&gt;&lt;/strong&gt;를 섭취할 수 있습니다. 단백질, 식이섬유, 8종 비타민, 3종 미네랄은 1일 권장 섭취량의 1/3을 담았고, 탄수화물 34g(1일 권장 섭취량의 10%), 지방 8.5g(1일 권장 섭취량의 16%)을 담았습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133700002_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;밀스로 정말 한 끼가 되나요?&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133719413_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;밀스 드링크는&amp;nbsp;&lt;strong&gt;탄수화물, 단백질, 지방&lt;/strong&gt;&amp;nbsp;뿐 아니라&amp;nbsp;&lt;strong&gt;비타민과 미네랄까지&lt;/strong&gt;&amp;nbsp;철저히 설계해,&amp;nbsp;&lt;strong&gt;&lt;u&gt;한 끼 식사에 해당하는 영양소를 담았습니다&lt;/u&gt;&lt;/strong&gt;. 한국인은 일반적으로 탄수화물 함량이 높은 식사를 하기 때문에, 밀스 드링크로 오히려 더 균형잡힌 영양을 섭취할 수 있죠.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133733391_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;밀스 드링크에는&lt;strong&gt;&amp;nbsp;충분한 양의 단백질과 식이섬유&lt;/strong&gt;가 있어,&amp;nbsp;&lt;strong&gt;&lt;u&gt;약 3~4시간의 포만감&lt;/u&gt;&lt;/strong&gt;을 느낄 수 있습니다(개인의 식습관, 평소 섭취량에 따라 차이가 있을 수 있습니다).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;밀스 드링크, 어떤 맛인가요?&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133746810_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;누구나 부담없이 먹을 수 있게, 그리고 매일 먹어도 질리지 않게 만들었습니다. 딸기 우유와는 조금 다른,&amp;nbsp;&lt;strong&gt;&lt;u&gt;밀스 드링크만의 달콤하면서도 고소한 맛&lt;/u&gt;&lt;/strong&gt;을 상상해보세요.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;※ 밀스 드링크는 고농축의 우유 베이스로 만들어져, 유당불내증이 있으시거나 장이 민감하신 분은 섭취 후 약간의 속 불편함을 느끼실 수 있습니다.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;상온에서 3개월&lt;/h2&gt;
+&lt;p&gt;밀스 드링크는&amp;nbsp;&lt;strong&gt;&lt;u&gt;상온에서 3개월&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;동안 보관하실 수 있습니다. 제조 공정 상 일정 수준 이상의 온도와 압력을 가하는 살균 과정을 거치기 때문에, 일반 유제품에 비해 더욱 넉넉한 유통기한으로 보관이 가능합니다.&amp;nbsp;&lt;strong&gt;더욱 맛있게 즐기시려면 냉장보관 하셨다가 시원하게 드시는 것을 권장&lt;/strong&gt;합니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;밀스의 핵심 가치&lt;/h2&gt;
+&lt;p&gt;밀스는 간편하게, 합리적인 가격으로, 균형잡힌 영양을 섭취할 수 있는 새로운 식사입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133803115_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;밀스, 이럴 때 섭취하세요&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133816398_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15220166971188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;행복과 만족을 주는 모닝빵&lt;/h2&gt;
+&lt;p&gt;- 더이상 우리 아이들에게 기름진 간식을 줄 수 없습니다.&lt;/p&gt;
+&lt;p&gt;- 어린이집 간식으로 무엇을 할 지 고민하지 않아도 됩니다.&lt;/p&gt;
+&lt;p&gt;- 시간없다고 먹는 패스트푸드는 우리 건강을 갉아 먹고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0220/20180220141725513_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;- 시간이 없다, 귀찮다, 습관이 안된다 등의 이유로 거르는 아침은 여러분의 건강을 해칩니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0220/20180220140552341_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;사진 출처 : 취업포털커리어&lt;/p&gt;
+&lt;p&gt;- 우리 아이들 및 아침식사를 거르는 이에게 좋은 상품을 제공하려 합니다.&lt;/p&gt;
+&lt;p&gt;- 어린이집 간식으로 무엇을 할까 고민하는 부모님께 적극 권해드리고 싶습니다.&lt;/p&gt;
+&lt;p&gt;- 건강한 아침을 맞이 할 수 있는 굿모닝에 많은 관심바랍니다.&lt;/p&gt;
+&lt;h2&gt;단순한 모닝빵이 아닙니다&lt;/h2&gt;
+&lt;p&gt;우리가 생각하는 모닝빵은 잼에 발라먹어야 한다 ,우유와 함께 먹어야 한다, 간식이다, 모닝빵 자체로 만은 즐기지 못했습니다. 그래서 저희가 그 모든 요건을 충족시키면서 도 건강하며 &amp;nbsp;바쁜 현대인들의 아침식사대용으로도 손색이 없는 근사한 모닝빵을 선보입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213155320199_73.jpeg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;일반적인 모닝빵 반죽이 아닙니다&lt;/h2&gt;
+&lt;p&gt;1. 모든 반죽에 두유를 넣어 고소하며 쫀득쫀득한 식감이 일품입니다.&lt;/p&gt;
+&lt;p&gt;2. 색소대신 오징어먹물, 홍국쌀가루, 녹차분말을 사용하여 건강합니다.&lt;/p&gt;
+&lt;p&gt;3. 잼, 크림, 토핑등을 직접 제조하여 첨가함으로 모닝빵 그자체로만으로 드셔도 목막힘, 심심함, 퍽퍽함등이 없습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213154014368_73.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;믿을수 있는 안전한 제품을 만듭니다&lt;/h2&gt;
+&lt;p&gt;해썹인증을 받아 제품의 원재료부터 가공 유통단계까지 위생적이고 안전한 먹거리를 제공합니다. 기술보증에서 보증한 벤쳐기업으로 믿고 투자할수 있는 안전한 기업입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213174908049_22.jpeg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;이런분들께 권해요&lt;/h2&gt;
+&lt;h3&gt;혼밥족 :&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;혼자 식당 못들어가시는분들 그렇다고 집에서 밥해먹긴 귀찮아서 굶으시진 않나요?&lt;/p&gt;
+&lt;h3&gt;놀이학교아이들간식:&lt;/h3&gt;
+&lt;p&gt;모닝빵 싸이즈라 아이들이 먹어도 부담스럽지 않으며 아이들 입맛에도 딱 맞아요.&lt;/p&gt;
+&lt;h3&gt;바쁜아침 출근준비하느라 아침을 못챙겨 드시는분들:&lt;/h3&gt;
+&lt;p&gt;아침에 출근준비하기도 바쁜데 밥차릴 정신도 없지만 밥먹을 시간도 없으시죠? 출근하면서 한팩씩 들고 나가시면 됩니다.&lt;/p&gt;
+&lt;h3&gt;회사간식:&lt;/h3&gt;
+&lt;p&gt;말라비틀어진 팥빵과 우유로 대신하진 않으신지요? 맛도 좋지만 촉촉해서 음료가 필요없습니다. 비용절감, 가격대비 퀄리티도 좋아요.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;u&gt;상품소개&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172325124_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172342046_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172400584_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172421546_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172445803_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172500236_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172522197_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172535424_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;u&gt;리워드구성&lt;/u&gt;&lt;/h2&gt;
+&lt;h3&gt;set1 &amp;nbsp;:20,000&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0214/20180214094139692_99.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;땅콩버터모닝빵 5ea + 캬라멜쵸코모닝빵 5ea + &amp;nbsp;딸기리플잼모닝빵 5ea + 녹차레몬모닝빵 5ea + 오징어먹물옥수수모닝빵 4ea + 빵이 마르지 않는 전용용기&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228164534077_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;set2 : 30,000&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213170926785_22.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;땅콩버터모닝빵 5ea + 캬라멜쵸코모닝빵 5ea + &amp;nbsp;딸기리플잼모닝빵 5ea + 녹차레몬모닝빵 5ea + 에멘탈크림오징어먹물모닝빵 5ea + 홍국쌀크림치즈모닝빵 5ea + 인절미모닝빵 4ea + 오징어먹물옥수수모닝빵 4ea+ 빵이 마르지 않는 전용용기&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228164551744_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172617653_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172641342_79.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;p&gt;유통기한 : 냉동보관 6개월&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201732428510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;버터는 왜 한가지 맛일까요?&lt;/h2&gt;
+&lt;p&gt;노란 버터가 지겨운 당신을 위해&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0115/20180115210611535_75.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;버터에도 다양한 맛이 있다?&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&amp;lsquo;버터는 다 똑같다&amp;rsquo;는 편견을 깼습니다&lt;/h3&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0117/20180117155011788_24.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;당신의 빵을 구원할 티버터가 온다!&lt;/h3&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;듬뿍 발라도&amp;nbsp;&lt;u&gt;느끼하지 않고&lt;/u&gt;&amp;nbsp;버터 하나만 발라도 빵이&amp;nbsp;&lt;u&gt;맛있어지는&lt;/u&gt;&amp;nbsp;티버터를 소개합니다.&amp;nbsp;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0115/20180115210940958_75.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;얼그레이 초코 티버터&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;전문 티마스터가 만든 티버터로&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;당신의 브레드 타임을 특별하게 만들어 드립니다!&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120205301635_84.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h5&gt;티버터 6종&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;p&gt;그럼 대체&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;&lt;u&gt;'티버터'가 뭐죠?&lt;/u&gt;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120171701532_24.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;다양한&lt;u&gt;&amp;nbsp;차(TEA)와&lt;/u&gt;&amp;nbsp;천연 재료를 버터에 블렌딩해 풍미 가득하게 만든 신개념&amp;nbsp;&lt;u&gt;티버터(TEA Butter)&lt;/u&gt;입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;티버터 하나면 빵 하나 뚝딱!&lt;/h3&gt;
+&lt;p&gt;버터는 한가지 맛이죠. 염도나 풍미가 다를 순 있지만 잼이나 기타 스프레드처럼 다양한 &amp;lsquo;맛&amp;rsquo;을 가지고 있지 않아요. 또 계속 먹으면 느끼해서 항상 버터는 다른 친구들이 필요한 존재였습니다.&lt;/p&gt;
+&lt;p&gt;버터는 이대로 다양해질 수 없는 걸까요? 버터 하나만 발라도 충분히 맛있는 존재가 될 수 없을까요?&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h5&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0122/20180122141641093_97.png/wadiz/format/jpg/quality/95/optimize" /&gt;티(TEA) 버터 6종&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;u&gt;그.래.서 민티는 버터에 &amp;lsquo;TEA&amp;rsquo;를 블렌딩 했어요.&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;티의 풍미가 버터의 느끼함을 잡아 듬뿍 발라 먹어도 느끼하지 않고 맛있어서&amp;nbsp;&lt;u&gt;&lt;strong&gt;버터 하나만 발라도&lt;/strong&gt;&lt;/u&gt;&amp;nbsp;빵이 맛있어지거든요. 또 다양한 맛으로 즐길 수 있으니 골라 먹는 재미도 더해지죠.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;근데 왜 하필 버터에 티(TEA)를 블렌딩했냐구요?&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;민티(MINTEA513)&lt;/strong&gt;는 일상에서 즐기는 캐주얼 티 전문 브랜드 입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0115/20180115234740204_72.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;차를 즐기는 새로운 방법&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;민티는 여러분의 일상에 TEA가 스며들길 바래요.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;일상에서 간편하게 TEA를 즐길 수 있는 방법을 권해드리고 싶었고, TEA LATTE 음료를 시작으로 다양한 제품에 TEA를 녹여내는 일을 시작했습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0115/20180115234622168_72.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;티라떼 보틀 음료 7종&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0116/20180116000111945_72.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;티를 블렌딩한 아이스티크림 6종&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;u&gt;티 전문 브랜드에서 버터를 만든 이유&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&amp;lt;트렌드를 읽다, 나는 밥보다 빵이 좋아!&amp;gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;지금은 바야흐로 1일 1빵의 시대! 빵 애호가가 늘어나며 하루에 한 끼는 빵을 드시는, 이른바 빵덕의 시대입니다. 민티는 변화하는 현대인의 일상에 집중했습니다. 그래서 현대인의 주식이 된 빵과 관련된 새로운 TEA 제품을 만들어내고 싶었어요. 기왕이면 맛있고 간편한 방법으로요! 그래서 빵에 관련된 제품 개발에 몰두했습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;유레카!&lt;/p&gt;
+&lt;p&gt;그러던 중&lt;strong&gt;&amp;nbsp;&lt;u&gt;&amp;lsquo;모든 디저트에 기본이 되는 버터를 다양한 맛으로 만들어 보면 어떨까?&lt;/u&gt;&lt;/strong&gt;&lt;u&gt;&amp;rsquo;&lt;/u&gt;라는 생각이 들었습니다. 우리가 우려낸 TEA를 버터에 접목시키면 분명 매력적인 풍미 가득한 제품이 탄생할 거라 믿었어요. 지독하게 연구개발에 몰두했습니다. 민티의 티마스터 대표들은 TEA를 제대로 우려내는 기술자들이거든요, 또 세상에 없던 TEA 제품을 만들어내는 아이디어 뱅크에요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;결국 민티는 쓱싹 발라 빵에 곁들여도 훌륭하고 여러분의 베이킹을 간편하게 만들어주는&amp;nbsp;&lt;strong&gt;티버터 (TEA Butter)&lt;/strong&gt;를 만들어 냈습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120171812854_24.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;u&gt;티(TEA)버터 (6종)&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;얼그레이 초코&lt;/strong&gt;&amp;nbsp; (Earl Grey Chocolate Butter)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;말차 오레오&lt;/strong&gt;&amp;nbsp; (Matcha Oreo Butter)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;루이보스 시나몬&lt;/strong&gt;&amp;nbsp; (Rooibos Cinnamon Butter)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;히비스커스 체리&lt;/strong&gt;&amp;nbsp;(Hibiscus Cherry Butter)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;쟈스민 레몬&lt;/strong&gt;&amp;nbsp; (Jasmine Lemon Butter)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;홍차 자몽&lt;/strong&gt;&amp;nbsp; (Black Tea Grapefruit Butter)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p data-empty="true"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121100129970_91.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121140323277_17.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121140402922_17.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121140444441_17.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121140510894_17.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121140534551_17.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p data-empty="true"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;u&gt;민티의 티버터는&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;느끼하지 않아요!&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;ol&gt;
+&lt;li&gt;티가 버터의 느끼한 맛을 잡아주는 동시에&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;2. 버터의 풍미가 차의 고유의 맛과 향을 살려줬어요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;깔끔하고 맛있어요!&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;1. 듬뿍 발라먹어도 입과 속이 아주 깔끔해요, 하나도 부담스럽지 않아요&lt;/p&gt;
+&lt;p&gt;2. 세상에 없던 조합으로 TEA와 천연 재료를 블렌딩한 티버터는 상상 이상의 맛과 풍미를 약속합니다&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;어떤 빵과도 어울려요!&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;1. 식빵, 베이글, 샌드위치 등 일상의 모든 빵과 함께 해요&lt;/p&gt;
+&lt;p&gt;2. 쿠키나 베이킹, 스파게티 요리 등에 활용해 보세요, 새로운 레시피가 탄생합니다&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120212400443_84.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;히비스커스 체리 식빵&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;u&gt;&amp;lt;이런 분들께 적극 추천해 드립니다!&amp;gt;&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;원래&amp;nbsp;&lt;u&gt;버터&lt;/u&gt;를 좋아하시는 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;버터에 잼을 좋아하는데 좀 더&amp;nbsp;&lt;u&gt;새로운 걸&lt;/u&gt;&amp;nbsp;원하는 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&lt;u&gt;빵&lt;/u&gt;을 좋아하시는 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;발라먹는 건 좋은데 버터의&amp;nbsp;&lt;u&gt;느끼한 걸&lt;/u&gt;&amp;nbsp;싫어하시는 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&lt;u&gt;샌드위치&lt;/u&gt;의 풍미를 한층 더 높여 줄 맛을 찾는 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;단조로운 빵덕 생활을&amp;nbsp;&lt;u&gt;버라이어티&lt;/u&gt;하고 맛있게 바꾸고 싶으신 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;버터와 잼을 동시에 사고 바르는 게&amp;nbsp;&lt;u&gt;귀찮으신&lt;/u&gt;&amp;nbsp;분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;&lt;u&gt;바쁜 아침&lt;/u&gt;을 간단하고 편하고 든든하게 드시고 싶으신 1인 가구, 신혼부부 등&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;나만의&amp;nbsp;&lt;u&gt;홈 카페&lt;/u&gt;&amp;nbsp;메뉴를 새롭게 만들고 싶으신 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;집에서 간단하지만 독특한&amp;nbsp;&lt;u&gt;쿠키 및 베이커리&lt;/u&gt;를 만들고 싶으신 분들&amp;nbsp;&lt;/li&gt;
+&lt;li&gt;간단한&amp;nbsp;&lt;u&gt;야외 활동&lt;/u&gt;&amp;nbsp;시&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0207/20180207112437384_79.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120172244042_24.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;먹는 사람을 배려한 포장&lt;/h5&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;&lt;u&gt;민티는 왜 버터를 병에 담았을까요?&lt;/u&gt;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. 보관성&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;버터 자체가 냄새를 마구 잡아먹어요.&lt;/p&gt;
+&lt;p&gt;냉장고에 넣으면 잡내를 먹어서 고유의 풍미가 약해집니다.&lt;/p&gt;
+&lt;p&gt;하지만 유리병이라면 안심!&lt;u&gt;&amp;nbsp;&lt;/u&gt;&lt;strong&gt;&lt;u&gt;잡내를 차단하고&amp;nbsp;&lt;/u&gt;&lt;u&gt;맛과 풍미, 품질을 오래 유지&lt;/u&gt;&lt;/strong&gt;할 수 있답니다.&lt;/p&gt;
+&lt;p&gt;우리 제품은 맛과 향이 가장 중요하니까요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2. 편리성&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;흔히 버터 하면 생각하는 종이 포장은 보관이 어려워요. 버터를 잘라서 먹어야 하고 남은 것도 보관이 번거로워요.&lt;/p&gt;
+&lt;p&gt;그런데 유리병은&lt;strong&gt;&lt;u&gt;&amp;nbsp;뚜&lt;/u&gt;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;껑만 열어서 쓱싹!&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;꺼내 바르면 되고, 뚜껑만 닫으면 오케이. 여러분의 편의를 위해 나이프가 함께 제공될 예정입니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0121/20180121103745731_91.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0207/20180207112544751_79.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0207/20180207115301579_79.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;u&gt;인생에서 '첫 번째 주인공'이 되는 특별한 순간은 많지 않습니다.&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;이제껏 세상에 존재하지 않았던 '티버터'라는 아이템을 처음 접하는 얼리어답터가 되는 동시에 특별한 당신을 위해&amp;nbsp;&lt;strong&gt;가격 할인 행사&lt;/strong&gt;도 준비했습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;1. 티버터 A세트 (3종)&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120210557415_84.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0206/20180206184041316_49.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;구성된 세트의&amp;nbsp;&lt;u&gt;맛 변경&lt;/u&gt;은 불가능 합니다&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;시식 식빵 3쪽&lt;/strong&gt;&amp;nbsp;+&amp;nbsp;&lt;strong&gt;버터 나이프 1개&lt;/strong&gt;&amp;nbsp;함께 제공&lt;/li&gt;
+&lt;li&gt;아이스패킹이 포함됩니다 (아이스박스, 열방지 파우치, 아이스팩)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;2. 티버터 B세트 (3종)&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120210622676_84.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0206/20180206184550307_77.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;구성된 세트의&amp;nbsp;&lt;u&gt;맛 변경&lt;/u&gt;은 불가능 합니다&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;시식&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;식빵 3쪽&lt;/strong&gt;&amp;nbsp;+&amp;nbsp;&lt;strong&gt;버터 나이프 1개&lt;/strong&gt;&amp;nbsp;함께 제공&lt;/li&gt;
+&lt;li&gt;아이스패킹이 포함됩니다 (아이스박스, 열방지 파우치, 아이스팩)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;3. 패키지 세트 (6종)&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0120/20180120210647189_84.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0206/20180206184159638_49.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;구성된 세트의&amp;nbsp;&lt;u&gt;맛 변경&lt;/u&gt;은 불가능 합니다&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;시식 식빵 6쪽&lt;/strong&gt;&amp;nbsp;+&amp;nbsp;&lt;strong&gt;버터 나이프 1개&lt;/strong&gt;&amp;nbsp;함께 제공&lt;/li&gt;
+&lt;li&gt;아이스패킹이 포함됩니다 (아이스박스, 열방지 파우치, 아이스팩)&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201819849312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100643718.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100702238.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102757230.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102918903.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100719604.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100807216.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100828102.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100843135.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100857759.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100910687.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100924940.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100948116.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101002678.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163316468.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163418163.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101050668.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib fr-draggable" src="https://cdn.wadiz.kr/ft/images/green001/2016/1209/20161209134507704_90.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101125719.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101143562.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101159722.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101213054.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101227215.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152201947063216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h5&gt;다가오는 2018년! 소중한 사람에겐 특별한 선물을! 설탕 버터 크림 NO! 오직 건강한 재료로 만들어낸 리듬앤바디의 "비건초콜릿" 진하고 쫀득한 초콜릿을 세계로 초대할게요.&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124173236376_85.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;다가오는 2018년 새해에,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;건강,행복,달콤함을 선물하세요.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;특별한 사람에겐 특별한선물을.&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;안녕하세요 ! 리듬앤바디입니다.&lt;br /&gt;가슴 설레는 계절, 겨울이에요.&lt;br /&gt;어린아이부터 어른들까지 모두가 기다려온 크리스마스까지 돌아오고있네요.&lt;br /&gt;벌써 연말이라니..믿기지가 않아요&lt;br /&gt;벌써 거리에는 반짝반짝 전구들이 빛나기도하고...&lt;br /&gt;캐롤송이 들려오기도 하더라구요.&lt;br /&gt;&lt;br /&gt;한살 더 먹는다는게 어렸을땐 좋았지만 어느덧..&lt;br /&gt;씁쓸함을 더 느낄법한 어른이 되었네요.&lt;br /&gt;다가오는 2018년 새해에, 그런 분들을 위해 작은 위로가될&lt;br /&gt;건강하고 달콤한 선물을 드릴게요. 행복은 덤으로 말이죠.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&amp;nbsp;2018년의 새해를 위해&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;소중한 사람에게 특별한 선물을.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;이라는 펀딩으로 다시 돌아왔습니다!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;저희를 잘 모르시는분들을 위해 잠깐 저희들의 소개를할게요.&lt;/strong&gt;&lt;br /&gt;리듬앤바디는 이 세상 어느곳에도 없는 독특한 "아이디어 디저트" 및 "비건디저트"를&lt;br /&gt;만들어내고있는 특별한 디저트 업체에요.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;리듬앤바디가 로푸드파베초콜릿을 와디즈에서 펀딩 후&lt;br /&gt;정말 많은 분들께서, 카카오톡 및 인스타그램으로 재주문 요청을 해주셨어요.&lt;br /&gt;주문하셨던 펀딩수량보다도 훨씬 많이 주문해주신분들도 계시고&lt;br /&gt;너무 맛있다며 주변분들에게 소개해주셔서 주변분들이 주문을 해주시기도 했구요.&lt;br /&gt;그러나 아직 비건초콜릿을 생소해하시는 분들이 많을텐데요:-)&lt;/p&gt;
+&lt;p&gt;그래서 !&lt;br /&gt;한번 맛보면 재주문을 안할수 없다는 그 초콜릿 !&lt;br /&gt;이번엔 리듬앤바디의 "로푸드파베초콜릿" -&amp;gt; "비건초콜릿" 이라는 새로운 이름으로&lt;br /&gt;여러분들께 소개합니다.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124180530465_66.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;이미 헐리웃은 채식열풍중이에요!채식디저트를 선두하는 리듬앤바디의,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;리듬앤바디의 "비건초콜릿" 은 !&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;수많은 헐리웃스타들이 아침 공복에 한스푼씩 챙겨먹는다는 유기농코코넛오일,&lt;/li&gt;
+&lt;li&gt;신들의 음식이라 불리우는 카카오파우더&lt;/li&gt;
+&lt;li&gt;식이섬유와 단백질이 가득한 오트밀&lt;/li&gt;
+&lt;li&gt;불포화 지방산이 풍부한 아몬드&lt;/li&gt;
+&lt;li&gt;노화방지,피로회복에 뛰어난 캐슈넛&lt;/li&gt;
+&lt;li&gt;설탕보다 당도는 1.5배로 높고 칼로리는 절반 수준이라는 깔끔한맛의 아가베시럽&lt;/li&gt;
+&lt;li&gt;그리고 바닐라익스트랙과 시나몬파우더로 베이스가 이루어져있어요.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;오히려 다이어트때문에,건강때문에 피해왔던 초콜릿을 꼬옥 한두알씩 챙겨먹어야 할 만큼&lt;br /&gt;정말 건강하고 신선한 식물성 재료들로 만들어냈어요.&lt;br /&gt;요즘 한국에도 불어오고있는 "채식주의자" 들에게도 안성맞춤인 초콜릿이죠.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124180740542_66.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;&lt;strong&gt;건강한 디저트는 왜 맛이 없을까?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;저희가 가장 중요하게 생각하는 것이 "맛" 이에요.&lt;br /&gt;실제로 칼로리 및 건강을 생각한 콩고기,곤약면,0칼로리 젤리등등....&lt;br /&gt;여러가지 대체식품들이 있지만 잘 찾지&amp;nbsp;않게되는 이유는 바로 "맛" 때문인데요.&lt;br /&gt;리듬앤바디의 "비건초콜릿"은&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124180611580_66.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;'건강한 재료만으로 이루어져있지만&amp;nbsp;&lt;br /&gt;기존제품보다 맛있게' 맛은 일반 초콜릿보다도 훨씬 특별하다고 자부한답니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;쫀-득한식감과 비건초콜릿만의 진하고 깊은 풍미,&lt;br /&gt;그리고 고소함이 살아있어 남녀노소 누구나&lt;br /&gt;건강하고 맛있게 즐길 수 있고 마치 초코떡처럼 쫀득한 식감이지만,&lt;br /&gt;씹다보면 오독오독 씹히는 견과류가 재미까지 선사해준다구요!&lt;/p&gt;
+&lt;p&gt;그리고 비건초콜릿은 한 두개만 먹어도 꽤 포만감이 든다는 아주 큰 장점이 있어서,&lt;br /&gt;특별히 관리하시는 분들도 기분좋게 건강한 재료들을 섭취할수 있답니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&amp;nbsp;&lt;/u&gt;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;&lt;u&gt;우리들끼리만의 이야기라구요? 이미 수많은 분들께 검증받은 맛!&lt;/u&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124181143775_66.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124181131678_66.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124181028481_66.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124180951552_66.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;strong&gt;이런분들께 추천해요!&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;strong&gt;건강한 디저트를 찾고 계신분들 !&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;밀가루나 버터, 크림등의 살찌우는 재료 대신 다이어트할 때에도 부담없이 드실 수 있는 먹거리를 찾으셨던 분들!&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;새해에 소중한분들에게 부담스럽지 않지만 고급스러운 선물을 찾으시는분!&lt;/strong&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;알고 먹으면 더 맛있는 비건초콜릿, 맛있게 드세요!&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;두 세알을 우유(200ml)에 넣고 믹서기에 돌리면&amp;nbsp;고소하고 진한 초콜릿만이 일품! 리얼카카오우유가 되요.&lt;/li&gt;
+&lt;li&gt;드시기전, 냉동실에 얼렸다가 꺼내드시면 캬라멜처럼 한층 더 쫀득한 식감이 살아나 마치 초코떡같은 느낌 ! 더욱더 재미있게 드실수 있답니다!&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;나 자신을 위한 선물도 좋아요!&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;또한 소중한 분들께 새해선물도 하실수 하실수 있도록, 1월5일부터 순차발송해드립니다.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&amp;lt;결제가 완료된 펀딩에 한해서입니다.&amp;gt;&lt;/strong&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;*리듬앤바디의 비건초콜릿은 기계에 휘휘 돌려 그냥 나오는 초콜릿이 아닙니다.*&lt;br /&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0410/20170410124029857_20.jpg/wadiz/quality/95/optimize/q?&amp;amp;gifq=70" /&gt;&lt;br /&gt;1.최상의 식감을 낼수있도록 견과류를 알맞게 부숩니다.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0410/20170410124220656_20.jpg/wadiz/quality/95/optimize/q?&amp;amp;gifq=70" /&gt;&lt;br /&gt;2.리듬앤바디만의 레시피로 모든 재료들을 쫀득한 식감이 날때까지 장시간 직접 손반죽합니다.&lt;br /&gt;&lt;br /&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0410/20170410124329889_20.jpg/wadiz/quality/95/optimize/q?&amp;amp;gifq=70" /&gt;&lt;br /&gt;3.숙성뒤,먹기 좋은 크기로 잘라 각각의 파우더를 묻힙니다.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&amp;lt;옵션 original&amp;gt;&lt;br /&gt;오리지널은 깊고 진한 풍미가 일품이에요.&amp;nbsp;시판되는 초콜릿보다 훨씬 매력적인 쫀득한식감으로&amp;nbsp;씹을수록 견과류와 오트밀의 고소한 맛이 입안 가득 행복을 느끼게 해줍니다.&lt;br /&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0410/20170410124418118_20.jpg/wadiz/quality/95/optimize/q?&amp;amp;gifq=70" /&gt;&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&amp;lt;옵션2 coconut&amp;gt;&lt;br /&gt;코코넛 버전은 오리지널 버전 그대로의 재료에 요즘 핫한 코코넛 슬라이스를 첨가하여 코코넛 특유의 부드러움과 훨씬 깔끔한 맛이 일품이에요. 좀더 리치하게 즐겨보세요!&lt;br /&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/0410/20170410125857858_20.jpg/wadiz/quality/95/optimize/q?&amp;amp;gifq=70" /&gt;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;strong&gt;다가오는 마지막,그리고 시작을 소중한&amp;nbsp;사람들에겐 특별한 선물을,&lt;br /&gt;좋은 사람들에겐 최고의 선물을 해주세요.&lt;br /&gt;부담스럽지 않지만 고급스러운, 건강하지만 달콤한 비건초콜릿이 책임질게요-&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
+</styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
-        </is>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CORNSALAD.PROJECT_CONTENT" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="SQL" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CORNSALAD.PROJECT_CONTENT" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,21 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
-  <si>
-    <t xml:space="preserve">PROJECT_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO_URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152144867971845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;#Making Story&lt;/h2&gt;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>VIDEO_URL</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>152144867971845</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;#Making Story&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180319173948.jpeg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;/텀블벅과 함께 새로운 스토리몰드(8개 시리즈 총 76가지 모양)&lt;/strong&gt;&lt;/h2&gt;
@@ -90,10 +94,10 @@
 &lt;p&gt; &lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152145388031846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
+    <t>152145388031846</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180319190938.jpg" alt="" width="620" height="844" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;# 안녕하세요&lt;/strong&gt;&lt;/h2&gt;
@@ -131,10 +135,10 @@
 &lt;blockquote&gt;* 본 제품은 주문수량만큼 제작되기 때문에 환불이 불가능합니다.&lt;br /&gt;* 측정방법에 따라 혹은 원단의 신축성에 따라 발생할수 있는 &lt;br /&gt;  1-2cm 사이즈 오차는 불량으로 반품이 불가합니다.&lt;br /&gt;* 색상은 모니터 환경 또는 촬영시 조도에 따라 다소 달리 보일수 있습니다.&lt;/blockquote&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152145778182347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
+    <t>152145778182347</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;책 소개 ㅣ펀딩 목적&lt;/h2&gt;
 &lt;p&gt;&lt;em&gt;모두 개개인의 아픔이 있습니다. 아픔의 크기는 다르지만 자신에게 고통이 있다는건 변하지 않지요. 그러나 가끔은 그런 아픔을 공유하고 이해받고 싶습니다. 아래의 책들은 모두 그런 고통과 공유에 대한 소망을 담은 책 입니다. 책들은 약에 대해, 정신병에 대해 그리고 있으나 분명 그 본질은 우리가 가진 말할 수 없는 고통입니다. &lt;/em&gt;&lt;/p&gt;
 &lt;h3&gt;때문에 이러한 감정들을 공유하고자,&lt;/h3&gt;
 &lt;h3&gt;욕심을 내서 최대한 &lt;strong&gt;고옵션&lt;/strong&gt;을 지향하나 &lt;strong&gt;원가에 가까운 가격&lt;/strong&gt;으로 찾아왔습니다! &lt;/h3&gt;
@@ -188,10 +192,10 @@
 &lt;p&gt;&lt;strong&gt;* 모든 선물의 가격은 [배송료 포함] 입니다. &lt;u&gt;산간지역도 배송료는 똑같이 책정&lt;/u&gt;합니다!&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152145922056948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
+    <t>152145922056948</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;봄을 맞이하여 고양이와 가장 잘 어울리는 벚꽃을 주제로 길고양이들이 유독 추웠던 올 겨울을 무사히 버티고 따뜻한 봄을 맞이하여 올 한해도 조금이라도 행복하게 지낼 수  있기를 희망하는 마음으로 준비했습니다.&lt;/p&gt;
 &lt;h3&gt;&lt;strong&gt;고양이 폰케이스 - 기종/디자인 서베이 필수 (미선택시 랜덤 배송합니다.)&lt;/strong&gt;&lt;/h3&gt;
 &lt;p&gt;&lt;strong&gt;**제작 가능 기종: 아이폰5/5S/SE, 6/6S, 6+/6S+, 7/8, 7+/8+, X, 갤럭시 S6, S6EDGE, S7, S7EDGE, S8, 노트5, 노트8 **&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -247,10 +251,10 @@
 &lt;p&gt;&lt;strong&gt;감사합니다.&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152148536524733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
+    <t>152148536524733</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;지구 온난화&gt;&lt;/p&gt;
 &lt;p&gt;지구 온나화란 지구의 평균 기온이 점점 높아지는 현상이다.&lt;/p&gt;
 &lt;p&gt;지금 우리 지구는 이산화탄소의 농도가 높아지면서 평균기온이 상승하고 있다.&lt;/p&gt;
 &lt;p&gt;&lt;이상 기후의 원인, 지구온난화&gt;&lt;/p&gt;
@@ -293,10 +297,10 @@
 &lt;p&gt; &lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152148892479134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
+    <t>152148892479134</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180320050826.jpg" alt="" width="620" height="981" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050839.jpg" alt="" width="620" height="1266" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050853.jpg" alt="" width="620" height="1138" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320050910.jpg" alt="" width="620" height="1186" /&gt;&lt;/p&gt;
@@ -329,10 +333,10 @@
 &lt;p&gt;&lt;strong&gt;선물 A는 기본적으로 일반우편으로 배송됩니다.&lt;/strong&gt; &lt;br /&gt;배송방법을 변경하고 싶으신 후원자 분들 께서는 &lt;u&gt;기본 6000원에서 2500원 이상을 추가&lt;/u&gt;하여 후원해주시면 &lt;u&gt;등기우편&lt;/u&gt;으로 보내드리도록 하겠습니다.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149194727035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
+    <t>152149194727035</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;+.* 안녕하세요, 고래와 우주를 좋아하는 그림쟁이, 바닷별입니다! *.+&lt;br /&gt;&amp;nbsp;&lt;/h3&gt;
 &lt;p&gt;3월이 되니, 날이 부쩍 따뜻해지고 봄이 한걸음 다가왔습니다. 아직 일교차가 커서 해가 지면 급격하게 추워지지만... 낮에는 따뜻한 햇살이 건물 사이사이를 비추고 있죠.&lt;br /&gt;푸른 새 잎이 나무에서 돋아나기도 전에, 매화는 누구보다 빨리 봄이 왔음을 알아채 꽃을 피우기 시작했답니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320054058.jpeg" alt="" width="620" height="412" /&gt;&lt;/p&gt;
 &lt;p&gt;3월 초, 매화중에서도 제일 먼저 꽃을 피우는 붉은 빛깔의 홍매화를 제가 제일 좋아하는 고래와 함께 뱃지에 담아봤어요! 이전에 했던 하얀고래 뱃지 프로젝트를 이어받아, 군청색의 혹등고래와 하얀색의 혹등고래를 함께 그려넣었습니다.&lt;/p&gt;
@@ -373,10 +377,10 @@
 &lt;p&gt;창작자에게 문의하기 탭으로 가장 빠르게 답변을 받아보실 수 있습니다! 가급적이면 1)을 이용해주세요~&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149361323936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
+    <t>152149361323936</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;#벚꽃 품은 고양이&lt;br /&gt;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;벚꽃냥 버찌&lt;/strong&gt;&lt;/u&gt;&lt;/h2&gt;
 &lt;p&gt; &lt;/p&gt;
 &lt;p&gt;아...&lt;br /&gt;봄인데...&lt;br /&gt;벚꽃 뱃지도 갖고싶고,&lt;br /&gt;고양이 뱃지도 갖고싶다..&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -411,10 +415,10 @@
 &lt;p&gt; &lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149475182637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
+    <t>152149475182637</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;안녕하세요! &lt;br /&gt;밀레시안의, 밀레시안에 의한, 밀레시안을 위한 마비노기 2차창작 팀 &lt;br /&gt;&lt;u&gt;독거밀레시안회 던바튼지부&lt;/u&gt;입니다.&lt;/h3&gt;
 &lt;p&gt;마비노기가 10살이 되던 2014년, 그 해 여름의 판타지 파티를 기억하시나요?&lt;br /&gt;유례 없던 유저 참여형 행사, 굿즈를 직접 선보일 수 있는 기회.&lt;br /&gt;게임만 하던 밀레시안 세 명이 용기내어 팀을 결성할 수 있었던 소중한 계기랍니다.&lt;br /&gt;&lt;sub&gt;팀 명은 말 그대로 캐릭터를 생성한 지 무척이나... 오래 되었기 때문입니다. 웃어주실 때마다 보람을 느낍니다.&lt;/sub&gt;&lt;/p&gt;
 &lt;p&gt;판타지 파티 -밀레시안의 아트전- 에서 일찍이 저희를 접하신 분들도 계실 거예요.&lt;br /&gt;그 다음은 넥슨 팬 파크에서, 네코제에서, 그리고 지금의 네코장까지.&lt;br /&gt;저희 부스를 찾아주신 분들 덕분에 이렇게 다시 한 번 도전할 수 있게 되었습니다.&lt;/p&gt;
 &lt;p&gt;이 페이지를 보고 계신 여러분께도 환영의 인사와 깊은 감사를 드리며, 새로이 제작하게 된 &lt;u&gt;스킬 뱃지&lt;/u&gt;와 앞서 제작되었던 &lt;u&gt;재능 뱃지&lt;/u&gt;를 소개해드릴게요.&lt;/p&gt;
@@ -436,10 +440,10 @@
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320063503.jpg" alt="" width="620" height="1051" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149588003738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
+    <t>152149588003738</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;국가를 상대로 한 천억원짜리 소송에 휘말린 훈민정음 상주본, 하지만 처음으로 진짜 혜례본을 찾은 인물은 -&lt;u&gt;간송 전형필-&lt;/u&gt;&amp;nbsp;입니다.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180320065109.jpg" alt="" width="620" height="456" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&amp;diams;제작의도&lt;/strong&gt;&lt;/p&gt;
@@ -477,10 +481,10 @@
 &lt;p&gt;&lt;strong&gt;기간 : 2017년 11월 24일(금) ~ 2018년 5월 24일(목)&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;장소 : 동대문디자인플라자(DDP) 배움터 2층 디자인박물관&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주제 : 원작과 미디어아트가 함께하는 전시&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주요작품 : 혜원전신첩, 겸재정선 26점&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;주최 : 간송미술문화재단, 서울디자인재단&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149749486339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
+    <t>152149749486339</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;&amp;nbsp;제비봄봄, 뱃지 소개&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320071553.png" alt="" width="620" height="417" /&gt;&lt;/p&gt;
 &lt;blockquote&gt;&lt;strong&gt;&amp;lt;디자인 시안&amp;gt;&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -515,10 +519,10 @@
 &lt;p&gt;&lt;strong&gt;+ 참고 사항 +&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;뱃지는 핸드메이드 제품으로 모든 제품이 똑같을 수 없으며 매끄럽지 않은 금형 부분나 약간의 흠집 또는 공정상 생길 수 있는 2mm이하의 미세한 기스와 기포, 먼지 그리고 약간의 칠이 넘친 것은 파본이 아닙니다.&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152149818635040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
+    <t>152149818635040</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;스마트폰이 나오기 이전, 폴더폰 시절을 기억하시나요?&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;저는 가끔씩 예전의 폴더폰이 그리워질때가 있어요.&lt;br /&gt;폴더폰을 열고닫을때 딱 맞물리는 소리, 문자칠때의 자판 감촉, 한손에 쏙 들어오는 그립감 등이 생각나거든요.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180320072444.jpg" alt="" width="620" height="411" /&gt;&lt;/p&gt;
 &lt;p&gt; &lt;/p&gt;
@@ -539,19 +543,19 @@
 &lt;p&gt;- 뱃지 제작기간은 펀딩 마감 후 2~3주가 걸립니다.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152154108741610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;할머니의 요리책 개정판&lt;/strong&gt;&lt;/p&gt;
+    <t>152154108741610</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;할머니의 요리책 개정판&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;2015년에 &amp;lt;할머니의 요리책&amp;gt;이 나온 후 할머니의 안부를 걱정해주시고, 저와 같은 마음으로 할머니의 요리책을 아껴주시고 응원해 주신 많은 분들 정말 고맙습니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;책을 계속 찾아주시는 분들을 위해 3쇄 인쇄를 하려다가 &amp;lt;할머니의 요리책&amp;gt; 개정판을 만들게 되었습니다. &amp;lt;할머니의 요리책&amp;gt; 개정판에는 초판에 들어있던 20가지 할머니의 요리와 새로운 요리 10가지가 추가되어 총 30가지의 요리가 담겨있습니다. 아래는 새로운 10가지 요리입니다.&lt;/p&gt;
 &lt;p&gt;콩나물밥&lt;br /&gt;계란반숙&lt;br /&gt;콩비지찌개&lt;br /&gt;쑥떡&lt;br /&gt;장조림&lt;br /&gt;열무김치&lt;br /&gt;깍두기&lt;br /&gt;팥죽&lt;br /&gt;설날 떡국&lt;br /&gt;미역국&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152159737628112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;현대인은 짐이 많습니다.&lt;br /&gt;하지만 짐이 가득 들어간 가방을 놓을 곳은 마땅치 않죠.&lt;/p&gt;
+    <t>152159737628112</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;현대인은 짐이 많습니다.&lt;br /&gt;하지만 짐이 가득 들어간 가방을 놓을 곳은 마땅치 않죠.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0302/20180302155326507_76.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -573,10 +577,10 @@
 &lt;/blockquote&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152159784017713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;blockquote class="type-default"&gt;
+    <t>152159784017713</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="type-default"&gt;
 &lt;p&gt;&lt;strong&gt;&lt;u&gt;최근 들어 자주 발생하는 화재 사건&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;/blockquote&gt;
 &lt;p&gt;건조한 겨울 철이면 빈번히 발생하는 화재 사건. 최근, 우리는 3건의 가슴아픈 화재 사고를 겪었습니다. 뉴스를 통해 보여지는 위험한 화재 현장과 피해자들의 모습... 화재 사고가 마무리되고 나면 늘 '초기 대응이 미흡해 큰 화재로 이어졌다' 는 기사가 나오고, 개선방법에 대해 얘기를 하지만 또 금세 잊게 됩니다.&amp;nbsp;&lt;/p&gt;
@@ -627,10 +631,10 @@
 &lt;p&gt;&lt;strong&gt;소화기,&amp;nbsp;&lt;/strong&gt;이제&amp;nbsp;&lt;strong&gt;보이는 곳&lt;/strong&gt;에 비치하세요!&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152159859912314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;blockquote class="type-default"&gt;
+    <t>152159859912314</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="type-default"&gt;
 &lt;p&gt;선반&lt;/p&gt;
 &lt;/blockquote&gt;
 &lt;p&gt;선반은 참 유용한 가구입니다.&lt;br /&gt;이차원 평면의 공간을 입체적으로 사용하기에뛰어난 실용성을 가지고 있으며개방된 4면을 통해 어떤 물건을 보관하고 있는지 한눈에 보여줍니다. 선반 위에 잘 배치된 물건들은 공간의 분위기를 다르게 만들어 주지요.&lt;/p&gt;
@@ -712,19 +716,19 @@
 &lt;p&gt;어떤 물건을 보관하는지, 어떤 사용자가 사용하는지에 따라 분위기가 바뀌고 사용자에 따라서 편하게 만들어 사용하는 선반, 집안에 하나쯤 있으면 유용하게 사용되는 종이 가구 팀버 입니다.&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152170410733749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152179058413150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152179558012551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152183749892742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180324221607.jpg" alt="" width="700" height="2204" /&gt;&lt;/p&gt;
+    <t>152170410733749</t>
+  </si>
+  <si>
+    <t>152179058413150</t>
+  </si>
+  <si>
+    <t>152179558012551</t>
+  </si>
+  <si>
+    <t>152183749892742</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180324221607.jpg" alt="" width="700" height="2204" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324221656.gif" alt="" width="630" height="540" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;우리의 생활과 뗄레야 뗄 수 없는 음악&lt;br /&gt;&lt;/strong&gt;많은 사람들이 다양한 방식으로 음악을 듣습니다. 더불어 음악을 듣는 도구인 이어폰은 우리 생활의 필수품입니다. 요즘에는 블루투스 방식의 이어폰도 많이 사용하지만 아직까지는 베터리나 음질 걱정 없는 쉽고 간편한 &lt;strong&gt;아날로그 방식&lt;/strong&gt;의 이어폰이 우리에겐 좀 더 친숙합니다.&lt;br /&gt;하지만 이어폰을 사용하다보면 여러 불편함을 겪게 됩니다.&lt;br /&gt;&lt;br /&gt; 이어폰의 와이어는 항상 꼬여있고 청취 중 이어폰을 잠시 귀에서 빼야할 상황이 발생하면 이어폰을 어디 둘데 없이 손에 들고 있거나 아래로 늘어 뜨리거나 합니다. 사소하지만 우리는 기분 전환을 위해 음악을 듣는 순간에도 항상 &lt;strong&gt;스트레스&lt;/strong&gt;를 받게 됩니다.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;이젠 음악이 주는 즐거움만 누리세요~&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221712.jpg" alt="" width="700" height="2136" /&gt;&lt;/strong&gt;&lt;/p&gt;
@@ -733,10 +737,10 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324221741.jpg" alt="" width="700" height="1699" /&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152189809208550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
+    <t>152189809208550</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324223250.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
@@ -766,10 +770,10 @@
 &lt;p&gt;&lt;img src="resources/uploadImages/20180324223523.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152192366633051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;안녕하세요!&lt;/p&gt;
+    <t>152192366633051</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;안녕하세요!&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;-예쁜 우리 것을 일상으로!- 라는 마음아래 모인 프로젝트 그룹 연정(戀情)입니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;한복을 착용했을 때뿐만 아니라 일상에서도 착용할 수 있는 스타일의 머리핀, 찾고 있지 않으셨나요?&lt;/p&gt;
@@ -807,10 +811,10 @@
 &lt;p&gt;&lt;strong&gt;&amp;nbsp;戀 情&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152192435440652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;#propio.36의 목표&lt;/h2&gt;
+    <t>152192435440652</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;#propio.36의 목표&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;반만년의 역사를 가지고 있는 우리나라는 저희도 모르는 많은 역사를 담고있습니다.&lt;br /&gt;그 역사들을 다 알지는 못하더라도 기억할 수 있도록&amp;nbsp;&lt;strong&gt;월간 케이스&lt;/strong&gt;&amp;nbsp;형식으로 달마다 있던 역사를 소재로 상품을 제작하고자 합니다.&lt;/p&gt;
 &lt;h4&gt;&amp;nbsp;저희 목표는 우리 선조들이 싸웠던 독립운동과 민주화를 이루기 위한 민주화 운동을 모두 담은 달력과 다이어리를 제작하는 것이 목표입니다.&lt;/h4&gt;
 &lt;p&gt;&amp;nbsp;그래서 후원해주신 후원금은 일회성의 기부금 형태로 기부되는것이 아닌, 독립운동가들을 더욱 알리고 찾을수 있도록 정기적인 월간 케이스의 발매와 10~11월에 우리나라의 역사를 담은 달력을 발매하는데 쓰이는 것이 좋겠다고 생각했습니다.&lt;/p&gt;
@@ -818,10 +822,10 @@
 &lt;h2&gt;교과서 밖 3.1운동을 주제로한 그 첫번째 시작입니다.&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198044252511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/53d6efda-f926-4629-871c-5e352fbbd628.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=527bd661b33e61badc7d15446097ab38" /&gt;&lt;/p&gt;
+    <t>152198044252511</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/00ec02d24c1a594b8068e2128a4c618f38ba79e8/6927df77cf359ce4b4fb95d18796bb779397c27b/53d6efda-f926-4629-871c-5e352fbbd628.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=527bd661b33e61badc7d15446097ab38" /&gt;&lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;안녕하세요, 저는&amp;nbsp;&lt;u&gt;1119&lt;/u&gt;에요.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;전 미술교육을 정식으로 받아보거나, 전공을 하지는 않았어요.&lt;/p&gt;
@@ -1029,10 +1033,10 @@
 &lt;p&gt;"눈물맨투맨"은&amp;nbsp;&lt;strong&gt;사이즈(M/L)&lt;/strong&gt;&amp;nbsp;및&amp;nbsp;&lt;strong&gt;컬러(멜란지(회색)/네이비/연퍼플/연핑크)&lt;/strong&gt;&amp;nbsp;선택이 필요합니다. 후원하신 후 사이즈 및 컬러를 서베이요청을 통해 알려주시면 선택 색상과 사이즈로 보내드려요(고르지 않을 시 기본M사이즈/멜란지(회색)로 배송해드릴 예정입니다). 서베이 이후 주문된 수량만큼 제작되어 사이즈 및 컬러 수정이 불가한 점 양해부탁드려요:)&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198115206412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    <t>152198115206412</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;hr /&gt;
@@ -1085,10 +1089,10 @@
 &lt;p&gt;&lt;strong&gt;카카오톡 오픈채팅 :&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;&lt;a href="https://open.kakao.com/o/sZRgVoI"&gt;https://open.kakao.com/o/sZRgVoI&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&lt;br /&gt;인스타그램 :&amp;nbsp;&lt;a href="https://www.instagram.com/ten_minus_nine/"&gt;https://www.instagram.com/ten_minus_nine/&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&lt;br /&gt;페이스북 :&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;&lt;a href="https://www.facebook.com/tenminusnine.kr/"&gt;https://www.facebook.com/tenminusnine.kr/&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198168666113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;1950~60년대 스웨덴, 벨기에 군인들이&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;운동을 즐기기 위해 신었던 활동화를 다시 만들다.&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&lt;u&gt;CATCH BALL ― 캐치볼&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
+    <t>152198168666113</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;1950~60년대 스웨덴, 벨기에 군인들이&amp;nbsp;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;운동을 즐기기 위해 신었던 활동화를 다시 만들다.&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&lt;u&gt;CATCH BALL ― 캐치볼&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
 &lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
 &lt;hr /&gt;
 &lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
@@ -1239,10 +1243,10 @@
 &lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/3bac07143d0f038bc8c945033d93a964c242d0b4/e720f7b16a4439621508908aff5c14012178ed0f/02a96ea1287060c187c49c4c9c769e3fd5787c57/ebbcb2bc-39c4-44af-8413-8fe8d9d63015.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=93b171f8f8a25cbc78e7d12900276419" width="700" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198245139114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;blockquote&gt;&lt;strong&gt;FAKE LEATHER로 만든 세련되고 모던한,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;프로퍼 새들백(PROPER SADDLE BAG)&lt;/strong&gt;&lt;/blockquote&gt;
+    <t>152198245139114</t>
+  </si>
+  <si>
+    <t>&lt;blockquote&gt;&lt;strong&gt;FAKE LEATHER로 만든 세련되고 모던한,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;프로퍼 새들백(PROPER SADDLE BAG)&lt;/strong&gt;&lt;/blockquote&gt;
 &lt;blockquote&gt;&lt;br /&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/854b557b-712d-4af0-a460-f7021c339420.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=76feaf15e93bfb0a1843a93c072b8324" /&gt;&lt;hr /&gt;&lt;/blockquote&gt;
 &lt;hr /&gt;
 &lt;p&gt;안녕하세요,&amp;nbsp;&lt;br /&gt;동물 착취 없는 지속가능한 삶에 대한 고민으로부터 시작된 비건 패션 프로젝트&amp;nbsp;&lt;strong&gt;낫아워스(Not ours)&lt;/strong&gt;입니다.&lt;a href="https://tumblbug.com/fakefurcoat" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;&lt;img src="https://tumblbug-psi.imgix.net/e8bcea9f543020c918607466ae0d1a7647d306ab/56566d8a0417d04932f18ab187d8c77f9f545542/f056b2186a9987c2b75a657aec96bd9d7c744cb8/478a4d69-03ed-4cd8-b1d4-d45b250f02d7.png?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=a39a65fb21bc2279cecb1820f17d0171" /&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
@@ -1333,10 +1337,10 @@
 &lt;p&gt;이번 프로젝트도 성공하길 바라며, 동물성이 포함되지 않은 좋은 제품을 &amp;lsquo;잘&amp;rsquo; 만들어서 오래 사용하자는 낫아워스(Not ours)의 가치를 함께 나누실 분들 모두를 환영합니다. \ʕ&amp;middot;ᴥ&amp;middot; \ʔ ʕ/ &amp;middot;ᴥ&amp;middot;ʔ/&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198281860115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/6c418cfb-2ee1-44f7-9a29-3450fb52ab47.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dc208024c76c803b61607d0e3221b6e7" /&gt;&lt;/p&gt;
+    <t>152198281860115</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/6c418cfb-2ee1-44f7-9a29-3450fb52ab47.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=dc208024c76c803b61607d0e3221b6e7" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Uni.J는 &amp;lsquo;Modern&amp;amp;Unique&amp;rsquo;의 공존이라는 건축학적 의미를 주얼리의 시각에서 바라보고 다양성과 공감이라는 주제로 시대적 트렌드를 표현.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;연예인, 잡지, 광고 등 다양한 분야에서 오랫동안 스타일링을 해온 패션 스타일 리스트와 H&amp;amp;M, Forever21등 많은 spa브랜드 디자인을 해온 디자이너가 함께 분석, 계획, 설계하여 한국 트렌드에 맞는 하지만 조금은 특별하고 어디에도 찾아볼 수 없는 디자인을 개발하는데 방향성을 두고 진행하고 있다.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img style="display: block; margin-left: auto; margin-right: auto;" src="https://tumblbug-psi.imgix.net/17ab7961bf0169b14c9d3d9d3f30a7f21e8884c7/85721c85928b2aa35acc1af18f9ff99d32213c00/d341d69770007dd159fe7aeac61f63766397cb41/a5931061-00ff-413e-b57d-4443988db0e8.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=da8895e79d6c7b31450843404017f785" width="700" height="9" /&gt;&lt;/p&gt;
@@ -1365,10 +1369,10 @@
 &lt;p&gt;&lt;strong&gt;[품질경영 및 공산품안전관리법에 의한 표시]&lt;br /&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;1. 사용연령 : 14세 이상&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;2. 제조연월 : 2018. 03 ~&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;3. 제조자명 : Uin.J&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;4. 주소 : 수원시 장안구&amp;nbsp;&lt;br /&gt;5&lt;/strong&gt;&lt;strong&gt;. 제조국명 : 미정&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198314524316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    <t>152198314524316</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="https://tumblbug-psi.imgix.net/f85c7e07d406f25fd3ea73c668eaa69a8712eaa8/92a64739a5d3f681092751d5430c9f69a7ab115e/7d98302691892a074c79a91a1dfff9b0ed6de3a6/9d8dec57-cc2f-4364-bcd5-f87e10806d46.jpg?ixlib=rb-1.1.0&amp;amp;w=620&amp;amp;auto=format%2C%20compress&amp;amp;lossless=true&amp;amp;ch=save-data&amp;amp;s=57bc2998ebcfd1437dbd0cdfee669c2f" width="700" /&gt;&lt;/p&gt;
 &lt;h2&gt;#안녕하세요 오월의 카탈로그입니다.&lt;/h2&gt;
@@ -1456,16 +1460,16 @@
 &lt;p&gt;1. 사용연령 : 14세 이상&lt;br /&gt;2. 제조연월 : 2018년 3월&lt;br /&gt;3. 제조자명 : 오월의카탈로그&lt;br /&gt;4. 주소 : 서울시 종로구&lt;br /&gt;5. 제조국명 : 대한민국&lt;br /&gt;6. 사이즈 :&amp;nbsp;팬던트지름 약 0.5cmx0.8cm&amp;nbsp; &amp;nbsp;채인-폭:0.1cm / 길이:16.5cm&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198424478217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322104120141_49.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153137659_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142748426_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142736186_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153209756_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142639833_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://www.youtube.com/embed/ah7rw4zigWU?wmode=opaque" width="640" height="360" frameborder="0" allowfullscreen="allowfullscreen"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153217089_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174839542_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174854905_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320175925369_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174909160_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0321/20180321103152849_28.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153256358_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152198466132818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;맑은 공기와 상쾌한 바람이 부는 깊은 숲속... 향긋한 허브들이 가득한 정원에 들어선 기분을 느끼게 해줍니다. &lt;/strong&gt;&lt;/p&gt;
+    <t>152198424478217</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322104120141_49.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153137659_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142748426_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142736186_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153209756_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316142639833_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;span class="fr-video fr-fvc fr-dvb fr-draggable" contenteditable="false" draggable="true"&gt;&lt;iframe src="https://www.youtube.com/embed/ah7rw4zigWU?wmode=opaque" width="640" height="360" frameborder="0" allowfullscreen="allowfullscreen"&gt;&lt;/iframe&gt;&lt;/span&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153217089_65.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174839542_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174854905_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320175925369_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0320/20180320174909160_100.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0321/20180321103152849_28.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0307/20180307153256358_65.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152198466132818</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;맑은 공기와 상쾌한 바람이 부는 깊은 숲속... 향긋한 허브들이 가득한 정원에 들어선 기분을 느끼게 해줍니다. &lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;조향사의 향료 처방에 따라 만드는 안전한 드레스 퍼퓸입니다.&lt;/strong&gt;&lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;봄기운에 노곤노곤, 리프레쉬가 필요한 요즘!&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;날씨가 따뜻해지나 싶더니.. 자꾸만 자꾸만 침대와 한몸이 되려고 합니다.&lt;/p&gt;
@@ -1559,10 +1563,10 @@
 &lt;p&gt;&lt;strong&gt;Q4. 프로젝트가 마감된 후에도 구입이 가능한가요?&lt;/strong&gt;&lt;br /&gt;A4. 본 리워드는 와디즈 이외의 곳에서는 만나보시기 어렵습니다. 와디즈를 이용하시는 서포터분들의 응원에 힘입어 만드는 제품으로 오직 와디즈에서만 만나 보실 수 있습니다.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198765880314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;strong&gt;.." 한여름방의 냉수매트" 입니다.&lt;/strong&gt;.&lt;/p&gt;
+    <t>152198765880314</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;.." 한여름방의 냉수매트" 입니다.&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;항상 더위를 많이 타는 체질로 &amp;nbsp;여름에는 열대야에 잠을 잘수가 없어 누구보다도 &amp;nbsp;더위의 지끗 지끗함을 &amp;nbsp;잘 &amp;nbsp;알고 있습니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp; 그리고 이번 여름...&lt;/p&gt;
@@ -1590,10 +1594,10 @@
 &lt;p&gt;6. 사이즈는 한사이즈 인가요?&lt;br /&gt;-. 예.&lt;br /&gt;&amp;nbsp; 저희 제품은 한사이즈로 1450*950mm 사이즈로 싱글 침대 사이즈 입니다. 냉수매트는 온수매트와 다르게 시원함을 가장 많이 느끼는 부분이&amp;nbsp;&lt;strong&gt;어깨부분부터 엉덩이 부분까지&lt;/strong&gt;이기 때문에..... &amp;nbsp;1인용으로는 전신용으로 길게, &amp;nbsp; 2인용으로는 &amp;nbsp;옆으로 두명이 누우실수 있어 &amp;nbsp; 넉넉하게 사용이 가능하십니다.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152198793048115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;타 일&lt;/strong&gt;&lt;/p&gt;
+    <t>152198793048115</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;타 일&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;집이라는 공간, 카페라는 공간, 직장이라는 공간 누구에게나 특별한 의미를 가지는 공간이 있습니다. &amp;nbsp;누군가에게 소중한 의미를 가지는 공간을 &amp;nbsp;아름답게 꾸미고 따뜻함을 전달하는 일 그것을 위해 저희가 선택한 길은 타일입니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;타일 시공은 전문적인 지식과 기술이 필요하기에 일반인이 쉽게 다가가기 어려운 분야입니다. 그래서 저희는 생각했습니다. 보다 쉽게 소비자에게 다가갈 수 있는 방법은 없을까?   그래서 개발된 제품이 디자인 타일 '오울루'입니다.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;1. 간단한 조립&lt;/strong&gt;&lt;/p&gt;
@@ -1606,10 +1610,10 @@
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180325233130.jpg" alt="" width="700" height="459" /&gt;&lt;/strong&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">152198833648716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;&lt;u&gt;올팝은 캐릭터 중복없이 1개씩 총 7개의 제품+기프트팩+무료배송의 옵션&lt;/u&gt;입니다. 간혹 캐릭터를 중복해서 작성해주시는 경우가 있어 드리는 공지이오니 참고해주세요!&lt;/strong&gt;&lt;/p&gt;
+    <t>152198833648716</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;u&gt;올팝은 캐릭터 중복없이 1개씩 총 7개의 제품+기프트팩+무료배송의 옵션&lt;/u&gt;입니다. 간혹 캐릭터를 중복해서 작성해주시는 경우가 있어 드리는 공지이오니 참고해주세요!&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;u&gt;+ 펀딩에 참여를 희망하시는 해외거주자분들께서는 메이커 연락처(페북, 인스타, 메일, 전화 등)로 연락주시면 안내드립니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;매일 똑같이 반복되는 일상에 소소한 일탈이 필요하다 생각되지 않나요?&lt;br /&gt;어제도, 그리고 오늘도 무언가 가슴 설레는 두근거림이 필요해요. 그럼 이런 건 어떨까요?&lt;/p&gt;
@@ -1624,10 +1628,10 @@
 &lt;p&gt;&lt;img src="resources/uploadImages/20180325234037.jpg" alt="" width="633" height="1115" /&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">152198909819917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;주인공 '권'이가 노비에서 전설의 장수로 다시 태어나는 짜릿한 여정을 그린,&amp;nbsp;김철현 작가님의 Daum&amp;nbsp;인기 웹툰 -무장- 의 주인공 '권'이가 드디어 캐릭터 피규어로 태어났습니다! 권이를 피규어로 만날수 있는 유일한 기회! 국내 웹툰과 피규어 산업에 새로운 방향을 제시해 줄&amp;nbsp;이번&amp;nbsp;프로젝트에 많은 성원과 관심&amp;nbsp;부탁드립니다.&lt;/strong&gt;&lt;/p&gt;
+    <t>152198909819917</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;주인공 '권'이가 노비에서 전설의 장수로 다시 태어나는 짜릿한 여정을 그린,&amp;nbsp;김철현 작가님의 Daum&amp;nbsp;인기 웹툰 -무장- 의 주인공 '권'이가 드디어 캐릭터 피규어로 태어났습니다! 권이를 피규어로 만날수 있는 유일한 기회! 국내 웹툰과 피규어 산업에 새로운 방향을 제시해 줄&amp;nbsp;이번&amp;nbsp;프로젝트에 많은 성원과 관심&amp;nbsp;부탁드립니다.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;그럼, 여러분께 무장 '권' 피규어를 자세히 소개합니다!&lt;/strong&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -1644,10 +1648,10 @@
 &lt;p align="left"&gt;&lt;img src="resources/uploadImages/20180325234743.jpg" width="700" height="1105" /&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">152198946904918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;사람과 환경의 조화를 꿈꾸는 소셜 프로젝트,카라루즈입니다.&lt;/h2&gt;
+    <t>152198946904918</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;사람과 환경의 조화를 꿈꾸는 소셜 프로젝트,카라루즈입니다.&lt;/h2&gt;
 &lt;p&gt;카라루즈는 소중한을 뜻하는 라틴어 Cara와 포르투갈어로 빛을 뜻하는 Luz가 합쳐져 만들어진 이름입니다. 저희는 카라루즈라는 이름처럼 소중하고 따뜻한 빛을 여러분들께 전달하고 싶습니다.&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326000119.jpg" alt="" width="600" height="920" /&gt;&lt;/p&gt;
 &lt;h2&gt;# 우아한 와인병의 불편한 진실&lt;/h2&gt;
@@ -1663,10 +1667,10 @@
 &lt;p&gt;&lt;u&gt;&lt;img src="resources/uploadImages/20180326000252.png" alt="" width="694" height="355" /&gt;&lt;/u&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">152199024030219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;꿈을 현실로&lt;/h2&gt;
+    <t>152199024030219</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;꿈을 현실로&lt;/h2&gt;
 &lt;p&gt;'이해앤다다'는 '꿈과 현실은 다르지 않다'는 개념하에 작품 활동을 하고 있습니다. 이는 실제로 이해가 매일밤 꾸는 꿈으로부터 시작되었습니다. 이해앤다다의 작품과 그 작품으로 제작된 베딩 제품들을 실제로 만나볼 수 있는 전시를 기획하고자 합니다.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326000610.jpg" alt="" width="700" height="2587" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
@@ -1676,19 +1680,19 @@
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326000624.jpg" alt="" width="700" height="1448" /&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">152199094280920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326001834.jpg" alt="" width="630" height="484" /&gt;&lt;img src="resources/uploadImages/20180326001841.jpg" alt="" width="630" height="996" /&gt;&lt;/p&gt;
+    <t>152199094280920</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180326001834.jpg" alt="" width="630" height="484" /&gt;&lt;img src="resources/uploadImages/20180326001841.jpg" alt="" width="630" height="996" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326001852.jpg" alt="" width="630" height="745" /&gt;&lt;img src="resources/uploadImages/20180326001925.jpg" alt="" width="630" height="880" /&gt;&lt;img src="resources/uploadImages/20180326001915.jpg" width="591" height="825" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326001938.jpg" alt="" width="630" height="978" /&gt;&lt;/p&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve">15219678335241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;[첫번째 업데이트] 2시간만에 100% 달성, 후원자들에게 드리는 특별한 선물!&lt;/h3&gt;
+    <t>15219678335241</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;[첫번째 업데이트] 2시간만에 100% 달성, 후원자들에게 드리는 특별한 선물!&lt;/h3&gt;
 &lt;p&gt;런칭&amp;nbsp;&lt;u&gt;2시간만에 목표 금액의 100%를 달성, 24시간만에 300%를 달성&lt;/u&gt;하였습니다! 감사의 의미로 모든 후원자들과 작년에 발매한&amp;nbsp;&lt;strong&gt;라스트콜 8집 'The Traditional' 음원 다운로드 링크를 공유&lt;/strong&gt;할 예정입니다! (링크는 펀딩 마감 후에 이메일로 공유됩니다.) 앞으로도 많은 관심과 응원 부탁드리겠습니다~ 다시 한번 감사드립니다!!&lt;/p&gt;
 &lt;h3&gt;[두번째 업데이트] 500% 달성! 프리미엄 아티잔 맥주&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;&lt;/h3&gt;
 &lt;p&gt;목표 금액 5배를 달성한 기념으로 콘서트의 흥을 더 돋기 위하여 라스트콜이 대한민국 프리미엄 아티잔 맥주&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;와 손잡아&amp;nbsp;&lt;strong&gt;공연에 오시는 모든 분들께 (20세 미만 제외)&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;&amp;nbsp;생맥주 한컵을 제공&lt;/strong&gt;할 예정입니다!&amp;nbsp;&lt;a href="https://www.brewery304.com/" target="_blank" rel="noopener noreferrer"&gt;브루어리304&lt;/a&gt;만의 산뜻하고 깔끔한 맛 기대해주세요!&lt;/p&gt;
@@ -1712,10 +1716,10 @@
 &lt;/blockquote&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220381836964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="campaign-summary"&gt;이 프로젝트는 장애문화예술의 발전과 장애인과 비장애인이 함께하는 세상을 만들기 위한 프로젝트입니다. 극단'휠'의 12월 정기공연 [헬로, 오즈]에 여러분을 초대합니다!&lt;/div&gt;
+    <t>15220381836964</t>
+  </si>
+  <si>
+    <t>&lt;div class="campaign-summary"&gt;이 프로젝트는 장애문화예술의 발전과 장애인과 비장애인이 함께하는 세상을 만들기 위한 프로젝트입니다. 극단'휠'의 12월 정기공연 [헬로, 오즈]에 여러분을 초대합니다!&lt;/div&gt;
 &lt;div class="wd-ui-campaign-content"&gt;
 &lt;div class="wd-ui-cont"&gt;&lt;br /&gt;
 &lt;div&gt;
@@ -1738,13 +1742,13 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220362261523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/XLLvhQqJnnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="campaign-summary"&gt;아프리카tv에서 보이는 라디오 '힐링라디오'를 진행하는 bj힐디오의 시청자 및 팬 감사 콘서트입니다 :)&lt;/div&gt;
+    <t>15220362261523</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XLLvhQqJnnw</t>
+  </si>
+  <si>
+    <t>&lt;div class="campaign-summary"&gt;아프리카tv에서 보이는 라디오 '힐링라디오'를 진행하는 bj힐디오의 시청자 및 팬 감사 콘서트입니다 :)&lt;/div&gt;
 &lt;div class="wd-ui-campaign-content"&gt;
 &lt;div class="wd-ui-cont"&gt;&lt;br /&gt;
 &lt;div&gt;
@@ -1769,13 +1773,13 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220388989719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/kYr31KM_Sq8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;지난 11년간 전 세계인의 꾸준한 사랑을 받아온 상큼한 로맨틱 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;.&lt;/strong&gt;&lt;/p&gt;
+    <t>15220388989719</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kYr31KM_Sq8</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;지난 11년간 전 세계인의 꾸준한 사랑을 받아온 상큼한 로맨틱 뮤지컬 &amp;lt;투모로우 모닝&amp;gt;.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt; 좀 더 많은 관객을 만나기 위한 저희의 노력에 서포터분들의 많은 관심과 참여 부탁드립니다&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326133822.png" alt="" width="700" height="827" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;안녕하세요. 지난 2016년 겨울,&amp;nbsp;&lt;a href="https://www.wadiz.kr/web/campaign/detail/11120?_refer_section_st=reward_card_0_%EB%8C%80%EC%A4%91%EC%98%88%EC%88%A0" target="_blank" rel="noopener noreferrer"&gt;뮤지컬 &amp;lt;미드나잇&amp;gt; 크라우드펀딩&lt;/a&gt;으로 처음 인사드렸던 ㈜모먼트메이커(Moment Makers)입니다. &amp;lsquo;실력파 배우, 스탭들과 함께 재미있고 완성도 높은 작품을 만들어보자&amp;rsquo;는 마음으로 야심차게 준비했던&amp;nbsp;&lt;strong&gt;㈜모먼트메이커의 첫 작품, 뮤지컬 &amp;lt;미드나잇&amp;gt;은 서포터 여러분의 적극적인 참여와 지지에 힘입어 성황리에 공연을 마칠 수 있었습니다. 다시 한 번 깊이 감사드립니다.&lt;/strong&gt;&lt;/p&gt;
@@ -1833,20 +1837,20 @@
 &lt;p&gt;특히 이번 공연은 누구나 한 번쯤 겪을 수 있는 사랑과 이별이라는 보편적인 감정을 진지하지만 유쾌하게 풀어내 많은 이들의 공감을 얻기 위해 많은 노력을 기울였습니다&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152203986584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    <t>152203986584717</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0301/CRTFWIPMEWHV.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0311/EMYRGDQIXATD.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="https://cdn.wadiz.kr/wwwwadiz/green001/2015/0312/ARDQOLGLIDFT.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152204017238819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;진주같은영화제란?&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+    <t>152204017238819</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;진주같은영화제란?&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;img src="http://cdn.wadiz.kr/images/uploads/59142/DSCAYWBLXMFY.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
 &lt;p&gt;2015년 9/15(화)~19(토) 기간동안&amp;nbsp;열리는&amp;nbsp;진주같은영화제는 모두가 즐길 수 있는 지역영화축제입니다! 누구나 감독이 될 수 있고 누구나 관객이 될 수 있어요. 시민들의 참여로 만들어지는 진주같은영화제에서 함께 놀아봐요~&lt;/p&gt;
 &lt;hr /&gt;
@@ -1880,10 +1884,10 @@
 &lt;p&gt;아이들이 주인공이 되어 박스로 자동차를 만들고 그 안에 앉아 영화를 보는 자동차 극장 만들기 체험이 진행됩니다. 참가할 아이들 모두 다 여기 붙어라~&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152203975804215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;blockquote&gt;
+    <t>152203975804215</t>
+  </si>
+  <si>
+    <t>&lt;blockquote&gt;
 &lt;h2&gt;&lt;strong&gt;MUSICAL 비커밍맘 프로젝트 &amp;nbsp;&amp;lt; 엄마가 되다 &amp;gt;&lt;/strong&gt;&lt;/h2&gt;
 &lt;/blockquote&gt;
 &lt;p&gt;&amp;nbsp;사회적기업 &amp;lt;세일링드림&amp;gt;의 쉼없는 도전! &amp;nbsp;순수창작뮤지컬로 아름다운 가족 완성하기~&lt;/p&gt;
@@ -1908,10 +1912,10 @@
 &lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;img class="fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/0814/20170814170630269_31.blob/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15219999193621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;1. 공연개요&lt;/strong&gt;&lt;/p&gt;
+    <t>15219999193621</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;1. 공연개요&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;극작: 공동창작&lt;br /&gt;출연: 김다훈, 김성웅, 박지훈, 백성현, 송민혁, 신예은, 이원준, 이혜진, 최성임, 황찬주&lt;br /&gt;공연 일시: 2018. 4. 24(화) - 2018. 4. 28(토) (예정)&lt;br /&gt;공연장: 한동대학교 학관 104호 / 경북 포항시 북구 흥해읍 한동로 558&lt;br /&gt;문의: 010-5633-7528 (기획대표 김나연)&lt;br /&gt;&lt;br /&gt;&amp;lt;Creative Staff&amp;gt;&lt;br /&gt;연출: 정인혁&lt;br /&gt;연출부: 김효진&lt;br /&gt;무대감독: 강하리&amp;nbsp;&lt;br /&gt;기획대표: 김나연&lt;br /&gt;작곡: 김민하&lt;br /&gt;기획: 남하진, 김민정&lt;br /&gt;노래지도: 양한나&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;2. 공연 소개&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
@@ -1933,10 +1937,10 @@
 &lt;p&gt;연습 사진 등은 아래의 계정에 수시로 업데이트될 예정입니다.&lt;br /&gt;문의사항이 있으시면 [창작자에게 문의하기]탭을 통해&amp;nbsp;문의해주세요.&lt;br /&gt;&lt;br /&gt;기획대표 김나연 010-5633-7528&lt;br /&gt;https://www.facebook.com/theatre.in.handong/&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220006437222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;예술단체 &amp;lt;BEMUSE&amp;gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;첫번째 프로젝트,&amp;nbsp;&lt;em&gt;뮤지컬 'Les Miserables'&lt;/em&gt;&lt;/strong&gt;&lt;/h2&gt;
+    <t>15220006437222</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;예술단체 &amp;lt;BEMUSE&amp;gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;첫번째 프로젝트,&amp;nbsp;&lt;em&gt;뮤지컬 'Les Miserables'&lt;/em&gt;&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326030312.jpg" alt="" width="700" height="934" /&gt;&lt;/p&gt;
 &lt;p&gt;&amp;raquo;&amp;nbsp;공연일시 2018.04.21(토) - 2018.04.22(일)&lt;br /&gt;&amp;nbsp;&amp;raquo; 공연장소 서울시 서대문문화회관 대극장&lt;br /&gt;&lt;strong&gt;&amp;nbsp;&amp;raquo; 이번 공연은 이탈리아문화예술협회, kartalia 컴퍼니 주관, BEMUSE 주최, 영진 TM에서 협력하는 믿을 수 있는 공연입니다.&lt;/strong&gt;&lt;/p&gt;
@@ -1975,10 +1979,10 @@
 &lt;p&gt;후원자 이름 기재는 별다른 요청이 없으실 경우 후원자의 이름이 기재되며, 후원자분께서 다른 이름으로 기재하고 싶으신 경우,&amp;nbsp;&lt;strong&gt;창작자에게 문의하기&lt;/strong&gt;로 알려주시기 바랍니다.&lt;br /&gt;후원자명 기재는&amp;nbsp;&lt;strong&gt;BEMUSE 제작 Les Miserables 팜플렛&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;공연장 현장에 후원자 명단&lt;/strong&gt;을 따로 만들어 전시할 예정입니다.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220013858693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326031330.jpg" alt="" width="700" height="978" /&gt;&lt;/p&gt;
+    <t>15220013858693</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180326031330.jpg" alt="" width="700" height="978" /&gt;&lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;진행자/진행 팀 소개&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180326031356.jpg" alt="" width="700" height="525" /&gt;&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;창작예술집단 보광극장은 예술을 사랑하는 젊은 청년들(寶, 보배 보)이 하나의 촛불이 큰 빛(光, 빛날 광)이 되 듯, 시작되었습니다. 우리는 연극, 영화, 전시 등 장르를 불문하고 우리의 이야기를 관객들에게 전할 수 있는 모든 예술을 지향하는 단체입니다.&lt;/strong&gt;&lt;/p&gt;
@@ -2008,10 +2012,10 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220018939184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326032250.jpg" alt="" width="700" height="467" /&gt;&lt;/p&gt;
+    <t>15220018939184</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180326032250.jpg" alt="" width="700" height="467" /&gt;&lt;/p&gt;
 &lt;h2&gt;창작집단&amp;nbsp;&lt;strong&gt;'농담'&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;창작집단&amp;nbsp;&lt;strong&gt;'농담'&lt;/strong&gt;은 2014년 창단 되어 농밀한 이야기를 농담처럼 이라는 모토로 현재까지 총 8편의 작품을 만들었습니다. 농담은 무대 뿐만 아니라 영상, 음악, 퍼포먼스 등 다양한 매체를 이용한 창작활동을 이어 나가고 있는 예술 집단입니다.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;창작집단 '농담' 공연 연혁&lt;br /&gt;&amp;nbsp;- 2015, 적의 화장법&lt;br /&gt;&amp;nbsp;- 2015, 아마도 오이디푸스&lt;br /&gt;&amp;nbsp;- 2016, 환도와 리스&lt;br /&gt;&amp;nbsp;- 2016, #나&lt;br /&gt;&amp;nbsp;- 2017, 아이디얼-&lt;br /&gt;&amp;nbsp;- 2017, 적의 화장법&lt;br /&gt;&amp;nbsp;- 2017, 듣는 글, 늦게 온 여름&lt;br /&gt;&amp;nbsp;- 2018, X 그 광기에 대하여&lt;/p&gt;
@@ -2048,10 +2052,10 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220024738805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;em&gt;그저 평범하고 싶었던 &amp;lsquo;다영&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
+    <t>15220024738805</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;그저 평범하고 싶었던 &amp;lsquo;다영&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;em&gt;단독 연주회를 앞두고 추락사 한 &amp;lsquo;지민&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;em&gt;&amp;lsquo;지민&amp;rsquo;에게 남다른 감정을 가진 &amp;lsquo;수현&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;em&gt;속내를 알 수 없는 전학생 &amp;lsquo;찬희&amp;rsquo;,&lt;/em&gt;&lt;/p&gt;
@@ -2116,10 +2120,10 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220031712136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&amp;nbsp;&amp;lsquo;용서&amp;rsquo; 한적 있나요?&lt;/h2&gt;
+    <t>15220031712136</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&amp;nbsp;&amp;lsquo;용서&amp;rsquo; 한적 있나요?&lt;/h2&gt;
 &lt;h3&gt;우리는 어떻게 하면 누군가를&amp;nbsp;&lt;u&gt;온전히&lt;/u&gt;&amp;nbsp;용서할 수 있을까요?&lt;br /&gt;연극&amp;lt;용서 받은 시간&amp;gt;은 한 가족이 &amp;lsquo;&lt;u&gt;시간&lt;/u&gt;&amp;rsquo;을 통해 서로를 용서해 가는 과정을 그리고 있습니다.&lt;/h3&gt;
 &lt;h2&gt;[인물 소개]&lt;/h2&gt;
 &lt;h2&gt;&amp;bull; 아버지 때문에 벙어리가 된 아들 &amp;lsquo;&lt;strong&gt;&lt;u&gt;현수&lt;/u&gt;'&lt;/strong&gt;&lt;/h2&gt;
@@ -2170,10 +2174,10 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220465990497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img src="resources/uploadImages/20180326154848.png" alt="" width="700" height="700" /&gt;&lt;/p&gt;
+    <t>15220465990497</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="resources/uploadImages/20180326154848.png" alt="" width="700" height="700" /&gt;&lt;/p&gt;
 &lt;blockquote&gt;안녕하세요. 달보드레 공방 감독 박성진입니다.&lt;br /&gt;"우리들의 이야기"를 만들어가고 싶은 사람들이 모여 만든 웹드라마 창작집단 달보드레 공방이 이번 봄, 새로운 작품을 들고 여러분의 곁을 찾아가려고 합니다.&lt;br /&gt;저희와 함께 우리의 이야기를 만들어갔으면 좋겠습니다.&lt;/blockquote&gt;
 &lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
 &lt;h2&gt;기획의도&lt;/h2&gt;
@@ -2239,10 +2243,10 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220472298458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;핵쓰레기 너머, 나비 날다 &amp;ndash; 2018 탈핵 퍼레이드&lt;/h2&gt;
+    <t>15220472298458</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;핵쓰레기 너머, 나비 날다 &amp;ndash; 2018 탈핵 퍼레이드&lt;/h2&gt;
 &lt;h4&gt;후쿠시마 사고 7주기를 맞아 광화문 광장에서 탈핵 퍼레이드가 열립니다. 3월 10일 토요일, 함께 해요.&lt;/h4&gt;
 &lt;p&gt;&lt;img src="resources/uploadImages/20180326155650.jpg" alt="" width="700" height="991" /&gt;&lt;/p&gt;
 &lt;h3&gt;창작자 소개&lt;/h3&gt;
@@ -2288,111 +2292,13 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220142780433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;피로와 피부의 핵심 영양소 비타민! 제대로 드시고 계신가요? 합성비타민 때문에 과잉비타민 섭취가 당연시 되는 요즘, 앞으론 천연비타민으로 피로와 피부는 물론 건강까지 챙기세요!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h2&gt;&lt;strong&gt;우리는 과연 비타민을 잘 섭취하고 있을까요?&lt;/strong&gt;&lt;/h2&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;과일,야채의 섭취를 통해 하루 권장량의 비타민을 섭취하기는 점점 어려워지고,&lt;br /&gt;외식문화의 발달로 점차 비타민의 공급을 건강보조식품에 기대고 있지 않으신가요?&lt;/p&gt;
-&lt;p&gt;저도 그랬습니다. 1일 1회 1정으로 하루 권장섭취량의 비타민C는 물론 수많은 비타민이 충족되다보니 출근 전 한 알 먹으면 그날 하루는 내 몸에게 덜 미안했죠.&lt;/p&gt;
-&lt;h3&gt;여기서 우리는 놓치는게 하나 있습니다.&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;성공한 다이어터 10명중 9명은 항상 하는 말이 있습니다.&lt;br /&gt;"&lt;u&gt;조금씩 자주 먹었어요&lt;/u&gt;.", "하루 3끼를 간식포함해서 6끼로 나눠 먹었어요."&lt;/p&gt;
-&lt;p&gt;인체 구성의 3대 영양소는 탄수화물, 단백질, 지방이 있습니다.&lt;br /&gt;성인남성 1일 권장섭취열량이 2500Kcal, 성인여성 1일 권장섭취열량이 2000Kcal 입니다.&lt;br /&gt;건강한 사람은 권장섭취열량 내에서 시간을 분배하여 식사를 통해 칼로리를 섭취하고,&lt;br /&gt;대체로 비만한 사람들은 과식, 폭식 등의 식습관을 볼 수 있습니다.&lt;/p&gt;
-&lt;p&gt;&lt;u&gt;비타민 또한 예외는 아닙니다.&lt;/u&gt;&lt;br /&gt;비타민을 먹은 다음 화장실을 가면 소변이 노랗게 나오는 현상은 당연한게 아닙니다.&lt;br /&gt;그 시간대에 필요한 비타민 이외에는 모두 몸 밖으로 배출이 되는 것이죠.&lt;br /&gt;이제는&amp;nbsp;&lt;u&gt;비타민도&amp;nbsp;&lt;strong&gt;똑똑&lt;/strong&gt;하게&amp;nbsp;&lt;strong&gt;챙겨&lt;/strong&gt;먹어야 합니다&lt;/u&gt;.&amp;nbsp;&lt;u&gt;필요량을&amp;nbsp;&lt;strong&gt;조금씩 자주&amp;nbsp;&lt;/strong&gt;말이죠&lt;/u&gt;&lt;u&gt;.&lt;/u&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h2&gt;어떻게 비타민 섭취를 해야 할까?&lt;/h2&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;단순하지만 중요한 호기심 이였습니다.&lt;br /&gt;물론, 가장 좋은 방법은 야채나 과일의 꾸준한 섭취로 얻는것인데 결코 쉽지 않더라구요.&lt;br /&gt;&lt;strong&gt;어떤것이 합성비타민보다 좋은 대체품일까?&amp;nbsp;&lt;/strong&gt;끝없이 많은 책과 논문을 보다 찾게된게&lt;br /&gt;바로,&amp;nbsp;&lt;strong&gt;&lt;u&gt;"비타민열매분말"&lt;/u&gt;&lt;/strong&gt;&amp;nbsp; 이였습니다.&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
-&lt;li&gt;여기서 두번째 고민이 시작됩니다.&lt;br /&gt;&lt;strong&gt;티베트의 환경&lt;/strong&gt;에서 자란 비타민분말이 효과가 가장 좋다고하여 시장조사를 했습니다.&lt;br /&gt;100개의 제품중 약 97% 이상의 제품은 대용량의 분말을 단순포장하여 유통되고 있고,&lt;br /&gt;3% 정도는 분말을 소량으로 스틱포장하거나 엑기스로 내어 판매하더라구요.&lt;br /&gt;비타민의 신맛은 건강을 생각해서 참고 먹는다 해도 한두번 이였습니다.&lt;br /&gt;또한, 분말의 특성상 습기에 약하여 분말을 일반통에 보관하였더니 딱딱히 굳었습니다.&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;언제, 어디서든, 편하게, 조금씩, 자주, 섭취 할 수 있는 방법&lt;/strong&gt;은 없을까?&lt;br /&gt;식품은 찾았고, 그에 맞는 제형을 고민하던 끝에 찾아낸게&lt;strong&gt;&lt;u&gt;&amp;nbsp;"캡슐"&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;이였습니다. &amp;nbsp;&amp;nbsp;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib fr-bordered" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201133705286_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;h5&gt;&amp;nbsp;시중 유통되는 비타민분말 &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 상온의 습기로 인해 변한 비타민분말&lt;/h5&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;blockquote class="type-default"&gt;
-&lt;p&gt;&lt;strong&gt;&amp;nbsp;Vitamin tree 누구냐 넌?&lt;/strong&gt;&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;ul&gt;
-&lt;li&gt;과거&amp;nbsp;&lt;strong&gt;징기즈칸과 몽골귀족들의&amp;nbsp;&lt;u&gt;자양강장제&lt;/u&gt;&lt;/strong&gt;로 사용 되었습니다.&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;비타민 A, C, E 등 무려&amp;nbsp;&lt;u&gt;16종류의 비타민이 함유&lt;/u&gt;&lt;/strong&gt;되어 있습니다.&lt;/li&gt;
-&lt;li&gt;그 외에도&amp;nbsp;&lt;strong&gt;&lt;u&gt;필수 아미노산과 오메가3&lt;/u&gt;등 무려&amp;nbsp;&lt;u&gt;190여 가지의 영양소&lt;/u&gt;&lt;/strong&gt;가 들어있습니다.&lt;/li&gt;
-&lt;li&gt;이중&amp;nbsp;&lt;strong&gt;비타민C(레몬의 15배), 비타민E와 사포닌 성분이 풍부&lt;/strong&gt;하게 들어있는데,&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민C&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 수용성 비타민으로 혈액을 통해 온 몸을 다니면서&amp;nbsp;&lt;strong&gt;활성 산소를 제거&lt;/strong&gt;하는 역할&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민E&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 지용성 비타민으로&amp;nbsp;&lt;strong&gt;염증으로 손상된 폐 조직을 보호&lt;/strong&gt;하는데 도움&lt;br /&gt;&lt;strong&gt;&lt;u&gt;사 포 닌&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 폐와 기관지가 마르지 않게 해줘&amp;nbsp;&lt;strong&gt;호흡기와 폐 건강&lt;/strong&gt;에 도움 및&amp;nbsp;&lt;strong&gt;운동 능력 개선&lt;/strong&gt;&amp;nbsp;도움&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;blockquote class="type-default"&gt;
-&lt;p&gt;&lt;strong&gt;캡슐을 선택한 이유?&lt;/strong&gt;&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;ul&gt;
-&lt;li&gt;비타민분말은 수분을 좋아해서&amp;nbsp;&lt;strong&gt;제형변화&lt;/strong&gt;는 물론&amp;nbsp;&lt;strong&gt;&lt;u&gt;손에 끈적하게 잘 묻는다&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
-&lt;li&gt;분말 섭취 소비자의 대부분은&amp;nbsp;&lt;strong&gt;&lt;u&gt;적정복용량 섭취가 불가능.&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
-&lt;li&gt;비타민분말의&amp;nbsp;&lt;strong&gt;신맛&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;당질로 인한 치아점착&lt;/strong&gt;의&amp;nbsp;&lt;strong&gt;&lt;u&gt;단점개선의 필요성&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;&lt;u&gt;100%젤라틴 투명캡슐&lt;/u&gt;&lt;/strong&gt;로&amp;nbsp;&lt;strong&gt;인체에 부담없고&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;내용물 확인을 통한&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;신뢰성 제고&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;&lt;u&gt;휴대의 편리성, 복용량의 조절, 복용의 간편함&lt;/u&gt;&lt;/strong&gt;을 통해&lt;strong&gt;&amp;nbsp;그뤠잇한 리얼비타민 섭취!!&lt;/strong&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142055686_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h2&gt;리얼비타민 탄생하다.&lt;/h2&gt;
-&lt;/blockquote&gt;
-&lt;h3&gt;비타민을 똑똑하게 섭취하고 싶었을 뿐이다.&lt;/h3&gt;
-&lt;p&gt;처음 합성비타민의 오류를 깨닫고, The건강 하게 비타민 섭취를 하기위해 공부했습니다.&lt;/p&gt;
-&lt;h3&gt;더 많은 사람들이 깨닫게 하고 싶었다.&lt;/h3&gt;
-&lt;p&gt;합성비타민의 오류를, 그리고 천연비타민 섭취의 필요성을 더 많이 공유하고 싶었습니다.&lt;/p&gt;
-&lt;h3&gt;The건강 해지기 위해 먹는것이기 때문에 더 신중하게.&lt;/h3&gt;
-&lt;p&gt;시중 비타민분말의 대부분은 색소를 첨가하여 보기 좋은 색을 내는 경우가 대부분 입니다.&lt;br /&gt;분말제품에는 덱스트린이라는 첨가물을 많이 넣습니다.&lt;br /&gt;이번에 제품화한 캡슐제형의 리얼비타민은 엄격하고, 철저한 선별을 거쳤습니다.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;u&gt;No 덱스트린, 無색소, 無방부제, 無첨가물, 無착향료&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;정직함만 담았습니다.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142151671_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h2&gt;Q &amp;amp; A&lt;/h2&gt;
-&lt;/blockquote&gt;
-&lt;h3&gt;Q : 복용법이 어떻게 되나요?&lt;br /&gt;A : 캡슐 1정에 0.5g이 담겨있습니다. 하루 권장량은 3g~12g으로 하루 최대 24캡슐 이내로 휴대하시면서 틈틈히 충분한 물과 함께 드시면 됩니다.&lt;/h3&gt;
-&lt;h3&gt;Q : 부작용은 없나요?&lt;br /&gt;A : 농산물로 별다른 부작용은 보고 된바 없으나, 비타민 특성상 빈속에 섭취하면 속쓰림을 유발 할 수 있습니다.&lt;/h3&gt;
-&lt;h3&gt;Q : 보관방법 및 유통기한은 어떻게 되나요?&lt;br /&gt;A : 보관은 가급적 건냉암소 한 곳에서 해주시고, 유통기한은 2020년 02월 10일 까지 입니다.&lt;/h3&gt;
-&lt;h3&gt;Q : 영양정보가 궁금해요.&lt;br /&gt;A : 하단의 비타민나무열매 영양정보를 참고하시면 도움이 됩니다.&lt;/h3&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227120255990_7.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142203014_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;blockquote class="type-default"&gt;
-&lt;h2&gt;프리미엄 비타민 [The:건강 리얼비타민]&lt;br /&gt;내일의 나를 위한 현명한 선택 입니다.&lt;/h2&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h3&gt;좋은 아이디어도 세상밖에 나올땐 알아봐 줄 사람이 필요합니다.&lt;/h3&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;와디즈 크라우드펀딩에 프로젝트를 개설한 이유는 알아봐 줄 사람을 찾기 위해서 입니다.&lt;/p&gt;
-&lt;p&gt;좋은것을 나누고 싶다는 생각으로 시작했는데, 이 진면목을 어디서 알아봐줄까 고민했습니다.&lt;/p&gt;
-&lt;p&gt;와디즈는 리얼비타민이 세상에 나와 활동하는데 큰 도움이 될 것이라는 확신이 있었습니다.&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h3&gt;한걸음, 한걸음 와디즈로 비롯하여...&lt;/h3&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;리얼비타민을 만들어야겠다고 생각했지만, 문제는 비타민 섭취에 대한 이해였습니다.&lt;/p&gt;
-&lt;p&gt;더 많은 소비자가 건강한 비타민 섭취에 대해 인지 할 수 있도록 후원금은 소비자를 주제로한 올바른 비타민 섭취 및 건강에 대한 이야기로 교육을 진행하는데 사용할 예정입니다.&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h3&gt;봄볕에 방심하지 않도록, 춘곤증에 지지 않도록.&lt;/h3&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;배송은 펀딩이 종료되고, 7일이내 로젠택배 사를 통해 일괄 배송 할 예정입니다.&lt;/p&gt;
-&lt;p&gt;꽃피는 춘삼월 봄볕에 방심하여 피부가 상하지 않도록, 날이 좋아 찾아오는 춘곤증에 무기력해지지 않도록 로켓배송을 통해 리얼비타민을 전달해 드리겠습니다.&lt;/p&gt;
-&lt;blockquote class="type-line"&gt;
-&lt;h3&gt;청춘의 뜨거운 열기, 진실한 마음을 담아서&lt;/h3&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227102920251_36.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;p&gt;충북 영동(농업), 충북 청주(회사), 경기 의정부(직영 공판장)을 25년째 불철주야 일 하시는 부모님의 가업을 이어 1차가공으로만 유통되던 식품을 이제는 2차가공을 거쳐 제품생산을 통한 소비층확대, 다양한 제형개발을 하여 변화되는 패러다임에 한걸음 앞서 갈 수 있도록 뜨거운 열기와 진실한 마음을 지닌 청년의 꿈을 지지해주세요.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15220150985065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;오늘도 피곤한 하루 링티 한 잔으로 충전해보는 건 어떠세요?&lt;/p&gt;
+    <t>15220142780433</t>
+  </si>
+  <si>
+    <t>15220150985065</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;오늘도 피곤한 하루 링티 한 잔으로 충전해보는 건 어떠세요?&lt;/p&gt;
 &lt;p class="partner-name"&gt;&lt;a href="https://www.wadiz.kr/crowd/kstartup2017"&gt;도전K스타트업2017 파트너&lt;/a&gt;와 함께합니다.&lt;/p&gt;
 &lt;p class="partner-name"&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1106/20171106150846836_62.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;
@@ -2523,10 +2429,10 @@
 &lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1108/20171108142043318_52.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220157018216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;국내 최초 액상형(RTD, Ready To Drink) 식사, 밀스 드링크! 또 한 번의 혁신으로 식사의 새로운 패러다임을 만들어 갑니다.&lt;/strong&gt;&lt;/h2&gt;
+    <t>15220157018216</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;국내 최초 액상형(RTD, Ready To Drink) 식사, 밀스 드링크! 또 한 번의 혁신으로 식사의 새로운 패러다임을 만들어 갑니다.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h2&gt;국내 최초 RTD(액상형) 식사, 밀스 드링크&lt;/h2&gt;
 &lt;p&gt;2015년 9월 국내 최초의 미래식사를 출시한 인테이크가 또 한 번의 혁신을 일으킵니다.&amp;nbsp;&lt;strong&gt;간편함을 극대화한&amp;nbsp;&lt;/strong&gt;&lt;u&gt;&lt;strong&gt;RTD(Ready To Drink, 액상형) 식사, 밀스 드링크&lt;/strong&gt;&lt;/u&gt;&lt;strong&gt;!&lt;/strong&gt;&lt;/p&gt;
@@ -2583,10 +2489,10 @@
 &lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0306/20180306133816398_83.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">15220166971188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;행복과 만족을 주는 모닝빵&lt;/h2&gt;
+    <t>15220166971188</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;행복과 만족을 주는 모닝빵&lt;/h2&gt;
 &lt;p&gt;- 더이상 우리 아이들에게 기름진 간식을 줄 수 없습니다.&lt;/p&gt;
 &lt;p&gt;- 어린이집 간식으로 무엇을 할 지 고민하지 않아도 됩니다.&lt;/p&gt;
 &lt;p&gt;- 시간없다고 먹는 패스트푸드는 우리 건강을 갉아 먹고 있습니다.&lt;/p&gt;
@@ -2650,10 +2556,10 @@
 &lt;p&gt;유통기한 : 냉동보관 6개월&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152201732428510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+    <t>152201732428510</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h2&gt;버터는 왜 한가지 맛일까요?&lt;/h2&gt;
 &lt;p&gt;노란 버터가 지겨운 당신을 위해&lt;/p&gt;
 &lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0115/20180115210611535_75.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
@@ -2844,21 +2750,13 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">152201819849312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100643718.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100702238.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102757230.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102918903.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100719604.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100807216.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100828102.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100843135.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100857759.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100910687.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100924940.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100948116.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101002678.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163316468.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163418163.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101050668.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img class="fr-dib fr-draggable" src="https://cdn.wadiz.kr/ft/images/green001/2016/1209/20161209134507704_90.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101125719.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101143562.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101159722.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101213054.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101227215.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152201947063216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h5&gt;다가오는 2018년! 소중한 사람에겐 특별한 선물을! 설탕 버터 크림 NO! 오직 건강한 재료로 만들어낸 리듬앤바디의 "비건초콜릿" 진하고 쫀득한 초콜릿을 세계로 초대할게요.&lt;/h5&gt;
+    <t>152201819849312</t>
+  </si>
+  <si>
+    <t>152201947063216</t>
+  </si>
+  <si>
+    <t>&lt;h5&gt;다가오는 2018년! 소중한 사람에겐 특별한 선물을! 설탕 버터 크림 NO! 오직 건강한 재료로 만들어낸 리듬앤바디의 "비건초콜릿" 진하고 쫀득한 초콜릿을 세계로 초대할게요.&lt;/h5&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h2&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1124/20171124173236376_85.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;다가오는 2018년 새해에,&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;건강,행복,달콤함을 선물하세요.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;특별한 사람에겐 특별한선물을.&lt;/strong&gt;&lt;/h2&gt;
 &lt;p&gt;안녕하세요 ! 리듬앤바디입니다.&lt;br /&gt;가슴 설레는 계절, 겨울이에요.&lt;br /&gt;어린아이부터 어른들까지 모두가 기다려온 크리스마스까지 돌아오고있네요.&lt;br /&gt;벌써 연말이라니..믿기지가 않아요&lt;br /&gt;벌써 거리에는 반짝반짝 전구들이 빛나기도하고...&lt;br /&gt;캐롤송이 들려오기도 하더라구요.&lt;br /&gt;&lt;br /&gt;한살 더 먹는다는게 어렸을땐 좋았지만 어느덧..&lt;br /&gt;씁쓸함을 더 느낄법한 어른이 되었네요.&lt;br /&gt;다가오는 2018년 새해에, 그런 분들을 위해 작은 위로가될&lt;br /&gt;건강하고 달콤한 선물을 드릴게요. 행복은 덤으로 말이죠.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;&amp;nbsp;2018년의 새해를 위해&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;소중한 사람에게 특별한 선물을.&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;이라는 펀딩으로 다시 돌아왔습니다!&lt;/strong&gt;&lt;/p&gt;
@@ -2902,18 +2800,502 @@
 &lt;p&gt;&lt;strong&gt;다가오는 마지막,그리고 시작을 소중한&amp;nbsp;사람들에겐 특별한 선물을,&lt;br /&gt;좋은 사람들에겐 최고의 선물을 해주세요.&lt;br /&gt;부담스럽지 않지만 고급스러운, 건강하지만 달콤한 비건초콜릿이 책임질게요-&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
+    <t>select PROJECT_ID PROJECT_ID, VIDEO_URL VIDEO_URL, CONTENT CONTENT from (select * from "CORNSALAD"."PROJECT_CONTENT")</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;피로와 피부의 핵심 영양소 비타민! 제대로 드시고 계신가요? 합성비타민 때문에 과잉비타민 섭취가 당연시 되는 요즘, 앞으론 천연비타민으로 피로와 피부는 물론 건강까지 챙기세요!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;&lt;strong&gt;우리는 과연 비타민을 잘 섭취하고 있을까요?&lt;/strong&gt;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;과일,야채의 섭취를 통해 하루 권장량의 비타민을 섭취하기는 점점 어려워지고,&lt;br /&gt;외식문화의 발달로 점차 비타민의 공급을 건강보조식품에 기대고 있지 않으신가요?&lt;/p&gt;
+&lt;p&gt;저도 그랬습니다. 1일 1회 1정으로 하루 권장섭취량의 비타민C는 물론 수많은 비타민이 충족되다보니 출근 전 한 알 먹으면 그날 하루는 내 몸에게 덜 미안했죠.&lt;/p&gt;
+&lt;h3&gt;여기서 우리는 놓치는게 하나 있습니다.&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;성공한 다이어터 10명중 9명은 항상 하는 말이 있습니다.&lt;br /&gt;"&lt;u&gt;조금씩 자주 먹었어요&lt;/u&gt;.", "하루 3끼를 간식포함해서 6끼로 나눠 먹었어요."&lt;/p&gt;
+&lt;p&gt;인체 구성의 3대 영양소는 탄수화물, 단백질, 지방이 있습니다.&lt;br /&gt;성인남성 1일 권장섭취열량이 2500Kcal, 성인여성 1일 권장섭취열량이 2000Kcal 입니다.&lt;br /&gt;건강한 사람은 권장섭취열량 내에서 시간을 분배하여 식사를 통해 칼로리를 섭취하고,&lt;br /&gt;대체로 비만한 사람들은 과식, 폭식 등의 식습관을 볼 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;비타민 또한 예외는 아닙니다.&lt;/u&gt;&lt;br /&gt;비타민을 먹은 다음 화장실을 가면 소변이 노랗게 나오는 현상은 당연한게 아닙니다.&lt;br /&gt;그 시간대에 필요한 비타민 이외에는 모두 몸 밖으로 배출이 되는 것이죠.&lt;br /&gt;이제는&amp;nbsp;&lt;u&gt;비타민도&amp;nbsp;&lt;strong&gt;똑똑&lt;/strong&gt;하게&amp;nbsp;&lt;strong&gt;챙겨&lt;/strong&gt;먹어야 합니다&lt;/u&gt;.&amp;nbsp;&lt;u&gt;필요량을&amp;nbsp;&lt;strong&gt;조금씩 자주&amp;nbsp;&lt;/strong&gt;말이죠&lt;/u&gt;&lt;u&gt;.&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;어떻게 비타민 섭취를 해야 할까?&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;단순하지만 중요한 호기심 이였습니다.&lt;br /&gt;물론, 가장 좋은 방법은 야채나 과일의 꾸준한 섭취로 얻는것인데 결코 쉽지 않더라구요.&lt;br /&gt;&lt;strong&gt;어떤것이 합성비타민보다 좋은 대체품일까?&amp;nbsp;&lt;/strong&gt;끝없이 많은 책과 논문을 보다 찾게된게&lt;br /&gt;바로,&amp;nbsp;&lt;strong&gt;&lt;u&gt;"비타민열매분말"&lt;/u&gt;&lt;/strong&gt;&amp;nbsp; 이였습니다.&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;여기서 두번째 고민이 시작됩니다.&lt;br /&gt;&lt;strong&gt;티베트의 환경&lt;/strong&gt;에서 자란 비타민분말이 효과가 가장 좋다고하여 시장조사를 했습니다.&lt;br /&gt;100개의 제품중 약 97% 이상의 제품은 대용량의 분말을 단순포장하여 유통되고 있고,&lt;br /&gt;3% 정도는 분말을 소량으로 스틱포장하거나 엑기스로 내어 판매하더라구요.&lt;br /&gt;비타민의 신맛은 건강을 생각해서 참고 먹는다 해도 한두번 이였습니다.&lt;br /&gt;또한, 분말의 특성상 습기에 약하여 분말을 일반통에 보관하였더니 딱딱히 굳었습니다.&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;언제, 어디서든, 편하게, 조금씩, 자주, 섭취 할 수 있는 방법&lt;/strong&gt;은 없을까?&lt;br /&gt;식품은 찾았고, 그에 맞는 제형을 고민하던 끝에 찾아낸게&lt;strong&gt;&lt;u&gt;&amp;nbsp;"캡슐"&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;이였습니다. &amp;nbsp;&amp;nbsp;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib fr-bordered" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201133705286_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;&amp;nbsp;시중 유통되는 비타민분말 &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 상온의 습기로 인해 변한 비타민분말&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;Vitamin tree 누구냐 넌?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;과거&amp;nbsp;&lt;strong&gt;징기즈칸과 몽골귀족들의&amp;nbsp;&lt;u&gt;자양강장제&lt;/u&gt;&lt;/strong&gt;로 사용 되었습니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;비타민 A, C, E 등 무려&amp;nbsp;&lt;u&gt;16종류의 비타민이 함유&lt;/u&gt;&lt;/strong&gt;되어 있습니다.&lt;/li&gt;
+&lt;li&gt;그 외에도&amp;nbsp;&lt;strong&gt;&lt;u&gt;필수 아미노산과 오메가3&lt;/u&gt;등 무려&amp;nbsp;&lt;u&gt;190여 가지의 영양소&lt;/u&gt;&lt;/strong&gt;가 들어있습니다.&lt;/li&gt;
+&lt;li&gt;이중&amp;nbsp;&lt;strong&gt;비타민C(레몬의 15배), 비타민E와 사포닌 성분이 풍부&lt;/strong&gt;하게 들어있는데,&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민C&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 수용성 비타민으로 혈액을 통해 온 몸을 다니면서&amp;nbsp;&lt;strong&gt;활성 산소를 제거&lt;/strong&gt;하는 역할&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민E&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 지용성 비타민으로&amp;nbsp;&lt;strong&gt;염증으로 손상된 폐 조직을 보호&lt;/strong&gt;하는데 도움&lt;br /&gt;&lt;strong&gt;&lt;u&gt;사 포 닌&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 폐와 기관지가 마르지 않게 해줘&amp;nbsp;&lt;strong&gt;호흡기와 폐 건강&lt;/strong&gt;에 도움 및&amp;nbsp;&lt;strong&gt;운동 능력 개선&lt;/strong&gt;&amp;nbsp;도움&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;캡슐을 선택한 이유?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;비타민분말은 수분을 좋아해서&amp;nbsp;&lt;strong&gt;제형변화&lt;/strong&gt;는 물론&amp;nbsp;&lt;strong&gt;&lt;u&gt;손에 끈적하게 잘 묻는다&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;분말 섭취 소비자의 대부분은&amp;nbsp;&lt;strong&gt;&lt;u&gt;적정복용량 섭취가 불가능.&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;비타민분말의&amp;nbsp;&lt;strong&gt;신맛&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;당질로 인한 치아점착&lt;/strong&gt;의&amp;nbsp;&lt;strong&gt;&lt;u&gt;단점개선의 필요성&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;100%젤라틴 투명캡슐&lt;/u&gt;&lt;/strong&gt;로&amp;nbsp;&lt;strong&gt;인체에 부담없고&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;내용물 확인을 통한&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;신뢰성 제고&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;휴대의 편리성, 복용량의 조절, 복용의 간편함&lt;/u&gt;&lt;/strong&gt;을 통해&lt;strong&gt;&amp;nbsp;그뤠잇한 리얼비타민 섭취!!&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142055686_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;리얼비타민 탄생하다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;비타민을 똑똑하게 섭취하고 싶었을 뿐이다.&lt;/h3&gt;
+&lt;p&gt;처음 합성비타민의 오류를 깨닫고, The건강 하게 비타민 섭취를 하기위해 공부했습니다.&lt;/p&gt;
+&lt;h3&gt;더 많은 사람들이 깨닫게 하고 싶었다.&lt;/h3&gt;
+&lt;p&gt;합성비타민의 오류를, 그리고 천연비타민 섭취의 필요성을 더 많이 공유하고 싶었습니다.&lt;/p&gt;
+&lt;h3&gt;The건강 해지기 위해 먹는것이기 때문에 더 신중하게.&lt;/h3&gt;
+&lt;p&gt;시중 비타민분말의 대부분은 색소를 첨가하여 보기 좋은 색을 내는 경우가 대부분 입니다.&lt;br /&gt;분말제품에는 덱스트린이라는 첨가물을 많이 넣습니다.&lt;br /&gt;이번에 제품화한 캡슐제형의 리얼비타민은 엄격하고, 철저한 선별을 거쳤습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;No 덱스트린, 無색소, 無방부제, 無첨가물, 無착향료&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;정직함만 담았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142151671_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;Q &amp;amp; A&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;Q : 복용법이 어떻게 되나요?&lt;br /&gt;A : 캡슐 1정에 0.5g이 담겨있습니다. 하루 권장량은 3g~12g으로 하루 최대 24캡슐 이내로 휴대하시면서 틈틈히 충분한 물과 함께 드시면 됩니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 부작용은 없나요?&lt;br /&gt;A : 농산물로 별다른 부작용은 보고 된바 없으나, 비타민 특성상 빈속에 섭취하면 속쓰림을 유발 할 수 있습니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 보관방법 및 유통기한은 어떻게 되나요?&lt;br /&gt;A : 보관은 가급적 건냉암소 한 곳에서 해주시고, 유통기한은 2020년 02월 10일 까지 입니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 영양정보가 궁금해요.&lt;br /&gt;A : 하단의 비타민나무열매 영양정보를 참고하시면 도움이 됩니다.&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227120255990_7.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142203014_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;h2&gt;프리미엄 비타민 [The:건강 리얼비타민]&lt;br /&gt;내일의 나를 위한 현명한 선택 입니다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;좋은 아이디어도 세상밖에 나올땐 알아봐 줄 사람이 필요합니다.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;와디즈 크라우드펀딩에 프로젝트를 개설한 이유는 알아봐 줄 사람을 찾기 위해서 입니다.&lt;/p&gt;
+&lt;p&gt;좋은것을 나누고 싶다는 생각으로 시작했는데, 이 진면목을 어디서 알아봐줄까 고민했습니다.&lt;/p&gt;
+&lt;p&gt;와디즈는 리얼비타민이 세상에 나와 활동하는데 큰 도움이 될 것이라는 확신이 있었습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;한걸음, 한걸음 와디즈로 비롯하여...&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;리얼비타민을 만들어야겠다고 생각했지만, 문제는 비타민 섭취에 대한 이해였습니다.&lt;/p&gt;
+&lt;p&gt;더 많은 소비자가 건강한 비타민 섭취에 대해 인지 할 수 있도록 후원금은 소비자를 주제로한 올바른 비타민 섭취 및 건강에 대한 이야기로 교육을 진행하는데 사용할 예정입니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;봄볕에 방심하지 않도록, 춘곤증에 지지 않도록.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;배송은 펀딩이 종료되고, 7일이내 로젠택배 사를 통해 일괄 배송 할 예정입니다.&lt;/p&gt;
+&lt;p&gt;꽃피는 춘삼월 봄볕에 방심하여 피부가 상하지 않도록, 날이 좋아 찾아오는 춘곤증에 무기력해지지 않도록 로켓배송을 통해 리얼비타민을 전달해 드리겠습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;청춘의 뜨거운 열기, 진실한 마음을 담아서&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227102920251_36.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;충북 영동(농업), 충북 청주(회사), 경기 의정부(직영 공판장)을 25년째 불철주야 일 하시는 부모님의 가업을 이어 1차가공으로만 유통되던 식품을 이제는 2차가공을 거쳐 제품생산을 통한 소비층확대, 다양한 제형개발을 하여 변화되는 패러다임에 한걸음 앞서 갈 수 있도록 뜨거운 열기와 진실한 마음을 지닌 청년의 꿈을 지지해주세요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100643718.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100702238.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102757230.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102918903.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100719604.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100807216.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100828102.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100843135.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100857759.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100910687.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100924940.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100948116.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101002678.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163316468.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163418163.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101050668.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib fr-draggable" src="https://cdn.wadiz.kr/ft/images/green001/2016/1209/20161209134507704_90.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101125719.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101143562.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101159722.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101213054.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101227215.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15219829396256</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Nac3M_Gr7bU</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;strong&gt;혹시..&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;어제 과음하셨나요?&lt;br /&gt;어제 드신 술 한잔에 후회하고 계신가요?&lt;br /&gt;숙취로 인해 후회하고 계신가요?&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315024638625_85.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;지치고 고단한 하루의 끝에 한잔의 술과 함께하고 계신가요.&lt;/strong&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;p&gt;친구들과 &amp;nbsp;한 잔..&lt;br /&gt;회사 동료들과 &amp;nbsp;한 잔..&lt;br /&gt;영업때문에 어쩔 수 없이 &amp;nbsp;한 잔..&lt;br /&gt;잦은 술자리의 다음날에 어김없이 찾아오는 숙취와 피로는 너무 괴롭습니다.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0316/20180316025411638_60.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;기존 숙취해소제는 대부분&amp;nbsp;&lt;strong&gt;헛개나무에 의존&lt;/strong&gt;해&amp;nbsp;&lt;strong&gt;숙취해소에만&lt;/strong&gt;&amp;nbsp;초점이 맞춰져 있습니다.&lt;/p&gt;
+&lt;h3&gt;&lt;u&gt;더 확~깨고&lt;/u&gt;&amp;nbsp; &amp;nbsp;&lt;u&gt;더&amp;nbsp;&lt;/u&gt;&lt;strong&gt;&lt;u&gt;건강&lt;/u&gt;에 도움을 주는&lt;/strong&gt;&amp;nbsp;숙취해소제는 없는걸까요?&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310172008671_42.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;현재까지는&amp;nbsp;&lt;u&gt;헛개나무가 숙취해소&lt;/u&gt;에 도움이 된다는 검증 하나로 여러 숙취해소 제품들이 시장에 나와 있습니다. 하지만 이제는 다릅니다.&amp;nbsp;&lt;strong&gt;&lt;u&gt;건강&lt;/u&gt;도 챙기면서&amp;nbsp;&lt;u&gt;숙취&lt;/u&gt;도 챙길 수 있는..&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0323/20180323121745367_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;p&gt;꽃벵이는&lt;/p&gt;
+&lt;p&gt;예로부터 약용으로 쓰이는 꽃벵이는 &amp;nbsp;&lt;u&gt;2017년 1월, 식약처에서 식품으로 허가&lt;/u&gt;되었습니다. 그리고 3년전부터 (주)우성은 충청북도 보은군 속리산자락에서 직접 꽃벵이를 사육하며, &amp;nbsp;깨끗하고 안전하게 키워왔습니다. 꽃벵이의 여러가지 건강에 도움을 주는 성분들은 숙취해소로 연결이 된다고 생각하여 &amp;nbsp;2016년 부터&amp;nbsp;&lt;u&gt;숙취해소 조성물 특허&lt;/u&gt;&amp;nbsp;준비후 노력끝에 2017년&amp;nbsp;&lt;u&gt;특허&lt;/u&gt;를 획득하였습니다.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;그래서 우리는&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;천연원료인 꽃벵이와, 대추의 고장 보은대추를 이용해 맛있고 건강함까지 생각하는 &amp;nbsp;숙취해소음료 "챙기세요"를 만들었습니다.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0323/20180323002205339_59.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315030940715_85.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322235337334_59.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322232227845_59.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315133156738_73.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0323/20180323122029294_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310164002343_42.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0310/20180310164039175_42.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0323/20180323122117882_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322212700296_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;25~35세의 연령 분포를 가지는 성인 남성 20명을 10인씩 각 2군으로 나누어 각각 시판되는 소주 (알코올 농도 19.5도)를 5ml/kg 양으로 섭취하였다. 음주 1시간 경과후, 음료 형태의 숙취해소 조성물을 10ml/kg의 양으로 섭취하였다. 그리고 조성물 섭취후 15분, 30분, 1시간, 3시간 이후 호흡 측정기(Etinose)를 이용하여 혈중 알코올 양을 측정하여 평균치를 계산하였다. 본 발명에 따라 제조된&amp;nbsp;&lt;u&gt;&lt;strong&gt;숙취해소 조성물은 숙취해소 효과가 높으며&lt;/strong&gt;&lt;/u&gt;&lt;u&gt;&lt;strong&gt;,&lt;/strong&gt;&lt;/u&gt;&amp;nbsp;관능검사에서도 선호도가 우수한 것을 알수있다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0322/20180322213017650_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h5&gt;챙기세요의 공정시설은 국내 최초 식용곤충으로 숙취해소 제조기술의 특허를 가지고 있습니다.&lt;br /&gt;(2017.1월 식용곤충으로 식약처 지정)&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0323/20180323123817527_69.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;"챙기세요"는 선입견이 있을수 있는 원료를 넣었기 때문에 무조건 "맛있어야" 한다고 생각하여 만들었습니다. 그래서 진한 대추의 맛이 강합니다. 대추와 감초를 함께넣어 오랜시간 정성껏 다려보니 대추 고유의 당도로 인해 달달 하면서 감초의 건강한맛 까지 함께 느끼실수 있습니다. 대추의 고장 보은에서 더 품질좋은 대추를 많이 넣기 위해 매일 발로 뛰고있습니다.&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;/blockquote&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15219847310628</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;바로셀로나, 커리어의 전환점&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;안녕하세요? 프리미엄 숙성한우만을 가공하여 판매하는 설로인(SIR. LOIN)의 대표 변준원입니다. 2015년떠났던 유럽여행 중 스페인에서 현지 맛집으로 유명한 Tapas Bar를 찾아갔습니다. Tapas는 술과 간단히 먹는 스페인 음식인데요, 그 곳에서 와인을 주문하고 여러 Tapas를 먹다가 운명의 음식을 발견합니다.&amp;nbsp;&lt;strong&gt;바로 하몽&lt;/strong&gt;.&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0314/20180314104220985_38.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;바로셀로나의 Tapas Bar. 운명의 장소&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp; 하몽은 우리 건조육인 육포와 비슷하지만, 질기지 않고 촉촉하면서도 풍미가 일품이죠. 여행 전에 한국에서 몇번이나 하몽을 먹어보긴 했는데, 그 때마다 '왜 이게 비싼거지?'라는 의문이 있었거든요. &amp;nbsp;그런데 이 곳의 하몽은 정말... 환상적이었어요. 이 하몽에 감동 받아 바로셀로나에 머무는 일주일 내내 저녁마다 하몽을 먹으러 다녔습니다. 촉촉하면서도 깊은 풍미가 한국에서 먹었던 육포와는 너무너무 달랐어요.&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0317/20180317210506486_35.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;이베리코 데 베요타 하몽 vs. 육포&lt;/h5&gt;
+&lt;h3&gt;한국에서도 먹을 수 있을까?&lt;/h3&gt;
+&lt;p&gt;한국에 돌아와 지인들과 함께 와인을 마실 때면 그 하몽이 생각나, 백화점에서 스페인 하몽을 사먹어보기도 하고 한국에서 직접 만든 하몽을 먹어보기도 했죠.&amp;nbsp;&lt;strong&gt;하지만 왜 그 맛이 안나는 걸까요?&lt;/strong&gt;&amp;nbsp;하몽, 살라미, 브레사올라... 등&amp;nbsp;&lt;strong&gt;국&lt;/strong&gt;&lt;strong&gt;내에서 구할 수 있는 사퀴테리를 모두 먹어봐도 만족스럽지 못했어요. 좀 괜찮다 싶은 사퀴테리를 구해도 너무 짜서 두조각 이상 먹기 어렵고 외국사람들은 이거를 어떻게 먹나 싶을 정도였죠.&amp;nbsp;&lt;/strong&gt;글로벌 혀는 다른 것인가... 어쩌다 맛있는 최상급 하몽을 구해도 100g이 5만원에 육박해 부담이 되더라고요. 그렇다고 우리 육포를 먹으면 단짠단짠 맛에 첫 입은 맛있게 먹지만 깊은 풍미가 부족하고 딱딱하여 아쉬움이 많이 남았어요.&lt;/p&gt;
+&lt;h5&gt;* 사퀴테리는 소금에 절이거나 훈연하여 건조, 숙성시킨 음식. &amp;nbsp;하몽, 베이컨, 육포 등의 건조육이 &amp;nbsp;대표적입니다.&lt;/h5&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0314/20180314110922809_38.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;사퀴테리 플래터&lt;/h5&gt;
+&lt;p&gt;&lt;u&gt;그래서 직접 만들어 보기로 했습니다&lt;/u&gt;.&amp;nbsp;&lt;strong&gt;고기 특유의 향과 맛, 풍부한 감칠맛, 부드러우면서도 촉촉한 식감 그리고 이를 뒷받침하는 적절한 염도까지&lt;/strong&gt;. &amp;nbsp;경영 컨설턴트로 일하면서 새벽마다 파운딩 멤버들과 모여 우리만의 사퀴테리를 만들기 위해 논의했었는데 나중에는 체력이 버티질 못하더라고요. 직업 특성상 새벽야근까지 하는데 &amp;nbsp;일 끝나고 사퀴테리를 만들려고 연구하고 테스트 하다보니 나중에는 하루종일 정신이 멍해서 두마리 토끼 모두 놓치겠다 싶더라고요. &amp;nbsp;그래서 회사를 그만두고 본격적으로 착수하게 되었습니다.&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;그런데 어떻게 만들어야 하나요?&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;지피지기.&amp;nbsp;&lt;strong&gt;우선 세계의 유명한 모든 사퀴테리에 대해 파고들었습니다.&lt;/strong&gt;&amp;nbsp;유럽의 하몽, 브레사올라, 살라미, 판체타 등과 아프리카의 빌통, 아시아의 다양한 육포 등에 대한 정보를 YouTube, 서적, Article, Blog 등 구할 수 있는 모든 자료를 검토하였습니다.&lt;br /&gt;&amp;nbsp;&lt;strong&gt;설로인 사퀴테리에 참고할 수 있는 제품만을 추려, 현지 제품과 전문가를 만나기 위해 스페인, 이탈리아, 프랑스, 미국, 홍콩, 일본으로 떠났습니다.&lt;/strong&gt;&amp;nbsp;마지막으로 떠난 미국 출장에서는 지인을 통해 현지 사퀴테리 공장의 생산라인을 볼 수 있는 기회도 얻었죠.&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Try &amp;amp; Error&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;벤치마킹과 시식회, 그리고 설로인의 연구를 통해 추려낸 레서피만 88개 였습니다. 선별된 레서피로 만들어 보고 해외에 나가는 지인에게 부탁해서 수백가지 제품을 구입해 테스트해보고&amp;nbsp;&lt;u&gt;1,043회 걸친 Test 끝에 르통의 레서피와 생산방식을 확정&lt;/u&gt;했습니다.&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315111015719_20.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;새벽까지 일한다고 멤버들에게 생색 샷&lt;/h5&gt;
+&lt;hr /&gt;
+&lt;h2&gt;르통(Le Tong)의 탄생과정&lt;/h2&gt;
+&lt;p&gt;드라이 에이징한 와규에 세계3대 진미인 트러플을 올린 프리미엄 사퀴테리(건조육). 설로인의 이 사퀴테리의 이름을 르통(Le Tong)으로 지었습니다.&lt;/p&gt;
+&lt;h3&gt;설로인 사퀴테리 르통 : 1. 원료육은 와규&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;한우, 와규, 육우, 앵거스 등 다양한 소를 건조 숙성하여 르통의 레서피로 테스트를 해봤지만 와규를 사용했을 때 풍미와 식감이 최고였습니다. 와규의 육질은 소고기 사퀴테리에서 다소 부족할 수 있는&amp;nbsp;&lt;u&gt;부드러운 식감을 완벽하게 채워주고, 알알이 박혀있는 조밀한 마블링이 살며시 녹으면 르통에 스테이크의 촉촉함을 불어 넣어주죠.&lt;/u&gt;&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315134322313_89.jpg/wadiz/format/jpg/quality/95/optimize7" width="0" height="0" /&gt;&lt;/p&gt;
+&lt;h5&gt;와규 우둔&lt;/h5&gt;
+&lt;h3&gt;설로인 사퀴테리 르통 : 2. 자연 그대로 Dry&amp;amp;Aging&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;르통은 고온으로 가열하여 바짝 말리는 것이 아닙니다.&amp;nbsp;&lt;u&gt;르통에 깊은 풍미와 부드러움을 주기 위해 정성스런 시간의 가치를 부여합니다.&lt;/u&gt;&lt;strong&gt;&amp;nbsp;전통적인 유럽과 아프리카의자연 건조 방식에서 착안하여 상온에서 바람이 잘 통하는 곳에서 오랜기간 르통을 건조시키고 숙성합니다&lt;/strong&gt;. 계절에 상관없이 밤낮으로 동일한 온&amp;middot;습도 조건을 구현하기 위해 초기에는 새벽에도 1시간에 한번씩 자다가 일어나 관리를 해줬었죠 ㅠㅠ&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315164621440_59.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;설로인 사퀴테리 르통 청크&lt;/h5&gt;
+&lt;h3&gt;설로인 사퀴테리 르통 : 3. 세계3대 진미 '트러플' 한 가득&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;푸아그라, 캐비어와 함께&amp;nbsp;&lt;strong&gt;세계 3대 진미로 꼽히는 트러플의 깊은 풍미로 르통을 화룡점정 완성&lt;/strong&gt;했습니다. '땅속의 다이아몬드'라고 불리는 트러플 중에서도 이탈리아산 최상급은 kg당 1억원이 넘을 정도로 진귀한 재료입니다.&amp;nbsp;&lt;u&gt;감칠맛 폭탄인 트러플이 듬뿍 담긴 르통은 '고기는 트러플'이라는 불변의 공식을 클래식하게 따라가며 환상의 호흡을 보여줍니다&lt;/u&gt;. 르통 패키지를 여는 순간, 공간을 가득 채우는 트러플의 향과 입안에서 터져나오는 감칠맛은 어느새 다음 르통 조각을 집게 만들거에요. &amp;nbsp;&lt;/p&gt;
+&lt;h5&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315120848576_20.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;이탈리아 프리미엄 트러플&lt;/h5&gt;
+&lt;hr /&gt;
+&lt;h2&gt;Le Tong is...&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp; 수백번의 실패속에 얻어낸 마리네이드 레서피는&lt;u&gt;&amp;nbsp;&lt;strong&gt;소고기의 특유의 육향과 풍미를 살리면서도 고기 비린내를 완벽하게 잡아냈습니다&lt;/strong&gt;.&lt;/u&gt;&amp;nbsp;여기에 마무리 시즈닝으로 최상급 트러플은&amp;nbsp;&lt;u&gt;르&lt;strong&gt;통의 향에 놀라운 감칠맛과 특유의 풍미&lt;/strong&gt;&lt;/u&gt;를 불어넣었습니다.&lt;br /&gt;&amp;nbsp;자연 건조 방식과 숙성을 통해서 하&lt;strong&gt;몽처럼 너무 부들부들하지 않으면서 육포처럼 딱딱하지 않은 그 미묘한 경계선에서&lt;/strong&gt;&amp;nbsp;&lt;u&gt;&lt;strong&gt;부채살 같은 탱글탱글함&lt;/strong&gt;&lt;/u&gt;을 만들었습니다.&lt;br /&gt;&amp;nbsp;&lt;u&gt;&lt;strong&gt;짜지 않고 아주 이색적이면서도 전생에 어디선가 스친듯한 친숙함&lt;/strong&gt;.&lt;/u&gt;&amp;nbsp;누구나 빠져들 수 밖에 없는 르통의 맛입니다.&lt;br /&gt;&amp;nbsp;르통의 냉기가 빠져서 알알이 숨어 있던 마블링이 송골송골 표면에 슬며시 올라 올 때, &amp;nbsp;미식의 또 하나의 길을 개척하신 겁니다.&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;세계 최초의 와규 사퀴테리 와디즈 공개&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;세계 최초로 만들어진 프리미엄 와규 사퀴테리는&amp;nbsp;&lt;u&gt;우리나라 뿐만 아니라 세계 어디에서도 없는 새로운 방식으로 만들어진 제품입니다.&lt;/u&gt;&amp;nbsp;르통을 설명하기 위해 상대적으로 유명한 하몽을 빗대어 소고기 하몽이라고 칭하기도 하지만 르통 특유의 맛과 식감은 그 어떤 제품과 비교할 수 없을 정도로 다릅니다&lt;strong&gt;.&lt;/strong&gt;&amp;nbsp;&lt;strong&gt;세상이 낯선 르통의 데뷔 무대는 진취적이고 스타일을 아시는 서포터님들의 Playground인 와디즈가 최적의 무대라고 생각했습니다.&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;르통이가 꽃길만 걷도록 응원해주세요!&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315164722826_59.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;르통 슬라이스&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;u&gt;르통 150g 패키지에는 슬라이스된 르통 30g팩이 5개 들어있습니다&lt;/u&gt;. 손이 많이 가지만 30g 패키지를 하나씩 개봉하여 드실 수 있도록 하여 편의성을 높였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;h5&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315120539638_20.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h5&gt;
+&lt;h5&gt;르통 150g Package (30g 진공 패키지 x 5ea)&lt;/h5&gt;
+&lt;h3&gt;+ 설로인 트러플 솔트, 페퍼솔트&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp; 설로인 트러플솔트는&amp;nbsp;&lt;u&gt;최상급 이태리산 트러플을 가득 넣어, 뚜껑을 열면 집안 가득 트러플 향이 퍼져 나가는 압도적인 트러플솔트입니니다&lt;/u&gt;. 시중에 트러플 향이 살짝 스치는 트러플 시즈닝과는 Another Level.&amp;nbsp;&lt;strong&gt;한우 뿐만 아니라 집에서 어떤 요리의 마지막에는 트러플 솔트를 뿌려보세요. 파스타, 계란말이, 심지어 흰쌀밥에도 살짝 뿌리면 음식의 품격을 한층 높여줍니다.&lt;/strong&gt;&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0314/20180314125844531_89.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315120749262_20.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h5&gt;
+&lt;h5&gt;설로인 트러플솔트 파우치 + 병&lt;/h5&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp; 설로인 페퍼솔트는 일본 오키나와의 아오이우미 소금을 햇볕에 말려서 가마에 한번 더 끓여 염도를 낮추고 통흑후추를 블렌딩하여 밸런스를 살렸습니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;[Tip 1] 르통을 어떻게 먹어야 하나요?&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;르통은&amp;nbsp;&lt;u&gt;혼자만으로도 완전한 음식&lt;/u&gt;입니다. 르통을 냉장보관하는 경우,&amp;nbsp;&lt;u&gt;상온에 30분 이상 두면 냉기가 빠지면서 섬세한 마블링이 송골송골 올라올 때 르통의 참맛을 느끼실 수 있어요&lt;/u&gt;. 르통 패키지를 열고&amp;nbsp;&lt;u&gt;손으로 집어 체온으로 르통을 살짝 녹인 후 입에 넣으면&lt;/u&gt;&amp;nbsp;르통의 다양한 맛의 Layer를 느끼실 수 있어요.&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0318/20180318140318830_65.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;h3&gt;[Tip 2] 어떤 음식과 함께 먹으면 좋을까요?&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp; 르통은 일상생활에서 스낵처럼 먹을 수 있고,&amp;nbsp;&lt;strong&gt;샐러드, 샌드위치 등의 요리에도 곁들여&lt;/strong&gt;&amp;nbsp;먹을 수 있어요. 특&lt;strong&gt;히, 그라나 파다노와 같이 Sharp한 치즈와 함께 르통을 드시면 또 다른 밸런스를 나타냅니다.&lt;/strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0318/20180318140332956_65.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;르통을 활용한 간단한 플레이팅&lt;/h5&gt;
+&lt;h3&gt;[Tip 3] 어떤 술과 함께하면 좋을까요?&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;어떤 술과도 좋은 마리아주를 보이지만&amp;nbsp;&lt;u&gt;특히 레드와인, 위스키, 에일 맥주와 최고의 조합&lt;/u&gt;을 나타냅니다. 좋은 마리아주를 이루는 주류와 함께라면&amp;nbsp;&lt;strong&gt;술&lt;/strong&gt;&lt;strong&gt;&amp;nbsp;- 르통 - 술 - 르통 &amp;nbsp;이 무한 연결고리에서 빠져나오시기 어려울 거에요.&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0318/20180318141026281_65.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;설로인 직접 생산&lt;/h2&gt;
+&lt;p&gt;르통은 본사가 기획만 하고 생산은 다른업체가 하는 OEM 방식이 아닌&amp;nbsp;&lt;strong&gt;설로인의 Beef Master가 직접 &amp;nbsp;손질해서 한땀한땀 건조숙성하는 Masterpiece 입니다&lt;/strong&gt;. 르통을 탄생시키기 위해 수많은 밤을 지새며 한시간마다 한번씩 일어나 온도와 습도를 체크하며 만든 제품인 만큼 허투루 만들 수가 없습니다.&amp;nbsp;&lt;u&gt;르통 마스터가 연구부터 마지막 포장까지 직접 작업하여 서포터님께 고이 보내드립니다.&lt;/u&gt;&lt;/p&gt;
+&lt;h5&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0319/20180319150336999_104.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/u&gt;르통 최초 Pilot Test(좌), 르통1.0 생산(우 상단), 르통 2.0 생산 w/ 한덕우 이사 (우 하단)&lt;/h5&gt;
+&lt;hr /&gt;
+&lt;h2&gt;Reward Funding&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;르통을 처음 선보이는 무대인 만큼, 많은 서포터님의 응원을 받을 수 있도록 가격의 문턱을 완전히 낮췄습니다. 많은 응원 부탁드려요!&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;르통이 와디즈에 출연한 이유는?&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0318/20180318184908360_72.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;1. 르통의 존재 알리기&lt;/strong&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 르통은 이름부터 모습, 종류, 형태 모두 낯선 세상에 처음 등장하는 사퀴테리입니다. 새로운 제품에 민감하고 센스있는 와디즈 서포터님들이라면 르통을 알아봐주고 르통을 알릴 수 있는 기회를 주실거라 믿습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;2. 르통에 대한 피드백 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;/strong&gt;수많은 시험을 거쳐 완성된 르통에 대한 사람들의 피드백을 얻고 싶었습니다. '맛에 대한 어떠한 의견을 가지고 계신지', '제품의 형태와 모양은 어떠한지', '포장에서 불편한 사항은 없는지'. 서포터님께 민감한 소비자의 눈과 감각을 빌어 르통의 완성도를 더욱 높일 수 있을거라 믿습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;3.마케팅 비용 확보 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;/strong&gt;어렵게 세상에 탄생한 르통은 세상에 유일한 제품이기에 많은 분들께 생소하게 다가옵니다. 특히나 우리나라는 육포 외 사퀴테리의 접근도가 낮아서 더더욱 르통을 알리는 작업이 매우 중요합니다. 후원금의 일부는 온/오프라인 마케팅을 수행하여 르통의 인지도 제고에 사용될 계획입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;4. 르통 생산 시설 개선 비용 확보 &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;/strong&gt;르통의 품질을 더욱 안정화시키 생산성 제고를 위해 &amp;nbsp;공정조건을 자동으로 컨트롤하는 설비에 투자할 것입니다. 또한 포장 설비에 투자를 통해 일부 포장 디자인을 변경하여 현재 모두 수작업으로 진행하는 공정을 일부 자동화 할 것입니다.&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;설로인은 누구인가요?&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0315/20180315113030617_20.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&amp;nbsp;르통의 연구개발하고 직접 생산하는 설로인의 비전은&lt;strong&gt;&amp;nbsp;"Premium Beef Standard"&amp;nbsp;&lt;/strong&gt;입니다.&amp;nbsp;&lt;strong&gt;최고의 소고기를 만들어 항상 최고의 품질을 유지하는 수퍼 프리미엄 브랜드입니다.&lt;/strong&gt;&amp;nbsp;수많은 브랜드가 난립하지만 확고한 브랜드가 없는 소고기 시장에서 설로인(SIR. LOIN)은 프리미엄 소고기의 표준이 되어 파텍필립, 에르메스 같은 수퍼 프리미엄 브랜드로의 성장을 지향합니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0314/20180314152007075_86.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;&amp;nbsp;설로인 청담 Flagship Store&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;설로인의 첫번째 프로젝트인&lt;strong&gt;&amp;nbsp;숙성한우를 청담 Flagship Store와 Online Store에서 판매하고 있습니다.&amp;nbsp;&lt;/strong&gt;최근에는 설로인이 숙성한우를 공급하는&lt;strong&gt;&amp;nbsp;프리미엄 한우구이집&lt;/strong&gt;(상호: 삼정하누)&lt;strong&gt;이 수요미식회 맛집으로 선정되면서 설로인도 함께 출연&lt;/strong&gt;하였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;h5&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0314/20180314152542341_86.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;수요 미식회 한우편 출연 (삼정하누 대표 및 설로인 한덕우 이사)&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;르통은 설로인의 두번째 프로젝트 [Premium Beef Project: 사퀴테리]의 결과물입니다. 신선육을 넘어 건조육으로도 최고의 소고기 제품을 만드는 프로젝트입니다. 어렵게 맺은 결실인 만큼 와디즈 펀딩을 통해 좋은 시설을 구축하여 최고의 환경에서 생산하고자 합니다.&lt;/p&gt;
+&lt;h3&gt;Team SIR. LOIN&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;설로인은 프리미엄 한우 경매인, 경영전략 컨설턴트, Digital Contents Start-up Founder, Chemical Engineer 등 다양한 경력을 가진 Founding Member가 힘을 모아 오늘도 밤을 지새며 Premium Beef Brand를 만들어 가고 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0319/20180319151202336_104.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;
+&lt;h5&gt;밤새고 맞이한 설로인 청담매장 개업식&lt;/h5&gt;
+&lt;hr /&gt;
+&lt;h3&gt;FAQ : 궁금하실 것 같은 사항에 미리 답해 봅니다.&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;Q1 어떻게 보관하나요?&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;냉장보관을 원칙으로 하지만 직사광선이 들지 않는 서늘한 곳이라면 6개월간 보관이 가능합니다. 진공 상태로는 상온에 1일 이상 두어도 변질되지 않습니다. 단, 개봉 후에는 조속히 드셔야 합니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;Q2 르통을 구워서 먹어도 되나요?&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;권장하지 않습니다. 르통도 소고기이기에 구워 먹는 것이 가능하지만 특유의 맛과 식감을 잃어 버리기에 조리없이 그대로 드시기를 추천합니다. 특히 전자레인지 사용은 삼가주세요.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp; Q3 르통 크기가 균일하지 않아요?&lt;/strong&gt;&lt;br /&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;르통은 다짐육이 아닌 생체 그대로의 덩어리를 건조숙성하여 슬라이스 하기에 끝부분의 크기가 다소 작게 나올 수 있어요. 상품의 품질은 동일하지만 다만 크기가 작을 뿐이니 안심하고 드세요.(김밥 꽁지처럼 이 부분을 더 좋아하는 분도 많습니다!) 르통의 끝부분이나 꼬투리는 모아서 크림 치즈나 크리미한 연성치즈와 함께 믹스하면 최고의 소스를 만들 수 있어요. 샌드위치, 크래커에 찍어 먹으면 최고의 별미입니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp; Q4&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;리워드로 제공되는 트러플솔트와 페퍼솔트는 어떻게 먹나요?&lt;br /&gt;&lt;/strong&gt;설로인의 최상급 숙성한우와 함께 드시면 좋습니다. 다른 스테이크나 고기 구이에 &amp;nbsp;찍어서 드시거나 다른 요리에 시즈닝으로 고급스러운 풍미를 더해줍니다. 설로인 트러플솔트와 페퍼솔트 모두 염도가 상대적으로 낮아 자극적이지 않게 맛을 한층 더 높은 곳으로 끌어 올려 줍니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp; Q5 와디즈 리워드 후 어디서 구매할 수 있나요?&lt;/strong&gt;&lt;br /&gt;&amp;nbsp;추후에 설로인 청담매장 및 온라인 스토어에서 구매 가능합니다. 설로인이 입점한 일부 쇼핑몰에도 와디즈 펀딩 후 선별적으로 제품을 등록할 예정입니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>15219854897349</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;행복과 만족을 주는 모닝빵&lt;/h2&gt;
+&lt;p&gt;- 더이상 우리 아이들에게 기름진 간식을 줄 수 없습니다.&lt;/p&gt;
+&lt;p&gt;- 어린이집 간식으로 무엇을 할 지 고민하지 않아도 됩니다.&lt;/p&gt;
+&lt;p&gt;- 시간없다고 먹는 패스트푸드는 우리 건강을 갉아 먹고 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0220/20180220141725513_83.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;- 시간이 없다, 귀찮다, 습관이 안된다 등의 이유로 거르는 아침은 여러분의 건강을 해칩니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fil fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0220/20180220140552341_83.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;사진 출처 : 취업포털커리어&lt;/p&gt;
+&lt;p&gt;- 우리 아이들 및 아침식사를 거르는 이에게 좋은 상품을 제공하려 합니다.&lt;/p&gt;
+&lt;p&gt;- 어린이집 간식으로 무엇을 할까 고민하는 부모님께 적극 권해드리고 싶습니다.&lt;/p&gt;
+&lt;p&gt;- 건강한 아침을 맞이 할 수 있는 굿모닝에 많은 관심바랍니다.&lt;/p&gt;
+&lt;h2&gt;단순한 모닝빵이 아닙니다&lt;/h2&gt;
+&lt;p&gt;우리가 생각하는 모닝빵은 잼에 발라먹어야 한다 ,우유와 함께 먹어야 한다, 간식이다, 모닝빵 자체로 만은 즐기지 못했습니다. 그래서 저희가 그 모든 요건을 충족시키면서 도 건강하며 &amp;nbsp;바쁜 현대인들의 아침식사대용으로도 손색이 없는 근사한 모닝빵을 선보입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213155320199_73.jpeg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;일반적인 모닝빵 반죽이 아닙니다&lt;/h2&gt;
+&lt;p&gt;1. 모든 반죽에 두유를 넣어 고소하며 쫀득쫀득한 식감이 일품입니다.&lt;/p&gt;
+&lt;p&gt;2. 색소대신 오징어먹물, 홍국쌀가루, 녹차분말을 사용하여 건강합니다.&lt;/p&gt;
+&lt;p&gt;3. 잼, 크림, 토핑등을 직접 제조하여 첨가함으로 모닝빵 그자체로만으로 드셔도 목막힘, 심심함, 퍽퍽함등이 없습니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213154014368_73.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;믿을수 있는 안전한 제품을 만듭니다&lt;/h2&gt;
+&lt;p&gt;해썹인증을 받아 제품의 원재료부터 가공 유통단계까지 위생적이고 안전한 먹거리를 제공합니다. 기술보증에서 보증한 벤쳐기업으로 믿고 투자할수 있는 안전한 기업입니다.&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213174908049_22.jpeg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;이런분들께 권해요&lt;/h2&gt;
+&lt;h3&gt;혼밥족 :&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;혼자 식당 못들어가시는분들 그렇다고 집에서 밥해먹긴 귀찮아서 굶으시진 않나요?&lt;/p&gt;
+&lt;h3&gt;놀이학교아이들간식:&lt;/h3&gt;
+&lt;p&gt;모닝빵 싸이즈라 아이들이 먹어도 부담스럽지 않으며 아이들 입맛에도 딱 맞아요.&lt;/p&gt;
+&lt;h3&gt;바쁜아침 출근준비하느라 아침을 못챙겨 드시는분들:&lt;/h3&gt;
+&lt;p&gt;아침에 출근준비하기도 바쁜데 밥차릴 정신도 없지만 밥먹을 시간도 없으시죠? 출근하면서 한팩씩 들고 나가시면 됩니다.&lt;/p&gt;
+&lt;h3&gt;회사간식:&lt;/h3&gt;
+&lt;p&gt;말라비틀어진 팥빵과 우유로 대신하진 않으신지요? 맛도 좋지만 촉촉해서 음료가 필요없습니다. 비용절감, 가격대비 퀄리티도 좋아요.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;u&gt;상품소개&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172325124_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172342046_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172400584_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172421546_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172445803_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172500236_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172522197_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172535424_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h2&gt;
+&lt;h2&gt;&lt;u&gt;리워드구성&lt;/u&gt;&lt;/h2&gt;
+&lt;h3&gt;set1 &amp;nbsp;:20,000&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0214/20180214094139692_99.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;땅콩버터모닝빵 5ea + 캬라멜쵸코모닝빵 5ea + &amp;nbsp;딸기리플잼모닝빵 5ea + 녹차레몬모닝빵 5ea + 오징어먹물옥수수모닝빵 4ea + 빵이 마르지 않는 전용용기&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228164534077_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h3&gt;set2 : 30,000&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0213/20180213170926785_22.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;땅콩버터모닝빵 5ea + 캬라멜쵸코모닝빵 5ea + &amp;nbsp;딸기리플잼모닝빵 5ea + 녹차레몬모닝빵 5ea + 에멘탈크림오징어먹물모닝빵 5ea + 홍국쌀크림치즈모닝빵 5ea + 인절미모닝빵 4ea + 오징어먹물옥수수모닝빵 4ea+ 빵이 마르지 않는 전용용기&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228164551744_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172617653_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2018/0228/20180228172641342_79.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h2&gt;
+&lt;p&gt;유통기한 : 냉동보관 6개월&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152198621825412</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;&lt;strong&gt;우리는 과연 비타민을 잘 섭취하고 있을까요?&lt;/strong&gt;&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;과일,야채의 섭취를 통해 하루 권장량의 비타민을 섭취하기는 점점 어려워지고,&lt;br /&gt;외식문화의 발달로 점차 비타민의 공급을 건강보조식품에 기대고 있지 않으신가요?&lt;/p&gt;
+&lt;p&gt;저도 그랬습니다. 1일 1회 1정으로 하루 권장섭취량의 비타민C는 물론 수많은 비타민이 충족되다보니 출근 전 한 알 먹으면 그날 하루는 내 몸에게 덜 미안했죠.&lt;/p&gt;
+&lt;h3&gt;여기서 우리는 놓치는게 하나 있습니다.&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;성공한 다이어터 10명중 9명은 항상 하는 말이 있습니다.&lt;br /&gt;"&lt;u&gt;조금씩 자주 먹었어요&lt;/u&gt;.", "하루 3끼를 간식포함해서 6끼로 나눠 먹었어요."&lt;/p&gt;
+&lt;p&gt;인체 구성의 3대 영양소는 탄수화물, 단백질, 지방이 있습니다.&lt;br /&gt;성인남성 1일 권장섭취열량이 2500Kcal, 성인여성 1일 권장섭취열량이 2000Kcal 입니다.&lt;br /&gt;건강한 사람은 권장섭취열량 내에서 시간을 분배하여 식사를 통해 칼로리를 섭취하고,&lt;br /&gt;대체로 비만한 사람들은 과식, 폭식 등의 식습관을 볼 수 있습니다.&lt;/p&gt;
+&lt;p&gt;&lt;u&gt;비타민 또한 예외는 아닙니다.&lt;/u&gt;&lt;br /&gt;비타민을 먹은 다음 화장실을 가면 소변이 노랗게 나오는 현상은 당연한게 아닙니다.&lt;br /&gt;그 시간대에 필요한 비타민 이외에는 모두 몸 밖으로 배출이 되는 것이죠.&lt;br /&gt;이제는&amp;nbsp;&lt;u&gt;비타민도&amp;nbsp;&lt;strong&gt;똑똑&lt;/strong&gt;하게&amp;nbsp;&lt;strong&gt;챙겨&lt;/strong&gt;먹어야 합니다&lt;/u&gt;.&amp;nbsp;&lt;u&gt;필요량을&amp;nbsp;&lt;strong&gt;조금씩 자주&amp;nbsp;&lt;/strong&gt;말이죠&lt;/u&gt;&lt;u&gt;.&lt;/u&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;어떻게 비타민 섭취를 해야 할까?&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;단순하지만 중요한 호기심 이였습니다.&lt;br /&gt;물론, 가장 좋은 방법은 야채나 과일의 꾸준한 섭취로 얻는것인데 결코 쉽지 않더라구요.&lt;br /&gt;&lt;strong&gt;어떤것이 합성비타민보다 좋은 대체품일까?&amp;nbsp;&lt;/strong&gt;끝없이 많은 책과 논문을 보다 찾게된게&lt;br /&gt;바로,&amp;nbsp;&lt;strong&gt;&lt;u&gt;"비타민열매분말"&lt;/u&gt;&lt;/strong&gt;&amp;nbsp; 이였습니다.&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;여기서 두번째 고민이 시작됩니다.&lt;br /&gt;&lt;strong&gt;티베트의 환경&lt;/strong&gt;에서 자란 비타민분말이 효과가 가장 좋다고하여 시장조사를 했습니다.&lt;br /&gt;100개의 제품중 약 97% 이상의 제품은 대용량의 분말을 단순포장하여 유통되고 있고,&lt;br /&gt;3% 정도는 분말을 소량으로 스틱포장하거나 엑기스로 내어 판매하더라구요.&lt;br /&gt;비타민의 신맛은 건강을 생각해서 참고 먹는다 해도 한두번 이였습니다.&lt;br /&gt;또한, 분말의 특성상 습기에 약하여 분말을 일반통에 보관하였더니 딱딱히 굳었습니다.&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;strong&gt;언제, 어디서든, 편하게, 조금씩, 자주, 섭취 할 수 있는 방법&lt;/strong&gt;은 없을까?&lt;br /&gt;식품은 찾았고, 그에 맞는 제형을 고민하던 끝에 찾아낸게&lt;strong&gt;&lt;u&gt;&amp;nbsp;"캡슐"&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;이였습니다. &amp;nbsp;&amp;nbsp;&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib fr-bordered" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201133705286_50.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h5&gt;&amp;nbsp;시중 유통되는 비타민분말 &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 상온의 습기로 인해 변한 비타민분말&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;&amp;nbsp;Vitamin tree 누구냐 넌?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;과거&amp;nbsp;&lt;strong&gt;징기즈칸과 몽골귀족들의&amp;nbsp;&lt;u&gt;자양강장제&lt;/u&gt;&lt;/strong&gt;로 사용 되었습니다.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;비타민 A, C, E 등 무려&amp;nbsp;&lt;u&gt;16종류의 비타민이 함유&lt;/u&gt;&lt;/strong&gt;되어 있습니다.&lt;/li&gt;
+&lt;li&gt;그 외에도&amp;nbsp;&lt;strong&gt;&lt;u&gt;필수 아미노산과 오메가3&lt;/u&gt;등 무려&amp;nbsp;&lt;u&gt;190여 가지의 영양소&lt;/u&gt;&lt;/strong&gt;가 들어있습니다.&lt;/li&gt;
+&lt;li&gt;이중&amp;nbsp;&lt;strong&gt;비타민C(레몬의 15배), 비타민E와 사포닌 성분이 풍부&lt;/strong&gt;하게 들어있는데,&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민C&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 수용성 비타민으로 혈액을 통해 온 몸을 다니면서&amp;nbsp;&lt;strong&gt;활성 산소를 제거&lt;/strong&gt;하는 역할&lt;br /&gt;&lt;strong&gt;&lt;u&gt;비타민E&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 지용성 비타민으로&amp;nbsp;&lt;strong&gt;염증으로 손상된 폐 조직을 보호&lt;/strong&gt;하는데 도움&lt;br /&gt;&lt;strong&gt;&lt;u&gt;사 포 닌&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;: 폐와 기관지가 마르지 않게 해줘&amp;nbsp;&lt;strong&gt;호흡기와 폐 건강&lt;/strong&gt;에 도움 및&amp;nbsp;&lt;strong&gt;운동 능력 개선&lt;/strong&gt;&amp;nbsp;도움&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;p&gt;&lt;strong&gt;캡슐을 선택한 이유?&lt;/strong&gt;&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;ul&gt;
+&lt;li&gt;비타민분말은 수분을 좋아해서&amp;nbsp;&lt;strong&gt;제형변화&lt;/strong&gt;는 물론&amp;nbsp;&lt;strong&gt;&lt;u&gt;손에 끈적하게 잘 묻는다&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;분말 섭취 소비자의 대부분은&amp;nbsp;&lt;strong&gt;&lt;u&gt;적정복용량 섭취가 불가능.&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;비타민분말의&amp;nbsp;&lt;strong&gt;신맛&lt;/strong&gt;과&amp;nbsp;&lt;strong&gt;당질로 인한 치아점착&lt;/strong&gt;의&amp;nbsp;&lt;strong&gt;&lt;u&gt;단점개선의 필요성&lt;/u&gt;&lt;/strong&gt;.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;100%젤라틴 투명캡슐&lt;/u&gt;&lt;/strong&gt;로&amp;nbsp;&lt;strong&gt;인체에 부담없고&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;내용물 확인을 통한&amp;nbsp;&lt;/strong&gt;&lt;strong&gt;&lt;u&gt;신뢰성 제고&lt;/u&gt;&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;u&gt;휴대의 편리성, 복용량의 조절, 복용의 간편함&lt;/u&gt;&lt;/strong&gt;을 통해&lt;strong&gt;&amp;nbsp;그뤠잇한 리얼비타민 섭취!!&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142055686_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;리얼비타민 탄생하다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;비타민을 똑똑하게 섭취하고 싶었을 뿐이다.&lt;/h3&gt;
+&lt;p&gt;처음 합성비타민의 오류를 깨닫고, The건강 하게 비타민 섭취를 하기위해 공부했습니다.&lt;/p&gt;
+&lt;h3&gt;더 많은 사람들이 깨닫게 하고 싶었다.&lt;/h3&gt;
+&lt;p&gt;합성비타민의 오류를, 그리고 천연비타민 섭취의 필요성을 더 많이 공유하고 싶었습니다.&lt;/p&gt;
+&lt;h3&gt;The건강 해지기 위해 먹는것이기 때문에 더 신중하게.&lt;/h3&gt;
+&lt;p&gt;시중 비타민분말의 대부분은 색소를 첨가하여 보기 좋은 색을 내는 경우가 대부분 입니다.&lt;br /&gt;분말제품에는 덱스트린이라는 첨가물을 많이 넣습니다.&lt;br /&gt;이번에 제품화한 캡슐제형의 리얼비타민은 엄격하고, 철저한 선별을 거쳤습니다.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;u&gt;No 덱스트린, 無색소, 無방부제, 無첨가물, 無착향료&lt;/u&gt;&lt;/strong&gt;&amp;nbsp;정직함만 담았습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142151671_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h2&gt;Q &amp;amp; A&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;h3&gt;Q : 복용법이 어떻게 되나요?&lt;br /&gt;A : 캡슐 1정에 0.5g이 담겨있습니다. 하루 권장량은 3g~12g으로 하루 최대 24캡슐 이내로 휴대하시면서 틈틈히 충분한 물과 함께 드시면 됩니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 부작용은 없나요?&lt;br /&gt;A : 농산물로 별다른 부작용은 보고 된바 없으나, 비타민 특성상 빈속에 섭취하면 속쓰림을 유발 할 수 있습니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 보관방법 및 유통기한은 어떻게 되나요?&lt;br /&gt;A : 보관은 가급적 건냉암소 한 곳에서 해주시고, 유통기한은 2020년 02월 10일 까지 입니다.&lt;/h3&gt;
+&lt;h3&gt;Q : 영양정보가 궁금해요.&lt;br /&gt;A : 하단의 비타민나무열매 영양정보를 참고하시면 도움이 됩니다.&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227120255990_7.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0201/20180201142203014_50.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;h2&gt;프리미엄 비타민 [The:건강 리얼비타민]&lt;br /&gt;내일의 나를 위한 현명한 선택 입니다.&lt;/h2&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;좋은 아이디어도 세상밖에 나올땐 알아봐 줄 사람이 필요합니다.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;와디즈 크라우드펀딩에 프로젝트를 개설한 이유는 알아봐 줄 사람을 찾기 위해서 입니다.&lt;/p&gt;
+&lt;p&gt;좋은것을 나누고 싶다는 생각으로 시작했는데, 이 진면목을 어디서 알아봐줄까 고민했습니다.&lt;/p&gt;
+&lt;p&gt;와디즈는 리얼비타민이 세상에 나와 활동하는데 큰 도움이 될 것이라는 확신이 있었습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;한걸음, 한걸음 와디즈로 비롯하여...&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;리얼비타민을 만들어야겠다고 생각했지만, 문제는 비타민 섭취에 대한 이해였습니다.&lt;/p&gt;
+&lt;p&gt;더 많은 소비자가 건강한 비타민 섭취에 대해 인지 할 수 있도록 후원금은 소비자를 주제로한 올바른 비타민 섭취 및 건강에 대한 이야기로 교육을 진행하는데 사용할 예정입니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;봄볕에 방심하지 않도록, 춘곤증에 지지 않도록.&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;배송은 펀딩이 종료되고, 7일이내 로젠택배 사를 통해 일괄 배송 할 예정입니다.&lt;/p&gt;
+&lt;p&gt;꽃피는 춘삼월 봄볕에 방심하여 피부가 상하지 않도록, 날이 좋아 찾아오는 춘곤증에 무기력해지지 않도록 로켓배송을 통해 리얼비타민을 전달해 드리겠습니다.&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;청춘의 뜨거운 열기, 진실한 마음을 담아서&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227102920251_36.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;충북 영동(농업), 충북 청주(회사), 경기 의정부(직영 공판장)을 25년째 불철주야 일 하시는 부모님의 가업을 이어 1차가공으로만 유통되던 식품을 이제는 2차가공을 거쳐 제품생산을 통한 소비층확대, 다양한 제형개발을 하여 변화되는 패러다임에 한걸음 앞서 갈 수 있도록 뜨거운 열기와 진실한 마음을 지닌 청년의 꿈을 지지해주세요.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;blockquote class="type-line"&gt;
+&lt;h3&gt;리워드 일정 및 배송안내&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0227/20180227153751986_49.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;3월26일 펀딩이 종료되면 1일 제작 가능 개수(25개)만큼&amp;nbsp;&lt;br /&gt;3월28일 제작에 들어갈 예정이며,&lt;br /&gt;4월 9일부터 리워드 배송을 할 예정입니다.&lt;br /&gt;(배송시작일이 변경 될 경우, 별도로 안내 드리겠습니다.)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152198668632415</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100643718.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100702238.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102757230.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115102918903.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100719604.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100807216.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100828102.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100843135.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100857759.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100910687.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100924940.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115100948116.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101002678.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163316468.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115163418163.jpg/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101050668.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-dib fr-draggable" src="https://cdn.wadiz.kr/ft/images/green001/2016/1209/20161209134507704_90.png/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101125719.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101143562.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101159722.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101213054.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/207661/20161115101227215.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;img class="fr-draggable" src="https://cdn.wadiz.kr/images/uploads/188162/20161115105253433.png/wadiz/format/jpg/quality/95/optimize" alt="" /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>152198729192416</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109105706606_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/h2&gt;
+&lt;h3&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227182609027_70.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;쥐포를 좋아하지만&amp;nbsp;&lt;u&gt;기&lt;/u&gt;&lt;u&gt;존 쥐포는 너무 달거나, 너무 짜서&amp;nbsp;&lt;/u&gt;싫다는 분 주목!&lt;/h3&gt;
+&lt;p&gt;&lt;strong&gt;제대로 된 쥐포를 만들기 위해 혼신을 다했습니다. 베트남, 중국 쥐치를 쓰지않고 국내산 말쥐치를 잡아 표고버섯,설탕,천일염만으로 간한 세상에 없던 제대로된 쥐포입니다.&lt;/strong&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109105839799_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;쥐포는 대한민국 사람이라면 한번쯤 먹어봤을 국민간식입니다. 2011년 대중매체에서 쥐포의 실체가 밝혀지기전까진 말이죠. 쥐포의 실체는 불만제X, 미각스캔X 등 인기있는 프로그램에서 다뤄지며 대한민국전체를 충격에 빠트렸습니다. 이때 나왔던 내용을 정리하자면 3가지 정도입니다.&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;
+&lt;h3&gt;&amp;nbsp; 믿을 수 없이 더러운 환경에서 작업되는 쥐포 (&lt;u&gt;벌레, 머리카락 등 이물질검출&lt;/u&gt;)&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1227/20171227190859250_73.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h3&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;h3&gt;&amp;nbsp;장기간 보관을 위해 무분별하게 사용되는&amp;nbsp;&lt;u&gt;방부제 및 화학첨가물&lt;/u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1227/20171227190938528_73.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/h3&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;h3&gt;&lt;strong&gt;&amp;nbsp;살균을 위해 불법적으로 시행되는 방사선 노출(&lt;u&gt;감마선노출&lt;/u&gt;)&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1227/20171227191731349_73.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;/li&gt;
+&lt;/ol&gt;
+&lt;h2&gt;&lt;u&gt;인체에 무해한데 자극적인 컨텐츠를 만든 것은 아닐까?&lt;/u&gt;&lt;/h2&gt;
+&lt;h3&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109110152747_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;&lt;a href="http://www.mydaily.co.kr/new_yk/html/read.php?newsid=201110191137551114" target="_blank" rel="noopener noreferrer"&gt;&amp;nbsp;'불만제로', 방사선 쬐인 쥐포있다&amp;hellip;위생상태 고발&lt;/a&gt;&amp;nbsp;&lt;/strong&gt;/&amp;nbsp;&lt;strong&gt;불만제X팀의 자체실험결과&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="http://news.hankyung.com/article/2011101948697?nv=o" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;'인기 안주' 쥐포의 두얼굴&amp;hellip;방사선에 노출&lt;/strong&gt;&lt;strong&gt;.&lt;/strong&gt;&lt;/a&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;/&amp;nbsp;&lt;strong&gt;한국경제신문&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.wadiz.kr/web/campaign/detail/16626" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;조미건포 등서 부작용 위험 소비톨 검출&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;/&amp;nbsp;&lt;strong&gt;서울신문&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="http://www.newshankuk.com/news/content.asp?news_idx=2010081315135356889" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;일부 베트남산 쥐포, 방사선 양성으로 반송 조치&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;/&lt;strong&gt;&amp;nbsp;뉴스한국&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h2&gt;&lt;u&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109111156337_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/u&gt;&lt;/h2&gt;
+&lt;p&gt;쥐포의 실체는 건어물을 사랑하는 메이커에겐 생각보다 더 충격적이였어요. 대형 마트에서 파는 쥐포에서도 벌레 및 머리카락등이 발견되었다고 하니 쉽사리 쥐포에 손이가지 않았죠. 고민 끝에 원칙을 세우고 직접 모든 문제를 해결한 믿을 수 있는 쥐포를 만들어 보기로 했습니다.&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227202357655_27.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109111425657_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;h3&gt;&lt;strong&gt;1. 쥐포의 원재료가 되는 쥐치는 무조건 싱싱한 국내산 말쥐치를 쓴다&lt;/strong&gt;&lt;strong&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227202742425_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;서두에서도 언급했지만 베트남, 중국에서 제작되는 쥐포는 위생문제, 제품의 퀄리티문제(품질이 않좋은 쥐치)가 많습니다. 그래서 쥐치를 베트남, 중국에서 들여오지 않고 국내산쥐치만으로만 제작하기로 결의했습니다. 100%국내산 쥐포를 만든다는 것 자체부터 굉장히 큰 어려움이였습니다&lt;strong&gt;. 매입가격이 적게는 10배까지 차이가 나기 때문이죠&lt;/strong&gt;. 그래도 끝끝내 만들어 냈습니다.&amp;nbsp;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227205055421_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;더 나아가 국내산이지만 오래된 것, 상태가 좋지 않은 쥐치를 쓰지 않기위해&amp;nbsp;&lt;strong&gt;쥐포는 싱싱한 쥐포로 그때마다 만드려합니다. 펀딩이 끝나는 1월말쯤 쥐치를 수매하고 제작할 예정입니다&lt;/strong&gt;. 정리해보면 받으실 쥐포는 1달전쯤 바다속에서 헤엄치고 있던 쥐치들로 만들예정입니다. (아마&amp;nbsp;&lt;u&gt;싱싱한 쥐포&lt;/u&gt;는 처음들어 봤을 거에요!)&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&lt;strong&gt;2. 방부제, 화학식품첨가제는 일체넣지 않고 천연조미료로만 쓴다&lt;/strong&gt;&lt;/h3&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227205546512_27.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;쥐포에 자주 쓰이는 MSG로 유명한&lt;strong&gt;&amp;nbsp;L-글루탐산나트륨, D-솔비톨, 방부제 모두 넣지 않았습니다&lt;/strong&gt;. 대신 감칠맛을 내기위해 표고버섯 농가에서 좋은 표고버섯을 말려 가루를 냅니다. 그 가루에 설탕, 천일염만을 섞어 간을 하죠. [원재료 함량 쥐치어육(국산)94%, 소금(국산천일염)0.5%,설탕5%, 표고버섯가루(국산)0.5%]&amp;nbsp;&lt;strong&gt;아무리 먹어도 질리지 않고 물리지 않는 맛이에요.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227211133518_27.png/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;위 사진은 통상적으로 판매되고 있는 쥐포의 사진입니다 . 이런 방식은 여러마리의 쥐포를 서로 붙이면서 모양을 잡아가는 방식이에요. 하지만 메이커의 쥐포는 이렇게 생기지 않았습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1228/20171228160517487_63.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;쥐포 한마리를 잡으면 이렇게 딱 2면이 나옵니다&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227211604621_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;한 마리당 2면 그대로 포를 떠, 통상적인 쥐포처럼 짜집기 하지 않았습니다. 쥐포를 통상적인 쥐포 모양으로 만드려면 설탕이 5%보다 더 들어가야 서로 떨어지지 않죠. 설탕이 더들어가면 쥐치 본연의 맛을 해칠 것 같아 포뜬 그대로 상품을 만들기로 했습니다.&lt;/p&gt;
+&lt;h3&gt;3. 깨끗한 환경에서 만들어야 된다&lt;/h3&gt;
+&lt;p&gt;쥐포는 3대째 쥐포만 만들고 있는 장인에게 위탁생산합니다. HACCP급의 깨끗한 시설에서 만들어집니다 .&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1228/20171228112747394_68.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2017/1228/20171228112809277_68.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/p&gt;
+&lt;blockquote class="type-default"&gt;
+&lt;h3&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109111454080_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h3&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109130006206_77.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;농부대첩은 정말 좋은 먹거리만 전달하려합니다. 쥐포를 만들때도 같은 생각이였습니다. 좋은쥐포를 만들 수 있는데 왜하면 안될까? 하며 일을 저질렀습니다. 이런 쥐포를 누가먹겠어? 널리고 널린게 싼 쥐포인데 하며 손가락질 받기도 했습니다. 하지만 정말 좋은 쥐포를! 어디에 내놔도 부끄럽지 않은 쥐포를! 만들었음에 솔직히 너무 행복합니다.&lt;/p&gt;
+&lt;h2&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green002/2018/0109/20180109111555495_39.jpg/wadiz/format/jpg/quality/95/optimize" /&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227214933609_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
+&lt;p&gt;싱싱하고 잘 만들어진 쥐포는 한봉에 약 120g 입니다. 쥐포 약 15~17개정도 입니다. 쥐포 한마리로 포를 뜨면 2면이 나오니 약 8~9마리의 쥐치가 들어갑니다. 쥐치는 먼저 블랙지퍼백에 1차 포장을 합니다.&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227215007838_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;1차 포장이 끝난 후 쥐포가 담긴 블랙 지퍼백을 오른쪽 상단에 있는 고급 종이 박스에 포장합니다. 물론 부끄럽지 않은 쥐포 메이킹 스토리가 들어있는 책자도 같이 동봉합니다. &amp;nbsp;마지막으로 택배전용박스에 고급종이박스를 넣고 마무리합니다&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="돋움"/>
@@ -2921,21 +3303,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2948,7 +3318,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2956,326 +3326,604 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.29"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -3283,7 +3931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -3291,7 +3939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3299,7 +3947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -3307,7 +3955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -3315,7 +3963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -3323,7 +3971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -3331,246 +3979,265 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" spans="1:3" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
+    <col min="1" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>122</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_CONTENT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>PROJECT_ID</t>
   </si>
@@ -738,36 +738,6 @@
   </si>
   <si>
     <t>152189809208550</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;img src="resources/uploadImages/20180324223250.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;img src="resources/uploadImages/20180324223256.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
-&lt;p&gt;장식은 실버 장식으로 시크하면서 시원한 느낌을 나타내며, 골드장식과 달리 오래 사용해도&amp;nbsp;색상의 변색없이 사용할 수 있습니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;바닥면은 종이쇼핑백처럼 디자인하였고, 바닥 내부에는 동일한 원단을 겹으로하여 넣어두어 내부 수납물건이&amp;nbsp; 아래로 쳐지지 않고 가방 모양이 보존되도록 하였습니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;내부에는 동일 원단으로 만들어진 수납공간이 있어서 편리하게 활용할 수 있습니다.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;hr /&gt;
-&lt;h2&gt;&lt;strong&gt;- 네모토트백 색상보기&lt;/strong&gt;&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&lt;strong&gt;블 랙[BLACK]&lt;/strong&gt;&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223401.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223409.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr /&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&lt;strong&gt;카 멜[CAMEL]&lt;/strong&gt;&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223425.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223436.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr /&gt;
-&lt;h2&gt;&lt;strong&gt;아이보리[IVORY]&lt;/strong&gt;&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223453.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223502.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr /&gt;
-&lt;h2&gt;&lt;strong&gt;버건디[BURGUNDY]&lt;/strong&gt;&lt;/h2&gt;
-&lt;p&gt;&lt;img src="resources/uploadImages/20180324223518.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;img src="resources/uploadImages/20180324223523.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>152192366633051</t>
@@ -1716,9 +1686,6 @@
 &lt;/blockquote&gt;</t>
   </si>
   <si>
-    <t>15220381836964</t>
-  </si>
-  <si>
     <t>&lt;div class="campaign-summary"&gt;이 프로젝트는 장애문화예술의 발전과 장애인과 비장애인이 함께하는 세상을 만들기 위한 프로젝트입니다. 극단'휠'의 12월 정기공연 [헬로, 오즈]에 여러분을 초대합니다!&lt;/div&gt;
 &lt;div class="wd-ui-campaign-content"&gt;
 &lt;div class="wd-ui-cont"&gt;&lt;br /&gt;
@@ -3290,6 +3257,41 @@
 &lt;p&gt;&lt;br /&gt;&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227214933609_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;&lt;/p&gt;
 &lt;p&gt;싱싱하고 잘 만들어진 쥐포는 한봉에 약 120g 입니다. 쥐포 약 15~17개정도 입니다. 쥐포 한마리로 포를 뜨면 2면이 나오니 약 8~9마리의 쥐치가 들어갑니다. 쥐치는 먼저 블랙지퍼백에 1차 포장을 합니다.&lt;img class="fr-fic fr-dib" src="https://cdn.wadiz.kr/ft/images/green001/2017/1227/20171227215007838_27.jpg/wadiz/format/jpg/quality/95/optimize" width="700" /&gt;1차 포장이 끝난 후 쥐포가 담긴 블랙 지퍼백을 오른쪽 상단에 있는 고급 종이 박스에 포장합니다. 물론 부끄럽지 않은 쥐포 메이킹 스토리가 들어있는 책자도 같이 동봉합니다. &amp;nbsp;마지막으로 택배전용박스에 고급종이박스를 넣고 마무리합니다&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>&lt;p&gt;보네비에서 봄을 맞이하여 네모 토트백을 준비하였습니다.&amp;nbsp;&lt;br /&gt;이번에 준비한 가방은&amp;nbsp;&lt;br /&gt;&lt;strong&gt;미니멀, 심플, 실용적&lt;/strong&gt;&amp;nbsp;이 3가지 키워드를 생각하면서 이 상품을 준비하였습니다.&lt;br /&gt;간결하면서 튼튼하며 실용적인 가방을 만들고자 고민하다가&amp;nbsp;&lt;br /&gt;종이 쇼핑백에서 착안해서 스퀘어 디자인으로 샘플링을 하게 되었습니다.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180324223250.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180324223256.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
+&lt;p&gt;장식은 실버 장식으로 시크하면서 시원한 느낌을 나타내며, 골드장식과 달리 오래 사용해도&amp;nbsp;색상의 변색없이 사용할 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;바닥면은 종이쇼핑백처럼 디자인하였고, 바닥 내부에는 동일한 원단을 겹으로하여 넣어두어 내부 수납물건이&amp;nbsp; 아래로 쳐지지 않고 가방 모양이 보존되도록 하였습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;내부에는 동일 원단으로 만들어진 수납공간이 있어서 편리하게 활용할 수 있습니다.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;- 네모토트백 색상보기&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;블 랙[BLACK]&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223401.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223409.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&lt;strong&gt;카 멜[CAMEL]&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223425.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223436.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;아이보리[IVORY]&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223453.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;img src="resources/uploadImages/20180324223502.jpg" alt="" width="620" height="620" /&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;h2&gt;&lt;strong&gt;버건디[BURGUNDY]&lt;/strong&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180324223518.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="resources/uploadImages/20180324223523.jpg" alt="" width="620" height="620" /&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152206030799521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3329,7 +3331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3341,6 +3343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3661,13 +3664,13 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="71.33203125" customWidth="1"/>
     <col min="4" max="1025" width="8.33203125" customWidth="1"/>
@@ -3816,16 +3819,25 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>37</v>
       </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
@@ -3840,376 +3852,376 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4232,7 +4244,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
